--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E685C-52B3-4BE8-9D78-D2BBF75C0177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A536E-45CF-42A4-AB0A-C89A0F7F0F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="8" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="2" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -353,6 +353,102 @@
   <si>
     <t>Fig A-25, Schmidt, Frank F. The engineering properties of tungsten and tungsten alloys. Vol. 191. Defense Metals Information Center, Battelle Memorial Institute, 1963.</t>
   </si>
+  <si>
+    <t>Specific enthalpy (KJ/g)</t>
+  </si>
+  <si>
+    <t>Density (g/cm^3)</t>
+  </si>
+  <si>
+    <t>W Seydel</t>
+  </si>
+  <si>
+    <t>W Hixson&amp;Winkler</t>
+  </si>
+  <si>
+    <t>W Berthault</t>
+  </si>
+  <si>
+    <t>W Miller&amp;Cezairliyan</t>
+  </si>
+  <si>
+    <t>W Petukhov&amp;Chekhovskoi</t>
+  </si>
+  <si>
+    <t>Fig 4. Korobenko, V. N., and A. D. Rakhel. "On the electronic specific heat of liquid tungsten." Journal of Physics: Condensed Matter 26.4 (2014): 045701.</t>
+  </si>
+  <si>
+    <t>Joule heat (KJ/g)</t>
+  </si>
+  <si>
+    <t>Resistivity (mu ohm m)</t>
+  </si>
+  <si>
+    <t>Fig 6. Korobenko, V. N., and A. D. Rakhel. "On the electronic specific heat of liquid tungsten." Journal of Physics: Condensed Matter 26.4 (2014): 045701.</t>
+  </si>
+  <si>
+    <t>Cycles to failure (N)</t>
+  </si>
+  <si>
+    <t>Stress (Mpa)</t>
+  </si>
+  <si>
+    <t>W RLU</t>
+  </si>
+  <si>
+    <t>W RLP</t>
+  </si>
+  <si>
+    <t>W FU</t>
+  </si>
+  <si>
+    <t>W FP</t>
+  </si>
+  <si>
+    <t>Fig 8. Habainy, Jemila, et al. "Fatigue behavior of rolled and forged tungsten at 25, 280 and 480 C." Journal of Nuclear Materials 465 (2015): 438-447.</t>
+  </si>
+  <si>
+    <t>W 280C RLP</t>
+  </si>
+  <si>
+    <t>W 280 FU</t>
+  </si>
+  <si>
+    <t>W 280 FP</t>
+  </si>
+  <si>
+    <t>W 480 FP</t>
+  </si>
+  <si>
+    <t>Fig 9. Habainy, Jemila, et al. "Fatigue behavior of rolled and forged tungsten at 25, 280 and 480 C." Journal of Nuclear Materials 465 (2015): 438-447.</t>
+  </si>
+  <si>
+    <t>Cp</t>
+  </si>
+  <si>
+    <r>
+      <t>Lowentha, G. C. "The specific heat of metals between 1200 K and 2400 K." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Australian Journal of Physics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 16.1 (1963): 47-67.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +458,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +499,19 @@
       <name val="Montserrat"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -425,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,6 +578,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -491,23 +603,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>134071</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>29137</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>791355</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76769</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62269C0-85DF-E0F2-C8C5-79029272DC59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C76DF4-BB56-8DBE-6D6A-B4DC0306B4A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,8 +635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3829050"/>
-          <a:ext cx="5163271" cy="4029637"/>
+          <a:off x="990600" y="4953000"/>
+          <a:ext cx="5591955" cy="4077269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,6 +649,197 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BDBBF1-C200-4EFC-29E6-71B1237BCD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="5886450"/>
+          <a:ext cx="4152900" cy="3284779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>772311</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83FF577-FF12-20AF-B98C-CCAEB381E4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="3486150"/>
+          <a:ext cx="5630061" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619605</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1B0B9E-6740-DCF6-0ED2-15351F9EC262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="3439005" cy="2657846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619593</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>105155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD601FB-4FF8-F790-0A77-6F4E87F4783E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="3667125"/>
+          <a:ext cx="3353268" cy="2724530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -629,7 +932,242 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257954</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4624EC3D-51B5-69E5-08F5-6DDF322FF0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="4762500"/>
+          <a:ext cx="5582429" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>467471</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4A57A8-1C9C-6F6F-EF8A-DAED66EF9ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401050" y="4762500"/>
+          <a:ext cx="5344271" cy="2772162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134071</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62269C0-85DF-E0F2-C8C5-79029272DC59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3829050"/>
+          <a:ext cx="5163271" cy="4029637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>181662</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAD435FE-4931-6D65-8FEE-269CBDFA32ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4953000"/>
+          <a:ext cx="4925112" cy="1848108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5953956" cy="4153480"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF08C238-98F3-4868-8E7A-8E49FBB66C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="5143500"/>
+          <a:ext cx="5953956" cy="4153480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -678,7 +1216,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -727,7 +1265,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -776,7 +1314,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -825,7 +1363,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -863,197 +1401,6 @@
         <a:xfrm>
           <a:off x="0" y="1905000"/>
           <a:ext cx="4936097" cy="2809875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46279</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BDBBF1-C200-4EFC-29E6-71B1237BCD5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="5886450"/>
-          <a:ext cx="4152900" cy="3284779"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>772311</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83FF577-FF12-20AF-B98C-CCAEB381E4DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8029575" y="3486150"/>
-          <a:ext cx="5630061" cy="2934109"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619605</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>181346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1B0B9E-6740-DCF6-0ED2-15351F9EC262}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2476500"/>
-          <a:ext cx="3439005" cy="2657846"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619593</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>105155</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD601FB-4FF8-F790-0A77-6F4E87F4783E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="209550" y="3667125"/>
-          <a:ext cx="3353268" cy="2724530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1382,26 +1729,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AFBB79-7160-4576-990E-E539762E50F4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.615434995797141</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17.549166433174499</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.34505813953488301</v>
+      </c>
+      <c r="E4" s="1">
+        <v>17.689815074250401</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.24552745867189599</v>
+      </c>
+      <c r="H4" s="1">
+        <v>18.456479405995999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.16088189969179001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>18.934512468478498</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.29402843933875</v>
+      </c>
+      <c r="N4" s="1">
+        <v>18.6651933314653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.884074670776127</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16.343849817876102</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.39790907817315702</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17.540298402913901</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.29838189969179002</v>
+      </c>
+      <c r="H5" s="1">
+        <v>18.297012468478499</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.201019193051274</v>
+      </c>
+      <c r="K5" s="1">
+        <v>18.904462034183201</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.304595124684785</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18.645240263379002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.91790417483888997</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16.234228775567299</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.446574670776127</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17.281349817876102</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.34489002521714701</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18.167427850938601</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.23272275147099999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>18.834652563743301</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.401800224152423</v>
+      </c>
+      <c r="N6" s="1">
+        <v>18.485552675819498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.98133230596805798</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16.034908237601499</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.49730666853460298</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17.1517441860465</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.39773746147380201</v>
+      </c>
+      <c r="H7" s="1">
+        <v>18.027861445783099</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.27710142897169998</v>
+      </c>
+      <c r="K7" s="1">
+        <v>18.7548297842532</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.52016671336508802</v>
+      </c>
+      <c r="N7" s="1">
+        <v>18.2063568226393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>1.04054707200896</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15.805757915382401</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.54380078453348202</v>
+      </c>
+      <c r="E8" s="1">
+        <v>17.061960633230498</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.44852899971980897</v>
+      </c>
+      <c r="H8" s="1">
+        <v>17.7291012888764</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.31303586438778302</v>
+      </c>
+      <c r="K8" s="1">
+        <v>18.665098767161599</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.61950476323900205</v>
+      </c>
+      <c r="N8" s="1">
+        <v>17.9869571308489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1.10400322219109</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15.5268352479686</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.61143177360605205</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16.922320678060998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.49715256374334499</v>
+      </c>
+      <c r="H9" s="1">
+        <v>17.589555898010602</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.34684785654244799</v>
+      </c>
+      <c r="K9" s="1">
+        <v>18.605229055757899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1.16956780610815</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15.257852339590899</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.86923507985430004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16.503127626786199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.54783552815914804</v>
+      </c>
+      <c r="H10" s="1">
+        <v>17.599253992714999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.38277878957691203</v>
+      </c>
+      <c r="K10" s="1">
+        <v>18.525448304847199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1.22669865508545</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14.949110395068599</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.90308559820678003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>16.3338049873914</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.596459092182684</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17.459708601849201</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.42716447184085099</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18.4257249929952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1.2880533762958799</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14.640347436256601</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.95594704398991304</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16.154437517511901</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.61759596525637395</v>
+      </c>
+      <c r="H12" s="1">
+        <v>17.409852199495599</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.46943821798823099</v>
+      </c>
+      <c r="K12" s="1">
+        <v>18.326012188288001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1.3536459792658999</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14.291762398430899</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.0003957691230001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>15.875609414401699</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.867175679462034</v>
+      </c>
+      <c r="H13" s="1">
+        <v>16.353884141216</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.53916713365088198</v>
+      </c>
+      <c r="K13" s="1">
+        <v>18.2261627906976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1.4213470159708499</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13.9531171196413</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.0469249089380701</v>
+      </c>
+      <c r="E14" s="1">
+        <v>15.686323199775799</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.94750980666853402</v>
+      </c>
+      <c r="H14" s="1">
+        <v>16.1246287475483</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.58989562902773796</v>
+      </c>
+      <c r="K14" s="1">
+        <v>18.106507425048999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>1.10609764639955</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15.576576071728701</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0024796861866001</v>
+      </c>
+      <c r="H15" s="1">
+        <v>15.955201036704899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>1.15054286915102</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15.3076982347996</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.04900532362006</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15.77586508826</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>1.2013133931073099</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15.0686396749789</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.1018807789296701</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15.556696553656399</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>1.2478565424488599</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14.839552395628999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.14840641636312</v>
+      </c>
+      <c r="H18" s="1">
+        <v>15.3773606052115</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>1.3049103390305401</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14.7497163070888</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.1970544970579899</v>
+      </c>
+      <c r="H19" s="1">
+        <v>15.1681633510787</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>1.3556878677500599</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14.4907572149061</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.24991944522275</v>
+      </c>
+      <c r="H20" s="1">
+        <v>14.9788456150182</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="1">
+        <v>1.4001435976463901</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14.192028579434</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.3028019052955999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>14.7397765480526</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>1.35145699075371</v>
+      </c>
+      <c r="H22" s="1">
+        <v>14.5106787615578</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>1.40433594844494</v>
+      </c>
+      <c r="H23" s="1">
+        <v>14.281559960773301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A49:N49"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3090,19 +3950,695 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="O56" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="13"/>
+      <c r="S1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="T1" s="13"/>
+      <c r="V1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="13"/>
+    </row>
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1.00261006363414</v>
+      </c>
+      <c r="B4" s="2">
+        <v>318.10307736797898</v>
+      </c>
+      <c r="D4">
+        <v>135.53420787465399</v>
+      </c>
+      <c r="E4">
+        <v>288.750643616383</v>
+      </c>
+      <c r="G4">
+        <v>1.0233632938778701</v>
+      </c>
+      <c r="H4">
+        <v>212.57115046869299</v>
+      </c>
+      <c r="J4">
+        <v>68632.290320861197</v>
+      </c>
+      <c r="K4">
+        <v>187.34491490157001</v>
+      </c>
+      <c r="M4">
+        <v>12.187518850934399</v>
+      </c>
+      <c r="N4">
+        <v>264.49294649986598</v>
+      </c>
+      <c r="P4">
+        <v>556.18328842665005</v>
+      </c>
+      <c r="Q4">
+        <v>311.40537663028999</v>
+      </c>
+      <c r="S4">
+        <v>86.005420205111093</v>
+      </c>
+      <c r="T4">
+        <v>221.87520232502899</v>
+      </c>
+      <c r="V4">
+        <v>1.0021805778647499</v>
+      </c>
+      <c r="W4">
+        <v>222.46868907768501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1.0074578810619701</v>
+      </c>
+      <c r="B5" s="2">
+        <v>160.97427650465099</v>
+      </c>
+      <c r="D5">
+        <v>318.90452265865298</v>
+      </c>
+      <c r="E5">
+        <v>263.53851470972</v>
+      </c>
+      <c r="G5">
+        <v>4055.6836545741699</v>
+      </c>
+      <c r="H5">
+        <v>225.42231814751301</v>
+      </c>
+      <c r="J5">
+        <v>98642.625401283294</v>
+      </c>
+      <c r="K5">
+        <v>171.446708563448</v>
+      </c>
+      <c r="M5">
+        <v>25.3042411881313</v>
+      </c>
+      <c r="N5">
+        <v>301.68837988907097</v>
+      </c>
+      <c r="P5">
+        <v>3259.0624123091302</v>
+      </c>
+      <c r="Q5">
+        <v>324.06103201950901</v>
+      </c>
+      <c r="S5">
+        <v>230.22326744910399</v>
+      </c>
+      <c r="T5">
+        <v>217.13989741671401</v>
+      </c>
+      <c r="V5">
+        <v>441.26843352043801</v>
+      </c>
+      <c r="W5">
+        <v>272.76219525354401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>48.115249238566101</v>
+      </c>
+      <c r="B6" s="2">
+        <v>349.11657038870902</v>
+      </c>
+      <c r="D6">
+        <v>668.89202318775403</v>
+      </c>
+      <c r="E6">
+        <v>275.36518617265102</v>
+      </c>
+      <c r="G6">
+        <v>38814.940149383299</v>
+      </c>
+      <c r="H6">
+        <v>213.53393004507001</v>
+      </c>
+      <c r="J6">
+        <v>244986.869816828</v>
+      </c>
+      <c r="K6">
+        <v>186.57962857163</v>
+      </c>
+      <c r="M6">
+        <v>48.912041878142603</v>
+      </c>
+      <c r="N6">
+        <v>263.847304850765</v>
+      </c>
+      <c r="P6">
+        <v>124042.20596250601</v>
+      </c>
+      <c r="Q6">
+        <v>257.73798818781501</v>
+      </c>
+      <c r="S6">
+        <v>2023915.6322786501</v>
+      </c>
+      <c r="T6">
+        <v>246.31606586623801</v>
+      </c>
+      <c r="V6">
+        <v>1498.7266684270401</v>
+      </c>
+      <c r="W6">
+        <v>179.59736419943999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>70.987484273774001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>336.97426239799103</v>
+      </c>
+      <c r="D7">
+        <v>3867.99569015314</v>
+      </c>
+      <c r="E7">
+        <v>313.12695289080699</v>
+      </c>
+      <c r="G7">
+        <v>95022.035587878301</v>
+      </c>
+      <c r="H7">
+        <v>201.46039202409401</v>
+      </c>
+      <c r="J7">
+        <v>285848.11938162998</v>
+      </c>
+      <c r="K7">
+        <v>156.58181510400101</v>
+      </c>
+      <c r="M7">
+        <v>2024418.5655740199</v>
+      </c>
+      <c r="N7">
+        <v>250.92008431108701</v>
+      </c>
+      <c r="P7">
+        <v>2057123.1543520801</v>
+      </c>
+      <c r="Q7">
+        <v>297.87927400384098</v>
+      </c>
+      <c r="S7">
+        <v>1995206.13059101</v>
+      </c>
+      <c r="T7">
+        <v>231.58500528742701</v>
+      </c>
+      <c r="V7">
+        <v>1669.99740146197</v>
+      </c>
+      <c r="W7">
+        <v>184.64739693113299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>73.756951479329103</v>
+      </c>
+      <c r="B8" s="2">
+        <v>323.84625150764901</v>
+      </c>
+      <c r="D8">
+        <v>65376.460072395297</v>
+      </c>
+      <c r="E8">
+        <v>251.597226630553</v>
+      </c>
+      <c r="G8">
+        <v>463243.87632972101</v>
+      </c>
+      <c r="H8">
+        <v>202.144565056391</v>
+      </c>
+      <c r="J8">
+        <v>201164.17776252801</v>
+      </c>
+      <c r="K8">
+        <v>141.99376485607601</v>
+      </c>
+      <c r="M8">
+        <v>2028496.93398541</v>
+      </c>
+      <c r="N8">
+        <v>288.21263371436299</v>
+      </c>
+      <c r="P8">
+        <v>2027338.0442039301</v>
+      </c>
+      <c r="Q8">
+        <v>277.62339129121102</v>
+      </c>
+      <c r="S8">
+        <v>2020950.86806897</v>
+      </c>
+      <c r="T8">
+        <v>219.15235704163001</v>
+      </c>
+      <c r="V8">
+        <v>30805.894903933699</v>
+      </c>
+      <c r="W8">
+        <v>197.150184520426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>303.52458070095003</v>
+      </c>
+      <c r="B9" s="2">
+        <v>311.84324678897099</v>
+      </c>
+      <c r="D9">
+        <v>125382.01838376799</v>
+      </c>
+      <c r="E9">
+        <v>289.67815654161097</v>
+      </c>
+      <c r="G9">
+        <v>692334.74965581903</v>
+      </c>
+      <c r="H9">
+        <v>188.596881017372</v>
+      </c>
+      <c r="J9">
+        <v>375170.98830905597</v>
+      </c>
+      <c r="K9">
+        <v>142.078404818835</v>
+      </c>
+      <c r="M9">
+        <v>2027136.5657502499</v>
+      </c>
+      <c r="N9">
+        <v>275.781783913271</v>
+      </c>
+      <c r="P9">
+        <v>2026784.0266356701</v>
+      </c>
+      <c r="Q9">
+        <v>272.55897100187701</v>
+      </c>
+      <c r="S9">
+        <v>1992629.9600145</v>
+      </c>
+      <c r="T9">
+        <v>207.644109374213</v>
+      </c>
+      <c r="V9">
+        <v>313637.72053337301</v>
+      </c>
+      <c r="W9">
+        <v>196.38045018667799</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>47992.330562807401</v>
+      </c>
+      <c r="B10" s="2">
+        <v>299.86669205865502</v>
+      </c>
+      <c r="D10">
+        <v>246609.60496508999</v>
+      </c>
+      <c r="E10">
+        <v>313.69121930919601</v>
+      </c>
+      <c r="G10">
+        <v>1981968.96294319</v>
+      </c>
+      <c r="H10">
+        <v>189.20875741481299</v>
+      </c>
+      <c r="J10">
+        <v>1975557.6603331999</v>
+      </c>
+      <c r="K10">
+        <v>126.825578196745</v>
+      </c>
+      <c r="M10">
+        <v>1969153.2070065101</v>
+      </c>
+      <c r="N10">
+        <v>238.03242955491999</v>
+      </c>
+      <c r="P10">
+        <v>2023111.1988796899</v>
+      </c>
+      <c r="Q10">
+        <v>238.94963635447999</v>
+      </c>
+      <c r="S10">
+        <v>2045756.6589603301</v>
+      </c>
+      <c r="T10">
+        <v>195.209662683711</v>
+      </c>
+      <c r="V10">
+        <v>1989908.78381142</v>
+      </c>
+      <c r="W10">
+        <v>182.32200792754401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>58390.312936327296</v>
+      </c>
+      <c r="B11" s="2">
+        <v>325.69069736275901</v>
+      </c>
+      <c r="D11">
+        <v>644215.37268860498</v>
+      </c>
+      <c r="E11">
+        <v>301.62649795100702</v>
+      </c>
+      <c r="G11">
+        <v>1980762.24497348</v>
+      </c>
+      <c r="H11">
+        <v>177.48259590765699</v>
+      </c>
+      <c r="J11">
+        <v>2002888.75044135</v>
+      </c>
+      <c r="K11">
+        <v>141.367781798176</v>
+      </c>
+      <c r="P11">
+        <v>2018692.5270107901</v>
+      </c>
+      <c r="Q11">
+        <v>198.43427403980999</v>
+      </c>
+      <c r="S11">
+        <v>2067936.14156166</v>
+      </c>
+      <c r="T11">
+        <v>145.02406319015299</v>
+      </c>
+      <c r="V11">
+        <v>1988623.7034861599</v>
+      </c>
+      <c r="W11">
+        <v>170.35155997093699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>197743.551426791</v>
+      </c>
+      <c r="B12" s="2">
+        <v>311.785056814575</v>
+      </c>
+      <c r="D12">
+        <v>579524.21084876102</v>
+      </c>
+      <c r="E12">
+        <v>264.08867446764998</v>
+      </c>
+      <c r="G12">
+        <v>1983321.3598671299</v>
+      </c>
+      <c r="H12">
+        <v>202.34205830282701</v>
+      </c>
+      <c r="J12">
+        <v>2004548.40147959</v>
+      </c>
+      <c r="K12">
+        <v>157.31536144790701</v>
+      </c>
+      <c r="P12">
+        <v>1986154.7272727001</v>
+      </c>
+      <c r="Q12">
+        <v>147.331467746692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>253239.59042427401</v>
+      </c>
+      <c r="B13" s="2">
+        <v>324.48281456089398</v>
+      </c>
+      <c r="D13">
+        <v>1993639.49270157</v>
+      </c>
+      <c r="E13">
+        <v>302.248954343793</v>
+      </c>
+      <c r="J13">
+        <v>2032280.5674836801</v>
+      </c>
+      <c r="K13">
+        <v>171.85756504933801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>263651.90566811501</v>
+      </c>
+      <c r="B14" s="2">
+        <v>350.28565987430898</v>
+      </c>
+      <c r="D14">
+        <v>1992377.13158533</v>
+      </c>
+      <c r="E14">
+        <v>290.053746376351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1946085.2130881499</v>
+      </c>
+      <c r="B15" s="2">
+        <v>337.42391220014503</v>
+      </c>
+      <c r="D15">
+        <v>1991018.5596672201</v>
+      </c>
+      <c r="E15">
+        <v>276.92044548833701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1993493.7948397701</v>
+      </c>
+      <c r="B16" s="2">
+        <v>300.841814962934</v>
+      </c>
+      <c r="D16">
+        <v>1964040.8255652401</v>
+      </c>
+      <c r="E16">
+        <v>264.25442772805098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2018121.01975356</v>
+      </c>
+      <c r="B17" s="2">
+        <v>287.24123094719101</v>
+      </c>
+      <c r="D17">
+        <v>1962749.3903688199</v>
+      </c>
+      <c r="E17">
+        <v>251.59017330032299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>439755.03130429401</v>
+      </c>
+      <c r="B18" s="2">
+        <v>200.26132588501599</v>
+      </c>
+      <c r="D18">
+        <v>1961506.5886885801</v>
+      </c>
+      <c r="E18">
+        <v>239.39496533288099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>456911.39555828198</v>
+      </c>
+      <c r="B19" s="2">
+        <v>187.13331499467401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>119874.206488483</v>
+      </c>
+      <c r="B20" s="2">
+        <v>174.75648377381299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1952448.4320670101</v>
+      </c>
+      <c r="B21" s="2">
+        <v>150.27613787849899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1975365.1607884699</v>
+      </c>
+      <c r="B22" s="2">
+        <v>124.9493923556</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="M40" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="M40:W40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3489,21 +5025,680 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234A6B1F-5943-445E-8C13-06397E85A588}">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1261.58329653693</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.2296494880043696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1352.6121238882199</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.1632982190542194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1430.4876048697399</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.0971656258542009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1499.2518766164101</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.02120944511028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1602.41468491768</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.9396938539498301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1624.6641014319</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.9193738304001302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1683.3179839777899</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.85854832944342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1714.6710401816599</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.8330894257658903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1783.44288147353</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.7720957126936998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1811.74288778149</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.7117748480834303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1876.4902542105499</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7.6957358228726402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1912.8745347883601</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7.61533043167434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1928.0893206333101</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.6898904518597897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1957.3935532706701</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7.6145902983662399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1998.85195231186</v>
+      </c>
+      <c r="B18" s="2">
+        <v>7.5640257364536598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2036.24802876427</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7.4836035240438097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2073.6516747618698</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7.4181437793056997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2154.5373115498601</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7.3020858302319196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2226.311739103</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7.1762042936142398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2288.9825269664998</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7.0554616371244103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2357.7089509871898</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.9046931180218198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2401.1682331419902</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.8092075106709498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
+  <dimension ref="A1:Y52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="26" width="12.5703125" style="2" customWidth="1"/>
     <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D1" s="13"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.86962426160691997</v>
+      </c>
+      <c r="B4">
+        <v>1.16772425992658</v>
+      </c>
+      <c r="D4">
+        <v>0.16409855323075101</v>
+      </c>
+      <c r="E4">
+        <v>0.38138432185460103</v>
+      </c>
+      <c r="G4">
+        <v>0.35038212366966998</v>
+      </c>
+      <c r="H4">
+        <v>0.76925550424590305</v>
+      </c>
+      <c r="J4">
+        <v>0.91728469931915801</v>
+      </c>
+      <c r="K4">
+        <v>1.1243372220380601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.94893764578823703</v>
+      </c>
+      <c r="B5">
+        <v>1.1524935421634399</v>
+      </c>
+      <c r="D5">
+        <v>0.18939066435900501</v>
+      </c>
+      <c r="E5">
+        <v>0.418215758190491</v>
+      </c>
+      <c r="G5">
+        <v>0.40092968405101398</v>
+      </c>
+      <c r="H5">
+        <v>0.86025944386990505</v>
+      </c>
+      <c r="J5">
+        <v>1.05053686733442</v>
+      </c>
+      <c r="K5">
+        <v>1.0960617508183901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.0028855950909701</v>
+      </c>
+      <c r="B6">
+        <v>1.13511352196886</v>
+      </c>
+      <c r="D6">
+        <v>0.205169018882393</v>
+      </c>
+      <c r="E6">
+        <v>0.45505406862797398</v>
+      </c>
+      <c r="G6">
+        <v>0.457883907117139</v>
+      </c>
+      <c r="H6">
+        <v>0.92091193359312296</v>
+      </c>
+      <c r="J6">
+        <v>1.1679006952008</v>
+      </c>
+      <c r="K6">
+        <v>1.0829711700179101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.05365312672329</v>
+      </c>
+      <c r="B7">
+        <v>1.12207105987953</v>
+      </c>
+      <c r="D7">
+        <v>0.21460028626814101</v>
+      </c>
+      <c r="E7">
+        <v>0.49406459516888102</v>
+      </c>
+      <c r="G7">
+        <v>0.50207979762644905</v>
+      </c>
+      <c r="H7">
+        <v>1.0162557226895701</v>
+      </c>
+      <c r="J7">
+        <v>1.41533627341204</v>
+      </c>
+      <c r="K7">
+        <v>1.0459426761030199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.10441607562122</v>
+      </c>
+      <c r="B8">
+        <v>1.1111962311592301</v>
+      </c>
+      <c r="D8">
+        <v>0.230383223525925</v>
+      </c>
+      <c r="E8">
+        <v>0.52873527223733596</v>
+      </c>
+      <c r="G8">
+        <v>0.87579720483753398</v>
+      </c>
+      <c r="H8">
+        <v>1.24792211184621</v>
+      </c>
+      <c r="J8">
+        <v>1.5358713534800501</v>
+      </c>
+      <c r="K8">
+        <v>1.03284980393534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.1488456855847</v>
+      </c>
+      <c r="B9">
+        <v>1.09599071843527</v>
+      </c>
+      <c r="D9">
+        <v>0.25250408245255701</v>
+      </c>
+      <c r="E9">
+        <v>0.56556899994042398</v>
+      </c>
+      <c r="G9">
+        <v>0.91070389272735297</v>
+      </c>
+      <c r="H9">
+        <v>1.2370587399619</v>
+      </c>
+      <c r="J9">
+        <v>1.66273518974811</v>
+      </c>
+      <c r="K9">
+        <v>1.02625524914035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1.1996269654202101</v>
+      </c>
+      <c r="B10">
+        <v>1.0764453562388501</v>
+      </c>
+      <c r="D10">
+        <v>0.26829618517913101</v>
+      </c>
+      <c r="E10">
+        <v>0.59590441027082397</v>
+      </c>
+      <c r="G10">
+        <v>0.95196225048920702</v>
+      </c>
+      <c r="H10">
+        <v>1.2218555186051301</v>
+      </c>
+      <c r="J10">
+        <v>1.78959902601618</v>
+      </c>
+      <c r="K10">
+        <v>1.0196606943453601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1.25039907978693</v>
+      </c>
+      <c r="B11">
+        <v>1.0612352607805</v>
+      </c>
+      <c r="D11">
+        <v>0.28407912243691402</v>
+      </c>
+      <c r="E11">
+        <v>0.63057508733927903</v>
+      </c>
+      <c r="G11">
+        <v>1.00272978212153</v>
+      </c>
+      <c r="H11">
+        <v>1.2088130565158</v>
+      </c>
+      <c r="J11">
+        <v>1.9132870273482301</v>
+      </c>
+      <c r="K11">
+        <v>1.0152360642865901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.2979953592176301</v>
+      </c>
+      <c r="B12">
+        <v>1.0481950900583601</v>
+      </c>
+      <c r="D12">
+        <v>0.29668622475868001</v>
+      </c>
+      <c r="E12">
+        <v>0.66741568914395999</v>
+      </c>
+      <c r="G12">
+        <v>1.05351564469143</v>
+      </c>
+      <c r="H12">
+        <v>1.1871000609503599</v>
+      </c>
+      <c r="J12">
+        <v>2.0369750286802701</v>
+      </c>
+      <c r="K12">
+        <v>1.01081143422783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.34876747358435</v>
+      </c>
+      <c r="B13">
+        <v>1.03298499460001</v>
+      </c>
+      <c r="D13">
+        <v>0.32515875355734702</v>
+      </c>
+      <c r="E13">
+        <v>0.69990956737459697</v>
+      </c>
+      <c r="G13">
+        <v>1.1106302634614</v>
+      </c>
+      <c r="H13">
+        <v>1.1718853827576099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.4058820923543101</v>
+      </c>
+      <c r="B14">
+        <v>1.01777031640725</v>
+      </c>
+      <c r="D14">
+        <v>0.34410836028235697</v>
+      </c>
+      <c r="E14">
+        <v>0.73674558644488197</v>
+      </c>
+      <c r="G14">
+        <v>1.1550552906904801</v>
+      </c>
+      <c r="H14">
+        <v>1.1588475034026799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.36307171521055298</v>
+      </c>
+      <c r="E15">
+        <v>0.76707870540808398</v>
+      </c>
+      <c r="G15">
+        <v>1.2026653183243601</v>
+      </c>
+      <c r="H15">
+        <v>1.13930443257346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.38518340866839401</v>
+      </c>
+      <c r="E16">
+        <v>0.80824769984922695</v>
+      </c>
+      <c r="G16">
+        <v>1.2566041021583101</v>
+      </c>
+      <c r="H16">
+        <v>1.1262596791169299</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.41047551979664798</v>
+      </c>
+      <c r="E17">
+        <v>0.84507913618511699</v>
+      </c>
+      <c r="G17">
+        <v>1.3010291293873899</v>
+      </c>
+      <c r="H17">
+        <v>1.113221799762</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.43577679639369299</v>
+      </c>
+      <c r="E18">
+        <v>0.87757530578295195</v>
+      </c>
+      <c r="G18">
+        <v>1.3613241658277699</v>
+      </c>
+      <c r="H18">
+        <v>1.0936695634639899</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.45472640311870299</v>
+      </c>
+      <c r="E19">
+        <v>0.91441132485323695</v>
+      </c>
+      <c r="G19">
+        <v>1.4184571155353101</v>
+      </c>
+      <c r="H19">
+        <v>1.06978435179513</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.47368517531250398</v>
+      </c>
+      <c r="E20">
+        <v>0.94691207718546699</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.50215312137677504</v>
+      </c>
+      <c r="E21">
+        <v>0.98157358878513201</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0.53061648470665101</v>
+      </c>
+      <c r="E22">
+        <v>1.01840273375382</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0.56225110023814895</v>
+      </c>
+      <c r="E23">
+        <v>1.0552295873553099</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.58755237683519401</v>
+      </c>
+      <c r="E24">
+        <v>1.08772575695315</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.61601574016506999</v>
+      </c>
+      <c r="E25">
+        <v>1.1245549019218399</v>
+      </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y36" s="5"/>
@@ -3514,69 +5709,39 @@
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
+    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A52:K52"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
-  <dimension ref="A1:V39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="26" width="12.5703125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V39" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4804,7 +6969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B499B7-5D41-461D-8465-819EE01970F8}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A536E-45CF-42A4-AB0A-C89A0F7F0F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02EA7B-2D63-4F24-8E6D-E682D2AE1F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="2" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="3" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <t>W-Single Crystal</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fig 8. Properties of Tungsten
- and its Alloys Digital Materials Solutions, Inc.</t>
-  </si>
-  <si>
     <t>Thermal Emissivity</t>
   </si>
   <si>
@@ -381,9 +377,6 @@
     <t>Joule heat (KJ/g)</t>
   </si>
   <si>
-    <t>Resistivity (mu ohm m)</t>
-  </si>
-  <si>
     <t>Fig 6. Korobenko, V. N., and A. D. Rakhel. "On the electronic specific heat of liquid tungsten." Journal of Physics: Condensed Matter 26.4 (2014): 045701.</t>
   </si>
   <si>
@@ -448,6 +441,12 @@
       </rPr>
       <t> 16.1 (1963): 47-67.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fig 8. Properties of Tungsten and its Alloys Digital Materials Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>Resistivity (mu Omega m)</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AFBB79-7160-4576-990E-E539762E50F4}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:N49"/>
     </sheetView>
   </sheetViews>
@@ -1751,56 +1750,56 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N1" s="13"/>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2235,7 +2234,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2326,35 +2325,35 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N1" s="13"/>
       <c r="P1" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="13"/>
       <c r="S1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T1" s="13"/>
       <c r="V1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W1" s="13"/>
     </row>
@@ -2363,52 +2362,52 @@
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -2990,14 +2989,14 @@
     </row>
     <row r="37" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="G37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -3018,16 +3017,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="G37:W37"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3054,26 +3053,26 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3178,7 +3177,7 @@
     </row>
     <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -3198,7 +3197,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
@@ -3213,26 +3212,26 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="14"/>
       <c r="D1" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3379,14 +3378,13 @@
     </row>
     <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -3431,106 +3429,106 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="14"/>
       <c r="D1" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="14"/>
       <c r="G1" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="14"/>
       <c r="J1" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="14"/>
       <c r="M1" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="14"/>
       <c r="P1" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="S1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T1" s="14"/>
       <c r="V1" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W1" s="14"/>
       <c r="Y1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="14"/>
       <c r="AB1" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="14"/>
     </row>
     <row r="3" spans="1:29" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="P3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="S3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="Y3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="AB3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -3895,7 +3893,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3911,7 +3909,7 @@
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="P34" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
@@ -3929,18 +3927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P34:AC34"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P34:AC34"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3965,86 +3963,86 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N1" s="13"/>
       <c r="P1" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="13"/>
       <c r="S1" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T1" s="13"/>
       <c r="V1" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W1" s="13"/>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -4597,7 +4595,7 @@
     </row>
     <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -4610,7 +4608,7 @@
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="M40" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -4644,7 +4642,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DECAD-F51B-46B3-9AAB-81A8CA08E74C}">
-  <dimension ref="A17:A52"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
@@ -4654,29 +4652,7 @@
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4685,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8953B6-FF81-4C42-8C9F-1BD7638290AD}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G4:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,7 +4972,7 @@
     </row>
     <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -5027,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234A6B1F-5943-445E-8C13-06397E85A588}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5039,7 +5015,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="13"/>
     </row>
@@ -5048,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5229,7 +5205,7 @@
     </row>
     <row r="38" spans="1:2" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" s="15"/>
     </row>
@@ -5247,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5266,46 +5242,46 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5714,7 +5690,7 @@
     </row>
     <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -5741,7 +5717,8 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5765,11 +5742,11 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="14"/>
       <c r="D1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -5778,13 +5755,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6221,7 +6198,7 @@
     </row>
     <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -6254,7 +6231,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="13"/>
     </row>
@@ -6264,10 +6241,10 @@
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6273,7 @@
     </row>
     <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="13"/>
     </row>
@@ -6325,31 +6302,31 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="13"/>
       <c r="J1" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="13"/>
       <c r="M1" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="13"/>
       <c r="P1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="13"/>
       <c r="S1" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T1" s="13"/>
     </row>
@@ -6358,43 +6335,43 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6797,7 +6774,7 @@
     </row>
     <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -6837,7 +6814,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1076AE9C-2C87-4A85-AE97-8A00D25B1C89}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:B32"/>
@@ -6852,16 +6829,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6946,15 +6923,10 @@
     </row>
     <row r="32" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="13"/>
     </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -6991,7 +6963,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="13"/>
     </row>
@@ -7004,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7049,7 +7021,7 @@
     </row>
     <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="13"/>
     </row>

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E02EA7B-2D63-4F24-8E6D-E682D2AE1F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A7650F-5984-4D00-B584-B927B1FCF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="3" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="7" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -3017,16 +3017,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G37:W37"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G37:W37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3927,18 +3927,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P34:AC34"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5223,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5726,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14F85A-DEBE-455F-A23B-C51456BB79FE}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,7 +6292,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6816,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1076AE9C-2C87-4A85-AE97-8A00D25B1C89}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A7650F-5984-4D00-B584-B927B1FCF692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751AD072-A96E-48ED-96D4-6E4E037B8A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="7" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-165" yWindow="0" windowWidth="21600" windowHeight="11295" tabRatio="852" firstSheet="5" activeTab="14" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="W_emissivity" sheetId="9" r:id="rId7"/>
     <sheet name="W_elastic" sheetId="10" r:id="rId8"/>
     <sheet name="W_hardness" sheetId="16" r:id="rId9"/>
-    <sheet name="W_strength" sheetId="7" r:id="rId10"/>
-    <sheet name="W_ductility" sheetId="8" r:id="rId11"/>
-    <sheet name="W_toughness" sheetId="14" r:id="rId12"/>
-    <sheet name="W_creep" sheetId="11" r:id="rId13"/>
-    <sheet name="W_fatigue" sheetId="12" r:id="rId14"/>
-    <sheet name="W_chemical" sheetId="13" r:id="rId15"/>
+    <sheet name="W_Yield_Strength" sheetId="17" r:id="rId10"/>
+    <sheet name="W_Ultimate Strength" sheetId="7" r:id="rId11"/>
+    <sheet name="W_ductility" sheetId="8" r:id="rId12"/>
+    <sheet name="W_toughness" sheetId="14" r:id="rId13"/>
+    <sheet name="W_creep" sheetId="11" r:id="rId14"/>
+    <sheet name="W_fatigue" sheetId="12" r:id="rId15"/>
+    <sheet name="W_chemical" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -649,18 +650,62 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5630061" cy="2934109"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D3526C-B6C8-4383-9B18-9B95B2ED05C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="7105650"/>
+          <a:ext cx="5630061" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685801</xdr:colOff>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>46279</xdr:rowOff>
+      <xdr:rowOff>189154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -683,52 +728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="5886450"/>
+          <a:off x="104775" y="3190875"/>
           <a:ext cx="4152900" cy="3284779"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>772311</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83FF577-FF12-20AF-B98C-CCAEB381E4DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8029575" y="3486150"/>
-          <a:ext cx="5630061" cy="2934109"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,7 +741,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -789,7 +790,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -838,7 +839,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -931,20 +932,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>257954</xdr:colOff>
+      <xdr:colOff>353204</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>114688</xdr:rowOff>
+      <xdr:rowOff>105163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,7 +968,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="4762500"/>
+          <a:off x="733425" y="4752975"/>
           <a:ext cx="5582429" cy="2781688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2265,11 +2266,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49AD77F-8B12-49E9-AB0E-8DA6E26FE1AE}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="13"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>469.58174904942899</v>
+      </c>
+      <c r="B4">
+        <v>1219.2471173761101</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4">
+        <v>287.07224334600699</v>
+      </c>
+      <c r="E4">
+        <v>1377.4127484620799</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4">
+        <v>321.29277566539901</v>
+      </c>
+      <c r="H4">
+        <v>1286.0188877554101</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4">
+        <v>319.39163498098799</v>
+      </c>
+      <c r="K4">
+        <v>1395.77112120931</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4">
+        <v>1718.63117870722</v>
+      </c>
+      <c r="N4">
+        <v>90.688274753470296</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4">
+        <v>1965.7794676806</v>
+      </c>
+      <c r="Q4">
+        <v>54.605242820489501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>498.09885931558898</v>
+      </c>
+      <c r="B5">
+        <v>1179.67093264088</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5">
+        <v>811.78707224334596</v>
+      </c>
+      <c r="E5">
+        <v>890.67436396797405</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5">
+        <v>473.38403041825001</v>
+      </c>
+      <c r="H5">
+        <v>908.27923583418396</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5">
+        <v>469.58174904942899</v>
+      </c>
+      <c r="K5">
+        <v>1072.9056539614801</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5">
+        <v>1773.76425855513</v>
+      </c>
+      <c r="N5">
+        <v>87.751553371047294</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5">
+        <v>2017.1102661596899</v>
+      </c>
+      <c r="Q5">
+        <v>51.660793223901898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>526.61596958174903</v>
+      </c>
+      <c r="B6">
+        <v>1146.19230888126</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6">
+        <v>1100.7604562737599</v>
+      </c>
+      <c r="E6">
+        <v>696.13975702494702</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6">
+        <v>663.49809885931495</v>
+      </c>
+      <c r="H6">
+        <v>713.54369532288501</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6">
+        <v>657.79467680608298</v>
+      </c>
+      <c r="K6">
+        <v>847.67844446505296</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6">
+        <v>1826.9961977186299</v>
+      </c>
+      <c r="N6">
+        <v>78.7134069059327</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6">
+        <v>2076.0456273764198</v>
+      </c>
+      <c r="Q6">
+        <v>51.780580543447897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>551.33079847908698</v>
+      </c>
+      <c r="B7">
+        <v>1106.6083959318601</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7">
+        <v>1380.22813688212</v>
+      </c>
+      <c r="E7">
+        <v>474.14680515626401</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7">
+        <v>865.01901140684402</v>
+      </c>
+      <c r="H7">
+        <v>576.75816872237101</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7">
+        <v>861.21673003802198</v>
+      </c>
+      <c r="K7">
+        <v>671.262635630158</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7">
+        <v>1929.6577946768</v>
+      </c>
+      <c r="N7">
+        <v>72.824507712758006</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7">
+        <v>2133.0798479087398</v>
+      </c>
+      <c r="Q7">
+        <v>45.798942780302603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>577.94676806083601</v>
+      </c>
+      <c r="B8">
+        <v>1079.2234690407699</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8">
+        <v>1642.5855513307899</v>
+      </c>
+      <c r="E8">
+        <v>239.923954372623</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8">
+        <v>1083.65019011406</v>
+      </c>
+      <c r="H8">
+        <v>485.73912640267099</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8">
+        <v>1083.65019011406</v>
+      </c>
+      <c r="K8">
+        <v>577.20254103681702</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8">
+        <v>2024.7148288973301</v>
+      </c>
+      <c r="N8">
+        <v>66.920152091255204</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8">
+        <v>2235.7414448669201</v>
+      </c>
+      <c r="Q8">
+        <v>39.9100435871282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>600.76045627376402</v>
+      </c>
+      <c r="B9">
+        <v>1045.7332529599</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9">
+        <v>1920.1520912547501</v>
+      </c>
+      <c r="E9">
+        <v>66.707626201737796</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9">
+        <v>1258.5551330798401</v>
+      </c>
+      <c r="H9">
+        <v>434.265355961544</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9">
+        <v>2121.6730038022802</v>
+      </c>
+      <c r="N9">
+        <v>48.824538625614402</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9">
+        <v>2296.57794676806</v>
+      </c>
+      <c r="Q9">
+        <v>36.984914525951801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>623.57414448669101</v>
+      </c>
+      <c r="B10">
+        <v>1012.24303687903</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10">
+        <v>2201.5209125475199</v>
+      </c>
+      <c r="E10">
+        <v>39.840489659649798</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10">
+        <v>2332.6996197718599</v>
+      </c>
+      <c r="N10">
+        <v>43.1558935361222</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10">
+        <v>2378.3269961977098</v>
+      </c>
+      <c r="Q10">
+        <v>34.102290642678703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>663.49809885931495</v>
+      </c>
+      <c r="B11">
+        <v>975.73881727410401</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11">
+        <v>2235.7414448669201</v>
+      </c>
+      <c r="N11">
+        <v>42.958824074933503</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11">
+        <v>2477.1863117870698</v>
+      </c>
+      <c r="Q11">
+        <v>34.303224210949701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>676.80608365018998</v>
+      </c>
+      <c r="B12">
+        <v>942.22928065782605</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12">
+        <v>2439.1634980988501</v>
+      </c>
+      <c r="N12">
+        <v>34.225942069306697</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>703.422053231939</v>
+      </c>
+      <c r="B13">
+        <v>905.698012303317</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>731.93916349809797</v>
+      </c>
+      <c r="B14">
+        <v>875.26816903149995</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>781.36882129277501</v>
+      </c>
+      <c r="B15">
+        <v>802.19790410831797</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>806.08365019011399</v>
+      </c>
+      <c r="B16">
+        <v>780.906674085752</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>908.74524714828794</v>
+      </c>
+      <c r="B17">
+        <v>710.99338464867503</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>958.17490494296499</v>
+      </c>
+      <c r="B18">
+        <v>692.80116850598097</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1062.73764258555</v>
+      </c>
+      <c r="B19">
+        <v>628.98930415159703</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1134.98098859315</v>
+      </c>
+      <c r="B20">
+        <v>583.40443290364499</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1190.11406844106</v>
+      </c>
+      <c r="B21">
+        <v>549.97990664317297</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1268.0608365019</v>
+      </c>
+      <c r="B22">
+        <v>489.16272527744297</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1288.97338403041</v>
+      </c>
+      <c r="B23">
+        <v>455.668645089493</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1342.2053231939101</v>
+      </c>
+      <c r="B24">
+        <v>388.70366935608502</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1403.0418250950499</v>
+      </c>
+      <c r="B25">
+        <v>291.26634517295702</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1429.6577946768</v>
+      </c>
+      <c r="B26">
+        <v>260.83263779405797</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1479.08745247148</v>
+      </c>
+      <c r="B27">
+        <v>206.05505579770599</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1557.03422053231</v>
+      </c>
+      <c r="B28">
+        <v>142.18909394417099</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1583.65019011406</v>
+      </c>
+      <c r="B29">
+        <v>120.901728028687</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1807.9847908745201</v>
+      </c>
+      <c r="B30">
+        <v>72.577204859501506</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1946.7680608364999</v>
+      </c>
+      <c r="B31">
+        <v>60.664162725277698</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1711.02661596958</v>
+      </c>
+      <c r="B32">
+        <v>182.13623295928801</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2114.06844106463</v>
+      </c>
+      <c r="B33">
+        <v>54.906643172896104</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2309.8859315589302</v>
+      </c>
+      <c r="B34">
+        <v>43.109524251136399</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A49:Q49"/>
+    <mergeCell ref="A52:Q52"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,7 +3395,7 @@
     <col min="58" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -2332,35 +3404,11 @@
         <v>21</v>
       </c>
       <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="13"/>
-      <c r="S1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="13"/>
-      <c r="V1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2373,44 +3421,8 @@
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-3.5897435897435899</v>
       </c>
@@ -2423,44 +3435,8 @@
       <c r="E4" s="1">
         <v>1118.0035650623799</v>
       </c>
-      <c r="G4">
-        <v>469.58174904942899</v>
-      </c>
-      <c r="H4">
-        <v>1219.2471173761101</v>
-      </c>
-      <c r="J4">
-        <v>287.07224334600699</v>
-      </c>
-      <c r="K4">
-        <v>1377.4127484620799</v>
-      </c>
-      <c r="M4">
-        <v>321.29277566539901</v>
-      </c>
-      <c r="N4">
-        <v>1286.0188877554101</v>
-      </c>
-      <c r="P4">
-        <v>319.39163498098799</v>
-      </c>
-      <c r="Q4">
-        <v>1395.77112120931</v>
-      </c>
-      <c r="S4">
-        <v>1718.63117870722</v>
-      </c>
-      <c r="T4">
-        <v>90.688274753470296</v>
-      </c>
-      <c r="V4">
-        <v>1965.7794676806</v>
-      </c>
-      <c r="W4">
-        <v>54.605242820489501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>86.153846153846104</v>
       </c>
@@ -2473,44 +3449,8 @@
       <c r="E5" s="1">
         <v>870.23172905525803</v>
       </c>
-      <c r="G5">
-        <v>498.09885931558898</v>
-      </c>
-      <c r="H5">
-        <v>1179.67093264088</v>
-      </c>
-      <c r="J5">
-        <v>811.78707224334596</v>
-      </c>
-      <c r="K5">
-        <v>890.67436396797405</v>
-      </c>
-      <c r="M5">
-        <v>473.38403041825001</v>
-      </c>
-      <c r="N5">
-        <v>908.27923583418396</v>
-      </c>
-      <c r="P5">
-        <v>469.58174904942899</v>
-      </c>
-      <c r="Q5">
-        <v>1072.9056539614801</v>
-      </c>
-      <c r="S5">
-        <v>1773.76425855513</v>
-      </c>
-      <c r="T5">
-        <v>87.751553371047294</v>
-      </c>
-      <c r="V5">
-        <v>2017.1102661596899</v>
-      </c>
-      <c r="W5">
-        <v>51.660793223901898</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>208.20512820512801</v>
       </c>
@@ -2523,44 +3463,8 @@
       <c r="E6" s="1">
         <v>850.623885918003</v>
       </c>
-      <c r="G6">
-        <v>526.61596958174903</v>
-      </c>
-      <c r="H6">
-        <v>1146.19230888126</v>
-      </c>
-      <c r="J6">
-        <v>1100.7604562737599</v>
-      </c>
-      <c r="K6">
-        <v>696.13975702494702</v>
-      </c>
-      <c r="M6">
-        <v>663.49809885931495</v>
-      </c>
-      <c r="N6">
-        <v>713.54369532288501</v>
-      </c>
-      <c r="P6">
-        <v>657.79467680608298</v>
-      </c>
-      <c r="Q6">
-        <v>847.67844446505296</v>
-      </c>
-      <c r="S6">
-        <v>1826.9961977186299</v>
-      </c>
-      <c r="T6">
-        <v>78.7134069059327</v>
-      </c>
-      <c r="V6">
-        <v>2076.0456273764198</v>
-      </c>
-      <c r="W6">
-        <v>51.780580543447897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>330.25641025640999</v>
       </c>
@@ -2573,44 +3477,8 @@
       <c r="E7" s="1">
         <v>848.84135472370701</v>
       </c>
-      <c r="G7">
-        <v>551.33079847908698</v>
-      </c>
-      <c r="H7">
-        <v>1106.6083959318601</v>
-      </c>
-      <c r="J7">
-        <v>1380.22813688212</v>
-      </c>
-      <c r="K7">
-        <v>474.14680515626401</v>
-      </c>
-      <c r="M7">
-        <v>865.01901140684402</v>
-      </c>
-      <c r="N7">
-        <v>576.75816872237101</v>
-      </c>
-      <c r="P7">
-        <v>861.21673003802198</v>
-      </c>
-      <c r="Q7">
-        <v>671.262635630158</v>
-      </c>
-      <c r="S7">
-        <v>1929.6577946768</v>
-      </c>
-      <c r="T7">
-        <v>72.824507712758006</v>
-      </c>
-      <c r="V7">
-        <v>2133.0798479087398</v>
-      </c>
-      <c r="W7">
-        <v>45.798942780302603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>464.87179487179401</v>
       </c>
@@ -2623,44 +3491,8 @@
       <c r="E8" s="1">
         <v>772.19251336898401</v>
       </c>
-      <c r="G8">
-        <v>577.94676806083601</v>
-      </c>
-      <c r="H8">
-        <v>1079.2234690407699</v>
-      </c>
-      <c r="J8">
-        <v>1642.5855513307899</v>
-      </c>
-      <c r="K8">
-        <v>239.923954372623</v>
-      </c>
-      <c r="M8">
-        <v>1083.65019011406</v>
-      </c>
-      <c r="N8">
-        <v>485.73912640267099</v>
-      </c>
-      <c r="P8">
-        <v>1083.65019011406</v>
-      </c>
-      <c r="Q8">
-        <v>577.20254103681702</v>
-      </c>
-      <c r="S8">
-        <v>2024.7148288973301</v>
-      </c>
-      <c r="T8">
-        <v>66.920152091255204</v>
-      </c>
-      <c r="V8">
-        <v>2235.7414448669201</v>
-      </c>
-      <c r="W8">
-        <v>39.9100435871282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>590.51282051281999</v>
       </c>
@@ -2673,38 +3505,8 @@
       <c r="E9" s="1">
         <v>720.49910873440297</v>
       </c>
-      <c r="G9">
-        <v>600.76045627376402</v>
-      </c>
-      <c r="H9">
-        <v>1045.7332529599</v>
-      </c>
-      <c r="J9">
-        <v>1920.1520912547501</v>
-      </c>
-      <c r="K9">
-        <v>66.707626201737796</v>
-      </c>
-      <c r="M9">
-        <v>1258.5551330798401</v>
-      </c>
-      <c r="N9">
-        <v>434.265355961544</v>
-      </c>
-      <c r="S9">
-        <v>2121.6730038022802</v>
-      </c>
-      <c r="T9">
-        <v>48.824538625614402</v>
-      </c>
-      <c r="V9">
-        <v>2296.57794676806</v>
-      </c>
-      <c r="W9">
-        <v>36.984914525951801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>721.53846153846098</v>
       </c>
@@ -2717,32 +3519,8 @@
       <c r="E10" s="1">
         <v>736.54188948306603</v>
       </c>
-      <c r="G10">
-        <v>623.57414448669101</v>
-      </c>
-      <c r="H10">
-        <v>1012.24303687903</v>
-      </c>
-      <c r="J10">
-        <v>2201.5209125475199</v>
-      </c>
-      <c r="K10">
-        <v>39.840489659649798</v>
-      </c>
-      <c r="S10">
-        <v>2332.6996197718599</v>
-      </c>
-      <c r="T10">
-        <v>43.1558935361222</v>
-      </c>
-      <c r="V10">
-        <v>2378.3269961977098</v>
-      </c>
-      <c r="W10">
-        <v>34.102290642678703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>863.33333333333303</v>
       </c>
@@ -2755,26 +3533,8 @@
       <c r="E11" s="1">
         <v>667.02317290552503</v>
       </c>
-      <c r="G11">
-        <v>663.49809885931495</v>
-      </c>
-      <c r="H11">
-        <v>975.73881727410401</v>
-      </c>
-      <c r="S11">
-        <v>2235.7414448669201</v>
-      </c>
-      <c r="T11">
-        <v>42.958824074933503</v>
-      </c>
-      <c r="V11">
-        <v>2477.1863117870698</v>
-      </c>
-      <c r="W11">
-        <v>34.303224210949701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1105.64102564102</v>
       </c>
@@ -2787,207 +3547,22 @@
       <c r="E12" s="1">
         <v>629.59001782531197</v>
       </c>
-      <c r="G12">
-        <v>676.80608365018998</v>
-      </c>
-      <c r="H12">
-        <v>942.22928065782605</v>
-      </c>
-      <c r="S12">
-        <v>2439.1634980988501</v>
-      </c>
-      <c r="T12">
-        <v>34.225942069306697</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1371.2820512820499</v>
       </c>
       <c r="B13" s="1">
         <v>429.946524064171</v>
       </c>
-      <c r="G13">
-        <v>703.422053231939</v>
-      </c>
-      <c r="H13">
-        <v>905.698012303317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <v>731.93916349809797</v>
-      </c>
-      <c r="H14">
-        <v>875.26816903149995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>781.36882129277501</v>
-      </c>
-      <c r="H15">
-        <v>802.19790410831797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <v>806.08365019011399</v>
-      </c>
-      <c r="H16">
-        <v>780.906674085752</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <v>908.74524714828794</v>
-      </c>
-      <c r="H17">
-        <v>710.99338464867503</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <v>958.17490494296499</v>
-      </c>
-      <c r="H18">
-        <v>692.80116850598097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>1062.73764258555</v>
-      </c>
-      <c r="H19">
-        <v>628.98930415159703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <v>1134.98098859315</v>
-      </c>
-      <c r="H20">
-        <v>583.40443290364499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <v>1190.11406844106</v>
-      </c>
-      <c r="H21">
-        <v>549.97990664317297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <v>1268.0608365019</v>
-      </c>
-      <c r="H22">
-        <v>489.16272527744297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <v>1288.97338403041</v>
-      </c>
-      <c r="H23">
-        <v>455.668645089493</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <v>1342.2053231939101</v>
-      </c>
-      <c r="H24">
-        <v>388.70366935608502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <v>1403.0418250950499</v>
-      </c>
-      <c r="H25">
-        <v>291.26634517295702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26">
-        <v>1429.6577946768</v>
-      </c>
-      <c r="H26">
-        <v>260.83263779405797</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <v>1479.08745247148</v>
-      </c>
-      <c r="H27">
-        <v>206.05505579770599</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <v>1557.03422053231</v>
-      </c>
-      <c r="H28">
-        <v>142.18909394417099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="G29">
-        <v>1583.65019011406</v>
-      </c>
-      <c r="H29">
-        <v>120.901728028687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <v>1807.9847908745201</v>
-      </c>
-      <c r="H30">
-        <v>72.577204859501506</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <v>1946.7680608364999</v>
-      </c>
-      <c r="H31">
-        <v>60.664162725277698</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32">
-        <v>1711.02661596958</v>
-      </c>
-      <c r="H32">
-        <v>182.13623295928801</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <v>2114.06844106463</v>
-      </c>
-      <c r="H33">
-        <v>54.906643172896104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
-      <c r="G34">
-        <v>2309.8859315589302</v>
-      </c>
-      <c r="H34">
-        <v>43.109524251136399</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="37" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>24</v>
       </c>
@@ -2995,50 +3570,24 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G37:W37"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A37:E37"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96129535-FEF3-45F0-8A22-F7741A343589}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:H28"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,12 +3744,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3396,12 +3945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:N34"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z4:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,18 +4476,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P34:AC34"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P34:AC34"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3946,11 +4495,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
@@ -4640,7 +5189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DECAD-F51B-46B3-9AAB-81A8CA08E74C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6816,8 +7365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1076AE9C-2C87-4A85-AE97-8A00D25B1C89}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6933,7 +7482,8 @@
     <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6941,8 +7491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B499B7-5D41-461D-8465-819EE01970F8}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Repos\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751AD072-A96E-48ED-96D4-6E4E037B8A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A2BD6-4F04-46D3-B7D9-25A331C1299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="0" windowWidth="21600" windowHeight="11295" tabRatio="852" firstSheet="5" activeTab="14" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="852" activeTab="2" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -449,6 +449,15 @@
   <si>
     <t>Resistivity (mu Omega m)</t>
   </si>
+  <si>
+    <t>cal g-atom^-1 K^-1</t>
+  </si>
+  <si>
+    <t>multiply by 22.7589208007</t>
+  </si>
+  <si>
+    <t>Cp2</t>
+  </si>
 </sst>
 </file>
 
@@ -458,7 +467,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +521,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -534,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,6 +596,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1085,7 +1101,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>181662</xdr:colOff>
+      <xdr:colOff>3862</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133608</xdr:rowOff>
     </xdr:to>
@@ -1735,21 +1751,21 @@
       <selection activeCell="A49" sqref="A49:N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="14.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.26953125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.81640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.26953125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.81640625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>65</v>
       </c>
@@ -1771,7 +1787,7 @@
       </c>
       <c r="N1" s="13"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1803,7 +1819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>0.615434995797141</v>
       </c>
@@ -1835,7 +1851,7 @@
         <v>18.6651933314653</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.884074670776127</v>
       </c>
@@ -1867,7 +1883,7 @@
         <v>18.645240263379002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.91790417483888997</v>
       </c>
@@ -1899,7 +1915,7 @@
         <v>18.485552675819498</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.98133230596805798</v>
       </c>
@@ -1931,7 +1947,7 @@
         <v>18.2063568226393</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1.04054707200896</v>
       </c>
@@ -1963,7 +1979,7 @@
         <v>17.9869571308489</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1.10400322219109</v>
       </c>
@@ -1989,7 +2005,7 @@
         <v>18.605229055757899</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1.16956780610815</v>
       </c>
@@ -2015,7 +2031,7 @@
         <v>18.525448304847199</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1.22669865508545</v>
       </c>
@@ -2041,7 +2057,7 @@
         <v>18.4257249929952</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1.2880533762958799</v>
       </c>
@@ -2067,7 +2083,7 @@
         <v>18.326012188288001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1.3536459792658999</v>
       </c>
@@ -2093,7 +2109,7 @@
         <v>18.2261627906976</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.4213470159708499</v>
       </c>
@@ -2119,7 +2135,7 @@
         <v>18.106507425048999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D15" s="1">
         <v>1.10609764639955</v>
       </c>
@@ -2133,7 +2149,7 @@
         <v>15.955201036704899</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D16" s="1">
         <v>1.15054286915102</v>
       </c>
@@ -2147,7 +2163,7 @@
         <v>15.77586508826</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D17" s="1">
         <v>1.2013133931073099</v>
       </c>
@@ -2161,7 +2177,7 @@
         <v>15.556696553656399</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
         <v>1.2478565424488599</v>
       </c>
@@ -2175,7 +2191,7 @@
         <v>15.3773606052115</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
         <v>1.3049103390305401</v>
       </c>
@@ -2189,7 +2205,7 @@
         <v>15.1681633510787</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D20" s="1">
         <v>1.3556878677500599</v>
       </c>
@@ -2203,7 +2219,7 @@
         <v>14.9788456150182</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
         <v>1.4001435976463901</v>
       </c>
@@ -2217,7 +2233,7 @@
         <v>14.7397765480526</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G22" s="1">
         <v>1.35145699075371</v>
       </c>
@@ -2225,7 +2241,7 @@
         <v>14.5106787615578</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
       <c r="G23" s="1">
         <v>1.40433594844494</v>
       </c>
@@ -2233,7 +2249,7 @@
         <v>14.281559960773301</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>70</v>
       </c>
@@ -2273,9 +2289,9 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
@@ -2306,7 +2322,7 @@
       </c>
       <c r="Q1" s="13"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2325,7 +2341,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>469.58174904942899</v>
       </c>
@@ -2411,7 +2427,7 @@
         <v>54.605242820489501</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>498.09885931558898</v>
       </c>
@@ -2454,7 +2470,7 @@
         <v>51.660793223901898</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>526.61596958174903</v>
       </c>
@@ -2497,7 +2513,7 @@
         <v>51.780580543447897</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>551.33079847908698</v>
       </c>
@@ -2540,7 +2556,7 @@
         <v>45.798942780302603</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>577.94676806083601</v>
       </c>
@@ -2583,7 +2599,7 @@
         <v>39.9100435871282</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>600.76045627376402</v>
       </c>
@@ -2622,7 +2638,7 @@
         <v>36.984914525951801</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>623.57414448669101</v>
       </c>
@@ -2657,7 +2673,7 @@
         <v>34.102290642678703</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>663.49809885931495</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>34.303224210949701</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>676.80608365018998</v>
       </c>
@@ -2715,7 +2731,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>703.422053231939</v>
       </c>
@@ -2738,7 +2754,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>731.93916349809797</v>
       </c>
@@ -2761,7 +2777,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>781.36882129277501</v>
       </c>
@@ -2784,7 +2800,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>806.08365019011399</v>
       </c>
@@ -2807,7 +2823,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>908.74524714828794</v>
       </c>
@@ -2830,7 +2846,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>958.17490494296499</v>
       </c>
@@ -2853,7 +2869,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1062.73764258555</v>
       </c>
@@ -2876,7 +2892,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1134.98098859315</v>
       </c>
@@ -2899,7 +2915,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1190.11406844106</v>
       </c>
@@ -2922,7 +2938,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1268.0608365019</v>
       </c>
@@ -2945,7 +2961,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1288.97338403041</v>
       </c>
@@ -2968,7 +2984,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1342.2053231939101</v>
       </c>
@@ -2991,7 +3007,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1403.0418250950499</v>
       </c>
@@ -3014,7 +3030,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1429.6577946768</v>
       </c>
@@ -3037,7 +3053,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1479.08745247148</v>
       </c>
@@ -3060,7 +3076,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1557.03422053231</v>
       </c>
@@ -3083,7 +3099,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1583.65019011406</v>
       </c>
@@ -3106,7 +3122,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1807.9847908745201</v>
       </c>
@@ -3129,7 +3145,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1946.7680608364999</v>
       </c>
@@ -3152,7 +3168,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1711.02661596958</v>
       </c>
@@ -3175,7 +3191,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2114.06844106463</v>
       </c>
@@ -3198,7 +3214,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2309.8859315589302</v>
       </c>
@@ -3221,7 +3237,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3240,7 +3256,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3259,7 +3275,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3278,7 +3294,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3315,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>32</v>
       </c>
@@ -3344,58 +3360,58 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="2"/>
-    <col min="7" max="10" width="12.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" style="2"/>
+    <col min="7" max="10" width="12.81640625" style="2" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.42578125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.5703125" style="2" customWidth="1"/>
-    <col min="35" max="35" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" style="2" customWidth="1"/>
-    <col min="38" max="38" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.5703125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.140625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.5703125" style="2" customWidth="1"/>
-    <col min="47" max="47" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.54296875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.453125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.54296875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.26953125" style="2" customWidth="1"/>
+    <col min="38" max="38" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.54296875" style="2" customWidth="1"/>
+    <col min="41" max="41" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.1796875" style="2" customWidth="1"/>
+    <col min="44" max="44" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.54296875" style="2" customWidth="1"/>
+    <col min="47" max="47" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="5" style="2" customWidth="1"/>
-    <col min="50" max="50" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.5703125" style="2" customWidth="1"/>
-    <col min="53" max="53" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.140625" style="2" customWidth="1"/>
-    <col min="56" max="56" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="12.5703125" style="2"/>
+    <col min="50" max="50" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.54296875" style="2" customWidth="1"/>
+    <col min="53" max="53" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.1796875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -3405,10 +3421,10 @@
       </c>
       <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3422,7 +3438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>-3.5897435897435899</v>
       </c>
@@ -3436,7 +3452,7 @@
         <v>1118.0035650623799</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>86.153846153846104</v>
       </c>
@@ -3450,7 +3466,7 @@
         <v>870.23172905525803</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>208.20512820512801</v>
       </c>
@@ -3464,7 +3480,7 @@
         <v>850.623885918003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>330.25641025640999</v>
       </c>
@@ -3478,7 +3494,7 @@
         <v>848.84135472370701</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>464.87179487179401</v>
       </c>
@@ -3492,7 +3508,7 @@
         <v>772.19251336898401</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>590.51282051281999</v>
       </c>
@@ -3506,7 +3522,7 @@
         <v>720.49910873440297</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>721.53846153846098</v>
       </c>
@@ -3520,7 +3536,7 @@
         <v>736.54188948306603</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>863.33333333333303</v>
       </c>
@@ -3534,7 +3550,7 @@
         <v>667.02317290552503</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1105.64102564102</v>
       </c>
@@ -3548,7 +3564,7 @@
         <v>629.59001782531197</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1371.2820512820499</v>
       </c>
@@ -3556,13 +3572,13 @@
         <v>429.946524064171</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F34" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>24</v>
       </c>
@@ -3590,17 +3606,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="2"/>
+    <col min="1" max="1" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" style="2"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="12.5703125" style="2"/>
+    <col min="5" max="5" width="12.1796875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>47</v>
       </c>
@@ -3610,7 +3626,7 @@
       </c>
       <c r="E1" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3624,7 +3640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -3638,7 +3654,7 @@
         <v>0.26307122272540001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>249.99999999999901</v>
       </c>
@@ -3652,7 +3668,7 @@
         <v>0.53725813091807195</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>300</v>
       </c>
@@ -3666,7 +3682,7 @@
         <v>3.39781031288596</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>325</v>
       </c>
@@ -3680,7 +3696,7 @@
         <v>5.8432611156854604</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>350.78125</v>
       </c>
@@ -3694,7 +3710,7 @@
         <v>8.8073281185673107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>375.78125</v>
       </c>
@@ -3708,7 +3724,7 @@
         <v>15.035701420337499</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10">
         <v>500</v>
       </c>
@@ -3716,7 +3732,7 @@
         <v>15.247015232606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11">
         <v>525</v>
       </c>
@@ -3724,7 +3740,7 @@
         <v>14.265129682997101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>49</v>
       </c>
@@ -3752,14 +3768,14 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="14.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>47</v>
       </c>
@@ -3769,7 +3785,7 @@
       </c>
       <c r="E1" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3783,7 +3799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>23.819643352120401</v>
       </c>
@@ -3797,7 +3813,7 @@
         <v>8.4848484848484702</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>101.28430194955099</v>
       </c>
@@ -3811,7 +3827,7 @@
         <v>8.4848484848484702</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>200.86852074286199</v>
       </c>
@@ -3825,7 +3841,7 @@
         <v>8.31649831649829</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>304.44423912039099</v>
       </c>
@@ -3839,7 +3855,7 @@
         <v>18.080808080808001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>353.04444239120397</v>
       </c>
@@ -3853,7 +3869,7 @@
         <v>20.606060606060499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>380.04250207890499</v>
       </c>
@@ -3867,7 +3883,7 @@
         <v>41.144781144781099</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>404.54587452647098</v>
       </c>
@@ -3881,7 +3897,7 @@
         <v>46.195286195286101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>454.77224429455703</v>
       </c>
@@ -3895,7 +3911,7 @@
         <v>51.414141414141397</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>504.056176660814</v>
       </c>
@@ -3909,7 +3925,7 @@
         <v>54.949494949494898</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>555.89023376143302</v>
       </c>
@@ -3917,7 +3933,7 @@
         <v>42.067510548523202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>604.49043703224595</v>
       </c>
@@ -3925,7 +3941,7 @@
         <v>45.949367088607502</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>49</v>
       </c>
@@ -3953,30 +3969,30 @@
       <selection activeCell="Z18" sqref="Z4:Z18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.1796875" style="1"/>
     <col min="4" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.1796875" style="1"/>
     <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.1796875" style="1"/>
     <col min="10" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.1796875" style="1"/>
     <col min="13" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.1796875" style="1"/>
     <col min="16" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.1796875" style="1"/>
     <col min="19" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.1796875" style="1"/>
     <col min="22" max="23" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.1796875" style="1"/>
     <col min="25" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
@@ -4018,7 +4034,7 @@
       </c>
       <c r="AC1" s="14"/>
     </row>
-    <row r="3" spans="1:29" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -4080,7 +4096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>147.320952997912</v>
       </c>
@@ -4142,7 +4158,7 @@
         <v>12.9240807916031</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>155.486935866983</v>
       </c>
@@ -4204,7 +4220,7 @@
         <v>9.7091588143123904</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>165.78420787446899</v>
       </c>
@@ -4266,7 +4282,7 @@
         <v>8.2964862950481795</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>175.01907435399099</v>
       </c>
@@ -4310,7 +4326,7 @@
         <v>6.8826332396059096</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y8">
         <v>63.716757174440303</v>
       </c>
@@ -4324,7 +4340,7 @@
         <v>6.0439159458241196</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y9">
         <v>74.657107901006597</v>
       </c>
@@ -4338,7 +4354,7 @@
         <v>4.9807894567387097</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y10">
         <v>87.014102041254304</v>
       </c>
@@ -4352,7 +4368,7 @@
         <v>2.0114190044860401</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y11">
         <v>97.375990040567501</v>
       </c>
@@ -4366,7 +4382,7 @@
         <v>1.7241194273326299</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y12">
         <v>104.39696065594801</v>
       </c>
@@ -4376,7 +4392,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y13">
         <v>142.870634699177</v>
       </c>
@@ -4386,7 +4402,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y14">
         <v>162.50617098456701</v>
       </c>
@@ -4396,7 +4412,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y15">
         <v>182.702998561892</v>
       </c>
@@ -4406,7 +4422,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="Y16">
         <v>202.88372791860701</v>
       </c>
@@ -4416,7 +4432,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y17">
         <v>222.78112859258599</v>
       </c>
@@ -4426,7 +4442,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="25:29" x14ac:dyDescent="0.35">
       <c r="Y18">
         <v>242.672089978321</v>
       </c>
@@ -4436,11 +4452,11 @@
       <c r="AB18"/>
       <c r="AC18"/>
     </row>
-    <row r="19" spans="25:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="25:29" x14ac:dyDescent="0.35">
       <c r="AB19"/>
       <c r="AC19"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
@@ -4476,18 +4492,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P34:AC34"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4499,18 +4515,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
@@ -4544,7 +4560,7 @@
       </c>
       <c r="W1" s="13"/>
     </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -4594,7 +4610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1.00261006363414</v>
       </c>
@@ -4644,7 +4660,7 @@
         <v>222.46868907768501</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1.0074578810619701</v>
       </c>
@@ -4694,7 +4710,7 @@
         <v>272.76219525354401</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>48.115249238566101</v>
       </c>
@@ -4744,7 +4760,7 @@
         <v>179.59736419943999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>70.987484273774001</v>
       </c>
@@ -4794,7 +4810,7 @@
         <v>184.64739693113299</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>73.756951479329103</v>
       </c>
@@ -4844,7 +4860,7 @@
         <v>197.150184520426</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>303.52458070095003</v>
       </c>
@@ -4894,7 +4910,7 @@
         <v>196.38045018667799</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>47992.330562807401</v>
       </c>
@@ -4944,7 +4960,7 @@
         <v>182.32200792754401</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>58390.312936327296</v>
       </c>
@@ -4988,7 +5004,7 @@
         <v>170.35155997093699</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>197743.551426791</v>
       </c>
@@ -5020,7 +5036,7 @@
         <v>147.331467746692</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>253239.59042427401</v>
       </c>
@@ -5040,7 +5056,7 @@
         <v>171.85756504933801</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>263651.90566811501</v>
       </c>
@@ -5054,7 +5070,7 @@
         <v>290.053746376351</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1946085.2130881499</v>
       </c>
@@ -5068,7 +5084,7 @@
         <v>276.92044548833701</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1993493.7948397701</v>
       </c>
@@ -5082,7 +5098,7 @@
         <v>264.25442772805098</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2018121.01975356</v>
       </c>
@@ -5096,7 +5112,7 @@
         <v>251.59017330032299</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>439755.03130429401</v>
       </c>
@@ -5110,7 +5126,7 @@
         <v>239.39496533288099</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>456911.39555828198</v>
       </c>
@@ -5118,7 +5134,7 @@
         <v>187.13331499467401</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>119874.206488483</v>
       </c>
@@ -5126,7 +5142,7 @@
         <v>174.75648377381299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1952448.4320670101</v>
       </c>
@@ -5134,7 +5150,7 @@
         <v>150.27613787849899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1975365.1607884699</v>
       </c>
@@ -5142,7 +5158,7 @@
         <v>124.9493923556</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="s">
         <v>79</v>
       </c>
@@ -5197,9 +5213,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5214,13 +5230,13 @@
       <selection activeCell="G16" sqref="G4:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="12.5703125" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="26" width="12.54296875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -5238,7 +5254,7 @@
       </c>
       <c r="K1" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5264,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>28.495028187111402</v>
       </c>
@@ -5290,7 +5306,7 @@
         <v>68.943938324053306</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>119.93934272517799</v>
       </c>
@@ -5316,7 +5332,7 @@
         <v>64.829430354104204</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>172.595413661777</v>
       </c>
@@ -5342,7 +5358,7 @@
         <v>58.342574692951402</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>207.66550522648001</v>
       </c>
@@ -5368,7 +5384,7 @@
         <v>53.593017467906002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>286.83482468426899</v>
       </c>
@@ -5394,7 +5410,7 @@
         <v>51.68532302314</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>344.71853403868602</v>
       </c>
@@ -5420,7 +5436,7 @@
         <v>49.6188083855209</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>450.20199798580802</v>
       </c>
@@ -5446,7 +5462,7 @@
         <v>47.711576973387203</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>555.685461932929</v>
       </c>
@@ -5460,7 +5476,7 @@
         <v>43.6019308460763</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>643.59220716079903</v>
       </c>
@@ -5474,7 +5490,7 @@
         <v>42.010487689119898</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>757.91959438341405</v>
       </c>
@@ -5488,7 +5504,7 @@
         <v>40.101867179089403</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G14" s="1">
         <v>921.37937421139702</v>
       </c>
@@ -5496,7 +5512,7 @@
         <v>39.142000532487501</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G15" s="1">
         <v>1019.87104541192</v>
       </c>
@@ -5504,7 +5520,7 @@
         <v>37.7079884704874</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G16" s="1">
         <v>1121.89102527</v>
       </c>
@@ -5512,14 +5528,14 @@
         <v>36.589301631032399</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
         <v>87</v>
       </c>
@@ -5550,213 +5566,314 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234A6B1F-5943-445E-8C13-06397E85A588}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="2" width="17.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1261.58329653693</v>
       </c>
       <c r="B4" s="2">
         <v>8.2296494880043696</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <f>B4*$H$38</f>
+        <v>187.29794091501276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1352.6121238882199</v>
       </c>
       <c r="B5" s="2">
         <v>8.1632982190542194</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C25" si="0">B5*$H$38</f>
+        <v>185.78785763995035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1430.4876048697399</v>
       </c>
       <c r="B6" s="2">
         <v>8.0971656258542009</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>184.28275118896622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1499.2518766164101</v>
       </c>
       <c r="B7" s="2">
         <v>8.02120944511028</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>182.55407048709165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1602.41468491768</v>
       </c>
       <c r="B8" s="2">
         <v>7.9396938539498301</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>180.69886360384874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1624.6641014319</v>
       </c>
       <c r="B9" s="2">
         <v>7.9193738304001302</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>180.23640179721275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1683.3179839777899</v>
       </c>
       <c r="B10" s="2">
         <v>7.85854832944342</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>178.85207903827609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1714.6710401816599</v>
       </c>
       <c r="B11" s="2">
         <v>7.8330894257658903</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>178.27266186580655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1783.44288147353</v>
       </c>
       <c r="B12" s="2">
         <v>7.7720957126936998</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>176.88451078065594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1811.74288778149</v>
       </c>
       <c r="B13" s="2">
         <v>7.7117748480834303</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>175.51167300036107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1876.4902542105499</v>
       </c>
       <c r="B14" s="2">
         <v>7.6957358228726402</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>175.14664209586826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1912.8745347883601</v>
       </c>
       <c r="B15" s="2">
         <v>7.61533043167434</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>173.31670216563685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1928.0893206333101</v>
       </c>
       <c r="B16" s="2">
         <v>7.6898904518597897</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>175.01360775993609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1957.3935532706701</v>
       </c>
       <c r="B17" s="2">
         <v>7.6145902983662399</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>173.29985753029584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1998.85195231186</v>
       </c>
       <c r="B18" s="2">
         <v>7.5640257364536598</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>172.14906267040533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2036.24802876427</v>
       </c>
       <c r="B19" s="2">
         <v>7.4836035240438097</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>170.3187399075525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2073.6516747618698</v>
       </c>
       <c r="B20" s="2">
         <v>7.4181437793056997</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>168.82894676142379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2154.5373115498601</v>
       </c>
       <c r="B21" s="2">
         <v>7.3020858302319196</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>166.18759309016195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2226.311739103</v>
       </c>
       <c r="B22" s="2">
         <v>7.1762042936142398</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>163.32266516800976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2288.9825269664998</v>
       </c>
       <c r="B23" s="2">
         <v>7.0554616371244103</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>160.57469261169163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>2357.7089509871898</v>
       </c>
       <c r="B24" s="2">
         <v>6.9046931180218198</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>157.14336382619695</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>2401.1682331419902</v>
       </c>
       <c r="B25" s="2">
         <v>6.8092075106709498</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>154.97021445089175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="15"/>
+      <c r="E38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="16">
+        <v>22.7589208007</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5776,20 +5893,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="26" width="12.5703125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="2" width="14.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.7265625" style="2" customWidth="1"/>
+    <col min="12" max="26" width="12.54296875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>67</v>
       </c>
@@ -5807,7 +5924,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -5833,7 +5950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.86962426160691997</v>
       </c>
@@ -5859,7 +5976,7 @@
         <v>1.1243372220380601</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.94893764578823703</v>
       </c>
@@ -5885,7 +6002,7 @@
         <v>1.0960617508183901</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.0028855950909701</v>
       </c>
@@ -5911,7 +6028,7 @@
         <v>1.0829711700179101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.05365312672329</v>
       </c>
@@ -5937,7 +6054,7 @@
         <v>1.0459426761030199</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.10441607562122</v>
       </c>
@@ -5963,7 +6080,7 @@
         <v>1.03284980393534</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.1488456855847</v>
       </c>
@@ -5989,7 +6106,7 @@
         <v>1.02625524914035</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.1996269654202101</v>
       </c>
@@ -6015,7 +6132,7 @@
         <v>1.0196606943453601</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.25039907978693</v>
       </c>
@@ -6041,7 +6158,7 @@
         <v>1.0152360642865901</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.2979953592176301</v>
       </c>
@@ -6067,7 +6184,7 @@
         <v>1.01081143422783</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.34876747358435</v>
       </c>
@@ -6087,7 +6204,7 @@
         <v>1.1718853827576099</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.4058820923543101</v>
       </c>
@@ -6107,7 +6224,7 @@
         <v>1.1588475034026799</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D15">
         <v>0.36307171521055298</v>
       </c>
@@ -6121,7 +6238,7 @@
         <v>1.13930443257346</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D16">
         <v>0.38518340866839401</v>
       </c>
@@ -6135,7 +6252,7 @@
         <v>1.1262596791169299</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D17">
         <v>0.41047551979664798</v>
       </c>
@@ -6149,7 +6266,7 @@
         <v>1.113221799762</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D18">
         <v>0.43577679639369299</v>
       </c>
@@ -6163,7 +6280,7 @@
         <v>1.0936695634639899</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D19">
         <v>0.45472640311870299</v>
       </c>
@@ -6177,7 +6294,7 @@
         <v>1.06978435179513</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D20">
         <v>0.47368517531250398</v>
       </c>
@@ -6185,7 +6302,7 @@
         <v>0.94691207718546699</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D21">
         <v>0.50215312137677504</v>
       </c>
@@ -6193,7 +6310,7 @@
         <v>0.98157358878513201</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D22">
         <v>0.53061648470665101</v>
       </c>
@@ -6201,7 +6318,7 @@
         <v>1.01840273375382</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D23">
         <v>0.56225110023814895</v>
       </c>
@@ -6209,7 +6326,7 @@
         <v>1.0552295873553099</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D24">
         <v>0.58755237683519401</v>
       </c>
@@ -6217,7 +6334,7 @@
         <v>1.08772575695315</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
       <c r="D25">
         <v>0.61601574016506999</v>
       </c>
@@ -6225,19 +6342,19 @@
         <v>1.1245549019218399</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
       <c r="Y36" s="5"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>72</v>
       </c>
@@ -6279,17 +6396,17 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="1"/>
+    <col min="4" max="4" width="16.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -6299,7 +6416,7 @@
       </c>
       <c r="E1" s="14"/>
     </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6313,7 +6430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>291.10512129379998</v>
       </c>
@@ -6327,7 +6444,7 @@
         <v>0.43405939632353302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>392.18328840970298</v>
       </c>
@@ -6341,7 +6458,7 @@
         <v>2.6735630509215298</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>493.26145552560598</v>
       </c>
@@ -6355,7 +6472,7 @@
         <v>3.34195381365191</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>598.38274932614502</v>
       </c>
@@ -6369,7 +6486,7 @@
         <v>4.2331414972924497</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>800.53908355795102</v>
       </c>
@@ -6383,7 +6500,7 @@
         <v>6.9206672980257604</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>897.57412398921804</v>
       </c>
@@ -6397,7 +6514,7 @@
         <v>9.6088001748378797</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>994.60916442048494</v>
       </c>
@@ -6411,7 +6528,7 @@
         <v>12.2963259755712</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>1103.7735849056601</v>
       </c>
@@ -6425,7 +6542,7 @@
         <v>14.983851776304499</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>1204.8517520215601</v>
       </c>
@@ -6439,7 +6556,7 @@
         <v>17.897816954420701</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>1297.84366576819</v>
       </c>
@@ -6453,7 +6570,7 @@
         <v>21.035793205604499</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>1407.00808625336</v>
       </c>
@@ -6467,7 +6584,7 @@
         <v>24.173162380709499</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>1504.0431266846299</v>
       </c>
@@ -6481,7 +6598,7 @@
         <v>27.0871275588256</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>1605.1212938005301</v>
       </c>
@@ -6495,7 +6612,7 @@
         <v>30.2244967339306</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>1702.1563342318</v>
       </c>
@@ -6509,7 +6626,7 @@
         <v>33.362472985114401</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>1807.2776280323401</v>
       </c>
@@ -6523,7 +6640,7 @@
         <v>36.726281537602198</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>1896.2264150943299</v>
       </c>
@@ -6537,7 +6654,7 @@
         <v>39.8654719409436</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2001.34770889487</v>
       </c>
@@ -6551,7 +6668,7 @@
         <v>43.678516791724299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2106.4690026954099</v>
       </c>
@@ -6565,7 +6682,7 @@
         <v>46.591267817682798</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2203.5040431266798</v>
       </c>
@@ -6579,7 +6696,7 @@
         <v>49.729244068866599</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2304.58221024258</v>
       </c>
@@ -6593,7 +6710,7 @@
         <v>53.318277846579697</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2397.57412398921</v>
       </c>
@@ -6607,7 +6724,7 @@
         <v>56.6814793229887</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2502.6954177897501</v>
       </c>
@@ -6621,7 +6738,7 @@
         <v>64.3093902527864</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2595.68733153638</v>
       </c>
@@ -6635,7 +6752,7 @@
         <v>71.035186129525698</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2704.8517520215601</v>
       </c>
@@ -6649,7 +6766,7 @@
         <v>78.212039532794194</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2801.8867924528199</v>
       </c>
@@ -6663,7 +6780,7 @@
         <v>86.065175687817103</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>2894.8787061994599</v>
       </c>
@@ -6677,7 +6794,7 @@
         <v>93.692479541536102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>2999.99999999999</v>
       </c>
@@ -6691,7 +6808,7 @@
         <v>101.545615696559</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>3105.1212938005301</v>
       </c>
@@ -6705,7 +6822,7 @@
         <v>99.488234865593299</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>3202.1563342318</v>
       </c>
@@ -6713,7 +6830,7 @@
         <v>131.275345426288</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>3303.2345013477002</v>
       </c>
@@ -6721,7 +6838,7 @@
         <v>136.440348704499</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>3404.31266846361</v>
       </c>
@@ -6729,7 +6846,7 @@
         <v>141.38012675748499</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>3501.3477088948698</v>
       </c>
@@ -6737,7 +6854,7 @@
         <v>146.32051188654901</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -6745,7 +6862,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="s">
         <v>19</v>
       </c>
@@ -6773,22 +6890,22 @@
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="9"/>
+    <col min="1" max="16384" width="12.54296875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -6796,7 +6913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>799.64081988570501</v>
       </c>
@@ -6804,7 +6921,7 @@
         <v>2.4231162508239801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2195.3192394931998</v>
       </c>
@@ -6812,7 +6929,7 @@
         <v>2.76026803556505</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>3619.2836121477599</v>
       </c>
@@ -6820,7 +6937,7 @@
         <v>4.1642678071846397</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>55</v>
       </c>
@@ -6844,12 +6961,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="16384" width="12.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
@@ -6879,7 +6996,7 @@
       </c>
       <c r="T1" s="13"/>
     </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -6923,7 +7040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>41.095890410958802</v>
       </c>
@@ -6967,7 +7084,7 @@
         <v>0.194615384615384</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>160.27397260273901</v>
       </c>
@@ -7011,7 +7128,7 @@
         <v>0.269230769230769</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>279.45205479452</v>
       </c>
@@ -7055,7 +7172,7 @@
         <v>0.31923076923076898</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>460.27397260273898</v>
       </c>
@@ -7099,7 +7216,7 @@
         <v>0.34769230769230702</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>595.890410958904</v>
       </c>
@@ -7143,7 +7260,7 @@
         <v>0.37076923076923002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>731.50684931506805</v>
       </c>
@@ -7181,7 +7298,7 @@
         <v>0.28846153846153799</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J10">
         <v>1241.09589041095</v>
       </c>
@@ -7195,7 +7312,7 @@
         <v>0.29769230769230698</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J11">
         <v>1343.8356164383499</v>
       </c>
@@ -7209,7 +7326,7 @@
         <v>0.302307692307692</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J12">
         <v>1343.8356164383499</v>
       </c>
@@ -7223,7 +7340,7 @@
         <v>0.30923076923076898</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J13">
         <v>1426.0273972602699</v>
       </c>
@@ -7237,7 +7354,7 @@
         <v>0.31615384615384601</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J14">
         <v>1557.5342465753399</v>
       </c>
@@ -7251,7 +7368,7 @@
         <v>0.321538461538461</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J15">
         <v>1594.5205479452</v>
       </c>
@@ -7265,7 +7382,7 @@
         <v>0.33076923076922998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="J16">
         <v>1532.87671232876</v>
       </c>
@@ -7279,7 +7396,7 @@
         <v>0.33384615384615302</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P17">
         <v>3419.17808219178</v>
       </c>
@@ -7287,7 +7404,7 @@
         <v>0.34076923076922999</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -7302,7 +7419,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
@@ -7318,10 +7435,10 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
     </row>
-    <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
         <v>15</v>
       </c>
@@ -7369,20 +7486,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -7390,7 +7507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>21340.122381761099</v>
       </c>
@@ -7398,7 +7515,7 @@
         <v>158.992800460518</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>24831.602326819098</v>
       </c>
@@ -7406,7 +7523,7 @@
         <v>159.20844493627101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>101861.279292703</v>
       </c>
@@ -7414,7 +7531,7 @@
         <v>150.972739531228</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>176464.960471147</v>
       </c>
@@ -7422,7 +7539,7 @@
         <v>150.83768573839299</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1453224.33355068</v>
       </c>
@@ -7430,7 +7547,7 @@
         <v>129.07709736858001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3684240.7464858801</v>
       </c>
@@ -7438,7 +7555,7 @@
         <v>130.982570227709</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4364834.9568849299</v>
       </c>
@@ -7446,7 +7563,7 @@
         <v>119.83860835188599</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6923317.7910996499</v>
       </c>
@@ -7454,7 +7571,7 @@
         <v>121.322728097129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7841494.97849371</v>
       </c>
@@ -7462,7 +7579,7 @@
         <v>114.655413060106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10802434.0502923</v>
       </c>
@@ -7470,7 +7587,7 @@
         <v>116.22969133190099</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13" t="s">
         <v>59</v>
       </c>
@@ -7495,33 +7612,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -7529,7 +7646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1200.40809187897</v>
       </c>
@@ -7537,7 +7654,7 @@
         <v>472.84372907645798</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1300.4383012778001</v>
       </c>
@@ -7545,7 +7662,7 @@
         <v>446.40308524527001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1398.95715741923</v>
       </c>
@@ -7553,7 +7670,7 @@
         <v>442.18295589251102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1499.18699617877</v>
       </c>
@@ -7561,7 +7678,7 @@
         <v>373.18133235815202</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1599.5625820379501</v>
       </c>
@@ -7569,7 +7686,7 @@
         <v>373.10642718209903</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>62</v>
       </c>

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\Repos\DatabaseCodes\Jupyter\Tungsten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848A2BD6-4F04-46D3-B7D9-25A331C1299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4824803-C240-49FE-8015-0EF7030C5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="852" activeTab="2" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="3" activeTab="14" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -448,15 +448,6 @@
   </si>
   <si>
     <t>Resistivity (mu Omega m)</t>
-  </si>
-  <si>
-    <t>cal g-atom^-1 K^-1</t>
-  </si>
-  <si>
-    <t>multiply by 22.7589208007</t>
-  </si>
-  <si>
-    <t>Cp2</t>
   </si>
 </sst>
 </file>
@@ -587,6 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -596,7 +588,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1751,43 +1742,43 @@
       <selection activeCell="A49" sqref="A49:N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.26953125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.26953125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.26953125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.81640625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.26953125" style="2" customWidth="1"/>
-    <col min="13" max="14" width="14.81640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="3" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="N1" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1819,7 +1810,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.615434995797141</v>
       </c>
@@ -1851,7 +1842,7 @@
         <v>18.6651933314653</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.884074670776127</v>
       </c>
@@ -1883,7 +1874,7 @@
         <v>18.645240263379002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.91790417483888997</v>
       </c>
@@ -1915,7 +1906,7 @@
         <v>18.485552675819498</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.98133230596805798</v>
       </c>
@@ -1947,7 +1938,7 @@
         <v>18.2063568226393</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1.04054707200896</v>
       </c>
@@ -1979,7 +1970,7 @@
         <v>17.9869571308489</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1.10400322219109</v>
       </c>
@@ -2005,7 +1996,7 @@
         <v>18.605229055757899</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1.16956780610815</v>
       </c>
@@ -2031,7 +2022,7 @@
         <v>18.525448304847199</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1.22669865508545</v>
       </c>
@@ -2057,7 +2048,7 @@
         <v>18.4257249929952</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.2880533762958799</v>
       </c>
@@ -2083,7 +2074,7 @@
         <v>18.326012188288001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.3536459792658999</v>
       </c>
@@ -2109,7 +2100,7 @@
         <v>18.2261627906976</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.4213470159708499</v>
       </c>
@@ -2135,7 +2126,7 @@
         <v>18.106507425048999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>1.10609764639955</v>
       </c>
@@ -2149,7 +2140,7 @@
         <v>15.955201036704899</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>1.15054286915102</v>
       </c>
@@ -2163,7 +2154,7 @@
         <v>15.77586508826</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>1.2013133931073099</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>15.556696553656399</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>1.2478565424488599</v>
       </c>
@@ -2191,7 +2182,7 @@
         <v>15.3773606052115</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>1.3049103390305401</v>
       </c>
@@ -2205,7 +2196,7 @@
         <v>15.1681633510787</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>1.3556878677500599</v>
       </c>
@@ -2219,7 +2210,7 @@
         <v>14.9788456150182</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>1.4001435976463901</v>
       </c>
@@ -2233,7 +2224,7 @@
         <v>14.7397765480526</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <v>1.35145699075371</v>
       </c>
@@ -2241,7 +2232,7 @@
         <v>14.5106787615578</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G23" s="1">
         <v>1.40433594844494</v>
       </c>
@@ -2249,23 +2240,23 @@
         <v>14.281559960773301</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2285,44 +2276,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49AD77F-8B12-49E9-AB0E-8DA6E26FE1AE}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="13"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2341,7 +2332,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2384,7 +2375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>469.58174904942899</v>
       </c>
@@ -2427,7 +2418,7 @@
         <v>54.605242820489501</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>498.09885931558898</v>
       </c>
@@ -2470,7 +2461,7 @@
         <v>51.660793223901898</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>526.61596958174903</v>
       </c>
@@ -2513,7 +2504,7 @@
         <v>51.780580543447897</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>551.33079847908698</v>
       </c>
@@ -2556,7 +2547,7 @@
         <v>45.798942780302603</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>577.94676806083601</v>
       </c>
@@ -2599,7 +2590,7 @@
         <v>39.9100435871282</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>600.76045627376402</v>
       </c>
@@ -2638,7 +2629,7 @@
         <v>36.984914525951801</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>623.57414448669101</v>
       </c>
@@ -2673,7 +2664,7 @@
         <v>34.102290642678703</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>663.49809885931495</v>
       </c>
@@ -2704,7 +2695,7 @@
         <v>34.303224210949701</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>676.80608365018998</v>
       </c>
@@ -2731,7 +2722,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>703.422053231939</v>
       </c>
@@ -2754,7 +2745,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>731.93916349809797</v>
       </c>
@@ -2777,7 +2768,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>781.36882129277501</v>
       </c>
@@ -2800,7 +2791,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>806.08365019011399</v>
       </c>
@@ -2823,7 +2814,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>908.74524714828794</v>
       </c>
@@ -2846,7 +2837,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>958.17490494296499</v>
       </c>
@@ -2869,7 +2860,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1062.73764258555</v>
       </c>
@@ -2892,7 +2883,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1134.98098859315</v>
       </c>
@@ -2915,7 +2906,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1190.11406844106</v>
       </c>
@@ -2938,7 +2929,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1268.0608365019</v>
       </c>
@@ -2961,7 +2952,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1288.97338403041</v>
       </c>
@@ -2984,7 +2975,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1342.2053231939101</v>
       </c>
@@ -3007,7 +2998,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1403.0418250950499</v>
       </c>
@@ -3030,7 +3021,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1429.6577946768</v>
       </c>
@@ -3053,7 +3044,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1479.08745247148</v>
       </c>
@@ -3076,7 +3067,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1557.03422053231</v>
       </c>
@@ -3099,7 +3090,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1583.65019011406</v>
       </c>
@@ -3122,7 +3113,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1807.9847908745201</v>
       </c>
@@ -3145,7 +3136,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1946.7680608364999</v>
       </c>
@@ -3168,7 +3159,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1711.02661596958</v>
       </c>
@@ -3191,7 +3182,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2114.06844106463</v>
       </c>
@@ -3214,7 +3205,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2309.8859315589302</v>
       </c>
@@ -3237,7 +3228,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3256,7 +3247,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3275,7 +3266,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3294,47 +3285,47 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="52" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3356,75 +3347,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" style="2"/>
-    <col min="7" max="10" width="12.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="2"/>
+    <col min="7" max="10" width="12.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3" style="2" customWidth="1"/>
-    <col min="26" max="26" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.54296875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.453125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.54296875" style="2" customWidth="1"/>
-    <col min="35" max="35" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.26953125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.54296875" style="2" customWidth="1"/>
-    <col min="41" max="41" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="2.1796875" style="2" customWidth="1"/>
-    <col min="44" max="44" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.54296875" style="2" customWidth="1"/>
-    <col min="47" max="47" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.5703125" style="2" customWidth="1"/>
+    <col min="35" max="35" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.5703125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.140625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.5703125" style="2" customWidth="1"/>
+    <col min="47" max="47" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="5" style="2" customWidth="1"/>
-    <col min="50" max="50" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.54296875" style="2" customWidth="1"/>
-    <col min="53" max="53" width="5.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="3.1796875" style="2" customWidth="1"/>
-    <col min="56" max="56" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="16384" width="12.54296875" style="2"/>
+    <col min="50" max="50" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="3.5703125" style="2" customWidth="1"/>
+    <col min="53" max="53" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.140625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3438,7 +3429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-3.5897435897435899</v>
       </c>
@@ -3452,7 +3443,7 @@
         <v>1118.0035650623799</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>86.153846153846104</v>
       </c>
@@ -3466,7 +3457,7 @@
         <v>870.23172905525803</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>208.20512820512801</v>
       </c>
@@ -3480,7 +3471,7 @@
         <v>850.623885918003</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>330.25641025640999</v>
       </c>
@@ -3494,7 +3485,7 @@
         <v>848.84135472370701</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>464.87179487179401</v>
       </c>
@@ -3508,7 +3499,7 @@
         <v>772.19251336898401</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>590.51282051281999</v>
       </c>
@@ -3522,7 +3513,7 @@
         <v>720.49910873440297</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>721.53846153846098</v>
       </c>
@@ -3536,7 +3527,7 @@
         <v>736.54188948306603</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>863.33333333333303</v>
       </c>
@@ -3550,7 +3541,7 @@
         <v>667.02317290552503</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1105.64102564102</v>
       </c>
@@ -3564,7 +3555,7 @@
         <v>629.59001782531197</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1371.2820512820499</v>
       </c>
@@ -3572,20 +3563,20 @@
         <v>429.946524064171</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3602,31 +3593,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96129535-FEF3-45F0-8A22-F7741A343589}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="2"/>
     <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="12.54296875" style="2"/>
+    <col min="5" max="5" width="12.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3640,7 +3631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>200</v>
       </c>
@@ -3654,7 +3645,7 @@
         <v>0.26307122272540001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>249.99999999999901</v>
       </c>
@@ -3668,7 +3659,7 @@
         <v>0.53725813091807195</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>300</v>
       </c>
@@ -3682,7 +3673,7 @@
         <v>3.39781031288596</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>325</v>
       </c>
@@ -3696,7 +3687,7 @@
         <v>5.8432611156854604</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>350.78125</v>
       </c>
@@ -3710,7 +3701,7 @@
         <v>8.8073281185673107</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>375.78125</v>
       </c>
@@ -3724,7 +3715,7 @@
         <v>15.035701420337499</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>500</v>
       </c>
@@ -3732,7 +3723,7 @@
         <v>15.247015232606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>525</v>
       </c>
@@ -3740,14 +3731,14 @@
         <v>14.265129682997101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3764,28 +3755,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.7265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="E1" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -3799,7 +3790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>23.819643352120401</v>
       </c>
@@ -3813,7 +3804,7 @@
         <v>8.4848484848484702</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>101.28430194955099</v>
       </c>
@@ -3827,7 +3818,7 @@
         <v>8.4848484848484702</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>200.86852074286199</v>
       </c>
@@ -3841,7 +3832,7 @@
         <v>8.31649831649829</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>304.44423912039099</v>
       </c>
@@ -3855,7 +3846,7 @@
         <v>18.080808080808001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>353.04444239120397</v>
       </c>
@@ -3869,7 +3860,7 @@
         <v>20.606060606060499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>380.04250207890499</v>
       </c>
@@ -3883,7 +3874,7 @@
         <v>41.144781144781099</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>404.54587452647098</v>
       </c>
@@ -3897,7 +3888,7 @@
         <v>46.195286195286101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>454.77224429455703</v>
       </c>
@@ -3911,7 +3902,7 @@
         <v>51.414141414141397</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>504.056176660814</v>
       </c>
@@ -3925,7 +3916,7 @@
         <v>54.949494949494898</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>555.89023376143302</v>
       </c>
@@ -3933,7 +3924,7 @@
         <v>42.067510548523202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>604.49043703224595</v>
       </c>
@@ -3941,14 +3932,14 @@
         <v>45.949367088607502</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3965,76 +3956,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z4:Z18"/>
+    <sheetView topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34:AC34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
     <col min="13" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1796875" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.1796875" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
     <col min="22" max="23" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.1796875" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="N1" s="15"/>
+      <c r="P1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="15"/>
+      <c r="S1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="T1" s="15"/>
+      <c r="V1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="15"/>
+      <c r="Y1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="Z1" s="15"/>
+      <c r="AB1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="14"/>
-    </row>
-    <row r="3" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AC1" s="15"/>
+    </row>
+    <row r="3" spans="1:29" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -4096,7 +4087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>147.320952997912</v>
       </c>
@@ -4158,7 +4149,7 @@
         <v>12.9240807916031</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>155.486935866983</v>
       </c>
@@ -4220,7 +4211,7 @@
         <v>9.7091588143123904</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>165.78420787446899</v>
       </c>
@@ -4282,7 +4273,7 @@
         <v>8.2964862950481795</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>175.01907435399099</v>
       </c>
@@ -4326,7 +4317,7 @@
         <v>6.8826332396059096</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y8">
         <v>63.716757174440303</v>
       </c>
@@ -4340,7 +4331,7 @@
         <v>6.0439159458241196</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y9">
         <v>74.657107901006597</v>
       </c>
@@ -4354,7 +4345,7 @@
         <v>4.9807894567387097</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y10">
         <v>87.014102041254304</v>
       </c>
@@ -4368,7 +4359,7 @@
         <v>2.0114190044860401</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y11">
         <v>97.375990040567501</v>
       </c>
@@ -4382,7 +4373,7 @@
         <v>1.7241194273326299</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y12">
         <v>104.39696065594801</v>
       </c>
@@ -4392,7 +4383,7 @@
       <c r="AB12"/>
       <c r="AC12"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y13">
         <v>142.870634699177</v>
       </c>
@@ -4402,7 +4393,7 @@
       <c r="AB13"/>
       <c r="AC13"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y14">
         <v>162.50617098456701</v>
       </c>
@@ -4412,7 +4403,7 @@
       <c r="AB14"/>
       <c r="AC14"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y15">
         <v>182.702998561892</v>
       </c>
@@ -4422,7 +4413,7 @@
       <c r="AB15"/>
       <c r="AC15"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="Y16">
         <v>202.88372791860701</v>
       </c>
@@ -4432,7 +4423,7 @@
       <c r="AB16"/>
       <c r="AC16"/>
     </row>
-    <row r="17" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y17">
         <v>222.78112859258599</v>
       </c>
@@ -4442,7 +4433,7 @@
       <c r="AB17"/>
       <c r="AC17"/>
     </row>
-    <row r="18" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="25:29" x14ac:dyDescent="0.25">
       <c r="Y18">
         <v>242.672089978321</v>
       </c>
@@ -4452,58 +4443,58 @@
       <c r="AB18"/>
       <c r="AC18"/>
     </row>
-    <row r="19" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="25:29" x14ac:dyDescent="0.25">
       <c r="AB19"/>
       <c r="AC19"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="P34" s="14" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="P34" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P34:AC34"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P34:AC34"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4515,52 +4506,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S43" sqref="S43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40:W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="V1" s="13" t="s">
+      <c r="T1" s="14"/>
+      <c r="V1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="13"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="W1" s="14"/>
+    </row>
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
@@ -4610,7 +4601,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.00261006363414</v>
       </c>
@@ -4660,7 +4651,7 @@
         <v>222.46868907768501</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.0074578810619701</v>
       </c>
@@ -4710,7 +4701,7 @@
         <v>272.76219525354401</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>48.115249238566101</v>
       </c>
@@ -4760,7 +4751,7 @@
         <v>179.59736419943999</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>70.987484273774001</v>
       </c>
@@ -4810,7 +4801,7 @@
         <v>184.64739693113299</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>73.756951479329103</v>
       </c>
@@ -4860,7 +4851,7 @@
         <v>197.150184520426</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>303.52458070095003</v>
       </c>
@@ -4910,7 +4901,7 @@
         <v>196.38045018667799</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>47992.330562807401</v>
       </c>
@@ -4960,7 +4951,7 @@
         <v>182.32200792754401</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>58390.312936327296</v>
       </c>
@@ -5004,7 +4995,7 @@
         <v>170.35155997093699</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>197743.551426791</v>
       </c>
@@ -5036,7 +5027,7 @@
         <v>147.331467746692</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>253239.59042427401</v>
       </c>
@@ -5056,7 +5047,7 @@
         <v>171.85756504933801</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>263651.90566811501</v>
       </c>
@@ -5070,7 +5061,7 @@
         <v>290.053746376351</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1946085.2130881499</v>
       </c>
@@ -5084,7 +5075,7 @@
         <v>276.92044548833701</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1993493.7948397701</v>
       </c>
@@ -5098,7 +5089,7 @@
         <v>264.25442772805098</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2018121.01975356</v>
       </c>
@@ -5112,7 +5103,7 @@
         <v>251.59017330032299</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>439755.03130429401</v>
       </c>
@@ -5126,7 +5117,7 @@
         <v>239.39496533288099</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>456911.39555828198</v>
       </c>
@@ -5134,7 +5125,7 @@
         <v>187.13331499467401</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>119874.206488483</v>
       </c>
@@ -5142,7 +5133,7 @@
         <v>174.75648377381299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1952448.4320670101</v>
       </c>
@@ -5150,7 +5141,7 @@
         <v>150.27613787849899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1975365.1607884699</v>
       </c>
@@ -5158,33 +5149,33 @@
         <v>124.9493923556</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="M40" s="13" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="M40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5213,9 +5204,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5226,35 +5217,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8953B6-FF81-4C42-8C9F-1BD7638290AD}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G16" sqref="G4:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="12.54296875" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="26" width="12.5703125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="45.5" x14ac:dyDescent="0.35">
+      <c r="K1" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -5280,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>28.495028187111402</v>
       </c>
@@ -5306,7 +5297,7 @@
         <v>68.943938324053306</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>119.93934272517799</v>
       </c>
@@ -5332,7 +5323,7 @@
         <v>64.829430354104204</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>172.595413661777</v>
       </c>
@@ -5358,7 +5349,7 @@
         <v>58.342574692951402</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>207.66550522648001</v>
       </c>
@@ -5384,7 +5375,7 @@
         <v>53.593017467906002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>286.83482468426899</v>
       </c>
@@ -5410,7 +5401,7 @@
         <v>51.68532302314</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>344.71853403868602</v>
       </c>
@@ -5436,7 +5427,7 @@
         <v>49.6188083855209</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>450.20199798580802</v>
       </c>
@@ -5462,7 +5453,7 @@
         <v>47.711576973387203</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>555.685461932929</v>
       </c>
@@ -5476,7 +5467,7 @@
         <v>43.6019308460763</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>643.59220716079903</v>
       </c>
@@ -5490,7 +5481,7 @@
         <v>42.010487689119898</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>757.91959438341405</v>
       </c>
@@ -5504,7 +5495,7 @@
         <v>40.101867179089403</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="1">
         <v>921.37937421139702</v>
       </c>
@@ -5512,7 +5503,7 @@
         <v>39.142000532487501</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="1">
         <v>1019.87104541192</v>
       </c>
@@ -5520,7 +5511,7 @@
         <v>37.7079884704874</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="1">
         <v>1121.89102527</v>
       </c>
@@ -5528,27 +5519,27 @@
         <v>36.589301631032399</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
     </row>
-    <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5568,312 +5559,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234A6B1F-5943-445E-8C13-06397E85A588}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="2" width="17.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1261.58329653693</v>
       </c>
       <c r="B4" s="2">
         <v>8.2296494880043696</v>
       </c>
-      <c r="C4" s="2">
-        <f>B4*$H$38</f>
-        <v>187.29794091501276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1352.6121238882199</v>
       </c>
       <c r="B5" s="2">
         <v>8.1632982190542194</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C25" si="0">B5*$H$38</f>
-        <v>185.78785763995035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1430.4876048697399</v>
       </c>
       <c r="B6" s="2">
         <v>8.0971656258542009</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>184.28275118896622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1499.2518766164101</v>
       </c>
       <c r="B7" s="2">
         <v>8.02120944511028</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>182.55407048709165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1602.41468491768</v>
       </c>
       <c r="B8" s="2">
         <v>7.9396938539498301</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>180.69886360384874</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1624.6641014319</v>
       </c>
       <c r="B9" s="2">
         <v>7.9193738304001302</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>180.23640179721275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1683.3179839777899</v>
       </c>
       <c r="B10" s="2">
         <v>7.85854832944342</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>178.85207903827609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1714.6710401816599</v>
       </c>
       <c r="B11" s="2">
         <v>7.8330894257658903</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>178.27266186580655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1783.44288147353</v>
       </c>
       <c r="B12" s="2">
         <v>7.7720957126936998</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>176.88451078065594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1811.74288778149</v>
       </c>
       <c r="B13" s="2">
         <v>7.7117748480834303</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>175.51167300036107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1876.4902542105499</v>
       </c>
       <c r="B14" s="2">
         <v>7.6957358228726402</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>175.14664209586826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1912.8745347883601</v>
       </c>
       <c r="B15" s="2">
         <v>7.61533043167434</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>173.31670216563685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1928.0893206333101</v>
       </c>
       <c r="B16" s="2">
         <v>7.6898904518597897</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>175.01360775993609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1957.3935532706701</v>
       </c>
       <c r="B17" s="2">
         <v>7.6145902983662399</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>173.29985753029584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1998.85195231186</v>
       </c>
       <c r="B18" s="2">
         <v>7.5640257364536598</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>172.14906267040533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2036.24802876427</v>
       </c>
       <c r="B19" s="2">
         <v>7.4836035240438097</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>170.3187399075525</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2073.6516747618698</v>
       </c>
       <c r="B20" s="2">
         <v>7.4181437793056997</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>168.82894676142379</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2154.5373115498601</v>
       </c>
       <c r="B21" s="2">
         <v>7.3020858302319196</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>166.18759309016195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2226.311739103</v>
       </c>
       <c r="B22" s="2">
         <v>7.1762042936142398</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>163.32266516800976</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2288.9825269664998</v>
       </c>
       <c r="B23" s="2">
         <v>7.0554616371244103</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>160.57469261169163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2357.7089509871898</v>
       </c>
       <c r="B24" s="2">
         <v>6.9046931180218198</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>157.14336382619695</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2401.1682331419902</v>
       </c>
       <c r="B25" s="2">
         <v>6.8092075106709498</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>154.97021445089175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="E38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="16">
-        <v>22.7589208007</v>
-      </c>
+      <c r="B38" s="16"/>
+      <c r="H38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5881,7 +5773,8 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5889,42 +5782,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
   <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.7265625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.7265625" style="2" customWidth="1"/>
-    <col min="12" max="26" width="12.54296875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="2"/>
+    <col min="1" max="2" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="2" customWidth="1"/>
+    <col min="12" max="26" width="12.5703125" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="K1" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>71</v>
       </c>
@@ -5950,7 +5843,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.86962426160691997</v>
       </c>
@@ -5976,7 +5869,7 @@
         <v>1.1243372220380601</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.94893764578823703</v>
       </c>
@@ -6002,7 +5895,7 @@
         <v>1.0960617508183901</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.0028855950909701</v>
       </c>
@@ -6028,7 +5921,7 @@
         <v>1.0829711700179101</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.05365312672329</v>
       </c>
@@ -6054,7 +5947,7 @@
         <v>1.0459426761030199</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.10441607562122</v>
       </c>
@@ -6080,7 +5973,7 @@
         <v>1.03284980393534</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1488456855847</v>
       </c>
@@ -6106,7 +5999,7 @@
         <v>1.02625524914035</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.1996269654202101</v>
       </c>
@@ -6132,7 +6025,7 @@
         <v>1.0196606943453601</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.25039907978693</v>
       </c>
@@ -6158,7 +6051,7 @@
         <v>1.0152360642865901</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.2979953592176301</v>
       </c>
@@ -6184,7 +6077,7 @@
         <v>1.01081143422783</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.34876747358435</v>
       </c>
@@ -6204,7 +6097,7 @@
         <v>1.1718853827576099</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.4058820923543101</v>
       </c>
@@ -6224,7 +6117,7 @@
         <v>1.1588475034026799</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>0.36307171521055298</v>
       </c>
@@ -6238,7 +6131,7 @@
         <v>1.13930443257346</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>0.38518340866839401</v>
       </c>
@@ -6252,7 +6145,7 @@
         <v>1.1262596791169299</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.41047551979664798</v>
       </c>
@@ -6266,7 +6159,7 @@
         <v>1.113221799762</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>0.43577679639369299</v>
       </c>
@@ -6280,7 +6173,7 @@
         <v>1.0936695634639899</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>0.45472640311870299</v>
       </c>
@@ -6294,7 +6187,7 @@
         <v>1.06978435179513</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>0.47368517531250398</v>
       </c>
@@ -6302,7 +6195,7 @@
         <v>0.94691207718546699</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0.50215312137677504</v>
       </c>
@@ -6310,7 +6203,7 @@
         <v>0.98157358878513201</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>0.53061648470665101</v>
       </c>
@@ -6318,7 +6211,7 @@
         <v>1.01840273375382</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>0.56225110023814895</v>
       </c>
@@ -6326,7 +6219,7 @@
         <v>1.0552295873553099</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>0.58755237683519401</v>
       </c>
@@ -6334,7 +6227,7 @@
         <v>1.08772575695315</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>0.61601574016506999</v>
       </c>
@@ -6342,32 +6235,32 @@
         <v>1.1245549019218399</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Y36" s="5"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
     </row>
-    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
+    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -6392,31 +6285,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14F85A-DEBE-455F-A23B-C51456BB79FE}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="1"/>
-    <col min="4" max="4" width="16.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="3" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="E1" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6430,7 +6323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>291.10512129379998</v>
       </c>
@@ -6444,7 +6337,7 @@
         <v>0.43405939632353302</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>392.18328840970298</v>
       </c>
@@ -6458,7 +6351,7 @@
         <v>2.6735630509215298</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>493.26145552560598</v>
       </c>
@@ -6472,7 +6365,7 @@
         <v>3.34195381365191</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>598.38274932614502</v>
       </c>
@@ -6486,7 +6379,7 @@
         <v>4.2331414972924497</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>800.53908355795102</v>
       </c>
@@ -6500,7 +6393,7 @@
         <v>6.9206672980257604</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>897.57412398921804</v>
       </c>
@@ -6514,7 +6407,7 @@
         <v>9.6088001748378797</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>994.60916442048494</v>
       </c>
@@ -6528,7 +6421,7 @@
         <v>12.2963259755712</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>1103.7735849056601</v>
       </c>
@@ -6542,7 +6435,7 @@
         <v>14.983851776304499</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>1204.8517520215601</v>
       </c>
@@ -6556,7 +6449,7 @@
         <v>17.897816954420701</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>1297.84366576819</v>
       </c>
@@ -6570,7 +6463,7 @@
         <v>21.035793205604499</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>1407.00808625336</v>
       </c>
@@ -6584,7 +6477,7 @@
         <v>24.173162380709499</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>1504.0431266846299</v>
       </c>
@@ -6598,7 +6491,7 @@
         <v>27.0871275588256</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1605.1212938005301</v>
       </c>
@@ -6612,7 +6505,7 @@
         <v>30.2244967339306</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>1702.1563342318</v>
       </c>
@@ -6626,7 +6519,7 @@
         <v>33.362472985114401</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>1807.2776280323401</v>
       </c>
@@ -6640,7 +6533,7 @@
         <v>36.726281537602198</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>1896.2264150943299</v>
       </c>
@@ -6654,7 +6547,7 @@
         <v>39.8654719409436</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2001.34770889487</v>
       </c>
@@ -6668,7 +6561,7 @@
         <v>43.678516791724299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2106.4690026954099</v>
       </c>
@@ -6682,7 +6575,7 @@
         <v>46.591267817682798</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2203.5040431266798</v>
       </c>
@@ -6696,7 +6589,7 @@
         <v>49.729244068866599</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2304.58221024258</v>
       </c>
@@ -6710,7 +6603,7 @@
         <v>53.318277846579697</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2397.57412398921</v>
       </c>
@@ -6724,7 +6617,7 @@
         <v>56.6814793229887</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>2502.6954177897501</v>
       </c>
@@ -6738,7 +6631,7 @@
         <v>64.3093902527864</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>2595.68733153638</v>
       </c>
@@ -6752,7 +6645,7 @@
         <v>71.035186129525698</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>2704.8517520215601</v>
       </c>
@@ -6766,7 +6659,7 @@
         <v>78.212039532794194</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>2801.8867924528199</v>
       </c>
@@ -6780,7 +6673,7 @@
         <v>86.065175687817103</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2894.8787061994599</v>
       </c>
@@ -6794,7 +6687,7 @@
         <v>93.692479541536102</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>2999.99999999999</v>
       </c>
@@ -6808,7 +6701,7 @@
         <v>101.545615696559</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>3105.1212938005301</v>
       </c>
@@ -6822,7 +6715,7 @@
         <v>99.488234865593299</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>3202.1563342318</v>
       </c>
@@ -6830,7 +6723,7 @@
         <v>131.275345426288</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>3303.2345013477002</v>
       </c>
@@ -6838,7 +6731,7 @@
         <v>136.440348704499</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>3404.31266846361</v>
       </c>
@@ -6846,7 +6739,7 @@
         <v>141.38012675748499</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>3501.3477088948698</v>
       </c>
@@ -6854,7 +6747,7 @@
         <v>146.32051188654901</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -6862,14 +6755,14 @@
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6886,26 +6779,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B553CE-D45D-4700-B33F-6A1DCAC4DB71}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.54296875" style="9"/>
+    <col min="1" max="16384" width="12.5703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
@@ -6913,7 +6806,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>799.64081988570501</v>
       </c>
@@ -6921,7 +6814,7 @@
         <v>2.4231162508239801</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2195.3192394931998</v>
       </c>
@@ -6929,7 +6822,7 @@
         <v>2.76026803556505</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3619.2836121477599</v>
       </c>
@@ -6937,11 +6830,11 @@
         <v>4.1642678071846397</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6957,46 +6850,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73F6F46-AAA6-4839-9EF2-18966D033E04}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.54296875" style="2"/>
+    <col min="1" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="13"/>
-    </row>
-    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="T1" s="14"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -7040,7 +6933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>41.095890410958802</v>
       </c>
@@ -7084,7 +6977,7 @@
         <v>0.194615384615384</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>160.27397260273901</v>
       </c>
@@ -7128,7 +7021,7 @@
         <v>0.269230769230769</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>279.45205479452</v>
       </c>
@@ -7172,7 +7065,7 @@
         <v>0.31923076923076898</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>460.27397260273898</v>
       </c>
@@ -7216,7 +7109,7 @@
         <v>0.34769230769230702</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>595.890410958904</v>
       </c>
@@ -7260,7 +7153,7 @@
         <v>0.37076923076923002</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>731.50684931506805</v>
       </c>
@@ -7298,7 +7191,7 @@
         <v>0.28846153846153799</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J10">
         <v>1241.09589041095</v>
       </c>
@@ -7312,7 +7205,7 @@
         <v>0.29769230769230698</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>1343.8356164383499</v>
       </c>
@@ -7326,7 +7219,7 @@
         <v>0.302307692307692</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>1343.8356164383499</v>
       </c>
@@ -7340,7 +7233,7 @@
         <v>0.30923076923076898</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J13">
         <v>1426.0273972602699</v>
       </c>
@@ -7354,7 +7247,7 @@
         <v>0.31615384615384601</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J14">
         <v>1557.5342465753399</v>
       </c>
@@ -7368,7 +7261,7 @@
         <v>0.321538461538461</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J15">
         <v>1594.5205479452</v>
       </c>
@@ -7382,7 +7275,7 @@
         <v>0.33076923076922998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J16">
         <v>1532.87671232876</v>
       </c>
@@ -7396,7 +7289,7 @@
         <v>0.33384615384615302</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P17">
         <v>3419.17808219178</v>
       </c>
@@ -7404,7 +7297,7 @@
         <v>0.34076923076922999</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -7419,7 +7312,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7"/>
@@ -7435,32 +7328,32 @@
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7482,24 +7375,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1076AE9C-2C87-4A85-AE97-8A00D25B1C89}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>56</v>
       </c>
@@ -7507,7 +7400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21340.122381761099</v>
       </c>
@@ -7515,7 +7408,7 @@
         <v>158.992800460518</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24831.602326819098</v>
       </c>
@@ -7523,7 +7416,7 @@
         <v>159.20844493627101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>101861.279292703</v>
       </c>
@@ -7531,7 +7424,7 @@
         <v>150.972739531228</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>176464.960471147</v>
       </c>
@@ -7539,7 +7432,7 @@
         <v>150.83768573839299</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1453224.33355068</v>
       </c>
@@ -7547,7 +7440,7 @@
         <v>129.07709736858001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3684240.7464858801</v>
       </c>
@@ -7555,7 +7448,7 @@
         <v>130.982570227709</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4364834.9568849299</v>
       </c>
@@ -7563,7 +7456,7 @@
         <v>119.83860835188599</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6923317.7910996499</v>
       </c>
@@ -7571,7 +7464,7 @@
         <v>121.322728097129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7841494.97849371</v>
       </c>
@@ -7579,7 +7472,7 @@
         <v>114.655413060106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10802434.0502923</v>
       </c>
@@ -7587,11 +7480,11 @@
         <v>116.22969133190099</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7612,33 +7505,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="9"/>
+    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -7646,7 +7539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1200.40809187897</v>
       </c>
@@ -7654,7 +7547,7 @@
         <v>472.84372907645798</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1300.4383012778001</v>
       </c>
@@ -7662,7 +7555,7 @@
         <v>446.40308524527001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1398.95715741923</v>
       </c>
@@ -7670,7 +7563,7 @@
         <v>442.18295589251102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1499.18699617877</v>
       </c>
@@ -7678,7 +7571,7 @@
         <v>373.18133235815202</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1599.5625820379501</v>
       </c>
@@ -7686,11 +7579,11 @@
         <v>373.10642718209903</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4824803-C240-49FE-8015-0EF7030C5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC70C4-7941-4469-92A7-D4B58AAB9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="3" activeTab="14" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="10" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -24,11 +24,13 @@
     <sheet name="W_hardness" sheetId="16" r:id="rId9"/>
     <sheet name="W_Yield_Strength" sheetId="17" r:id="rId10"/>
     <sheet name="W_Ultimate Strength" sheetId="7" r:id="rId11"/>
-    <sheet name="W_ductility" sheetId="8" r:id="rId12"/>
-    <sheet name="W_toughness" sheetId="14" r:id="rId13"/>
-    <sheet name="W_creep" sheetId="11" r:id="rId14"/>
-    <sheet name="W_fatigue" sheetId="12" r:id="rId15"/>
-    <sheet name="W_chemical" sheetId="13" r:id="rId16"/>
+    <sheet name="W_Total_Elongation" sheetId="18" r:id="rId12"/>
+    <sheet name="W_Uniform_Elongation" sheetId="19" r:id="rId13"/>
+    <sheet name="W_ductility" sheetId="8" r:id="rId14"/>
+    <sheet name="W_toughness" sheetId="14" r:id="rId15"/>
+    <sheet name="W_creep" sheetId="11" r:id="rId16"/>
+    <sheet name="W_fatigue" sheetId="12" r:id="rId17"/>
+    <sheet name="W_chemical" sheetId="13" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -211,12 +213,6 @@
     <t>W Shen</t>
   </si>
   <si>
-    <t>W Skoro ASTM06</t>
-  </si>
-  <si>
-    <t>W Skoro ASTM03</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Fig 14. Properties of Tungsten
  and its Alloys Digital Materials Solutions, Inc.</t>
   </si>
@@ -330,18 +326,6 @@
     <t>Fig A-1, Schmidt, Frank F. The engineering properties of tungsten and tungsten alloys. Vol. 191. Defense Metals Information Center, Battelle Memorial Institute, 1963.</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of cycles to failure </t>
-  </si>
-  <si>
-    <t>W-Rolled Tungsten sheet</t>
-  </si>
-  <si>
-    <t>Max Stress (1000 PSI)</t>
-  </si>
-  <si>
-    <t>Fig A-23, Schmidt, Frank F. The engineering properties of tungsten and tungsten alloys. Vol. 191. Defense Metals Information Center, Battelle Memorial Institute, 1963.</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -349,36 +333,6 @@
   </si>
   <si>
     <t>Fig A-25, Schmidt, Frank F. The engineering properties of tungsten and tungsten alloys. Vol. 191. Defense Metals Information Center, Battelle Memorial Institute, 1963.</t>
-  </si>
-  <si>
-    <t>Specific enthalpy (KJ/g)</t>
-  </si>
-  <si>
-    <t>Density (g/cm^3)</t>
-  </si>
-  <si>
-    <t>W Seydel</t>
-  </si>
-  <si>
-    <t>W Hixson&amp;Winkler</t>
-  </si>
-  <si>
-    <t>W Berthault</t>
-  </si>
-  <si>
-    <t>W Miller&amp;Cezairliyan</t>
-  </si>
-  <si>
-    <t>W Petukhov&amp;Chekhovskoi</t>
-  </si>
-  <si>
-    <t>Fig 4. Korobenko, V. N., and A. D. Rakhel. "On the electronic specific heat of liquid tungsten." Journal of Physics: Condensed Matter 26.4 (2014): 045701.</t>
-  </si>
-  <si>
-    <t>Joule heat (KJ/g)</t>
-  </si>
-  <si>
-    <t>Fig 6. Korobenko, V. N., and A. D. Rakhel. "On the electronic specific heat of liquid tungsten." Journal of Physics: Condensed Matter 26.4 (2014): 045701.</t>
   </si>
   <si>
     <t>Cycles to failure (N)</t>
@@ -447,7 +401,25 @@
     <t xml:space="preserve"> Fig 8. Properties of Tungsten and its Alloys Digital Materials Solutions, Inc.</t>
   </si>
   <si>
-    <t>Resistivity (mu Omega m)</t>
+    <t>W Skoro SW</t>
+  </si>
+  <si>
+    <t>W Skoro HR</t>
+  </si>
+  <si>
+    <t>Uniform Elongation (%)</t>
+  </si>
+  <si>
+    <t>W K-doped WRe Nogami</t>
+  </si>
+  <si>
+    <t>T. Shen, Y. Dai, Y. Lee, Microstructure and tensile properties of tungsten at elevated temperatures,</t>
+  </si>
+  <si>
+    <t>S. Nogami, A. Hasegawa, M. Fukuda, M. Rieth, J. Reiser, G. Pintsuk, Mechanical properties of tungsten:</t>
+  </si>
+  <si>
+    <t>Total Elongation (%)</t>
   </si>
 </sst>
 </file>
@@ -540,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,26 +536,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -610,23 +573,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>791355</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>76769</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>134071</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29137</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C76DF4-BB56-8DBE-6D6A-B4DC0306B4A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62269C0-85DF-E0F2-C8C5-79029272DC59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,8 +605,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="4953000"/>
-          <a:ext cx="5591955" cy="4077269"/>
+          <a:off x="0" y="3829050"/>
+          <a:ext cx="5163271" cy="4029637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,20 +620,25 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5630061" cy="2934109"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>21003</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D3526C-B6C8-4383-9B18-9B95B2ED05C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455044D8-B06C-F7DD-F477-7D5646B490DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,57 +654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2724150" y="7105650"/>
-          <a:ext cx="5630061" cy="2934109"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>189154</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BDBBF1-C200-4EFC-29E6-71B1237BCD5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="3190875"/>
-          <a:ext cx="4152900" cy="3284779"/>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="3952875" cy="2878503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,7 +667,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -797,7 +716,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -846,7 +765,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -939,7 +858,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1038,55 +957,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>134071</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>29137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62269C0-85DF-E0F2-C8C5-79029272DC59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3829050"/>
-          <a:ext cx="5163271" cy="4029637"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1130,22 +1000,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5953956" cy="4153480"/>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762710</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF08C238-98F3-4868-8E7A-8E49FBB66C9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D6E06D-2F17-4629-B079-D18D5C52BAB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,56 +1036,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="590550" y="5143500"/>
-          <a:ext cx="5953956" cy="4153480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>710</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>48190</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA87F86-8713-6709-98A2-D498C22C92FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7067550"/>
+          <a:off x="0" y="8972550"/>
           <a:ext cx="5087060" cy="4048690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1223,7 +1049,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1272,7 +1098,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1282,8 +1108,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>702</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172152</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>181532</xdr:rowOff>
     </xdr:to>
@@ -1321,56 +1147,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>233901</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E676EC33-A167-CCA8-DDA5-A3980298233A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28576" y="3048000"/>
-          <a:ext cx="3529550" cy="2924175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1408,6 +1185,148 @@
         <a:xfrm>
           <a:off x="0" y="1905000"/>
           <a:ext cx="4936097" cy="2809875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5630061" cy="2934109"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04D3526C-B6C8-4383-9B18-9B95B2ED05C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="7105650"/>
+          <a:ext cx="5630061" cy="2934109"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>189154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BDBBF1-C200-4EFC-29E6-71B1237BCD5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="3190875"/>
+          <a:ext cx="4152900" cy="3284779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478221</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B70BE93-8661-7F52-05BA-AD3C162A35EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619501"/>
+          <a:ext cx="4745421" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,539 +1655,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AFBB79-7160-4576-990E-E539762E50F4}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:N49"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="16384" width="8.28515625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>0.615434995797141</v>
-      </c>
-      <c r="B4" s="1">
-        <v>17.549166433174499</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.34505813953488301</v>
-      </c>
-      <c r="E4" s="1">
-        <v>17.689815074250401</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.24552745867189599</v>
-      </c>
-      <c r="H4" s="1">
-        <v>18.456479405995999</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.16088189969179001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>18.934512468478498</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.29402843933875</v>
-      </c>
-      <c r="N4" s="1">
-        <v>18.6651933314653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.884074670776127</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16.343849817876102</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.39790907817315702</v>
-      </c>
-      <c r="E5" s="1">
-        <v>17.540298402913901</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.29838189969179002</v>
-      </c>
-      <c r="H5" s="1">
-        <v>18.297012468478499</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.201019193051274</v>
-      </c>
-      <c r="K5" s="1">
-        <v>18.904462034183201</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.304595124684785</v>
-      </c>
-      <c r="N5" s="1">
-        <v>18.645240263379002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.91790417483888997</v>
-      </c>
-      <c r="B6" s="1">
-        <v>16.234228775567299</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.446574670776127</v>
-      </c>
-      <c r="E6" s="1">
-        <v>17.281349817876102</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.34489002521714701</v>
-      </c>
-      <c r="H6" s="1">
-        <v>18.167427850938601</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.23272275147099999</v>
-      </c>
-      <c r="K6" s="1">
-        <v>18.834652563743301</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.401800224152423</v>
-      </c>
-      <c r="N6" s="1">
-        <v>18.485552675819498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.98133230596805798</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16.034908237601499</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.49730666853460298</v>
-      </c>
-      <c r="E7" s="1">
-        <v>17.1517441860465</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.39773746147380201</v>
-      </c>
-      <c r="H7" s="1">
-        <v>18.027861445783099</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.27710142897169998</v>
-      </c>
-      <c r="K7" s="1">
-        <v>18.7548297842532</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.52016671336508802</v>
-      </c>
-      <c r="N7" s="1">
-        <v>18.2063568226393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1.04054707200896</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15.805757915382401</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.54380078453348202</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17.061960633230498</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.44852899971980897</v>
-      </c>
-      <c r="H8" s="1">
-        <v>17.7291012888764</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.31303586438778302</v>
-      </c>
-      <c r="K8" s="1">
-        <v>18.665098767161599</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.61950476323900205</v>
-      </c>
-      <c r="N8" s="1">
-        <v>17.9869571308489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1.10400322219109</v>
-      </c>
-      <c r="B9" s="1">
-        <v>15.5268352479686</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.61143177360605205</v>
-      </c>
-      <c r="E9" s="1">
-        <v>16.922320678060998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.49715256374334499</v>
-      </c>
-      <c r="H9" s="1">
-        <v>17.589555898010602</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.34684785654244799</v>
-      </c>
-      <c r="K9" s="1">
-        <v>18.605229055757899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1.16956780610815</v>
-      </c>
-      <c r="B10" s="1">
-        <v>15.257852339590899</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.86923507985430004</v>
-      </c>
-      <c r="E10" s="1">
-        <v>16.503127626786199</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.54783552815914804</v>
-      </c>
-      <c r="H10" s="1">
-        <v>17.599253992714999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.38277878957691203</v>
-      </c>
-      <c r="K10" s="1">
-        <v>18.525448304847199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1.22669865508545</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14.949110395068599</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.90308559820678003</v>
-      </c>
-      <c r="E11" s="1">
-        <v>16.3338049873914</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.596459092182684</v>
-      </c>
-      <c r="H11" s="1">
-        <v>17.459708601849201</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.42716447184085099</v>
-      </c>
-      <c r="K11" s="1">
-        <v>18.4257249929952</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1.2880533762958799</v>
-      </c>
-      <c r="B12" s="1">
-        <v>14.640347436256601</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.95594704398991304</v>
-      </c>
-      <c r="E12" s="1">
-        <v>16.154437517511901</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.61759596525637395</v>
-      </c>
-      <c r="H12" s="1">
-        <v>17.409852199495599</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.46943821798823099</v>
-      </c>
-      <c r="K12" s="1">
-        <v>18.326012188288001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1.3536459792658999</v>
-      </c>
-      <c r="B13" s="1">
-        <v>14.291762398430899</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0003957691230001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>15.875609414401699</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.867175679462034</v>
-      </c>
-      <c r="H13" s="1">
-        <v>16.353884141216</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.53916713365088198</v>
-      </c>
-      <c r="K13" s="1">
-        <v>18.2261627906976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1.4213470159708499</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13.9531171196413</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.0469249089380701</v>
-      </c>
-      <c r="E14" s="1">
-        <v>15.686323199775799</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.94750980666853402</v>
-      </c>
-      <c r="H14" s="1">
-        <v>16.1246287475483</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.58989562902773796</v>
-      </c>
-      <c r="K14" s="1">
-        <v>18.106507425048999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <v>1.10609764639955</v>
-      </c>
-      <c r="E15" s="1">
-        <v>15.576576071728701</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1.0024796861866001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>15.955201036704899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <v>1.15054286915102</v>
-      </c>
-      <c r="E16" s="1">
-        <v>15.3076982347996</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.04900532362006</v>
-      </c>
-      <c r="H16" s="1">
-        <v>15.77586508826</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
-        <v>1.2013133931073099</v>
-      </c>
-      <c r="E17" s="1">
-        <v>15.0686396749789</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1.1018807789296701</v>
-      </c>
-      <c r="H17" s="1">
-        <v>15.556696553656399</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="1">
-        <v>1.2478565424488599</v>
-      </c>
-      <c r="E18" s="1">
-        <v>14.839552395628999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.14840641636312</v>
-      </c>
-      <c r="H18" s="1">
-        <v>15.3773606052115</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="1">
-        <v>1.3049103390305401</v>
-      </c>
-      <c r="E19" s="1">
-        <v>14.7497163070888</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1.1970544970579899</v>
-      </c>
-      <c r="H19" s="1">
-        <v>15.1681633510787</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="1">
-        <v>1.3556878677500599</v>
-      </c>
-      <c r="E20" s="1">
-        <v>14.4907572149061</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1.24991944522275</v>
-      </c>
-      <c r="H20" s="1">
-        <v>14.9788456150182</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="1">
-        <v>1.4001435976463901</v>
-      </c>
-      <c r="E21" s="1">
-        <v>14.192028579434</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.3028019052955999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>14.7397765480526</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="1">
-        <v>1.35145699075371</v>
-      </c>
-      <c r="H22" s="1">
-        <v>14.5106787615578</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="1">
-        <v>1.40433594844494</v>
-      </c>
-      <c r="H23" s="1">
-        <v>14.281559960773301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-    </row>
+    <row r="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2276,42 +1676,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49AD77F-8B12-49E9-AB0E-8DA6E26FE1AE}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:Q52"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="14"/>
+      <c r="M1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="12"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="14"/>
+      <c r="P1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2376,331 +1779,347 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>469.58174904942899</v>
-      </c>
-      <c r="B4">
-        <v>1219.2471173761101</v>
+      <c r="A4" s="1">
+        <v>472</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1222.05</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4">
-        <v>287.07224334600699</v>
-      </c>
-      <c r="E4">
-        <v>1377.4127484620799</v>
+      <c r="D4" s="1">
+        <v>291.35985312117498</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1377.4649634694099</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4">
-        <v>321.29277566539901</v>
-      </c>
-      <c r="H4">
-        <v>1286.0188877554101</v>
+      <c r="G4" s="1">
+        <v>321.95960832313301</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1290.89602437692</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4">
-        <v>319.39163498098799</v>
-      </c>
-      <c r="K4">
-        <v>1395.77112120931</v>
+      <c r="J4" s="1">
+        <v>471.08646350106301</v>
+      </c>
+      <c r="K4" s="1">
+        <v>668.82918895216903</v>
       </c>
       <c r="L4" s="2"/>
-      <c r="M4">
-        <v>1718.63117870722</v>
+      <c r="M4" s="1">
+        <v>1719.5562616402201</v>
       </c>
       <c r="N4">
-        <v>90.688274753470296</v>
+        <v>85.381737759999993</v>
       </c>
       <c r="O4" s="2"/>
-      <c r="P4">
-        <v>1965.7794676806</v>
+      <c r="P4" s="1">
+        <v>1962.1945788483899</v>
       </c>
       <c r="Q4">
-        <v>54.605242820489501</v>
+        <v>51.986326869999999</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>498.09885931558898</v>
-      </c>
-      <c r="B5">
-        <v>1179.67093264088</v>
+      <c r="A5" s="1">
+        <v>501</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1182.21</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5">
-        <v>811.78707224334596</v>
-      </c>
-      <c r="E5">
-        <v>890.67436396797405</v>
+      <c r="D5" s="1">
+        <v>808.49571603427205</v>
+      </c>
+      <c r="E5" s="1">
+        <v>897.39179639096903</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5">
-        <v>473.38403041825001</v>
-      </c>
-      <c r="H5">
-        <v>908.27923583418396</v>
+      <c r="G5" s="1">
+        <v>471.89840881273</v>
+      </c>
+      <c r="H5" s="1">
+        <v>909.97151083359995</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5">
-        <v>469.58174904942899</v>
-      </c>
-      <c r="K5">
-        <v>1072.9056539614801</v>
+      <c r="J5" s="1">
+        <v>523.71763992066496</v>
+      </c>
+      <c r="K5" s="1">
+        <v>605.79338088706902</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5">
-        <v>1773.76425855513</v>
+      <c r="M5" s="1">
+        <v>1772.4074273753099</v>
       </c>
       <c r="N5">
-        <v>87.751553371047294</v>
+        <v>80.581656330000001</v>
       </c>
       <c r="O5" s="2"/>
-      <c r="P5">
-        <v>2017.1102661596899</v>
+      <c r="P5" s="1">
+        <v>2015.2094101228299</v>
       </c>
       <c r="Q5">
-        <v>51.660793223901898</v>
+        <v>46.934924279999997</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>526.61596958174903</v>
-      </c>
-      <c r="B6">
-        <v>1146.19230888126</v>
+      <c r="A6" s="1">
+        <v>527</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1147.42</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6">
-        <v>1100.7604562737599</v>
-      </c>
-      <c r="E6">
-        <v>696.13975702494702</v>
+      <c r="D6" s="1">
+        <v>1099.1933904528801</v>
+      </c>
+      <c r="E6" s="1">
+        <v>696.24769083429601</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6">
-        <v>663.49809885931495</v>
-      </c>
-      <c r="H6">
-        <v>713.54369532288501</v>
+      <c r="G6" s="1">
+        <v>661.61689106487097</v>
+      </c>
+      <c r="H6" s="1">
+        <v>710.69773493727996</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6">
-        <v>657.79467680608298</v>
-      </c>
-      <c r="K6">
-        <v>847.67844446505296</v>
+      <c r="J6" s="1">
+        <v>574.47759892723695</v>
+      </c>
+      <c r="K6" s="1">
+        <v>510.29781419371898</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6">
-        <v>1826.9961977186299</v>
+      <c r="M6" s="1">
+        <v>1825.2585931103899</v>
       </c>
       <c r="N6">
-        <v>78.7134069059327</v>
+        <v>73.248198590000001</v>
       </c>
       <c r="O6" s="2"/>
-      <c r="P6">
-        <v>2076.0456273764198</v>
+      <c r="P6" s="1">
+        <v>2072.02438025637</v>
       </c>
       <c r="Q6">
-        <v>51.780580543447897</v>
+        <v>42.330817529999997</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>551.33079847908698</v>
-      </c>
-      <c r="B7">
-        <v>1106.6083959318601</v>
+      <c r="A7" s="1">
+        <v>552</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1113.33</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7">
-        <v>1380.22813688212</v>
-      </c>
-      <c r="E7">
-        <v>474.14680515626401</v>
+      <c r="D7" s="1">
+        <v>1374.5911872705001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>474.358388569233</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7">
-        <v>865.01901140684402</v>
-      </c>
-      <c r="H7">
-        <v>576.75816872237101</v>
+      <c r="G7" s="1">
+        <v>863.57527539779699</v>
+      </c>
+      <c r="H7" s="1">
+        <v>580.62827462769701</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7">
-        <v>861.21673003802198</v>
-      </c>
-      <c r="K7">
-        <v>671.262635630158</v>
+      <c r="J7" s="1">
+        <v>623.06551810288101</v>
+      </c>
+      <c r="K7" s="1">
+        <v>473.58192822071197</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7">
-        <v>1929.6577946768</v>
+      <c r="M7" s="1">
+        <v>1924.3545288636701</v>
       </c>
       <c r="N7">
-        <v>72.824507712758006</v>
+        <v>63.91470692</v>
       </c>
       <c r="O7" s="2"/>
-      <c r="P7">
-        <v>2133.0798479087398</v>
+      <c r="P7" s="1">
+        <v>2132.6253548324198</v>
       </c>
       <c r="Q7">
-        <v>45.798942780302603</v>
+        <v>37.319386369999997</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>577.94676806083601</v>
-      </c>
-      <c r="B8">
-        <v>1079.2234690407699</v>
+      <c r="A8" s="1">
+        <v>578</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1079.23</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8">
-        <v>1642.5855513307899</v>
-      </c>
-      <c r="E8">
-        <v>239.923954372623</v>
+      <c r="D8" s="1">
+        <v>1637.7490820073399</v>
+      </c>
+      <c r="E8" s="1">
+        <v>242.102842410883</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8">
-        <v>1083.65019011406</v>
-      </c>
-      <c r="H8">
-        <v>485.73912640267099</v>
+      <c r="G8" s="1">
+        <v>1080.8335373317</v>
+      </c>
+      <c r="H8" s="1">
+        <v>483.41773166927197</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8">
-        <v>1083.65019011406</v>
-      </c>
-      <c r="K8">
-        <v>577.20254103681702</v>
+      <c r="J8" s="1">
+        <v>673.01988487169206</v>
+      </c>
+      <c r="K8" s="1">
+        <v>472.42248724054099</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8">
-        <v>2024.7148288973301</v>
+      <c r="M8" s="1">
+        <v>2018.4956678292899</v>
       </c>
       <c r="N8">
-        <v>66.920152091255204</v>
+        <v>54.447879649999997</v>
       </c>
       <c r="O8" s="2"/>
-      <c r="P8">
-        <v>2235.7414448669201</v>
+      <c r="P8" s="1">
+        <v>2231.1785840750899</v>
       </c>
       <c r="Q8">
-        <v>39.9100435871282</v>
+        <v>33.81009083</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>600.76045627376402</v>
-      </c>
-      <c r="B9">
-        <v>1045.7332529599</v>
+      <c r="A9" s="1">
+        <v>603</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1044.44</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9">
-        <v>1920.1520912547501</v>
-      </c>
-      <c r="E9">
-        <v>66.707626201737796</v>
+      <c r="D9" s="1">
+        <v>1916.2068543451701</v>
+      </c>
+      <c r="E9" s="1">
+        <v>70.394717930019496</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9">
-        <v>1258.5551330798401</v>
-      </c>
-      <c r="H9">
-        <v>434.265355961544</v>
+      <c r="G9" s="1">
+        <v>1258.3121175030601</v>
+      </c>
+      <c r="H9" s="1">
+        <v>432.98661175605503</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1">
+        <v>722.102376497102</v>
+      </c>
+      <c r="K9" s="1">
+        <v>435.70277725374598</v>
+      </c>
       <c r="L9" s="2"/>
-      <c r="M9">
-        <v>2121.6730038022802</v>
+      <c r="M9" s="1">
+        <v>2117.5916035825799</v>
       </c>
       <c r="N9">
-        <v>48.824538625614402</v>
+        <v>44.314374409999999</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9">
-        <v>2296.57794676806</v>
+      <c r="P9" s="1">
+        <v>2292.5307019325401</v>
       </c>
       <c r="Q9">
-        <v>36.984914525951801</v>
+        <v>28.350928960000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>623.57414448669101</v>
-      </c>
-      <c r="B10">
-        <v>1012.24303687903</v>
+      <c r="A10" s="1">
+        <v>628</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1010.34</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10">
-        <v>2201.5209125475199</v>
-      </c>
-      <c r="E10">
-        <v>39.840489659649798</v>
+      <c r="D10" s="1">
+        <v>2200.7845777233802</v>
+      </c>
+      <c r="E10" s="1">
+        <v>35.3901109458618</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="1">
+        <v>471.13999969407899</v>
+      </c>
+      <c r="K10" s="1">
+        <v>652.59166161047096</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10">
-        <v>2332.6996197718599</v>
+      <c r="M10" s="1">
+        <v>2229.9003307696298</v>
       </c>
       <c r="N10">
-        <v>43.1558935361222</v>
+        <v>36.314238690000003</v>
       </c>
       <c r="O10" s="2"/>
-      <c r="P10">
-        <v>2378.3269961977098</v>
+      <c r="P10" s="1">
+        <v>2373.6837912911701</v>
       </c>
       <c r="Q10">
-        <v>34.102290642678703</v>
+        <v>27.6513384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>663.49809885931495</v>
-      </c>
-      <c r="B11">
-        <v>975.73881727410401</v>
+      <c r="A11" s="1">
+        <v>664</v>
+      </c>
+      <c r="B11" s="1">
+        <v>976.25</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="1">
+        <v>2479.2423500611999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>24.621417861784501</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="1">
+        <v>521.86426790530697</v>
+      </c>
+      <c r="K11" s="1">
+        <v>567.92111314492001</v>
+      </c>
       <c r="L11" s="2"/>
-      <c r="M11">
-        <v>2235.7414448669201</v>
+      <c r="M11" s="1">
+        <v>2325.69306866447</v>
       </c>
       <c r="N11">
-        <v>42.958824074933503</v>
+        <v>31.247486070000001</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11">
-        <v>2477.1863117870698</v>
+      <c r="P11" s="1">
+        <v>2473.0043174341999</v>
       </c>
       <c r="Q11">
-        <v>34.303224210949701</v>
+        <v>24.671021020000001</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>676.80608365018998</v>
-      </c>
-      <c r="B12">
-        <v>942.22928065782605</v>
+      <c r="A12" s="1">
+        <v>679</v>
+      </c>
+      <c r="B12" s="1">
+        <v>942.15</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2709,25 +2128,33 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="1">
+        <v>572.64462165207601</v>
+      </c>
+      <c r="K12" s="1">
+        <v>466.23982174997099</v>
+      </c>
       <c r="L12" s="2"/>
-      <c r="M12">
-        <v>2439.1634980988501</v>
+      <c r="M12" s="1">
+        <v>2429.7438012054199</v>
       </c>
       <c r="N12">
-        <v>34.225942069306697</v>
+        <v>27.247418209999999</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="P12" s="1">
+        <v>2573.0975250172201</v>
+      </c>
+      <c r="Q12">
+        <v>22.54525142</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>703.422053231939</v>
-      </c>
-      <c r="B13">
-        <v>905.698012303317</v>
+      <c r="A13" s="1">
+        <v>705</v>
+      </c>
+      <c r="B13" s="1">
+        <v>907.36</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2736,21 +2163,28 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="1">
+        <v>621.16880726460704</v>
+      </c>
+      <c r="K13" s="1">
+        <v>448.854325469461</v>
+      </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13" s="1">
+        <v>2527.1881380294799</v>
+      </c>
+      <c r="N13">
+        <v>23.11401476</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>731.93916349809797</v>
-      </c>
-      <c r="B14">
-        <v>875.26816903149995</v>
+      <c r="A14" s="1">
+        <v>730</v>
+      </c>
+      <c r="B14" s="1">
+        <v>873.96</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2759,21 +2193,28 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="1">
+        <v>672.07662813760305</v>
+      </c>
+      <c r="K14" s="1">
+        <v>458.51225468951498</v>
+      </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="1">
+        <v>2621.3292769950999</v>
+      </c>
+      <c r="N14">
+        <v>20.580638449999999</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>781.36882129277501</v>
-      </c>
-      <c r="B15">
-        <v>802.19790410831797</v>
+      <c r="A15" s="1">
+        <v>781</v>
+      </c>
+      <c r="B15" s="1">
+        <v>805.77</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2782,21 +2223,28 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="1">
+        <v>671.21749970682595</v>
+      </c>
+      <c r="K15" s="1">
+        <v>419.08590774439301</v>
+      </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" s="1">
+        <v>2667.5740470133001</v>
+      </c>
+      <c r="N15">
+        <v>19.647289279999999</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>806.08365019011399</v>
-      </c>
-      <c r="B16">
-        <v>780.906674085752</v>
+      <c r="A16" s="1">
+        <v>806</v>
+      </c>
+      <c r="B16" s="1">
+        <v>779.33</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2805,21 +2253,23 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="1">
+        <v>722.55870880899795</v>
+      </c>
+      <c r="K16" s="1">
+        <v>447.29718705545798</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>908.74524714828794</v>
-      </c>
-      <c r="B17">
-        <v>710.99338464867503</v>
+      <c r="A17" s="1">
+        <v>959</v>
+      </c>
+      <c r="B17" s="1">
+        <v>684.74</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2828,21 +2278,23 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="1">
+        <v>771.99555904532201</v>
+      </c>
+      <c r="K17" s="1">
+        <v>453.10051037837297</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>958.17490494296499</v>
-      </c>
-      <c r="B18">
-        <v>692.80116850598097</v>
+      <c r="A18" s="1">
+        <v>908</v>
+      </c>
+      <c r="B18" s="1">
+        <v>710.47</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2851,21 +2303,23 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="J18" s="1">
+        <v>774.05542780516896</v>
+      </c>
+      <c r="K18" s="1">
+        <v>428.34231551682802</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1062.73764258555</v>
-      </c>
-      <c r="B19">
-        <v>628.98930415159703</v>
+      <c r="A19" s="1">
+        <v>959</v>
+      </c>
+      <c r="B19" s="1">
+        <v>684.74</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2874,21 +2328,23 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="1">
+        <v>723.10936679430404</v>
+      </c>
+      <c r="K19" s="1">
+        <v>430.28262011227298</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1134.98098859315</v>
-      </c>
-      <c r="B20">
-        <v>583.40443290364499</v>
+      <c r="A20" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B20" s="1">
+        <v>628.41</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -2901,17 +2357,15 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1190.11406844106</v>
-      </c>
-      <c r="B21">
-        <v>549.97990664317297</v>
+      <c r="A21" s="1">
+        <v>1136</v>
+      </c>
+      <c r="B21" s="1">
+        <v>579.02</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2924,17 +2378,16 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1268.0608365019</v>
-      </c>
-      <c r="B22">
-        <v>489.16272527744297</v>
+      <c r="A22" s="1">
+        <v>1187</v>
+      </c>
+      <c r="B22" s="1">
+        <v>544.94000000000005</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2947,17 +2400,16 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1288.97338403041</v>
-      </c>
-      <c r="B23">
-        <v>455.668645089493</v>
+      <c r="A23" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B23" s="1">
+        <v>483.72</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2970,17 +2422,16 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1342.2053231939101</v>
-      </c>
-      <c r="B24">
-        <v>388.70366935608502</v>
+      <c r="A24" s="1">
+        <v>1289</v>
+      </c>
+      <c r="B24" s="1">
+        <v>455.2</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2993,17 +2444,16 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1403.0418250950499</v>
-      </c>
-      <c r="B25">
-        <v>291.26634517295702</v>
+      <c r="A25" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B25" s="1">
+        <v>386.31</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3016,17 +2466,16 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1429.6577946768</v>
-      </c>
-      <c r="B26">
-        <v>260.83263779405797</v>
+      <c r="A26" s="1">
+        <v>1403</v>
+      </c>
+      <c r="B26" s="1">
+        <v>287.5</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -3039,17 +2488,16 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1479.08745247148</v>
-      </c>
-      <c r="B27">
-        <v>206.05505579770599</v>
+      <c r="A27" s="1">
+        <v>1429</v>
+      </c>
+      <c r="B27" s="1">
+        <v>253.4</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3068,11 +2516,11 @@
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1557.03422053231</v>
-      </c>
-      <c r="B28">
-        <v>142.18909394417099</v>
+      <c r="A28" s="1">
+        <v>1480</v>
+      </c>
+      <c r="B28" s="1">
+        <v>195.65</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3091,11 +2539,11 @@
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1583.65019011406</v>
-      </c>
-      <c r="B29">
-        <v>120.901728028687</v>
+      <c r="A29" s="1">
+        <v>1556</v>
+      </c>
+      <c r="B29" s="1">
+        <v>135.83000000000001</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3114,11 +2562,11 @@
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1807.9847908745201</v>
-      </c>
-      <c r="B30">
-        <v>72.577204859501506</v>
+      <c r="A30" s="1">
+        <v>1581</v>
+      </c>
+      <c r="B30" s="1">
+        <v>119.83</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3137,11 +2585,11 @@
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1946.7680608364999</v>
-      </c>
-      <c r="B31">
-        <v>60.664162725277698</v>
+      <c r="A31" s="1">
+        <v>1810</v>
+      </c>
+      <c r="B31" s="1">
+        <v>67.040000000000006</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3160,11 +2608,11 @@
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1711.02661596958</v>
-      </c>
-      <c r="B32">
-        <v>182.13623295928801</v>
+      <c r="A32" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B32" s="1">
+        <v>59.45</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -3183,11 +2631,11 @@
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2114.06844106463</v>
-      </c>
-      <c r="B33">
-        <v>54.906643172896104</v>
+      <c r="A33" s="1">
+        <v>2114</v>
+      </c>
+      <c r="B33" s="1">
+        <v>50.49</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3206,11 +2654,11 @@
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2309.8859315589302</v>
-      </c>
-      <c r="B34">
-        <v>43.109524251136399</v>
+      <c r="A34" s="1">
+        <v>2317</v>
+      </c>
+      <c r="B34" s="1">
+        <v>40.15</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3286,46 +2734,46 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
+      <c r="A49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
     </row>
     <row r="52" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
+      <c r="A52" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3347,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3403,14 +2851,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -3570,13 +3018,13 @@
       <c r="F34" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3590,6 +3038,428 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3020762B-09A6-4698-8DE0-2E0869AA4EBF}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>356.24990316799199</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>288.01948930348499</v>
+      </c>
+      <c r="E4">
+        <v>19.1643911413667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>464.34949290898402</v>
+      </c>
+      <c r="B5">
+        <v>16.997835076247299</v>
+      </c>
+      <c r="D5">
+        <v>354.97207857918102</v>
+      </c>
+      <c r="E5">
+        <v>6.3145556845843798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>568.54186856295303</v>
+      </c>
+      <c r="B6">
+        <v>21.712476878129198</v>
+      </c>
+      <c r="D6">
+        <v>442.80307907024201</v>
+      </c>
+      <c r="E6">
+        <v>14.9251120247103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>657.10538786882603</v>
+      </c>
+      <c r="B7">
+        <v>14.084180866525999</v>
+      </c>
+      <c r="D7">
+        <v>537.10582456456598</v>
+      </c>
+      <c r="E7">
+        <v>21.0978834566763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>762.60016821846796</v>
+      </c>
+      <c r="B8">
+        <v>13.243073155827201</v>
+      </c>
+      <c r="D8">
+        <v>627.49115294032902</v>
+      </c>
+      <c r="E8">
+        <v>15.086792448395199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>862.88532978541298</v>
+      </c>
+      <c r="B9">
+        <v>10.6196022215287</v>
+      </c>
+      <c r="D9">
+        <v>726.49281068325195</v>
+      </c>
+      <c r="E9">
+        <v>16.385144541439701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1165.04321918192</v>
+      </c>
+      <c r="B10">
+        <v>10.773615712442901</v>
+      </c>
+      <c r="D10">
+        <v>823.52146172807704</v>
+      </c>
+      <c r="E10">
+        <v>11.310388738256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1372.1255657941799</v>
+      </c>
+      <c r="B11">
+        <v>16.293677812212199</v>
+      </c>
+      <c r="D11">
+        <v>920.80747927160405</v>
+      </c>
+      <c r="E11">
+        <v>11.2968131049579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1562.27665136268</v>
+      </c>
+      <c r="B12">
+        <v>61.802712721977699</v>
+      </c>
+      <c r="D12">
+        <v>1107.2302575261799</v>
+      </c>
+      <c r="E12">
+        <v>13.145323489791799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1288.7110551722601</v>
+      </c>
+      <c r="E13">
+        <v>15.0882497197661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1478.74622358397</v>
+      </c>
+      <c r="E14">
+        <v>23.122186787945601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4DEC4A-2FB4-4F74-97C1-3931F806A241}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>367.83559215159102</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>305.87941859011499</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13.9244105734671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>472.52664297066599</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.6954942339035499</v>
+      </c>
+      <c r="D5" s="2">
+        <v>372.48239152131498</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7.2539846854706402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>566.722526480841</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.9837281967792304</v>
+      </c>
+      <c r="D6" s="2">
+        <v>475.676811930773</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10.6545939617041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>677.66211737605204</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.8853758945989099</v>
+      </c>
+      <c r="D7" s="2">
+        <v>579.50042290191902</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8.4747162205287996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>767.52730195348499</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.50561257320821</v>
+      </c>
+      <c r="D8" s="2">
+        <v>673.08557920933401</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.59453384123674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>861.25238394378698</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.2310244976631199</v>
+      </c>
+      <c r="D9" s="2">
+        <v>764.35515849404806</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.1204482600594696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>975.78284281193999</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.77337770508799497</v>
+      </c>
+      <c r="D10" s="2">
+        <v>877.93668053832198</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.0250218675905298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1178.9715541708999</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.819142384345518</v>
+      </c>
+      <c r="D11" s="2">
+        <v>973.72881219656995</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.1530707711204098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1373.5025680574099</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.0022011013755701</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1163.93904238594</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.93508299700286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1567.3384808432399</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25.760892579690299</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1369.03842457008</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.71709522288535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>1577.32637129984</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.84514412641520598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96129535-FEF3-45F0-8A22-F7741A343589}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -3608,27 +3478,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3732,13 +3602,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3751,7 +3621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -3767,27 +3637,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="15"/>
+      <c r="A1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3933,13 +3803,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3952,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
   <dimension ref="A1:AC34"/>
   <sheetViews>
@@ -3984,107 +3854,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="N1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="Q1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="T1" s="11"/>
+      <c r="V1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="S1" s="15" t="s">
+      <c r="W1" s="11"/>
+      <c r="Y1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="Z1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="Y1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="15"/>
-      <c r="AB1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="15"/>
+      <c r="AC1" s="11"/>
     </row>
     <row r="3" spans="1:29" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -4448,53 +4318,53 @@
       <c r="AC19"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="P34" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="V34" s="15"/>
-      <c r="W34" s="15"/>
-      <c r="X34" s="15"/>
-      <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
-      <c r="AA34" s="15"/>
-      <c r="AB34" s="15"/>
-      <c r="AC34" s="15"/>
+      <c r="A34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="P34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P34:AC34"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A34:N34"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4502,11 +4372,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="M40" sqref="M40:W40"/>
     </sheetView>
   </sheetViews>
@@ -4518,87 +4388,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="14"/>
-      <c r="V1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="W1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="P1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="12"/>
+      <c r="S1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="12"/>
+      <c r="V1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="12"/>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -5150,32 +5020,32 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="M40" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
+      <c r="A40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="M40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5196,7 +5066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DECAD-F51B-46B3-9AAB-81A8CA08E74C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5217,8 +5087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8953B6-FF81-4C42-8C9F-1BD7638290AD}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G16" sqref="G4:G16"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,22 +5098,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5272,274 +5142,274 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>28.495028187111402</v>
-      </c>
-      <c r="B4" s="1">
-        <v>71.785801104332805</v>
-      </c>
-      <c r="D4" s="1">
-        <v>21.243937166471699</v>
-      </c>
-      <c r="E4" s="1">
-        <v>64.523597300519697</v>
-      </c>
-      <c r="G4" s="1">
-        <v>23.059025084792701</v>
-      </c>
-      <c r="H4" s="1">
-        <v>66.418095315267294</v>
-      </c>
-      <c r="J4" s="1">
-        <v>26.652158310856901</v>
-      </c>
-      <c r="K4" s="1">
-        <v>68.943938324053306</v>
+      <c r="A4">
+        <v>28.201282302961701</v>
+      </c>
+      <c r="B4">
+        <v>71.586070640020196</v>
+      </c>
+      <c r="D4">
+        <v>20.588268966968201</v>
+      </c>
+      <c r="E4">
+        <v>64.556553471781598</v>
+      </c>
+      <c r="G4">
+        <v>23.302820319894899</v>
+      </c>
+      <c r="H4">
+        <v>66.200865485183996</v>
+      </c>
+      <c r="J4">
+        <v>26.0690318163177</v>
+      </c>
+      <c r="K4">
+        <v>68.796319426778396</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>119.93934272517799</v>
-      </c>
-      <c r="B5" s="1">
-        <v>70.036926852419896</v>
-      </c>
-      <c r="D5" s="1">
-        <v>142.52144419877899</v>
-      </c>
-      <c r="E5" s="1">
-        <v>60.086587102225998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>77.507032308101799</v>
-      </c>
-      <c r="H5" s="1">
-        <v>63.095141630106298</v>
-      </c>
-      <c r="J5" s="1">
-        <v>96.912729924641397</v>
-      </c>
-      <c r="K5" s="1">
-        <v>64.829430354104204</v>
+      <c r="A5">
+        <v>120.53790514785</v>
+      </c>
+      <c r="B5">
+        <v>69.786949460586499</v>
+      </c>
+      <c r="D5">
+        <v>142.50090027260501</v>
+      </c>
+      <c r="E5">
+        <v>59.774810145367397</v>
+      </c>
+      <c r="G5">
+        <v>78.707602812095701</v>
+      </c>
+      <c r="H5">
+        <v>62.819626462140398</v>
+      </c>
+      <c r="J5">
+        <v>95.101017961417995</v>
+      </c>
+      <c r="K5">
+        <v>64.3973532803914</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>172.595413661777</v>
-      </c>
-      <c r="B6" s="1">
-        <v>65.608945790454499</v>
-      </c>
-      <c r="D6" s="1">
-        <v>181.156887031613</v>
-      </c>
-      <c r="E6" s="1">
-        <v>57.5551877018532</v>
-      </c>
-      <c r="G6" s="1">
-        <v>119.63837151423201</v>
-      </c>
-      <c r="H6" s="1">
-        <v>59.773808559158198</v>
-      </c>
-      <c r="J6" s="1">
-        <v>197.01575468531101</v>
-      </c>
-      <c r="K6" s="1">
-        <v>58.342574692951402</v>
+      <c r="A6">
+        <v>173.971326917108</v>
+      </c>
+      <c r="B6">
+        <v>65.341435099879305</v>
+      </c>
+      <c r="D6">
+        <v>179.90580158955501</v>
+      </c>
+      <c r="E6">
+        <v>57.562508589551598</v>
+      </c>
+      <c r="G6">
+        <v>120.015089883069</v>
+      </c>
+      <c r="H6">
+        <v>59.687661392015599</v>
+      </c>
+      <c r="J6">
+        <v>196.35281579165999</v>
+      </c>
+      <c r="K6">
+        <v>58.208600724284899</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>207.66550522648001</v>
-      </c>
-      <c r="B7" s="1">
-        <v>61.499068146827597</v>
-      </c>
-      <c r="D7" s="1">
-        <v>469.46878581267998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>48.9909361362242</v>
-      </c>
-      <c r="G7" s="1">
-        <v>221.53333256161201</v>
-      </c>
-      <c r="H7" s="1">
-        <v>54.391980274809796</v>
-      </c>
-      <c r="J7" s="1">
-        <v>293.65066503061797</v>
-      </c>
-      <c r="K7" s="1">
-        <v>53.593017467906002</v>
+      <c r="A7">
+        <v>204.68691441901601</v>
+      </c>
+      <c r="B7">
+        <v>61.333514184192701</v>
+      </c>
+      <c r="D7">
+        <v>467.84024343444901</v>
+      </c>
+      <c r="E7">
+        <v>49.052184232753497</v>
+      </c>
+      <c r="G7">
+        <v>221.45014563231501</v>
+      </c>
+      <c r="H7">
+        <v>54.367031921701297</v>
+      </c>
+      <c r="J7">
+        <v>293.02700045815402</v>
+      </c>
+      <c r="K7">
+        <v>53.633559503218898</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>286.83482468426899</v>
-      </c>
-      <c r="B8" s="1">
-        <v>61.172861657425301</v>
-      </c>
-      <c r="D8" s="1">
-        <v>552.115480338476</v>
-      </c>
-      <c r="E8" s="1">
-        <v>47.243219465891798</v>
-      </c>
-      <c r="G8" s="1">
-        <v>323.48848785118099</v>
-      </c>
-      <c r="H8" s="1">
-        <v>51.062775649113803</v>
-      </c>
-      <c r="J8" s="1">
-        <v>392.12844525217901</v>
-      </c>
-      <c r="K8" s="1">
-        <v>51.68532302314</v>
+      <c r="A8">
+        <v>285.31760266821101</v>
+      </c>
+      <c r="B8">
+        <v>60.804963339365699</v>
+      </c>
+      <c r="D8">
+        <v>549.34085256254605</v>
+      </c>
+      <c r="E8">
+        <v>47.167561879541203</v>
+      </c>
+      <c r="G8">
+        <v>325.73937655568</v>
+      </c>
+      <c r="H8">
+        <v>50.866130203100603</v>
+      </c>
+      <c r="J8">
+        <v>391.67097189295799</v>
+      </c>
+      <c r="K8">
+        <v>51.749178512838903</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>344.71853403868602</v>
-      </c>
-      <c r="B9" s="1">
-        <v>55.007350643036503</v>
-      </c>
-      <c r="D9" s="1">
-        <v>671.70291826316395</v>
-      </c>
-      <c r="E9" s="1">
-        <v>45.174852697743802</v>
-      </c>
-      <c r="G9" s="1">
-        <v>427.21242779584799</v>
-      </c>
-      <c r="H9" s="1">
-        <v>48.049127762278999</v>
-      </c>
-      <c r="J9" s="1">
-        <v>497.63969115723398</v>
-      </c>
-      <c r="K9" s="1">
-        <v>49.6188083855209</v>
+      <c r="A9">
+        <v>343.12144592900199</v>
+      </c>
+      <c r="B9">
+        <v>54.843398340922398</v>
+      </c>
+      <c r="D9">
+        <v>670.09718677270905</v>
+      </c>
+      <c r="E9">
+        <v>45.166693454033499</v>
+      </c>
+      <c r="G9">
+        <v>426.27973576055001</v>
+      </c>
+      <c r="H9">
+        <v>47.992158050172797</v>
+      </c>
+      <c r="J9">
+        <v>495.29840869280901</v>
+      </c>
+      <c r="K9">
+        <v>49.429797272340103</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>450.20199798580802</v>
-      </c>
-      <c r="B10" s="1">
-        <v>51.993471239885601</v>
-      </c>
-      <c r="D10" s="1">
-        <v>759.63744544896701</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43.7422297336404</v>
-      </c>
-      <c r="G10" s="1">
-        <v>522.16189935985699</v>
-      </c>
-      <c r="H10" s="1">
-        <v>45.826108094967999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>592.59842337388704</v>
-      </c>
-      <c r="K10" s="1">
-        <v>47.711576973387203</v>
+      <c r="A10">
+        <v>450.09366649787</v>
+      </c>
+      <c r="B10">
+        <v>51.627290298190402</v>
+      </c>
+      <c r="D10">
+        <v>758.25342701410602</v>
+      </c>
+      <c r="E10">
+        <v>43.927734893070998</v>
+      </c>
+      <c r="G10">
+        <v>522.13109289365298</v>
+      </c>
+      <c r="H10">
+        <v>45.745003681324498</v>
+      </c>
+      <c r="J10">
+        <v>591.25366876825899</v>
+      </c>
+      <c r="K10">
+        <v>47.4938503839509</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>555.685461932929</v>
-      </c>
-      <c r="B11" s="1">
-        <v>48.979591836734699</v>
-      </c>
-      <c r="G11" s="1">
-        <v>625.90899093613598</v>
-      </c>
-      <c r="H11" s="1">
-        <v>43.6019308460763</v>
+      <c r="A11">
+        <v>553.40221841669802</v>
+      </c>
+      <c r="B11">
+        <v>48.5085898888427</v>
+      </c>
+      <c r="G11">
+        <v>623.62905699367604</v>
+      </c>
+      <c r="H11">
+        <v>43.812208348059201</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>643.59220716079903</v>
-      </c>
-      <c r="B12" s="1">
-        <v>46.599604107099402</v>
-      </c>
-      <c r="G12" s="1">
-        <v>720.87698380543304</v>
-      </c>
-      <c r="H12" s="1">
-        <v>42.010487689119898</v>
+      <c r="A12">
+        <v>642.80009390654402</v>
+      </c>
+      <c r="B12">
+        <v>46.366667938214</v>
+      </c>
+      <c r="G12">
+        <v>722.30895997280402</v>
+      </c>
+      <c r="H12">
+        <v>42.004553008423102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>757.91959438341405</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45.163508398254301</v>
-      </c>
-      <c r="G13" s="1">
-        <v>826.39286003681104</v>
-      </c>
-      <c r="H13" s="1">
-        <v>40.101867179089403</v>
+      <c r="A13">
+        <v>756.40198316075896</v>
+      </c>
+      <c r="B13">
+        <v>44.8636049329521</v>
+      </c>
+      <c r="G13">
+        <v>824.751714303933</v>
+      </c>
+      <c r="H13">
+        <v>40.3228201335696</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="1">
-        <v>921.37937421139702</v>
-      </c>
-      <c r="H14" s="1">
-        <v>39.142000532487501</v>
+      <c r="G14">
+        <v>921.56417124056702</v>
+      </c>
+      <c r="H14">
+        <v>39.205055591997599</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="1">
-        <v>1019.87104541192</v>
-      </c>
-      <c r="H15" s="1">
-        <v>37.7079884704874</v>
+      <c r="G15">
+        <v>1020.24523918915</v>
+      </c>
+      <c r="H15">
+        <v>37.460137921566201</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16" s="1">
-        <v>1121.89102527</v>
-      </c>
-      <c r="H16" s="1">
-        <v>36.589301631032399</v>
+      <c r="G16">
+        <v>1120.82520735562</v>
+      </c>
+      <c r="H16">
+        <v>36.719246521595103</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
+      <c r="A41" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5559,8 +5429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234A6B1F-5943-445E-8C13-06397E85A588}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5571,201 +5441,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1261.58329653693</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8.2296494880043696</v>
+      <c r="A4" s="1">
+        <v>1260.8629442644101</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.7748306918380496</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1352.6121238882199</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8.1632982190542194</v>
+      <c r="A5" s="1">
+        <v>1350.5180196921799</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.8496416955125001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1430.4876048697399</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8.0971656258542009</v>
+      <c r="A6" s="1">
+        <v>1432.2946152872501</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.91454432950753</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1499.2518766164101</v>
-      </c>
-      <c r="B7" s="2">
-        <v>8.02120944511028</v>
+      <c r="A7" s="1">
+        <v>1500.25735242415</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6.9890017498357597</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1602.41468491768</v>
-      </c>
-      <c r="B8" s="2">
-        <v>7.9396938539498301</v>
+      <c r="A8" s="1">
+        <v>1600.75377540626</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7.0688794421419097</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1624.6641014319</v>
-      </c>
-      <c r="B9" s="2">
-        <v>7.9193738304001302</v>
+      <c r="A9" s="1">
+        <v>1623.41284270965</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.0888086852927401</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1683.3179839777899</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7.85854832944342</v>
+      <c r="A10" s="1">
+        <v>1680.5390538832801</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7.1533095200306898</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1714.6710401816599</v>
-      </c>
-      <c r="B11" s="2">
-        <v>7.8330894257658903</v>
+      <c r="A11" s="1">
+        <v>1714.0346471499299</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7.1831953487718003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1783.44288147353</v>
-      </c>
-      <c r="B12" s="2">
-        <v>7.7720957126936998</v>
+      <c r="A12" s="1">
+        <v>1782.0214922422599</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.2332032843071197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1811.74288778149</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7.7117748480834303</v>
+      <c r="A13" s="1">
+        <v>1810.54843589594</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.3021279288654597</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1876.4902542105499</v>
-      </c>
-      <c r="B14" s="2">
-        <v>7.6957358228726402</v>
+      <c r="A14" s="1">
+        <v>1874.6201490273399</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7.3227321947681698</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1912.8745347883601</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7.61533043167434</v>
+      <c r="A15" s="1">
+        <v>1910.04920031902</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7.3917693431184803</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1928.0893206333101</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7.6898904518597897</v>
+      <c r="A16" s="1">
+        <v>1926.8789640007899</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7.3235840091931603</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1957.3935532706701</v>
-      </c>
-      <c r="B17" s="2">
-        <v>7.6145902983662399</v>
+      <c r="A17" s="1">
+        <v>1956.39192303133</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7.3925247257217803</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1998.85195231186</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7.5640257364536598</v>
+      <c r="A18" s="1">
+        <v>1999.71874052004</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.4519106559171897</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2036.24802876427</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7.4836035240438097</v>
+      <c r="A19" s="1">
+        <v>2035.14779181173</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7.52094780426751</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2073.6516747618698</v>
-      </c>
-      <c r="B20" s="2">
-        <v>7.4181437793056997</v>
+      <c r="A20" s="1">
+        <v>2072.55369544821</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7.5851271995997998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>2154.5373115498601</v>
-      </c>
-      <c r="B21" s="2">
-        <v>7.3020858302319196</v>
+      <c r="A21" s="1">
+        <v>2153.2767733912401</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.7184723190446798</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2226.311739103</v>
-      </c>
-      <c r="B22" s="2">
-        <v>7.1762042936142398</v>
+      <c r="A22" s="1">
+        <v>2224.1541623389498</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7.8369870279109799</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2288.9825269664998</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7.0554616371244103</v>
+      <c r="A23" s="1">
+        <v>2288.1342652397402</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7.95049933602672</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>2357.7089509871898</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6.9046931180218198</v>
+      <c r="A24" s="1">
+        <v>2357.0010507050501</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.1081010766211001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2401.1682331419902</v>
-      </c>
-      <c r="B25" s="2">
-        <v>6.8092075106709498</v>
+      <c r="A25" s="1">
+        <v>2400.2892954650902</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.2066061824851602</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="16"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="H38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5780,536 +5650,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="2" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="2" customWidth="1"/>
-    <col min="12" max="26" width="12.5703125" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="16384" width="8" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.86962426160691997</v>
-      </c>
-      <c r="B4">
-        <v>1.16772425992658</v>
-      </c>
-      <c r="D4">
-        <v>0.16409855323075101</v>
-      </c>
-      <c r="E4">
-        <v>0.38138432185460103</v>
-      </c>
-      <c r="G4">
-        <v>0.35038212366966998</v>
-      </c>
-      <c r="H4">
-        <v>0.76925550424590305</v>
-      </c>
-      <c r="J4">
-        <v>0.91728469931915801</v>
-      </c>
-      <c r="K4">
-        <v>1.1243372220380601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.94893764578823703</v>
-      </c>
-      <c r="B5">
-        <v>1.1524935421634399</v>
-      </c>
-      <c r="D5">
-        <v>0.18939066435900501</v>
-      </c>
-      <c r="E5">
-        <v>0.418215758190491</v>
-      </c>
-      <c r="G5">
-        <v>0.40092968405101398</v>
-      </c>
-      <c r="H5">
-        <v>0.86025944386990505</v>
-      </c>
-      <c r="J5">
-        <v>1.05053686733442</v>
-      </c>
-      <c r="K5">
-        <v>1.0960617508183901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1.0028855950909701</v>
-      </c>
-      <c r="B6">
-        <v>1.13511352196886</v>
-      </c>
-      <c r="D6">
-        <v>0.205169018882393</v>
-      </c>
-      <c r="E6">
-        <v>0.45505406862797398</v>
-      </c>
-      <c r="G6">
-        <v>0.457883907117139</v>
-      </c>
-      <c r="H6">
-        <v>0.92091193359312296</v>
-      </c>
-      <c r="J6">
-        <v>1.1679006952008</v>
-      </c>
-      <c r="K6">
-        <v>1.0829711700179101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1.05365312672329</v>
-      </c>
-      <c r="B7">
-        <v>1.12207105987953</v>
-      </c>
-      <c r="D7">
-        <v>0.21460028626814101</v>
-      </c>
-      <c r="E7">
-        <v>0.49406459516888102</v>
-      </c>
-      <c r="G7">
-        <v>0.50207979762644905</v>
-      </c>
-      <c r="H7">
-        <v>1.0162557226895701</v>
-      </c>
-      <c r="J7">
-        <v>1.41533627341204</v>
-      </c>
-      <c r="K7">
-        <v>1.0459426761030199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1.10441607562122</v>
-      </c>
-      <c r="B8">
-        <v>1.1111962311592301</v>
-      </c>
-      <c r="D8">
-        <v>0.230383223525925</v>
-      </c>
-      <c r="E8">
-        <v>0.52873527223733596</v>
-      </c>
-      <c r="G8">
-        <v>0.87579720483753398</v>
-      </c>
-      <c r="H8">
-        <v>1.24792211184621</v>
-      </c>
-      <c r="J8">
-        <v>1.5358713534800501</v>
-      </c>
-      <c r="K8">
-        <v>1.03284980393534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1.1488456855847</v>
-      </c>
-      <c r="B9">
-        <v>1.09599071843527</v>
-      </c>
-      <c r="D9">
-        <v>0.25250408245255701</v>
-      </c>
-      <c r="E9">
-        <v>0.56556899994042398</v>
-      </c>
-      <c r="G9">
-        <v>0.91070389272735297</v>
-      </c>
-      <c r="H9">
-        <v>1.2370587399619</v>
-      </c>
-      <c r="J9">
-        <v>1.66273518974811</v>
-      </c>
-      <c r="K9">
-        <v>1.02625524914035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1.1996269654202101</v>
-      </c>
-      <c r="B10">
-        <v>1.0764453562388501</v>
-      </c>
-      <c r="D10">
-        <v>0.26829618517913101</v>
-      </c>
-      <c r="E10">
-        <v>0.59590441027082397</v>
-      </c>
-      <c r="G10">
-        <v>0.95196225048920702</v>
-      </c>
-      <c r="H10">
-        <v>1.2218555186051301</v>
-      </c>
-      <c r="J10">
-        <v>1.78959902601618</v>
-      </c>
-      <c r="K10">
-        <v>1.0196606943453601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1.25039907978693</v>
-      </c>
-      <c r="B11">
-        <v>1.0612352607805</v>
-      </c>
-      <c r="D11">
-        <v>0.28407912243691402</v>
-      </c>
-      <c r="E11">
-        <v>0.63057508733927903</v>
-      </c>
-      <c r="G11">
-        <v>1.00272978212153</v>
-      </c>
-      <c r="H11">
-        <v>1.2088130565158</v>
-      </c>
-      <c r="J11">
-        <v>1.9132870273482301</v>
-      </c>
-      <c r="K11">
-        <v>1.0152360642865901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1.2979953592176301</v>
-      </c>
-      <c r="B12">
-        <v>1.0481950900583601</v>
-      </c>
-      <c r="D12">
-        <v>0.29668622475868001</v>
-      </c>
-      <c r="E12">
-        <v>0.66741568914395999</v>
-      </c>
-      <c r="G12">
-        <v>1.05351564469143</v>
-      </c>
-      <c r="H12">
-        <v>1.1871000609503599</v>
-      </c>
-      <c r="J12">
-        <v>2.0369750286802701</v>
-      </c>
-      <c r="K12">
-        <v>1.01081143422783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1.34876747358435</v>
-      </c>
-      <c r="B13">
-        <v>1.03298499460001</v>
-      </c>
-      <c r="D13">
-        <v>0.32515875355734702</v>
-      </c>
-      <c r="E13">
-        <v>0.69990956737459697</v>
-      </c>
-      <c r="G13">
-        <v>1.1106302634614</v>
-      </c>
-      <c r="H13">
-        <v>1.1718853827576099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1.4058820923543101</v>
-      </c>
-      <c r="B14">
-        <v>1.01777031640725</v>
-      </c>
-      <c r="D14">
-        <v>0.34410836028235697</v>
-      </c>
-      <c r="E14">
-        <v>0.73674558644488197</v>
-      </c>
-      <c r="G14">
-        <v>1.1550552906904801</v>
-      </c>
-      <c r="H14">
-        <v>1.1588475034026799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>0.36307171521055298</v>
-      </c>
-      <c r="E15">
-        <v>0.76707870540808398</v>
-      </c>
-      <c r="G15">
-        <v>1.2026653183243601</v>
-      </c>
-      <c r="H15">
-        <v>1.13930443257346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>0.38518340866839401</v>
-      </c>
-      <c r="E16">
-        <v>0.80824769984922695</v>
-      </c>
-      <c r="G16">
-        <v>1.2566041021583101</v>
-      </c>
-      <c r="H16">
-        <v>1.1262596791169299</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>0.41047551979664798</v>
-      </c>
-      <c r="E17">
-        <v>0.84507913618511699</v>
-      </c>
-      <c r="G17">
-        <v>1.3010291293873899</v>
-      </c>
-      <c r="H17">
-        <v>1.113221799762</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>0.43577679639369299</v>
-      </c>
-      <c r="E18">
-        <v>0.87757530578295195</v>
-      </c>
-      <c r="G18">
-        <v>1.3613241658277699</v>
-      </c>
-      <c r="H18">
-        <v>1.0936695634639899</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>0.45472640311870299</v>
-      </c>
-      <c r="E19">
-        <v>0.91441132485323695</v>
-      </c>
-      <c r="G19">
-        <v>1.4184571155353101</v>
-      </c>
-      <c r="H19">
-        <v>1.06978435179513</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>0.47368517531250398</v>
-      </c>
-      <c r="E20">
-        <v>0.94691207718546699</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <v>0.50215312137677504</v>
-      </c>
-      <c r="E21">
-        <v>0.98157358878513201</v>
-      </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>0.53061648470665101</v>
-      </c>
-      <c r="E22">
-        <v>1.01840273375382</v>
-      </c>
-    </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <v>0.56225110023814895</v>
-      </c>
-      <c r="E23">
-        <v>1.0552295873553099</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>0.58755237683519401</v>
-      </c>
-      <c r="E24">
-        <v>1.08772575695315</v>
-      </c>
-    </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <v>0.61601574016506999</v>
-      </c>
-      <c r="E25">
-        <v>1.1245549019218399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Y36" s="5"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="52" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
+    <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14F85A-DEBE-455F-A23B-C51456BB79FE}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="16.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6322,453 +5716,585 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>291.10512129379998</v>
-      </c>
-      <c r="B4" s="12">
-        <v>6.9376654282314396</v>
-      </c>
-      <c r="D4" s="12">
-        <v>105.121293800538</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.43405939632353302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>392.18328840970298</v>
-      </c>
-      <c r="B5" s="12">
-        <v>10.075641679415201</v>
-      </c>
-      <c r="D5" s="12">
-        <v>190.02695417789701</v>
-      </c>
-      <c r="E5" s="12">
-        <v>2.6735630509215298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>493.26145552560598</v>
-      </c>
-      <c r="B6" s="12">
-        <v>13.213617930599</v>
-      </c>
-      <c r="D6" s="12">
-        <v>238.54447439353001</v>
-      </c>
-      <c r="E6" s="12">
-        <v>3.34195381365191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>598.38274932614502</v>
-      </c>
-      <c r="B7" s="12">
-        <v>16.8014375561545</v>
-      </c>
-      <c r="D7" s="12">
-        <v>303.23450134770798</v>
-      </c>
-      <c r="E7" s="12">
-        <v>4.2331414972924497</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>800.53908355795102</v>
-      </c>
-      <c r="B8" s="12">
-        <v>24.203516184648201</v>
-      </c>
-      <c r="D8" s="12">
-        <v>404.31266846361098</v>
-      </c>
-      <c r="E8" s="12">
-        <v>6.9206672980257604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>897.57412398921804</v>
-      </c>
-      <c r="B9" s="12">
-        <v>28.6934508632621</v>
-      </c>
-      <c r="D9" s="12">
-        <v>501.347708894878</v>
-      </c>
-      <c r="E9" s="12">
-        <v>9.6088001748378797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>994.60916442048494</v>
-      </c>
-      <c r="B10" s="12">
-        <v>32.057259415749897</v>
-      </c>
-      <c r="D10" s="12">
-        <v>602.42587601078105</v>
-      </c>
-      <c r="E10" s="12">
-        <v>12.2963259755712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>1103.7735849056601</v>
-      </c>
-      <c r="B11" s="12">
-        <v>36.094922415677097</v>
-      </c>
-      <c r="D11" s="12">
-        <v>703.504043126684</v>
-      </c>
-      <c r="E11" s="12">
-        <v>14.983851776304499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>1204.8517520215601</v>
-      </c>
-      <c r="B12" s="12">
-        <v>40.359024792987</v>
-      </c>
-      <c r="D12" s="12">
-        <v>796.49595687331498</v>
-      </c>
-      <c r="E12" s="12">
-        <v>17.897816954420701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>1297.84366576819</v>
-      </c>
-      <c r="B13" s="12">
-        <v>44.399116097229196</v>
-      </c>
-      <c r="D13" s="12">
-        <v>897.57412398921804</v>
-      </c>
-      <c r="E13" s="12">
-        <v>21.035793205604499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>1407.00808625336</v>
-      </c>
-      <c r="B14" s="12">
-        <v>48.662004322381598</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1002.69541778975</v>
-      </c>
-      <c r="E14" s="12">
-        <v>24.173162380709499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>1504.0431266846299</v>
-      </c>
-      <c r="B15" s="12">
-        <v>53.151939000995498</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1095.68733153638</v>
-      </c>
-      <c r="E15" s="12">
-        <v>27.0871275588256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>1605.1212938005301</v>
-      </c>
-      <c r="B16" s="12">
-        <v>57.190816153080199</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1200.8086253369199</v>
-      </c>
-      <c r="E16" s="12">
-        <v>30.2244967339306</v>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>300</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.37E-4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1540.61</v>
+      </c>
+      <c r="H4" s="2">
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>400</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10.26</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.6700000000000001E-4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1810.32</v>
+      </c>
+      <c r="H5" s="2">
+        <v>51.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>500</v>
+      </c>
+      <c r="B6" s="2">
+        <v>13.66</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2079.63</v>
+      </c>
+      <c r="H6" s="2">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>600</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17.23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2345.2600000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>67.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>800</v>
+      </c>
+      <c r="B8" s="2">
+        <v>24.8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2610.41</v>
+      </c>
+      <c r="H8" s="2">
+        <v>81.489999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>900</v>
+      </c>
+      <c r="B9" s="2">
+        <v>28.75</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="D10" s="2">
+        <v>60</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B11" s="2">
+        <v>36.840000000000003</v>
+      </c>
+      <c r="D11" s="2">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B12" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.60599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1300</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44.9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B14" s="2">
+        <v>49.1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B15" s="2">
+        <v>53.35</v>
+      </c>
+      <c r="D15" s="2">
+        <v>200</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B16" s="2">
+        <v>57.6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>250</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>1702.1563342318</v>
-      </c>
-      <c r="B17" s="12">
-        <v>61.455525606468903</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1301.8867924528299</v>
-      </c>
-      <c r="E17" s="12">
-        <v>33.362472985114401</v>
+      <c r="A17" s="2">
+        <v>1700</v>
+      </c>
+      <c r="B17" s="2">
+        <v>61.95</v>
+      </c>
+      <c r="D17" s="2">
+        <v>273</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4.82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>1807.2776280323401</v>
-      </c>
-      <c r="B18" s="12">
-        <v>65.719020907700099</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1398.92183288409</v>
-      </c>
-      <c r="E18" s="12">
-        <v>36.726281537602198</v>
+      <c r="A18" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B18" s="2">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="D18" s="2">
+        <v>300</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5.44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>1896.2264150943299</v>
-      </c>
-      <c r="B19" s="12">
-        <v>70.435394963696794</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1491.91374663072</v>
-      </c>
-      <c r="E19" s="12">
-        <v>39.8654719409436</v>
+      <c r="A19" s="2">
+        <v>1900</v>
+      </c>
+      <c r="B19" s="2">
+        <v>70.75</v>
+      </c>
+      <c r="D19" s="2">
+        <v>400</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.83</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>2001.34770889487</v>
-      </c>
-      <c r="B20" s="12">
-        <v>74.924115490153198</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1597.0350404312601</v>
-      </c>
-      <c r="E20" s="12">
-        <v>43.678516791724299</v>
+      <c r="A20" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="2">
+        <v>75.2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>500</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10.35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>2106.4690026954099</v>
-      </c>
-      <c r="B21" s="12">
-        <v>79.412836016609504</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1698.1132075471601</v>
-      </c>
-      <c r="E21" s="12">
-        <v>46.591267817682798</v>
+      <c r="A21" s="2">
+        <v>2100</v>
+      </c>
+      <c r="B21" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>600</v>
+      </c>
+      <c r="E21" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>2203.5040431266798</v>
-      </c>
-      <c r="B22" s="12">
-        <v>83.677545469998194</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1799.1913746630701</v>
-      </c>
-      <c r="E22" s="12">
-        <v>49.729244068866599</v>
+      <c r="A22" s="2">
+        <v>2200</v>
+      </c>
+      <c r="B22" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>700</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15.76</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>2304.58221024258</v>
-      </c>
-      <c r="B23" s="12">
-        <v>88.392098297758594</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1896.2264150943299</v>
-      </c>
-      <c r="E23" s="12">
-        <v>53.318277846579697</v>
+      <c r="A23" s="2">
+        <v>2300</v>
+      </c>
+      <c r="B23" s="2">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2">
+        <v>800</v>
+      </c>
+      <c r="E23" s="2">
+        <v>18.61</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>2397.57412398921</v>
-      </c>
-      <c r="B24" s="12">
-        <v>93.107865277676495</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1997.3045822102399</v>
-      </c>
-      <c r="E24" s="12">
-        <v>56.6814793229887</v>
+      <c r="A24" s="2">
+        <v>2400</v>
+      </c>
+      <c r="B24" s="2">
+        <v>93.65</v>
+      </c>
+      <c r="D24" s="2">
+        <v>900</v>
+      </c>
+      <c r="E24" s="2">
+        <v>21.53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>2502.6954177897501</v>
-      </c>
-      <c r="B25" s="12">
-        <v>97.821811029358102</v>
-      </c>
-      <c r="D25" s="12">
-        <v>2195.41778975741</v>
-      </c>
-      <c r="E25" s="12">
-        <v>64.3093902527864</v>
+      <c r="A25" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B25" s="2">
+        <v>98.4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>24.51</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>2595.68733153638</v>
-      </c>
-      <c r="B26" s="12">
-        <v>102.087127558825</v>
-      </c>
-      <c r="D26" s="12">
-        <v>2401.6172506738499</v>
-      </c>
-      <c r="E26" s="12">
-        <v>71.035186129525698</v>
+      <c r="A26" s="2">
+        <v>2600</v>
+      </c>
+      <c r="B26" s="2">
+        <v>103.2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="2">
+        <v>27.57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>2704.8517520215601</v>
-      </c>
-      <c r="B27" s="12">
-        <v>107.25091668487801</v>
-      </c>
-      <c r="D27" s="12">
-        <v>2603.7735849056598</v>
-      </c>
-      <c r="E27" s="12">
-        <v>78.212039532794194</v>
+      <c r="A27" s="2">
+        <v>2700</v>
+      </c>
+      <c r="B27" s="2">
+        <v>107.8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="2">
+        <v>30.68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>2801.8867924528199</v>
-      </c>
-      <c r="B28" s="12">
-        <v>112.191301813943</v>
-      </c>
-      <c r="D28" s="12">
-        <v>2801.8867924528199</v>
-      </c>
-      <c r="E28" s="12">
-        <v>86.065175687817103</v>
+      <c r="A28" s="2">
+        <v>2800</v>
+      </c>
+      <c r="B28" s="2">
+        <v>112.7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E28" s="2">
+        <v>33.840000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>2894.8787061994599</v>
-      </c>
-      <c r="B29" s="12">
-        <v>116.907068793861</v>
-      </c>
-      <c r="D29" s="12">
-        <v>3004.0431266846299</v>
-      </c>
-      <c r="E29" s="12">
-        <v>93.692479541536102</v>
+      <c r="A29" s="2">
+        <v>2900</v>
+      </c>
+      <c r="B29" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1400</v>
+      </c>
+      <c r="E29" s="2">
+        <v>37.07</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>2999.99999999999</v>
-      </c>
-      <c r="B30" s="12">
-        <v>121.84623977076799</v>
-      </c>
-      <c r="D30" s="12">
-        <v>3202.1563342318</v>
-      </c>
-      <c r="E30" s="12">
-        <v>101.545615696559</v>
+      <c r="A30" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B30" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E30" s="2">
+        <v>40.33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>3105.1212938005301</v>
-      </c>
-      <c r="B31" s="12">
-        <v>127.0106359729</v>
-      </c>
-      <c r="D31" s="12">
-        <v>3404.31266846361</v>
-      </c>
-      <c r="E31" s="12">
-        <v>99.488234865593299</v>
+      <c r="A31" s="2">
+        <v>3100</v>
+      </c>
+      <c r="B31" s="2">
+        <v>127.4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43.65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>3202.1563342318</v>
-      </c>
-      <c r="B32" s="12">
-        <v>131.275345426288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>3303.2345013477002</v>
-      </c>
-      <c r="B33" s="12">
-        <v>136.440348704499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>3404.31266846361</v>
-      </c>
-      <c r="B34" s="12">
-        <v>141.38012675748499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>3501.3477088948698</v>
-      </c>
-      <c r="B35" s="12">
-        <v>146.32051188654901</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-    </row>
-    <row r="60" spans="1:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
+      <c r="A32" s="2">
+        <v>3200</v>
+      </c>
+      <c r="B32" s="2">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E32" s="2">
+        <v>47.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>3300</v>
+      </c>
+      <c r="B33" s="2">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="2">
+        <v>50.41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>3400</v>
+      </c>
+      <c r="B34" s="2">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1900</v>
+      </c>
+      <c r="E34" s="2">
+        <v>53.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>3500</v>
+      </c>
+      <c r="B35" s="2">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>57.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>3655</v>
+      </c>
+      <c r="B36" s="2">
+        <v>155</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2200</v>
+      </c>
+      <c r="E36" s="2">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <v>2400</v>
+      </c>
+      <c r="E37" s="2">
+        <v>71.63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <v>2600</v>
+      </c>
+      <c r="E38" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <v>2800</v>
+      </c>
+      <c r="E39" s="2">
+        <v>86.51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>94.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <v>3400</v>
+      </c>
+      <c r="E42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <v>3600</v>
+      </c>
+      <c r="E43" s="2">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <v>3660</v>
+      </c>
+      <c r="E44" s="2">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A60:E60"/>
+  <mergeCells count="4">
+    <mergeCell ref="A68:E68"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6779,20 +6305,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B553CE-D45D-4700-B33F-6A1DCAC4DB71}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="9"/>
+    <col min="1" max="16384" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -6800,41 +6326,41 @@
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>799.64081988570501</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2.4231162508239801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2195.3192394931998</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2.76026803556505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>3619.2836121477599</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.1642678071846397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>799.64081988570501</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2.4231162508239801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2195.3192394931998</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2.76026803556505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>3619.2836121477599</v>
-      </c>
-      <c r="B6" s="9">
-        <v>4.1642678071846397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6850,44 +6376,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73F6F46-AAA6-4839-9EF2-18966D033E04}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="12.5703125" style="2"/>
+    <col min="1" max="2" width="12.5703125" style="2"/>
+    <col min="3" max="3" width="5" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" style="2"/>
+    <col min="6" max="6" width="5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="2"/>
+    <col min="9" max="9" width="5" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" style="2"/>
+    <col min="12" max="12" width="5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="12.5703125" style="2"/>
+    <col min="15" max="15" width="5" style="2" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" style="2"/>
+    <col min="18" max="18" width="5" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="N1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6934,367 +6472,367 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>41.095890410958802</v>
-      </c>
-      <c r="B4">
-        <v>2.76923076923077E-2</v>
-      </c>
-      <c r="D4">
-        <v>41.095890410958802</v>
-      </c>
-      <c r="E4">
-        <v>1.15384615384616E-2</v>
-      </c>
-      <c r="G4">
-        <v>45.205479452054703</v>
-      </c>
-      <c r="H4">
-        <v>1.46153846153846E-2</v>
-      </c>
-      <c r="J4">
-        <v>850.68493150684901</v>
-      </c>
-      <c r="K4">
-        <v>6.5384615384615402E-2</v>
-      </c>
-      <c r="M4">
-        <v>1360.2739726027301</v>
-      </c>
-      <c r="N4">
-        <v>0.27615384615384603</v>
-      </c>
-      <c r="P4">
-        <v>1836.98630136986</v>
-      </c>
-      <c r="Q4">
-        <v>0.23769230769230701</v>
-      </c>
-      <c r="S4">
-        <v>1343.8356164383499</v>
-      </c>
-      <c r="T4">
-        <v>0.194615384615384</v>
+      <c r="A4" s="2">
+        <v>42.44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.9049999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>38.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.3849999999999999E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43.07</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.643E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>853.44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.7180000000000004E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1364</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.27668999999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1833.14</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.23873</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1345.01</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.19628999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>160.27397260273901</v>
-      </c>
-      <c r="B5">
-        <v>4.3076923076923103E-2</v>
-      </c>
-      <c r="D5">
-        <v>168.49315068493101</v>
-      </c>
-      <c r="E5">
-        <v>1.8461538461538401E-2</v>
-      </c>
-      <c r="G5">
-        <v>156.16438356164301</v>
-      </c>
-      <c r="H5">
-        <v>0.02</v>
-      </c>
-      <c r="J5">
-        <v>879.45205479452</v>
-      </c>
-      <c r="K5">
-        <v>0.08</v>
-      </c>
-      <c r="M5">
-        <v>1684.9315068493099</v>
-      </c>
-      <c r="N5">
-        <v>0.31153846153846099</v>
-      </c>
-      <c r="P5">
-        <v>1960.2739726027301</v>
-      </c>
-      <c r="Q5">
-        <v>0.25307692307692298</v>
-      </c>
-      <c r="S5">
-        <v>1869.8630136986201</v>
-      </c>
-      <c r="T5">
-        <v>0.269230769230769</v>
+      <c r="A5" s="2">
+        <v>158.9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.4810000000000003E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>160.25</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0729999999999998E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>156.91999999999999</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.264E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>884.53</v>
+      </c>
+      <c r="K5" s="2">
+        <v>8.1409999999999996E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1683.16</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.31258000000000002</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1959.11</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.25306000000000001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1869.29</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.26862999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>279.45205479452</v>
-      </c>
-      <c r="B6">
-        <v>6.6153846153846105E-2</v>
-      </c>
-      <c r="D6">
-        <v>279.45205479452</v>
-      </c>
-      <c r="E6">
-        <v>3.6153846153846203E-2</v>
-      </c>
-      <c r="G6">
-        <v>275.34246575342399</v>
-      </c>
-      <c r="H6">
-        <v>3.4615384615384701E-2</v>
-      </c>
-      <c r="J6">
-        <v>928.76712328767098</v>
-      </c>
-      <c r="K6">
-        <v>0.108461538461538</v>
-      </c>
-      <c r="M6">
-        <v>1964.38356164383</v>
-      </c>
-      <c r="N6">
-        <v>0.33230769230769203</v>
-      </c>
-      <c r="P6">
-        <v>2079.4520547945199</v>
-      </c>
-      <c r="Q6">
-        <v>0.26384615384615301</v>
-      </c>
-      <c r="S6">
-        <v>2416.4383561643799</v>
-      </c>
-      <c r="T6">
-        <v>0.31923076923076898</v>
+      <c r="A6" s="2">
+        <v>276.74</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.6360000000000002E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>273.45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.8240000000000003E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>277.69</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.7530000000000001E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>925.21</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.11031000000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1961.84</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.33309</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2079.38</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.26529000000000003</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2416</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.31879000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>460.27397260273898</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>460.27397260273898</v>
-      </c>
-      <c r="E7">
-        <v>6.30769230769231E-2</v>
-      </c>
-      <c r="G7">
-        <v>464.38356164383498</v>
-      </c>
-      <c r="H7">
-        <v>5.9230769230769302E-2</v>
-      </c>
-      <c r="J7">
-        <v>1031.50684931506</v>
-      </c>
-      <c r="K7">
-        <v>0.15923076923076901</v>
-      </c>
-      <c r="M7">
-        <v>2247.9452054794501</v>
-      </c>
-      <c r="N7">
-        <v>0.34615384615384598</v>
-      </c>
-      <c r="P7">
-        <v>2165.7534246575301</v>
-      </c>
-      <c r="Q7">
-        <v>0.27384615384615302</v>
-      </c>
-      <c r="S7">
-        <v>2950.6849315068398</v>
-      </c>
-      <c r="T7">
-        <v>0.34769230769230702</v>
+      <c r="A7" s="2">
+        <v>461.49</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.10077999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>457.42</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.5140000000000003E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>460.21</v>
+      </c>
+      <c r="H7" s="2">
+        <v>6.1409999999999999E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1024.28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.15948000000000001</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2244.5</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.34633000000000003</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2163.37</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.27372000000000002</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2958.98</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.34808</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>595.890410958904</v>
-      </c>
-      <c r="B8">
-        <v>0.13538461538461499</v>
-      </c>
-      <c r="D8">
-        <v>612.32876712328698</v>
-      </c>
-      <c r="E8">
-        <v>8.2307692307692304E-2</v>
-      </c>
-      <c r="G8">
-        <v>591.780821917808</v>
-      </c>
-      <c r="H8">
-        <v>8.6153846153846206E-2</v>
-      </c>
-      <c r="J8">
-        <v>1130.1369863013599</v>
-      </c>
-      <c r="K8">
-        <v>0.201538461538461</v>
-      </c>
-      <c r="M8">
-        <v>2539.7260273972502</v>
-      </c>
-      <c r="N8">
-        <v>0.35538461538461502</v>
-      </c>
-      <c r="P8">
-        <v>2264.38356164383</v>
-      </c>
-      <c r="Q8">
-        <v>0.283076923076923</v>
-      </c>
-      <c r="S8">
-        <v>3489.0410958904099</v>
-      </c>
-      <c r="T8">
-        <v>0.37076923076923002</v>
+      <c r="A8" s="2">
+        <v>589.35</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.13616</v>
+      </c>
+      <c r="D8" s="2">
+        <v>610.29</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.4529999999999994E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>593.49</v>
+      </c>
+      <c r="H8" s="2">
+        <v>8.7160000000000001E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1125.4000000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.20175999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2542.71</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.35572999999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2258.8200000000002</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.28299000000000002</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3500.04</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.37026999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>731.50684931506805</v>
-      </c>
-      <c r="B9">
-        <v>0.16307692307692301</v>
-      </c>
-      <c r="D9">
-        <v>706.84931506849296</v>
-      </c>
-      <c r="E9">
-        <v>0.112307692307692</v>
-      </c>
-      <c r="G9">
-        <v>731.50684931506805</v>
-      </c>
-      <c r="H9">
-        <v>0.10923076923076901</v>
-      </c>
-      <c r="J9">
-        <v>1158.90410958904</v>
-      </c>
-      <c r="K9">
-        <v>0.22153846153846099</v>
-      </c>
-      <c r="M9">
-        <v>2810.9589041095801</v>
-      </c>
-      <c r="N9">
-        <v>0.35692307692307601</v>
-      </c>
-      <c r="P9">
-        <v>2350.6849315068398</v>
-      </c>
-      <c r="Q9">
-        <v>0.28846153846153799</v>
+      <c r="A9" s="2">
+        <v>724.59</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.16511000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>706.32</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1133</v>
+      </c>
+      <c r="G9" s="2">
+        <v>721.15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.11167000000000001</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1160.33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.22245999999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2819.71</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.35787000000000002</v>
+      </c>
+      <c r="P9" s="2">
+        <v>2354.3200000000002</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.28889999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J10">
-        <v>1241.09589041095</v>
-      </c>
-      <c r="K10">
-        <v>0.24769230769230699</v>
-      </c>
-      <c r="P10">
-        <v>2445.20547945205</v>
-      </c>
-      <c r="Q10">
-        <v>0.29769230769230698</v>
+      <c r="J10" s="2">
+        <v>1240.1500000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.24876999999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2447.86</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.29859000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J11">
-        <v>1343.8356164383499</v>
-      </c>
-      <c r="K11">
-        <v>0.25923076923076899</v>
-      </c>
-      <c r="P11">
-        <v>2539.7260273972502</v>
-      </c>
-      <c r="Q11">
-        <v>0.302307692307692</v>
+      <c r="J11" s="2">
+        <v>1343.66</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.25999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2541.46</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.30323</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J12">
-        <v>1343.8356164383499</v>
-      </c>
-      <c r="K12">
-        <v>0.27538461538461501</v>
-      </c>
-      <c r="P12">
-        <v>2679.4520547945199</v>
-      </c>
-      <c r="Q12">
-        <v>0.30923076923076898</v>
+      <c r="J12" s="2">
+        <v>1349.31</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.27550999999999998</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2682.83</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.30954999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J13">
-        <v>1426.0273972602699</v>
-      </c>
-      <c r="K13">
-        <v>0.28384615384615303</v>
-      </c>
-      <c r="P13">
-        <v>2786.3013698630102</v>
-      </c>
-      <c r="Q13">
-        <v>0.31615384615384601</v>
+      <c r="J13" s="2">
+        <v>1427.43</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.28414</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2789.79</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.31630000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J14">
-        <v>1557.5342465753399</v>
-      </c>
-      <c r="K14">
-        <v>0.28923076923076901</v>
-      </c>
-      <c r="P14">
-        <v>2913.6986301369798</v>
-      </c>
-      <c r="Q14">
-        <v>0.321538461538461</v>
+      <c r="J14" s="2">
+        <v>1554.49</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.28888999999999998</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2915.87</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.32262000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J15">
-        <v>1594.5205479452</v>
-      </c>
-      <c r="K15">
-        <v>0.27692307692307599</v>
-      </c>
-      <c r="P15">
-        <v>3073.9726027397201</v>
-      </c>
-      <c r="Q15">
-        <v>0.33076923076922998</v>
+      <c r="J15" s="2">
+        <v>1591.8</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3080.16</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.33062999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J16">
-        <v>1532.87671232876</v>
-      </c>
-      <c r="K16">
-        <v>0.26230769230769202</v>
-      </c>
-      <c r="P16">
-        <v>3242.4657534246498</v>
-      </c>
-      <c r="Q16">
-        <v>0.33384615384615302</v>
+      <c r="J16" s="2">
+        <v>1541.14</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="P16" s="2">
+        <v>3252.15</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.33443000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P17">
-        <v>3419.17808219178</v>
-      </c>
-      <c r="Q17">
-        <v>0.34076923076922999</v>
+      <c r="P17" s="2">
+        <v>3424.09</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.34201999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -7313,47 +6851,47 @@
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7367,133 +6905,29 @@
     <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1076AE9C-2C87-4A85-AE97-8A00D25B1C89}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="23" width="8.5703125" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>21340.122381761099</v>
-      </c>
-      <c r="B4">
-        <v>158.992800460518</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24831.602326819098</v>
-      </c>
-      <c r="B5">
-        <v>159.20844493627101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>101861.279292703</v>
-      </c>
-      <c r="B6">
-        <v>150.972739531228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>176464.960471147</v>
-      </c>
-      <c r="B7">
-        <v>150.83768573839299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1453224.33355068</v>
-      </c>
-      <c r="B8">
-        <v>129.07709736858001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3684240.7464858801</v>
-      </c>
-      <c r="B9">
-        <v>130.982570227709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4364834.9568849299</v>
-      </c>
-      <c r="B10">
-        <v>119.83860835188599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6923317.7910996499</v>
-      </c>
-      <c r="B11">
-        <v>121.322728097129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7841494.97849371</v>
-      </c>
-      <c r="B12">
-        <v>114.655413060106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10802434.0502923</v>
-      </c>
-      <c r="B13">
-        <v>116.22969133190099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="14"/>
-    </row>
+    <row r="32" ht="102" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A32:B32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7501,31 +6935,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B499B7-5D41-461D-8465-819EE01970F8}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7536,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,10 +7014,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="14"/>
+      <c r="A29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FC70C4-7941-4469-92A7-D4B58AAB9872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6874656-150C-4A84-8E65-9FE7D756A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" activeTab="10" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="3" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -420,6 +420,39 @@
   </si>
   <si>
     <t>Total Elongation (%)</t>
+  </si>
+  <si>
+    <t>W HR-EP</t>
+  </si>
+  <si>
+    <t>W HR-AM</t>
+  </si>
+  <si>
+    <t>W Forge</t>
+  </si>
+  <si>
+    <t>W Pure</t>
+  </si>
+  <si>
+    <t>W 1%Re</t>
+  </si>
+  <si>
+    <t>W 3%Re</t>
+  </si>
+  <si>
+    <t>W K-doped 3%Re</t>
+  </si>
+  <si>
+    <t>W K-doped Rod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W K-doped </t>
+  </si>
+  <si>
+    <t>Thermal Conductivity (W/m k)</t>
+  </si>
+  <si>
+    <t>Nogami2021-- Mechanical properties of tungsten-Recent research on modified tungsten materials in Japan</t>
   </si>
 </sst>
 </file>
@@ -512,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,6 +583,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,12 +660,105 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440121</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B70BE93-8661-7F52-05BA-AD3C162A35EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619501"/>
+          <a:ext cx="4745421" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229208</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>362379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134AE577-4DCF-DC60-81AD-8570DD8E4761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="4267200"/>
+          <a:ext cx="4353533" cy="3077004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>21003</xdr:rowOff>
     </xdr:to>
@@ -664,10 +793,54 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638783</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>390954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9043AE5B-A2A4-EF63-6520-4AB61247D691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="4171950"/>
+          <a:ext cx="4353533" cy="3077004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -716,7 +889,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -765,7 +938,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -858,7 +1031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1006,6 +1179,55 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>172008</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB4C43D-9087-3E1F-D6BC-020C930E1A60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="4001058" cy="3486637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1049,7 +1271,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1098,7 +1320,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1147,7 +1369,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1196,7 +1418,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1240,7 +1462,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1278,55 +1500,6 @@
         <a:xfrm>
           <a:off x="104775" y="3190875"/>
           <a:ext cx="4152900" cy="3284779"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>478221</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B70BE93-8661-7F52-05BA-AD3C162A35EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3619501"/>
-          <a:ext cx="4745421" cy="2457450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49AD77F-8B12-49E9-AB0E-8DA6E26FE1AE}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -2795,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,15 +3212,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3020762B-09A6-4698-8DE0-2E0869AA4EBF}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="14" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -3057,8 +3242,20 @@
         <v>75</v>
       </c>
       <c r="E1" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3071,8 +3268,26 @@
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>356.24990316799199</v>
       </c>
@@ -3085,8 +3300,26 @@
       <c r="E4">
         <v>19.1643911413667</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>298.430898876404</v>
+      </c>
+      <c r="H4">
+        <v>0.116732826481865</v>
+      </c>
+      <c r="J4">
+        <v>297.30730337078597</v>
+      </c>
+      <c r="K4">
+        <v>0.176747628338837</v>
+      </c>
+      <c r="M4">
+        <v>422.58820224719102</v>
+      </c>
+      <c r="N4">
+        <v>1.4192289578146999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>464.34949290898402</v>
       </c>
@@ -3099,8 +3332,26 @@
       <c r="E5">
         <v>6.3145556845843798</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>422.58820224719102</v>
+      </c>
+      <c r="H5">
+        <v>0.16174392787459599</v>
+      </c>
+      <c r="J5">
+        <v>473.71179775280802</v>
+      </c>
+      <c r="K5">
+        <v>2.19154948529907</v>
+      </c>
+      <c r="M5">
+        <v>423.15</v>
+      </c>
+      <c r="N5">
+        <v>0.28143712574850999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>568.54186856295303</v>
       </c>
@@ -3113,8 +3364,26 @@
       <c r="E6">
         <v>14.9251120247103</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>472.58820224719</v>
+      </c>
+      <c r="H6">
+        <v>9.5875664401532307E-2</v>
+      </c>
+      <c r="J6">
+        <v>472.58820224719</v>
+      </c>
+      <c r="K6">
+        <v>3.3892888380542199</v>
+      </c>
+      <c r="M6">
+        <v>472.58820224719</v>
+      </c>
+      <c r="N6">
+        <v>1.17371997577878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>657.10538786882603</v>
       </c>
@@ -3127,8 +3396,26 @@
       <c r="E7">
         <v>21.0978834566763</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>523.15</v>
+      </c>
+      <c r="H7">
+        <v>11.6467065868263</v>
+      </c>
+      <c r="J7">
+        <v>522.58820224719102</v>
+      </c>
+      <c r="K7">
+        <v>13.1437798560183</v>
+      </c>
+      <c r="M7">
+        <v>523.15</v>
+      </c>
+      <c r="N7">
+        <v>2.9940119760482199E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>762.60016821846796</v>
       </c>
@@ -3141,8 +3428,26 @@
       <c r="E8">
         <v>15.086792448395199</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>573.15</v>
+      </c>
+      <c r="H8">
+        <v>18.766467065868198</v>
+      </c>
+      <c r="J8">
+        <v>571.46460674157197</v>
+      </c>
+      <c r="K8">
+        <v>31.101998250689601</v>
+      </c>
+      <c r="M8">
+        <v>523.71179775280802</v>
+      </c>
+      <c r="N8">
+        <v>1.6466393056583499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>862.88532978541298</v>
       </c>
@@ -3155,8 +3460,26 @@
       <c r="E9">
         <v>16.385144541439701</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>623.71179775280802</v>
+      </c>
+      <c r="H9">
+        <v>29.658615353562499</v>
+      </c>
+      <c r="J9">
+        <v>572.02640449438195</v>
+      </c>
+      <c r="K9">
+        <v>34.095942945569497</v>
+      </c>
+      <c r="M9">
+        <v>573.15</v>
+      </c>
+      <c r="N9">
+        <v>0.56287425149700698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1165.04321918192</v>
       </c>
@@ -3169,8 +3492,26 @@
       <c r="E10">
         <v>11.310388738256</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>673.71179775280802</v>
+      </c>
+      <c r="H10">
+        <v>29.5927470900894</v>
+      </c>
+      <c r="J10">
+        <v>622.58820224719102</v>
+      </c>
+      <c r="K10">
+        <v>31.275516382964401</v>
+      </c>
+      <c r="M10">
+        <v>573.71179775280802</v>
+      </c>
+      <c r="N10">
+        <v>3.9759806230236099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1372.1255657941799</v>
       </c>
@@ -3183,8 +3524,26 @@
       <c r="E11">
         <v>11.2968131049579</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>722.58820224719102</v>
+      </c>
+      <c r="H11">
+        <v>35.6347978200901</v>
+      </c>
+      <c r="J11">
+        <v>622.58820224719102</v>
+      </c>
+      <c r="K11">
+        <v>28.7605463230841</v>
+      </c>
+      <c r="M11">
+        <v>623.71179775280802</v>
+      </c>
+      <c r="N11">
+        <v>5.2873578685325997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1562.27665136268</v>
       </c>
@@ -3197,24 +3556,130 @@
       <c r="E12">
         <v>13.145323489791799</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>774.27359550561698</v>
+      </c>
+      <c r="H12">
+        <v>36.227410347843602</v>
+      </c>
+      <c r="J12">
+        <v>623.14999999999895</v>
+      </c>
+      <c r="K12">
+        <v>25.4071856287425</v>
+      </c>
+      <c r="M12">
+        <v>623.71179775280802</v>
+      </c>
+      <c r="N12">
+        <v>13.6107111619457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>1288.7110551722601</v>
       </c>
       <c r="E13">
         <v>15.0882497197661</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>672.58820224719102</v>
+      </c>
+      <c r="K13">
+        <v>31.808450514700901</v>
+      </c>
+      <c r="M13">
+        <v>673.15</v>
+      </c>
+      <c r="N13">
+        <v>14.682634730538901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>1478.74622358397</v>
       </c>
       <c r="E14">
         <v>23.122186787945601</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>672.58820224719102</v>
+      </c>
+      <c r="K14">
+        <v>30.311444526676901</v>
+      </c>
+      <c r="M14">
+        <v>723.15</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>723.15</v>
+      </c>
+      <c r="K15">
+        <v>29.706586826347301</v>
+      </c>
+      <c r="M15">
+        <v>722.58820224719102</v>
+      </c>
+      <c r="N15">
+        <v>16.4731211733835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>722.02640449438195</v>
+      </c>
+      <c r="K16">
+        <v>27.431272286886902</v>
+      </c>
+      <c r="M16">
+        <v>774.83539325842605</v>
+      </c>
+      <c r="N16">
+        <v>17.544708336136701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>772.02640449438195</v>
+      </c>
+      <c r="K17">
+        <v>32.5749848617372</v>
+      </c>
+      <c r="M17">
+        <v>773.71179775280802</v>
+      </c>
+      <c r="N17">
+        <v>23.413106371526599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>772.58820224719</v>
+      </c>
+      <c r="K18">
+        <v>31.856354706317699</v>
+      </c>
+      <c r="M18">
+        <v>724.27359550561698</v>
+      </c>
+      <c r="N18">
+        <v>22.5208235214963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>672.58820224719102</v>
+      </c>
+      <c r="N19">
+        <v>22.467133149431401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>76</v>
       </c>
@@ -3233,11 +3698,14 @@
       <c r="E33" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3246,18 +3714,27 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A4DEC4A-2FB4-4F74-97C1-3931F806A241}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4" style="2" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4" style="2" customWidth="1"/>
+    <col min="10" max="11" width="16.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4" style="2" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -3266,8 +3743,22 @@
         <v>75</v>
       </c>
       <c r="E1" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1"/>
+      <c r="J1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1"/>
+      <c r="M1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3280,8 +3771,26 @@
       <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>367.83559215159102</v>
       </c>
@@ -3294,8 +3803,26 @@
       <c r="E4" s="2">
         <v>13.9244105734671</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>523.15</v>
+      </c>
+      <c r="H4">
+        <v>6.5568862275449096</v>
+      </c>
+      <c r="J4">
+        <v>523.15</v>
+      </c>
+      <c r="K4">
+        <v>6.2574850299401197</v>
+      </c>
+      <c r="M4">
+        <v>522.58820224719102</v>
+      </c>
+      <c r="N4">
+        <v>1.40725290991051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>472.52664297066599</v>
       </c>
@@ -3308,8 +3835,26 @@
       <c r="E5" s="2">
         <v>7.2539846854706402</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>573.15</v>
+      </c>
+      <c r="H5">
+        <v>6.6706586826347296</v>
+      </c>
+      <c r="J5">
+        <v>473.15</v>
+      </c>
+      <c r="K5">
+        <v>2.1317365269461002</v>
+      </c>
+      <c r="M5">
+        <v>573.15</v>
+      </c>
+      <c r="N5">
+        <v>3.4371257485029898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>566.722526480841</v>
       </c>
@@ -3322,8 +3867,26 @@
       <c r="E6" s="2">
         <v>10.6545939617041</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>623.14999999999895</v>
+      </c>
+      <c r="H6">
+        <v>9.7784431137724592</v>
+      </c>
+      <c r="J6">
+        <v>572.58820224719102</v>
+      </c>
+      <c r="K6">
+        <v>7.8084505147009304</v>
+      </c>
+      <c r="M6">
+        <v>623.14999999999895</v>
+      </c>
+      <c r="N6">
+        <v>2.6526946107784402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>677.66211737605204</v>
       </c>
@@ -3336,8 +3899,26 @@
       <c r="E7" s="2">
         <v>8.4747162205287996</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>673.15</v>
+      </c>
+      <c r="H7">
+        <v>8.2155688622754504</v>
+      </c>
+      <c r="J7">
+        <v>623.14999999999895</v>
+      </c>
+      <c r="K7">
+        <v>6.60479041916168</v>
+      </c>
+      <c r="M7">
+        <v>623.14999999999895</v>
+      </c>
+      <c r="N7">
+        <v>4.0898203592814397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>767.52730195348499</v>
       </c>
@@ -3350,8 +3931,26 @@
       <c r="E8" s="2">
         <v>4.59453384123674</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>722.58820224719102</v>
+      </c>
+      <c r="H8">
+        <v>6.3533606943416601</v>
+      </c>
+      <c r="J8">
+        <v>623.14999999999895</v>
+      </c>
+      <c r="K8">
+        <v>5.52694610778443</v>
+      </c>
+      <c r="M8">
+        <v>673.15</v>
+      </c>
+      <c r="N8">
+        <v>3.8443113772455102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>861.25238394378698</v>
       </c>
@@ -3364,8 +3963,26 @@
       <c r="E9" s="2">
         <v>6.1204482600594696</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>773.71179775280802</v>
+      </c>
+      <c r="H9">
+        <v>5.1496333176343896</v>
+      </c>
+      <c r="J9">
+        <v>672.02640449438195</v>
+      </c>
+      <c r="K9">
+        <v>5.4013321671264203</v>
+      </c>
+      <c r="M9">
+        <v>673.15</v>
+      </c>
+      <c r="N9">
+        <v>3.12574850299402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>975.78284281193999</v>
       </c>
@@ -3378,8 +3995,20 @@
       <c r="E10" s="2">
         <v>3.0250218675905298</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>722.58820224719102</v>
+      </c>
+      <c r="K10">
+        <v>6.3533606943416601</v>
+      </c>
+      <c r="M10">
+        <v>723.15</v>
+      </c>
+      <c r="N10">
+        <v>4.2574850299401197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1178.9715541708999</v>
       </c>
@@ -3392,8 +4021,20 @@
       <c r="E11" s="2">
         <v>2.1530707711204098</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>773.15</v>
+      </c>
+      <c r="K11">
+        <v>3.2934131736526999</v>
+      </c>
+      <c r="M11">
+        <v>723.15</v>
+      </c>
+      <c r="N11">
+        <v>2.52095808383234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1373.5025680574099</v>
       </c>
@@ -3406,8 +4047,14 @@
       <c r="E12" s="2">
         <v>1.93508299700286</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>723.71179775280802</v>
+      </c>
+      <c r="N12">
+        <v>2.16160936553859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1567.3384808432399</v>
       </c>
@@ -3420,13 +4067,33 @@
       <c r="E13" s="2">
         <v>1.71709522288535</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>773.15</v>
+      </c>
+      <c r="N13">
+        <v>3.6526946107784499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <v>1577.32637129984</v>
       </c>
       <c r="E14" s="2">
         <v>0.84514412641520598</v>
+      </c>
+      <c r="M14">
+        <v>774.27359550561698</v>
+      </c>
+      <c r="N14">
+        <v>1.67651214425082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>572.02640449438195</v>
+      </c>
+      <c r="N15">
+        <v>8.39668976653484E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3448,11 +4115,14 @@
       <c r="E36" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5650,21 +6320,583 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
-  <dimension ref="A52"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8" style="8"/>
+    <col min="1" max="2" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="13.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="13.28515625" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="P1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="12"/>
+    </row>
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>34.3480892776941</v>
+      </c>
+      <c r="B4">
+        <v>175.56626506024</v>
+      </c>
+      <c r="D4">
+        <v>32.567221885922898</v>
+      </c>
+      <c r="E4">
+        <v>167.662650602409</v>
+      </c>
+      <c r="G4">
+        <v>32.161059147448803</v>
+      </c>
+      <c r="H4">
+        <v>147.61445783132501</v>
+      </c>
+      <c r="J4">
+        <v>26.552889027747899</v>
+      </c>
+      <c r="K4">
+        <v>110.795180722891</v>
+      </c>
+      <c r="M4">
+        <v>31.458085177012698</v>
+      </c>
+      <c r="N4">
+        <v>112.915662650602</v>
+      </c>
+      <c r="P4">
+        <v>21.350881646521199</v>
+      </c>
+      <c r="Q4">
+        <v>174.02409638554201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>105.68042022221699</v>
+      </c>
+      <c r="B5">
+        <v>176.53012048192701</v>
+      </c>
+      <c r="D5">
+        <v>98.9006268184569</v>
+      </c>
+      <c r="E5">
+        <v>161.87951807228899</v>
+      </c>
+      <c r="G5">
+        <v>96.881529358926699</v>
+      </c>
+      <c r="H5">
+        <v>142.21686746987899</v>
+      </c>
+      <c r="J5">
+        <v>99.474722227646396</v>
+      </c>
+      <c r="K5">
+        <v>110.21686746987901</v>
+      </c>
+      <c r="M5">
+        <v>99.564546679424296</v>
+      </c>
+      <c r="N5">
+        <v>114.650602409638</v>
+      </c>
+      <c r="P5">
+        <v>97.408759836753703</v>
+      </c>
+      <c r="Q5">
+        <v>168.240963855421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>204.221749233563</v>
+      </c>
+      <c r="B6">
+        <v>160.53012048192701</v>
+      </c>
+      <c r="D6">
+        <v>200.85919040831001</v>
+      </c>
+      <c r="E6">
+        <v>154.55421686746899</v>
+      </c>
+      <c r="G6">
+        <v>201.89412430922999</v>
+      </c>
+      <c r="H6">
+        <v>125.63855421686701</v>
+      </c>
+      <c r="J6">
+        <v>196.66087364042801</v>
+      </c>
+      <c r="K6">
+        <v>107.325301204819</v>
+      </c>
+      <c r="M6">
+        <v>198.40659233367799</v>
+      </c>
+      <c r="N6">
+        <v>113.493975903614</v>
+      </c>
+      <c r="P6">
+        <v>200.765460545585</v>
+      </c>
+      <c r="Q6">
+        <v>149.92771084337301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>302.82165940911102</v>
+      </c>
+      <c r="B7">
+        <v>147.42168674698701</v>
+      </c>
+      <c r="D7">
+        <v>301.138427291011</v>
+      </c>
+      <c r="E7">
+        <v>144.33734939759</v>
+      </c>
+      <c r="G7">
+        <v>302.235847767081</v>
+      </c>
+      <c r="H7">
+        <v>118.506024096385</v>
+      </c>
+      <c r="J7">
+        <v>300.34172345784998</v>
+      </c>
+      <c r="K7">
+        <v>105.012048192771</v>
+      </c>
+      <c r="M7">
+        <v>303.688660639315</v>
+      </c>
+      <c r="N7">
+        <v>110.21686746987901</v>
+      </c>
+      <c r="P7">
+        <v>297.80711175333403</v>
+      </c>
+      <c r="Q7">
+        <v>139.903614457831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>401.56606978969302</v>
+      </c>
+      <c r="B8">
+        <v>141.44578313253001</v>
+      </c>
+      <c r="D8">
+        <v>399.87112143875299</v>
+      </c>
+      <c r="E8">
+        <v>137.78313253012001</v>
+      </c>
+      <c r="G8">
+        <v>402.72207142996598</v>
+      </c>
+      <c r="H8">
+        <v>118.506024096385</v>
+      </c>
+      <c r="J8">
+        <v>402.48384136220699</v>
+      </c>
+      <c r="K8">
+        <v>106.746987951807</v>
+      </c>
+      <c r="M8">
+        <v>400.945109449141</v>
+      </c>
+      <c r="N8">
+        <v>110.795180722891</v>
+      </c>
+      <c r="P8">
+        <v>399.78910780886901</v>
+      </c>
+      <c r="Q8">
+        <v>133.734939759036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>501.98199605553401</v>
+      </c>
+      <c r="B9">
+        <v>137.975903614457</v>
+      </c>
+      <c r="D9">
+        <v>503.56368748901502</v>
+      </c>
+      <c r="E9">
+        <v>136.04819277108399</v>
+      </c>
+      <c r="G9">
+        <v>503.20048427095702</v>
+      </c>
+      <c r="H9">
+        <v>118.12048192771</v>
+      </c>
+      <c r="J9">
+        <v>502.98178125793203</v>
+      </c>
+      <c r="K9">
+        <v>107.325301204819</v>
+      </c>
+      <c r="M9">
+        <v>504.68844584171302</v>
+      </c>
+      <c r="N9">
+        <v>111.56626506024</v>
+      </c>
+      <c r="P9">
+        <v>501.78282009724398</v>
+      </c>
+      <c r="Q9">
+        <v>128.14457831325299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>602.36277362285398</v>
+      </c>
+      <c r="B10">
+        <v>132.77108433734901</v>
+      </c>
+      <c r="D10">
+        <v>602.34324656811998</v>
+      </c>
+      <c r="E10">
+        <v>131.80722891566199</v>
+      </c>
+      <c r="G10">
+        <v>603.64765382437304</v>
+      </c>
+      <c r="H10">
+        <v>116.192771084337</v>
+      </c>
+      <c r="J10">
+        <v>600.21479760207706</v>
+      </c>
+      <c r="K10">
+        <v>106.746987951807</v>
+      </c>
+      <c r="M10">
+        <v>603.550018550701</v>
+      </c>
+      <c r="N10">
+        <v>111.373493975903</v>
+      </c>
+      <c r="P10">
+        <v>600.56237917634803</v>
+      </c>
+      <c r="Q10">
+        <v>123.903614457831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>704.35648591122902</v>
+      </c>
+      <c r="B11">
+        <v>127.18072289156601</v>
+      </c>
+      <c r="D11">
+        <v>701.138427291011</v>
+      </c>
+      <c r="E11">
+        <v>128.33734939759</v>
+      </c>
+      <c r="G11">
+        <v>700.89238640135795</v>
+      </c>
+      <c r="H11">
+        <v>116.192771084337</v>
+      </c>
+      <c r="J11">
+        <v>700.69321044306798</v>
+      </c>
+      <c r="K11">
+        <v>106.361445783132</v>
+      </c>
+      <c r="M11">
+        <v>700.78303489484597</v>
+      </c>
+      <c r="N11">
+        <v>110.795180722891</v>
+      </c>
+      <c r="P11">
+        <v>699.36927613208002</v>
+      </c>
+      <c r="Q11">
+        <v>121.012048192771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>801.48405615980903</v>
+      </c>
+      <c r="B12">
+        <v>121.397590361445</v>
+      </c>
+      <c r="D12">
+        <v>799.92189178106196</v>
+      </c>
+      <c r="E12">
+        <v>124.289156626506</v>
+      </c>
+      <c r="G12">
+        <v>802.995450196246</v>
+      </c>
+      <c r="H12">
+        <v>116</v>
+      </c>
+      <c r="J12">
+        <v>801.19115033879405</v>
+      </c>
+      <c r="K12">
+        <v>106.939759036144</v>
+      </c>
+      <c r="M12">
+        <v>798.027767471831</v>
+      </c>
+      <c r="N12">
+        <v>110.795180722891</v>
+      </c>
+      <c r="P12">
+        <v>803.03840971666204</v>
+      </c>
+      <c r="Q12">
+        <v>118.12048192771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>901.91560406943802</v>
+      </c>
+      <c r="B13">
+        <v>118.698795180722</v>
+      </c>
+      <c r="D13">
+        <v>901.96246900079996</v>
+      </c>
+      <c r="E13">
+        <v>121.012048192771</v>
+      </c>
+      <c r="G13">
+        <v>901.860928316181</v>
+      </c>
+      <c r="H13">
+        <v>116</v>
+      </c>
+      <c r="J13">
+        <v>901.66565776883795</v>
+      </c>
+      <c r="K13">
+        <v>106.361445783132</v>
+      </c>
+      <c r="M13">
+        <v>903.32545742125706</v>
+      </c>
+      <c r="N13">
+        <v>108.289156626506</v>
+      </c>
+      <c r="P13">
+        <v>901.896077014703</v>
+      </c>
+      <c r="Q13">
+        <v>117.734939759036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1002.43697643084</v>
+      </c>
+      <c r="B14">
+        <v>120.43373493975901</v>
+      </c>
+      <c r="D14">
+        <v>1002.49946300599</v>
+      </c>
+      <c r="E14">
+        <v>123.518072289156</v>
+      </c>
+      <c r="G14">
+        <v>1002.3510573900101</v>
+      </c>
+      <c r="H14">
+        <v>116.192771084337</v>
+      </c>
+      <c r="J14">
+        <v>1003.85073519361</v>
+      </c>
+      <c r="K14">
+        <v>110.21686746987901</v>
+      </c>
+      <c r="M14">
+        <v>1000.64829821717</v>
+      </c>
+      <c r="N14">
+        <v>112.14457831325301</v>
+      </c>
+      <c r="P14">
+        <v>1003.9913299876901</v>
+      </c>
+      <c r="Q14">
+        <v>117.156626506024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1081.84569721348</v>
+      </c>
+      <c r="B15">
+        <v>120.048192771084</v>
+      </c>
+      <c r="D15">
+        <v>1080.25619495811</v>
+      </c>
+      <c r="E15">
+        <v>121.590361445783</v>
+      </c>
+      <c r="G15">
+        <v>1081.7793052273901</v>
+      </c>
+      <c r="H15">
+        <v>116.771084337349</v>
+      </c>
+      <c r="J15">
+        <v>1080.10778934213</v>
+      </c>
+      <c r="K15">
+        <v>114.265060240963</v>
+      </c>
+      <c r="M15">
+        <v>1080.0726406436099</v>
+      </c>
+      <c r="N15">
+        <v>112.530120481927</v>
+      </c>
+      <c r="P15">
+        <v>1083.38442912655</v>
+      </c>
+      <c r="Q15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6874656-150C-4A84-8E65-9FE7D756A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC94555-3DD1-42EE-BEB7-EBFB6034A41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="1" activeTab="3" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="2025" yWindow="3135" windowWidth="21600" windowHeight="11295" tabRatio="852" firstSheet="1" activeTab="10" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,137 +3051,151 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>-3.5897435897435899</v>
-      </c>
-      <c r="B4" s="1">
-        <v>859.53654188948303</v>
-      </c>
-      <c r="D4" s="1">
-        <v>87.948717948717899</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1118.0035650623799</v>
+      <c r="A4" s="2">
+        <v>300.27140718899</v>
+      </c>
+      <c r="B4" s="2">
+        <v>855.095791291404</v>
+      </c>
+      <c r="D4" s="2">
+        <v>301.27458864084099</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1222.05617271241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>86.153846153846104</v>
-      </c>
-      <c r="B5" s="1">
-        <v>900.53475935828806</v>
-      </c>
-      <c r="D5" s="1">
-        <v>213.58974358974299</v>
-      </c>
-      <c r="E5" s="1">
-        <v>870.23172905525803</v>
+      <c r="A5" s="2">
+        <v>369.25531276912301</v>
+      </c>
+      <c r="B5" s="2">
+        <v>899.23546991724095</v>
+      </c>
+      <c r="D5" s="2">
+        <v>370.62818561616001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1115.5187431290899</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>208.20512820512801</v>
-      </c>
-      <c r="B6" s="1">
-        <v>757.93226381461602</v>
-      </c>
-      <c r="D6" s="1">
-        <v>335.64102564102501</v>
-      </c>
-      <c r="E6" s="1">
-        <v>850.623885918003</v>
+      <c r="A6" s="2">
+        <v>464.92871414072198</v>
+      </c>
+      <c r="B6" s="2">
+        <v>754.35822060592795</v>
+      </c>
+      <c r="D6" s="2">
+        <v>468.93190553175202</v>
+      </c>
+      <c r="E6" s="2">
+        <v>868.25946094279004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>330.25641025640999</v>
-      </c>
-      <c r="B7" s="1">
-        <v>631.37254901960705</v>
-      </c>
-      <c r="D7" s="1">
-        <v>472.05128205128199</v>
-      </c>
-      <c r="E7" s="1">
-        <v>848.84135472370701</v>
+      <c r="A7" s="2">
+        <v>560.65977208895004</v>
+      </c>
+      <c r="B7" s="2">
+        <v>631.46734584898502</v>
+      </c>
+      <c r="D7" s="2">
+        <v>564.17310740774894</v>
+      </c>
+      <c r="E7" s="2">
+        <v>850.70605805305104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>464.87179487179401</v>
-      </c>
-      <c r="B8" s="1">
-        <v>538.68092691622098</v>
-      </c>
-      <c r="D8" s="1">
-        <v>592.30769230769204</v>
-      </c>
-      <c r="E8" s="1">
-        <v>772.19251336898401</v>
+      <c r="A8" s="2">
+        <v>663.72090281255896</v>
+      </c>
+      <c r="B8" s="2">
+        <v>539.37496699275505</v>
+      </c>
+      <c r="D8" s="2">
+        <v>672.87954299928697</v>
+      </c>
+      <c r="E8" s="2">
+        <v>843.55944235224399</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>590.51282051281999</v>
-      </c>
-      <c r="B9" s="1">
-        <v>583.24420677361798</v>
-      </c>
-      <c r="D9" s="1">
-        <v>725.12820512820497</v>
-      </c>
-      <c r="E9" s="1">
-        <v>720.49910873440297</v>
+      <c r="A9" s="2">
+        <v>765.32140621557699</v>
+      </c>
+      <c r="B9" s="2">
+        <v>581.39580804319303</v>
+      </c>
+      <c r="D9" s="2">
+        <v>767.96917355099004</v>
+      </c>
+      <c r="E9" s="2">
+        <v>768.20684113149105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>721.53846153846098</v>
-      </c>
-      <c r="B10" s="1">
-        <v>540.46345811051697</v>
-      </c>
-      <c r="D10" s="1">
-        <v>856.15384615384596</v>
-      </c>
-      <c r="E10" s="1">
-        <v>736.54188948306603</v>
+      <c r="A10" s="2">
+        <v>868.50973545376905</v>
+      </c>
+      <c r="B10" s="2">
+        <v>537.672221009797</v>
+      </c>
+      <c r="D10" s="2">
+        <v>870.45082099521505</v>
+      </c>
+      <c r="E10" s="2">
+        <v>716.584498135834</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>863.33333333333303</v>
-      </c>
-      <c r="B11" s="1">
-        <v>519.07308377896595</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1112.82051282051</v>
-      </c>
-      <c r="E11" s="1">
-        <v>667.02317290552503</v>
+      <c r="A11" s="2">
+        <v>979.01210662153801</v>
+      </c>
+      <c r="B11" s="2">
+        <v>518.15295392157702</v>
+      </c>
+      <c r="D11" s="2">
+        <v>973.10347198479894</v>
+      </c>
+      <c r="E11" s="2">
+        <v>730.17150710337205</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1105.64102564102</v>
-      </c>
-      <c r="B12" s="1">
-        <v>486.98752228164</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1365.8974358974299</v>
-      </c>
-      <c r="E12" s="1">
-        <v>629.59001782531197</v>
+      <c r="A12" s="2">
+        <v>1169.2249348037401</v>
+      </c>
+      <c r="B12" s="2">
+        <v>487.83328231583499</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1175.72065005019</v>
+      </c>
+      <c r="E12" s="2">
+        <v>663.97166707225904</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1371.2820512820499</v>
-      </c>
-      <c r="B13" s="1">
-        <v>429.946524064171</v>
+      <c r="A13" s="2">
+        <v>1375.0758423377499</v>
+      </c>
+      <c r="B13" s="2">
+        <v>428.97087594603198</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1372.2995892904801</v>
+      </c>
+      <c r="E13" s="2">
+        <v>624.43357461523499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>1571.1430300253601</v>
+      </c>
+      <c r="E14" s="2">
+        <v>516.72799094284903</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -5023,18 +5037,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P34:AC34"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A34:N34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P34:AC34"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6322,7 +6336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D45C8D-0E1D-4271-9C84-7C91BB3EB92B}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC94555-3DD1-42EE-BEB7-EBFB6034A41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD50348-218A-4204-972C-1B88DCF9C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="3135" windowWidth="21600" windowHeight="11295" tabRatio="852" firstSheet="1" activeTab="10" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="5" activeTab="15" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -26,11 +26,12 @@
     <sheet name="W_Ultimate Strength" sheetId="7" r:id="rId11"/>
     <sheet name="W_Total_Elongation" sheetId="18" r:id="rId12"/>
     <sheet name="W_Uniform_Elongation" sheetId="19" r:id="rId13"/>
-    <sheet name="W_ductility" sheetId="8" r:id="rId14"/>
-    <sheet name="W_toughness" sheetId="14" r:id="rId15"/>
-    <sheet name="W_creep" sheetId="11" r:id="rId16"/>
-    <sheet name="W_fatigue" sheetId="12" r:id="rId17"/>
-    <sheet name="W_chemical" sheetId="13" r:id="rId18"/>
+    <sheet name="W_Grain" sheetId="20" r:id="rId14"/>
+    <sheet name="W_ductility" sheetId="8" r:id="rId15"/>
+    <sheet name="W_toughness" sheetId="14" r:id="rId16"/>
+    <sheet name="W_creep" sheetId="11" r:id="rId17"/>
+    <sheet name="W_fatigue" sheetId="12" r:id="rId18"/>
+    <sheet name="W_chemical" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="126">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -454,6 +455,114 @@
   <si>
     <t>Nogami2021-- Mechanical properties of tungsten-Recent research on modified tungsten materials in Japan</t>
   </si>
+  <si>
+    <t>P_lm</t>
+  </si>
+  <si>
+    <t>W Conway</t>
+  </si>
+  <si>
+    <t>W Harris</t>
+  </si>
+  <si>
+    <t>W Klopp</t>
+  </si>
+  <si>
+    <t>W Green</t>
+  </si>
+  <si>
+    <t>Stress (Log10(MPa))</t>
+  </si>
+  <si>
+    <t>Webb2019-- An overview of creep in tungsten and it salloys</t>
+  </si>
+  <si>
+    <t>Klopp1964--EFFECTS OF GRAIN SIZE ON THE TENSILE AND CREEP PROPERTIES OF ARC-MELTED AND ELECTRON- BEAM-MELTED TUNGSTEN AT 2250° TO 41 40' F</t>
+  </si>
+  <si>
+    <t>Klopp1964--Effects OF PUJRITY ALTD STERUCTURE ON RErCR STALt TA-FrOi, GRAIN GROWTHN, DUCTILITY, TENSILE AND CREEP PR OPERTIES 01F ARQ-MELTE]D TUNG STENI</t>
+  </si>
+  <si>
+    <t>Grain Orientation Factor</t>
+  </si>
+  <si>
+    <t>W S-direction</t>
+  </si>
+  <si>
+    <t>W T-direction</t>
+  </si>
+  <si>
+    <t>Nogami2021-- Mechanical properties of tungsten-Recent research on modified tungsten materials in Japan.pdf</t>
+  </si>
+  <si>
+    <t>Strain (%)</t>
+  </si>
+  <si>
+    <t>Cycles to failure (Log10(N))</t>
+  </si>
+  <si>
+    <t>W eps1088_AR</t>
+  </si>
+  <si>
+    <t>W eps1088_R</t>
+  </si>
+  <si>
+    <t>W Schmunk1505</t>
+  </si>
+  <si>
+    <t>Foster1963--TENSILE PROPERTIES AND SHEET-BENDING FATIGUE PROPERTIES OF SOME REFRACTORY METALS AT ROOM TEMPERATURE.pdf</t>
+  </si>
+  <si>
+    <t>Schmunk1981--TENSILE AND LOW-CYCLE FATIGUE MEASUeEMENTS ON CROSS-ROLLED TUNtiSTEN</t>
+  </si>
+  <si>
+    <t>Schmunk1984--TENSILE AND LOW-CYCLE FATIGUE MEASUeEMENTS ON CROSS-ROLLED TUNGSTEN AT 1505K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W eps300_RLU </t>
+  </si>
+  <si>
+    <t>W eps300_FU</t>
+  </si>
+  <si>
+    <t>W eps300_RLP</t>
+  </si>
+  <si>
+    <t>W eps300_FP</t>
+  </si>
+  <si>
+    <t>Habainy2015--Fatigue behavior of rolled and forged tungsten at 25, 280 and 480 C.pdf</t>
+  </si>
+  <si>
+    <t>GumschSingleCrystal</t>
+  </si>
+  <si>
+    <t>FaleschiniSintered W</t>
+  </si>
+  <si>
+    <t>FaleschiniSintered WL10</t>
+  </si>
+  <si>
+    <t>Gumbsch 100</t>
+  </si>
+  <si>
+    <t>FaleschiniSintered WVM 1</t>
+  </si>
+  <si>
+    <t>Rupp type I</t>
+  </si>
+  <si>
+    <t>Rupp Type II</t>
+  </si>
+  <si>
+    <t>Rupp Type III</t>
+  </si>
+  <si>
+    <t>Gaganidze trans</t>
+  </si>
+  <si>
+    <t>Gaganidze inter</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +572,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +632,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -545,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,6 +692,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -586,6 +706,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,6 +974,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519686</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84FF645-5531-E646-1D2B-37F5F4A9440B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66676" y="2466975"/>
+          <a:ext cx="4891660" cy="3638550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -889,7 +1067,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -899,8 +1077,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619593</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419568</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>105155</xdr:rowOff>
     </xdr:to>
@@ -935,30 +1113,74 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37904</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>125115</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E95CD2-9946-DE16-8D96-A2809DAEC8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="2323904"/>
+          <a:ext cx="6097290" cy="4249245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>172435</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>162525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639160</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>181575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C182081-13F9-A1A0-D101-95A587E3F856}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B88368-E4A8-49E4-949F-573C39721357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +1196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="2000250"/>
+          <a:off x="1009650" y="3162300"/>
           <a:ext cx="7059010" cy="4296375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -987,22 +1209,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>705500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>86424</xdr:rowOff>
+      <xdr:colOff>676925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73719986-DAF0-1B67-752C-84603A75AC4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36EAED8-2123-4891-971B-AB0F9DF20320}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1018,8 +1240,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11268075" y="2085975"/>
+          <a:off x="11239500" y="4029075"/>
           <a:ext cx="5706125" cy="3944049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>57872</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF73704-7235-42C9-A86B-981E89DA03A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24831675" y="4333875"/>
+          <a:ext cx="5172797" cy="4105848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,7 +1297,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1113,6 +1379,226 @@
         <a:xfrm>
           <a:off x="8401050" y="4762500"/>
           <a:ext cx="5344271" cy="2772162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>275832</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>74676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>230743</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF79A9C-D161-4FC3-95F1-AD2C1E25436E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14763357" y="2932176"/>
+          <a:ext cx="4364986" cy="2277999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>327339</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>124260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E861196-FF9C-0CE0-C6C1-A1CDE0F71A76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716124" y="5486400"/>
+          <a:ext cx="4508815" cy="2257860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C14C480-BC65-3928-145E-7D2B6A9D2FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14754224" y="8001000"/>
+          <a:ext cx="4505326" cy="2350605"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>711526</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCE1EBF-87C5-C253-BDC1-15013D48C6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21583650" y="5353050"/>
+          <a:ext cx="4797751" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>159959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B2B512-D3EA-5A7D-D501-0508ABBD2CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21574125" y="7972425"/>
+          <a:ext cx="5048249" cy="2512634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1859,35 +2345,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="12"/>
+      <c r="N1" s="13"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -2907,46 +3393,46 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
     </row>
     <row r="52" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2968,7 +3454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689ABF1C-EFBF-442E-A0BE-50F31494446C}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -3024,14 +3510,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -3205,13 +3691,13 @@
       <c r="F34" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3247,27 +3733,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="15"/>
+      <c r="M1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3694,22 +4180,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3731,7 +4217,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3749,28 +4235,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="15"/>
       <c r="I1"/>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1"/>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4111,22 +4597,22 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4144,6 +4630,190 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333AE2A1-53A7-40E3-8742-D337D7F1EE4C}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>297.72014089999999</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.23097130799999999</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>305.74208069999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.60774280400000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>568.09818370000005</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.76835989500000001</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>373.35030640000002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.65300243300000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>681.73018930000001</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.99731599900000001</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>575.2419969</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0295994959999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>774.20013589999996</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.015773569</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>778.59980810000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0891868119999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>983.51227960000006</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.030507437</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>975.32675140000003</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.1132797320000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1173.5978990000001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.88527914200000002</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1178.5346199999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0810294439999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1576.4955379999999</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.97398702999999998</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>1381.575883</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.95537254100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>1565.9407490000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.94979844700000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A34:E34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96129535-FEF3-45F0-8A22-F7741A343589}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -4162,14 +4832,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4286,13 +4956,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4305,32 +4975,114 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="13" width="11.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="11.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="11.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="11.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="11.7109375" style="2" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="2"/>
+    <col min="28" max="28" width="11.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="2"/>
+    <col min="31" max="31" width="11.7109375" style="2" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="2"/>
+    <col min="34" max="34" width="11.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.140625" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E1" s="13"/>
+      <c r="G1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="17"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" s="17"/>
+    </row>
+    <row r="3" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -4343,175 +5095,687 @@
       <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>23.819643352120401</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>9.1561181434599206</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>21.996116886627899</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>8.4848484848484702</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="G4" s="16">
+        <v>75.225219283782906</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2.1004253775638002</v>
+      </c>
+      <c r="J4" s="16">
+        <v>72.1361208204181</v>
+      </c>
+      <c r="K4" s="16">
+        <v>3.3031886829783002</v>
+      </c>
+      <c r="M4" s="16">
+        <v>70.062809115469094</v>
+      </c>
+      <c r="N4" s="16">
+        <v>5.4995009712081497</v>
+      </c>
+      <c r="P4" s="16">
+        <v>69.576186605289493</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>5.0251273495553104</v>
+      </c>
+      <c r="S4" s="16">
+        <v>235.51904549401999</v>
+      </c>
+      <c r="T4" s="16">
+        <v>4.70623961899752</v>
+      </c>
+      <c r="V4" s="16">
+        <v>239.13176324057599</v>
+      </c>
+      <c r="W4" s="16">
+        <v>8.4489552848808103</v>
+      </c>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16">
+        <v>239.19371784340299</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>8.0790807325817209</v>
+      </c>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16">
+        <v>53.584065936524802</v>
+      </c>
+      <c r="AC4" s="16">
+        <v>14.519371743970099</v>
+      </c>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16">
+        <v>295.671453874039</v>
+      </c>
+      <c r="AF4" s="16">
+        <v>14.170987648973499</v>
+      </c>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16">
+        <v>295.08237220353601</v>
+      </c>
+      <c r="AI4" s="16">
+        <v>6.9739925955269202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>101.28430194955099</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>102.288087689547</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>8.4848484848484702</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="G5" s="16">
+        <v>171.69293675393999</v>
+      </c>
+      <c r="H5" s="16">
+        <v>3.3337730000659498</v>
+      </c>
+      <c r="J5" s="16">
+        <v>294.45624216843601</v>
+      </c>
+      <c r="K5" s="16">
+        <v>8.5857844753676709</v>
+      </c>
+      <c r="M5" s="16">
+        <v>236.46312649407699</v>
+      </c>
+      <c r="N5" s="16">
+        <v>6.16594049799183</v>
+      </c>
+      <c r="P5" s="16">
+        <v>235.03033983953301</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>4.2683626856081398</v>
+      </c>
+      <c r="S5" s="16">
+        <v>423.36283374286398</v>
+      </c>
+      <c r="T5" s="16">
+        <v>16.6830694992491</v>
+      </c>
+      <c r="V5" s="16">
+        <v>663.28903498994805</v>
+      </c>
+      <c r="W5" s="16">
+        <v>13.9582724108731</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16">
+        <v>431.06273321007598</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>10.1725779534076</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16">
+        <v>127.322372041843</v>
+      </c>
+      <c r="AC5" s="16">
+        <v>13.6499549473532</v>
+      </c>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16">
+        <v>372.08101684316802</v>
+      </c>
+      <c r="AF5" s="16">
+        <v>15.4311636804374</v>
+      </c>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16">
+        <v>372.37650272922798</v>
+      </c>
+      <c r="AI5" s="16">
+        <v>6.5813141404014699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>200.86852074286199</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>12.8691983122362</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>201.553245348865</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>8.31649831649829</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="G6" s="16">
+        <v>186.042339906351</v>
+      </c>
+      <c r="H6" s="16">
+        <v>4.03622304293346</v>
+      </c>
+      <c r="J6" s="16">
+        <v>350.79865461979801</v>
+      </c>
+      <c r="K6" s="16">
+        <v>9.8017377827606698</v>
+      </c>
+      <c r="M6" s="16">
+        <v>423.19701545600498</v>
+      </c>
+      <c r="N6" s="16">
+        <v>10.5882058850215</v>
+      </c>
+      <c r="P6" s="16">
+        <v>423.58364703943499</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>12.8144205433211</v>
+      </c>
+      <c r="S6" s="16">
+        <v>616.57530150041896</v>
+      </c>
+      <c r="T6" s="16">
+        <v>42.600634386879698</v>
+      </c>
+      <c r="V6" s="16">
+        <v>721.12323766405405</v>
+      </c>
+      <c r="W6" s="16">
+        <v>16.232281471884399</v>
+      </c>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16">
+        <v>588.67360322992704</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>13.506672389499499</v>
+      </c>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16">
+        <v>245.98854608477501</v>
+      </c>
+      <c r="AC6" s="16">
+        <v>13.416096048496801</v>
+      </c>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16">
+        <v>473.22255946535302</v>
+      </c>
+      <c r="AF6" s="16">
+        <v>18.448602624248601</v>
+      </c>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16">
+        <v>468.46013342542301</v>
+      </c>
+      <c r="AI6" s="16">
+        <v>8.1522543793260702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>304.44423912039099</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>25.527426160337502</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>301.10840767774999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>18.080808080808001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="G7" s="16">
+        <v>184.87634373145201</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4.6375222581283397</v>
+      </c>
+      <c r="J7" s="16">
+        <v>376.02585240387799</v>
+      </c>
+      <c r="K7" s="16">
+        <v>12.4878816856823</v>
+      </c>
+      <c r="M7" s="16">
+        <v>613.40308934929999</v>
+      </c>
+      <c r="N7" s="16">
+        <v>26.177791274495501</v>
+      </c>
+      <c r="P7" s="16">
+        <v>616.10826054672805</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>32.783191895550203</v>
+      </c>
+      <c r="V7" s="16">
+        <v>776.47300978115095</v>
+      </c>
+      <c r="W7" s="16">
+        <v>20.223492691868</v>
+      </c>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16">
+        <v>666.47800337949695</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>14.592451894153101</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16">
+        <v>323.61150775463602</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>15.5850795991691</v>
+      </c>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16">
+        <v>471.330882764085</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>15.0566479205338</v>
+      </c>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16">
+        <v>527.049818353359</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>10.4447212218247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>353.04444239120397</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>29.409282700421901</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>401.91206468578702</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>20.606060606060499</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="G8" s="16">
+        <v>211.73514476027199</v>
+      </c>
+      <c r="H8" s="16">
+        <v>4.9975268746290302</v>
+      </c>
+      <c r="J8" s="16">
+        <v>422.880696432104</v>
+      </c>
+      <c r="K8" s="16">
+        <v>14.1762843764427</v>
+      </c>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16">
+        <v>752.33845047084606</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>13.4856576143476</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16">
+        <v>427.29938263756497</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>19.525047656268001</v>
+      </c>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16">
+        <v>294.77712079245703</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>15.290095158741</v>
+      </c>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16">
+        <v>575.14471405518896</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>14.1313644249799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>380.04250207890499</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>35.991561181434498</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>452.14677185480099</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>41.144781144781099</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="G9" s="16">
+        <v>251.85649277847401</v>
+      </c>
+      <c r="H9" s="16">
+        <v>5.0933192639978904</v>
+      </c>
+      <c r="J9" s="16">
+        <v>419.40908791136297</v>
+      </c>
+      <c r="K9" s="16">
+        <v>15.4575281936292</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16">
+        <v>830.43140754826095</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>19.406262183833</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16">
+        <v>507.63246663187698</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>18.629428893164199</v>
+      </c>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16">
+        <v>572.51432263877098</v>
+      </c>
+      <c r="AF9" s="16">
+        <v>20.364033571354899</v>
+      </c>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16">
+        <v>670.82165788688201</v>
+      </c>
+      <c r="AI9" s="16">
+        <v>18.474325725936801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>404.54587452647098</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>33.122362869198298</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>501.929268352625</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>46.195286195286101</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="G10" s="16">
+        <v>296.85418452812797</v>
+      </c>
+      <c r="H10" s="16">
+        <v>6.07655147398272</v>
+      </c>
+      <c r="J10" s="16">
+        <v>469.544285431643</v>
+      </c>
+      <c r="K10" s="16">
+        <v>27.1539273230891</v>
+      </c>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16">
+        <v>808.82201731150099</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>17.265548221368402</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16">
+        <v>588.51520195166199</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>21.009878153060399</v>
+      </c>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16">
+        <v>568.34160830321605</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>17.299115668706101</v>
+      </c>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>454.77224429455703</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>38.523206751054801</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>551.71668018383298</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>51.414141414141397</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="G11" s="16">
+        <v>375.07353426102998</v>
+      </c>
+      <c r="H11" s="16">
+        <v>16.3556848908527</v>
+      </c>
+      <c r="J11" s="16">
+        <v>581.70282925542494</v>
+      </c>
+      <c r="K11" s="16">
+        <v>25.012777814416701</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16">
+        <v>747.58291569552603</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>22.204020382058602</v>
+      </c>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16">
+        <v>671.32284983221405</v>
+      </c>
+      <c r="AF11" s="16">
+        <v>20.867597987986802</v>
+      </c>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>504.056176660814</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>35.316455696202503</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>601.45493868121605</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>54.949494949494898</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="G12" s="16">
+        <v>420.729407109411</v>
+      </c>
+      <c r="H12" s="16">
+        <v>11.7987040823056</v>
+      </c>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16">
+        <v>675.86192886445099</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>18.956636343661401</v>
+      </c>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>555.89023376143302</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>42.067510548523202</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="G13" s="16">
+        <v>421.15148717272302</v>
+      </c>
+      <c r="H13" s="16">
+        <v>10.9362428279364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>604.49043703224595</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>45.949367088607502</v>
       </c>
+      <c r="G14" s="16">
+        <v>497.39893160984002</v>
+      </c>
+      <c r="H14" s="16">
+        <v>7.7837499175624902</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34:AC34"/>
+    <sheetView topLeftCell="X14" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,52 +5798,70 @@
     <col min="22" max="23" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="30" width="9.140625" style="1"/>
+    <col min="31" max="41" width="13.7109375" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="M1" s="11" t="s">
+      <c r="K1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="N1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="Q1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="V1" s="11" t="s">
+      <c r="T1" s="12"/>
+      <c r="V1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="11"/>
-      <c r="Y1" s="11" t="s">
+      <c r="W1" s="12"/>
+      <c r="Y1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="11"/>
-      <c r="AB1" s="11" t="s">
+      <c r="Z1" s="12"/>
+      <c r="AB1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="11"/>
-    </row>
-    <row r="3" spans="1:29" ht="33" x14ac:dyDescent="0.25">
+      <c r="AC1" s="12"/>
+      <c r="AE1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF1" s="12"/>
+      <c r="AH1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="12"/>
+      <c r="AK1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL1" s="12"/>
+      <c r="AN1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO1" s="12"/>
+    </row>
+    <row r="3" spans="1:56" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -4640,8 +5922,46 @@
       <c r="AC3" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>147.320952997912</v>
       </c>
@@ -4702,8 +6022,46 @@
       <c r="AC4">
         <v>12.9240807916031</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE4" s="1">
+        <v>0.12396719566698999</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>52.843117772036798</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1.13639805737676</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>40.473453054015401</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>1.0976358797172301</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>40.4926974869161</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>2.3200956390369201</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>22.2008676815414</v>
+      </c>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>155.486935866983</v>
       </c>
@@ -4764,8 +6122,46 @@
       <c r="AC5">
         <v>9.7091588143123904</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1">
+        <v>0.28777546450354002</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>50.691083639312403</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1.1700670259466199</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>41.492416788122597</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1.0878814999523501</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>38.765179839999199</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>2.3869979049023198</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>21.678808143617399</v>
+      </c>
+      <c r="AQ5"/>
+      <c r="AR5"/>
+      <c r="AS5"/>
+      <c r="AT5"/>
+      <c r="AU5"/>
+      <c r="AV5"/>
+      <c r="AW5"/>
+      <c r="AX5"/>
+      <c r="AY5"/>
+      <c r="AZ5"/>
+      <c r="BA5"/>
+      <c r="BB5"/>
+      <c r="BC5"/>
+      <c r="BD5"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>165.78420787446899</v>
       </c>
@@ -4826,8 +6222,46 @@
       <c r="AC6">
         <v>8.2964862950481795</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE6" s="1">
+        <v>0.29425960959900199</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>49.204888877928703</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1.20612534892936</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>40.368705151797997</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1.11384667095874</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>38.813535413928797</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>2.4441527434425399</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>21.014813919694699</v>
+      </c>
+      <c r="AQ6"/>
+      <c r="AR6"/>
+      <c r="AS6"/>
+      <c r="AT6"/>
+      <c r="AU6"/>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6"/>
+      <c r="AY6"/>
+      <c r="AZ6"/>
+      <c r="BA6"/>
+      <c r="BB6"/>
+      <c r="BC6"/>
+      <c r="BD6"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>175.01907435399099</v>
       </c>
@@ -4870,8 +6304,46 @@
       <c r="AC7">
         <v>6.8826332396059096</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE7" s="1">
+        <v>0.37530461031734302</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>49.129184710144798</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>1.23305354756798</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>41.132862550341599</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1.14676784331551</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>39.1084622198087</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>2.5407964856747598</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>19.0969076086262</v>
+      </c>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y8">
         <v>63.716757174440303</v>
       </c>
@@ -4884,8 +6356,40 @@
       <c r="AC8">
         <v>6.0439159458241196</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE8" s="1">
+        <v>0.27270531239309798</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>44.998266821578802</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1.21538104518423</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>39.399080714289703</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>1.1448572496091201</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>37.7920429024566</v>
+      </c>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y9">
         <v>74.657107901006597</v>
       </c>
@@ -4898,8 +6402,40 @@
       <c r="AC9">
         <v>4.9807894567387097</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE9" s="1">
+        <v>0.31450690937911802</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>43.854092258214401</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>1.3237583244331099</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>37.507339878840099</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>1.1898518439150401</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>37.790287586684002</v>
+      </c>
+      <c r="AQ9"/>
+      <c r="AR9"/>
+      <c r="AS9"/>
+      <c r="AT9"/>
+      <c r="AU9"/>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9"/>
+      <c r="AY9"/>
+      <c r="AZ9"/>
+      <c r="BA9"/>
+      <c r="BB9"/>
+      <c r="BC9"/>
+      <c r="BD9"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y10">
         <v>87.014102041254304</v>
       </c>
@@ -4912,8 +6448,40 @@
       <c r="AC10">
         <v>2.0114190044860401</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE10" s="1">
+        <v>0.44540629767461598</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>45.735089720454802</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1.3263744059070699</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>37.022606142530201</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1.21569774346508</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>36.966470636071698</v>
+      </c>
+      <c r="AQ10"/>
+      <c r="AR10"/>
+      <c r="AS10"/>
+      <c r="AT10"/>
+      <c r="AU10"/>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10"/>
+      <c r="AY10"/>
+      <c r="AZ10"/>
+      <c r="BA10"/>
+      <c r="BB10"/>
+      <c r="BC10"/>
+      <c r="BD10"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y11">
         <v>97.375990040567501</v>
       </c>
@@ -4926,8 +6494,40 @@
       <c r="AC11">
         <v>1.7241194273326299</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE11" s="1">
+        <v>0.47323641458820997</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>47.021632760531297</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1.38940627294064</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>36.994640231573598</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1.2198553664009699</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>35.7320954530554</v>
+      </c>
+      <c r="AQ11"/>
+      <c r="AR11"/>
+      <c r="AS11"/>
+      <c r="AT11"/>
+      <c r="AU11"/>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11"/>
+      <c r="AY11"/>
+      <c r="AZ11"/>
+      <c r="BA11"/>
+      <c r="BB11"/>
+      <c r="BC11"/>
+      <c r="BD11"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y12">
         <v>104.39696065594801</v>
       </c>
@@ -4936,8 +6536,40 @@
       </c>
       <c r="AB12"/>
       <c r="AC12"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE12" s="1">
+        <v>0.42329894463199502</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>51.430535609178598</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1.5457520220960399</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>32.805404324063304</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1.24237291719747</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>35.879322563487499</v>
+      </c>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y13">
         <v>142.870634699177</v>
       </c>
@@ -4946,8 +6578,40 @@
       </c>
       <c r="AB13"/>
       <c r="AC13"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE13" s="1">
+        <v>0.47082950566652898</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>50.340544397350897</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1.52109458217682</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>29.0313405464704</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1.29257719870046</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>36.0090133942292</v>
+      </c>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y14">
         <v>162.50617098456701</v>
       </c>
@@ -4956,8 +6620,40 @@
       </c>
       <c r="AB14"/>
       <c r="AC14"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE14" s="1">
+        <v>0.50695422009538504</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>49.523032387947502</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1.5558640490200499</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>28.290283147341899</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>1.3245025669169801</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>35.349521004796202</v>
+      </c>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14"/>
+      <c r="AU14"/>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14"/>
+      <c r="AY14"/>
+      <c r="AZ14"/>
+      <c r="BA14"/>
+      <c r="BB14"/>
+      <c r="BC14"/>
+      <c r="BD14"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y15">
         <v>182.702998561892</v>
       </c>
@@ -4966,8 +6662,40 @@
       </c>
       <c r="AB15"/>
       <c r="AC15"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE15" s="1">
+        <v>0.56691117695895799</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>48.650183793984603</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>1.7028546908245701</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>34.151142795082798</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>1.3996402088087101</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>34.309850848255302</v>
+      </c>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
+      <c r="AT15"/>
+      <c r="AU15"/>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15"/>
+      <c r="AY15"/>
+      <c r="AZ15"/>
+      <c r="BA15"/>
+      <c r="BB15"/>
+      <c r="BC15"/>
+      <c r="BD15"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="Y16">
         <v>202.88372791860701</v>
       </c>
@@ -4976,8 +6704,34 @@
       </c>
       <c r="AB16"/>
       <c r="AC16"/>
-    </row>
-    <row r="17" spans="25:29" x14ac:dyDescent="0.25">
+      <c r="AE16" s="1">
+        <v>0.55974749182729799</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>45.077746897485703</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>1.4247333479408599</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>34.308871922151297</v>
+      </c>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+    </row>
+    <row r="17" spans="25:56" x14ac:dyDescent="0.25">
       <c r="Y17">
         <v>222.78112859258599</v>
       </c>
@@ -4986,8 +6740,34 @@
       </c>
       <c r="AB17"/>
       <c r="AC17"/>
-    </row>
-    <row r="18" spans="25:29" x14ac:dyDescent="0.25">
+      <c r="AE17" s="1">
+        <v>0.55375812032203398</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>43.119334018459803</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>1.5483357083967899</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>33.333135767022299</v>
+      </c>
+      <c r="AQ17"/>
+      <c r="AR17"/>
+      <c r="AS17"/>
+      <c r="AT17"/>
+      <c r="AU17"/>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17"/>
+      <c r="AY17"/>
+      <c r="AZ17"/>
+      <c r="BA17"/>
+      <c r="BB17"/>
+      <c r="BC17"/>
+      <c r="BD17"/>
+    </row>
+    <row r="18" spans="25:56" x14ac:dyDescent="0.25">
       <c r="Y18">
         <v>242.672089978321</v>
       </c>
@@ -4996,59 +6776,566 @@
       </c>
       <c r="AB18"/>
       <c r="AC18"/>
-    </row>
-    <row r="19" spans="25:29" x14ac:dyDescent="0.25">
+      <c r="AE18" s="1">
+        <v>0.59188425206134399</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>42.990897340683901</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>1.61636432140924</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>30.927880573458499</v>
+      </c>
+      <c r="AQ18"/>
+      <c r="AR18"/>
+      <c r="AS18"/>
+      <c r="AT18"/>
+      <c r="AU18"/>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18"/>
+      <c r="AY18"/>
+      <c r="AZ18"/>
+      <c r="BA18"/>
+      <c r="BB18"/>
+      <c r="BC18"/>
+      <c r="BD18"/>
+    </row>
+    <row r="19" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AB19"/>
       <c r="AC19"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="AE19" s="1">
+        <v>0.59648602383278104</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>41.775631541626502</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>1.70184482393067</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>29.591595807409998</v>
+      </c>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+    </row>
+    <row r="20" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE20" s="1">
+        <v>0.67760046653958905</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>42.207721914506301</v>
+      </c>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+    </row>
+    <row r="21" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE21" s="1">
+        <v>0.87243856571592804</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>37.466725156371503</v>
+      </c>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+    </row>
+    <row r="22" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE22" s="1">
+        <v>0.82473811981675205</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>44.287577671041099</v>
+      </c>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+    </row>
+    <row r="23" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE23" s="1">
+        <v>0.91037745209347998</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>42.942201146271501</v>
+      </c>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+    </row>
+    <row r="24" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE24" s="1">
+        <v>0.99234715598221002</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>38.024205768125398</v>
+      </c>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+    </row>
+    <row r="25" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE25" s="1">
+        <v>0.98709097296093395</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>40.943798486254899</v>
+      </c>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+    </row>
+    <row r="26" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE26" s="1">
+        <v>1.0390150851856901</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>36.6241521329273</v>
+      </c>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+    </row>
+    <row r="27" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE27" s="1">
+        <v>1.03874087695692</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>40.526923183051501</v>
+      </c>
+      <c r="AQ27"/>
+      <c r="AR27"/>
+      <c r="AS27"/>
+      <c r="AT27"/>
+      <c r="AU27"/>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27"/>
+      <c r="AY27"/>
+      <c r="AZ27"/>
+      <c r="BA27"/>
+      <c r="BB27"/>
+      <c r="BC27"/>
+      <c r="BD27"/>
+    </row>
+    <row r="28" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE28" s="1">
+        <v>1.05393369380095</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>39.3739406174343</v>
+      </c>
+      <c r="AQ28"/>
+      <c r="AR28"/>
+      <c r="AS28"/>
+      <c r="AT28"/>
+      <c r="AU28"/>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28"/>
+      <c r="AY28"/>
+      <c r="AZ28"/>
+      <c r="BA28"/>
+      <c r="BB28"/>
+      <c r="BC28"/>
+      <c r="BD28"/>
+    </row>
+    <row r="29" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE29" s="1">
+        <v>1.13135917130162</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>38.387547430343602</v>
+      </c>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+    </row>
+    <row r="30" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE30" s="1">
+        <v>1.1828430795116101</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>36.756827942010098</v>
+      </c>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+    </row>
+    <row r="31" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE31" s="1">
+        <v>1.28352582735847</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>34.5095811935578</v>
+      </c>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+    </row>
+    <row r="32" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AE32" s="1">
+        <v>1.3013272994976799</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>34.708634304916202</v>
+      </c>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32"/>
+      <c r="AU32"/>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32"/>
+      <c r="AY32"/>
+      <c r="AZ32"/>
+      <c r="BA32"/>
+      <c r="BB32"/>
+      <c r="BC32"/>
+      <c r="BD32"/>
+    </row>
+    <row r="33" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE33" s="1">
+        <v>1.3152614900655699</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>36.167784541143</v>
+      </c>
+      <c r="AQ33"/>
+      <c r="AR33"/>
+      <c r="AS33"/>
+      <c r="AT33"/>
+      <c r="AU33"/>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33"/>
+      <c r="AY33"/>
+      <c r="AZ33"/>
+      <c r="BA33"/>
+      <c r="BB33"/>
+      <c r="BC33"/>
+      <c r="BD33"/>
+    </row>
+    <row r="34" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE34" s="1">
+        <v>1.4457656960493299</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>33.396957666669799</v>
+      </c>
+      <c r="AQ34"/>
+      <c r="AR34"/>
+      <c r="AS34"/>
+      <c r="AT34"/>
+      <c r="AU34"/>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34"/>
+      <c r="AY34"/>
+      <c r="AZ34"/>
+      <c r="BA34"/>
+      <c r="BB34"/>
+      <c r="BC34"/>
+      <c r="BD34"/>
+    </row>
+    <row r="35" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE35" s="1">
+        <v>1.38172179023404</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>31.801475511643002</v>
+      </c>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+    </row>
+    <row r="36" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE36" s="1">
+        <v>1.5354675074703701</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>33.562475426831</v>
+      </c>
+    </row>
+    <row r="37" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE37" s="1">
+        <v>1.4614764617699201</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>30.1235575379546</v>
+      </c>
+    </row>
+    <row r="38" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE38" s="1">
+        <v>1.59880330467955</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>29.9799133997208</v>
+      </c>
+    </row>
+    <row r="39" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE39" s="1">
+        <v>1.6489991696386701</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>30.746215085486899</v>
+      </c>
+    </row>
+    <row r="40" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE40" s="1">
+        <v>1.65675894733109</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>28.410402230959502</v>
+      </c>
+    </row>
+    <row r="41" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE41" s="1">
+        <v>1.7544516698174499</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>27.930269926014901</v>
+      </c>
+    </row>
+    <row r="42" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE42" s="1">
+        <v>1.8196302303724901</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>26.007077419416898</v>
+      </c>
+    </row>
+    <row r="43" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AE43" s="1">
+        <v>1.84298835891777</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>25.4837494388937</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="P34" s="11" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="P52" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AE52" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+    </row>
+    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE53" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+    </row>
+    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AE54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P34:AC34"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A34:N34"/>
+  <mergeCells count="19">
+    <mergeCell ref="AE53:AO53"/>
+    <mergeCell ref="AE52:AO52"/>
+    <mergeCell ref="AE54:AO54"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="A52:N52"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P52:AC52"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5056,56 +7343,101 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40:W40"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="22" width="9.140625" style="2"/>
+    <col min="23" max="23" width="9" style="2" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="12.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" style="2"/>
+    <col min="28" max="29" width="11.42578125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="2"/>
+    <col min="31" max="32" width="11.42578125" style="2" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="2"/>
+    <col min="34" max="35" width="11.42578125" style="2" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="2"/>
+    <col min="37" max="38" width="11.42578125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="2"/>
+    <col min="40" max="41" width="11.42578125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="2"/>
+    <col min="43" max="44" width="11.42578125" style="2" customWidth="1"/>
+    <col min="45" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="V1" s="12" t="s">
+      <c r="T1" s="13"/>
+      <c r="V1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="12"/>
-    </row>
-    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="W1" s="13"/>
+      <c r="Y1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="13"/>
+      <c r="AB1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="13"/>
+      <c r="AE1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="13"/>
+      <c r="AH1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI1" s="13"/>
+      <c r="AK1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL1" s="13"/>
+      <c r="AN1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO1" s="13"/>
+      <c r="AQ1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR1" s="13"/>
+    </row>
+    <row r="3" spans="1:44" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
@@ -5154,8 +7486,50 @@
       <c r="W3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1.00261006363414</v>
       </c>
@@ -5204,8 +7578,50 @@
       <c r="W4">
         <v>222.46868907768501</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y4">
+        <v>2.0567132320646002</v>
+      </c>
+      <c r="Z4">
+        <v>0.93192624248379197</v>
+      </c>
+      <c r="AB4">
+        <v>1.4121451144798201</v>
+      </c>
+      <c r="AC4">
+        <v>0.71819002046052405</v>
+      </c>
+      <c r="AE4">
+        <v>2.3406635136307599</v>
+      </c>
+      <c r="AF4">
+        <v>0.60923648640343497</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>1.00193189891934</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>319.850097020389</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>1.00099012236907</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>212.67592560003899</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>2.7657150017849301</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>288.36720312476399</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>5.0275470607869401</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>184.85551755359299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.0074578810619701</v>
       </c>
@@ -5254,8 +7670,50 @@
       <c r="W5">
         <v>272.76219525354401</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y5">
+        <v>2.6629885788546801</v>
+      </c>
+      <c r="Z5">
+        <v>0.508994318326083</v>
+      </c>
+      <c r="AB5">
+        <v>2.20472891305119</v>
+      </c>
+      <c r="AC5">
+        <v>0.29196725094607001</v>
+      </c>
+      <c r="AE5">
+        <v>3.1107253641838701</v>
+      </c>
+      <c r="AF5">
+        <v>0.21076881020646801</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.99175026947959399</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>161.180666777798</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>3.9997845710314199</v>
+      </c>
+      <c r="AL5" s="8">
+        <v>225.48418337530401</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>3.0840412772733301</v>
+      </c>
+      <c r="AO5" s="8">
+        <v>263.89735370458499</v>
+      </c>
+      <c r="AQ5" s="8">
+        <v>5.1702097705739503</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>169.871891315505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>48.115249238566101</v>
       </c>
@@ -5304,8 +7762,50 @@
       <c r="W6">
         <v>179.59736419943999</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y6">
+        <v>2.7680962582758601</v>
+      </c>
+      <c r="Z6">
+        <v>0.49663793079277302</v>
+      </c>
+      <c r="AB6">
+        <v>2.70209056439794</v>
+      </c>
+      <c r="AC6">
+        <v>2.9127906988029899E-2</v>
+      </c>
+      <c r="AE6">
+        <v>3.7372507603412699</v>
+      </c>
+      <c r="AF6">
+        <v>-0.14638823380882501</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>2.3949895940459598</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>349.81580243036399</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>4.8256781274620097</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>212.17090517683201</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>3.3389707136500402</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>274.86721337407801</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>5.4094016760141699</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>139.910730412498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>70.987484273774001</v>
       </c>
@@ -5354,8 +7854,50 @@
       <c r="W7">
         <v>184.64739693113299</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7">
+        <v>4.0197862012947096</v>
+      </c>
+      <c r="Z7">
+        <v>-0.30288590130054999</v>
+      </c>
+      <c r="AB7">
+        <v>3.00535452680686</v>
+      </c>
+      <c r="AC7">
+        <v>-0.13015473988665299</v>
+      </c>
+      <c r="AE7">
+        <v>4.6709502143638399</v>
+      </c>
+      <c r="AF7">
+        <v>-0.52795741447224298</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>2.5464473751894698</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>335.71129656137498</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>5.1375279970636702</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>200.68606584545799</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>3.9873751662612702</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>313.29392053262399</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>5.5501402222128497</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>155.95728782277101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>73.756951479329103</v>
       </c>
@@ -5404,8 +7946,44 @@
       <c r="W8">
         <v>197.150184520426</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y8">
+        <v>4.6527348485955304</v>
+      </c>
+      <c r="Z8">
+        <v>-0.19612500278610401</v>
+      </c>
+      <c r="AB8">
+        <v>4.0303413135816299</v>
+      </c>
+      <c r="AC8">
+        <v>-0.28799314240170898</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>2.5661183219437</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>324.26503719340502</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>5.7218839089257596</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>200.38883575146201</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>5.0171391729151997</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>250.43787775005501</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>5.6400750481814397</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>140.540483048216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>303.52458070095003</v>
       </c>
@@ -5454,8 +8032,44 @@
       <c r="W9">
         <v>196.38045018667799</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9">
+        <v>4.6984566891437396</v>
+      </c>
+      <c r="Z9">
+        <v>-0.153023728279055</v>
+      </c>
+      <c r="AB9">
+        <v>4.53607301746713</v>
+      </c>
+      <c r="AC9">
+        <v>-0.60732432331148301</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>3.0624887112513099</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>311.21534039904299</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>5.8711545252266601</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>187.38497079332399</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>5.2437379594738296</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>287.37978812154802</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>5.5020728753269603</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>185.89321220836399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>47992.330562807401</v>
       </c>
@@ -5504,8 +8118,38 @@
       <c r="W10">
         <v>182.32200792754401</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>4.7532020274429598</v>
+      </c>
+      <c r="AC10">
+        <v>-0.49660329890476201</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>4.9011169431209503</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>297.10812716420099</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>6.2469446409433402</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>202.30013935198801</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>5.4878108587803203</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>312.87572919998502</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>6.2466526321977698</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>169.06954410666401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>58390.312936327296</v>
       </c>
@@ -5548,8 +8192,32 @@
       <c r="W11">
         <v>170.35155997093699</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AH11" s="8">
+        <v>4.9716631619171103</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>325.26782616700001</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>6.2534017085025599</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>187.11442759130699</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>5.7971216059784796</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>262.43876035132303</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>6.2553200705926297</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>155.42403344138299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>197743.551426791</v>
       </c>
@@ -5580,8 +8248,32 @@
       <c r="Q12">
         <v>147.331467746692</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AH12" s="8">
+        <v>5.3867313546614497</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>310.028160472536</v>
+      </c>
+      <c r="AK12" s="8">
+        <v>6.24890748118671</v>
+      </c>
+      <c r="AL12" s="8">
+        <v>175.67135904737901</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>5.8326035693137896</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>300.28618790898201</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>6.2507929681199901</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>140.239772055266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>253239.59042427401</v>
       </c>
@@ -5600,8 +8292,26 @@
       <c r="K13">
         <v>171.85756504933801</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AH13" s="8">
+        <v>5.5120669229897503</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>323.21583623376</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>6.2499904275278801</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>298.91065267242197</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>6.2484588319882199</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>124.615080259861</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>263651.90566811501</v>
       </c>
@@ -5614,8 +8324,20 @@
       <c r="E14">
         <v>290.053746376351</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AH14" s="8">
+        <v>5.5276864901283602</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>350.72257660781798</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>6.2542835362375104</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>287.46642382884198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1946085.2130881499</v>
       </c>
@@ -5628,8 +8350,20 @@
       <c r="E15">
         <v>276.92044548833701</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AH15" s="8">
+        <v>5.2361418644236304</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>172.944171408747</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>6.2541791092689003</v>
+      </c>
+      <c r="AO15" s="8">
+        <v>275.58263480071298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1993493.7948397701</v>
       </c>
@@ -5642,8 +8376,20 @@
       <c r="E16">
         <v>264.25442772805098</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AH16" s="8">
+        <v>5.7041564640873696</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>183.005613142946</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>6.2628484814965102</v>
+      </c>
+      <c r="AO16" s="8">
+        <v>262.15719430261902</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2018121.01975356</v>
       </c>
@@ -5656,8 +8402,20 @@
       <c r="E17">
         <v>251.59017330032299</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AH17" s="8">
+        <v>5.70648479872089</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>197.970094436789</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>6.2561477510105199</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>249.61406499766599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>439755.03130429401</v>
       </c>
@@ -5670,69 +8428,167 @@
       <c r="E18">
         <v>239.39496533288099</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AH18" s="8">
+        <v>6.2484414274934599</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>122.634448755173</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>6.2428642538364301</v>
+      </c>
+      <c r="AO18" s="8">
+        <v>237.95208658620101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>456911.39555828198</v>
       </c>
       <c r="B19" s="2">
         <v>187.13331499467401</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AH19" s="8">
+        <v>6.2420675147425699</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>147.28317770492001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>119874.206488483</v>
       </c>
       <c r="B20" s="2">
         <v>174.75648377381299</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AH20" s="8">
+        <v>6.2554670418817899</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>172.149366147639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1952448.4320670101</v>
       </c>
       <c r="B21" s="2">
         <v>150.27613787849899</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="AH21" s="8">
+        <v>6.2498898682247699</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>287.467003978668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1975365.1607884699</v>
       </c>
       <c r="B22" s="2">
         <v>124.9493923556</v>
       </c>
+      <c r="AH22" s="8">
+        <v>6.2587603590586003</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>296.92886086808198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH23" s="8">
+        <v>6.2371304397264904</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>335.44404087503602</v>
+      </c>
     </row>
     <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="M40" s="12" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="M40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="49" spans="25:44" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y49" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="13"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="13"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="13"/>
+      <c r="AF49" s="13"/>
+      <c r="AH49" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI49" s="13"/>
+      <c r="AJ49" s="13"/>
+      <c r="AK49" s="13"/>
+      <c r="AL49" s="13"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="13"/>
+      <c r="AP49" s="13"/>
+      <c r="AQ49" s="13"/>
+      <c r="AR49" s="13"/>
+    </row>
+    <row r="50" spans="25:44" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y50" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z50" s="13"/>
+      <c r="AA50" s="13"/>
+      <c r="AB50" s="13"/>
+      <c r="AC50" s="13"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="13"/>
+      <c r="AF50" s="13"/>
+    </row>
+    <row r="51" spans="25:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="21">
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AH49:AR49"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
@@ -5743,6 +8599,12 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Y50:AF50"/>
+    <mergeCell ref="Y51:AF51"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="Y49:AF49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5750,7 +8612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7DECAD-F51B-46B3-9AAB-81A8CA08E74C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5782,22 +8644,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -6081,19 +8943,19 @@
       <c r="A38" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6125,10 +8987,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6315,10 +9177,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="H38" s="10"/>
     </row>
   </sheetData>
@@ -6357,30 +9219,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="12"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6877,27 +9739,27 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A38:Q38"/>
@@ -6936,18 +9798,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7527,13 +10389,13 @@
     </row>
     <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7561,10 +10423,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -7603,10 +10465,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7644,34 +10506,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="Q1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="12"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8116,28 +10978,28 @@
       <c r="A34" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8202,10 +11064,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -8260,10 +11122,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD50348-218A-4204-972C-1B88DCF9C614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63ED68A-2479-4F2A-B586-E63E77906AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="5" activeTab="15" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="5" activeTab="16" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -562,6 +562,30 @@
   </si>
   <si>
     <t>Gaganidze inter</t>
+  </si>
+  <si>
+    <t>epsdot</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>W epsdot Conway</t>
+  </si>
+  <si>
+    <t>W epsdot Klopp1</t>
+  </si>
+  <si>
+    <t>W epsdot Klopp2</t>
+  </si>
+  <si>
+    <t>W  epsdot Green</t>
+  </si>
+  <si>
+    <t>W epsdot Harris</t>
+  </si>
+  <si>
+    <t>W epsdot King</t>
   </si>
 </sst>
 </file>
@@ -662,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,8 +716,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,13 +735,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1286,6 +1313,50 @@
         <a:xfrm>
           <a:off x="24831675" y="4333875"/>
           <a:ext cx="5172797" cy="4105848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>524622</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>48494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{190AD6D0-7AB1-7574-05D2-8F8EC06CF99E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36109275" y="3869828"/>
+          <a:ext cx="4115547" cy="4789266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2345,35 +2416,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="13"/>
+      <c r="N1" s="14"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3393,46 +3464,46 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
     </row>
     <row r="52" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3510,14 +3581,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -3691,13 +3762,13 @@
       <c r="F34" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3733,27 +3804,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="M1" s="15" t="s">
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4180,22 +4251,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4235,28 +4306,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="15" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="16"/>
       <c r="I1"/>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="16"/>
       <c r="L1"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4597,22 +4668,22 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4644,15 +4715,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4793,13 +4864,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4832,14 +4903,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4956,13 +5027,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4979,7 +5050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F380984-BC1C-4914-83CA-6C32A0D3A058}">
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
@@ -5024,59 +5095,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="14"/>
       <c r="G1" s="17" t="s">
         <v>116</v>
       </c>
       <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="17" t="s">
         <v>119</v>
       </c>
       <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="17" t="s">
         <v>117</v>
       </c>
       <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
+      <c r="O1" s="12"/>
       <c r="P1" s="17" t="s">
         <v>118</v>
       </c>
       <c r="Q1" s="17"/>
-      <c r="R1" s="18"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="17" t="s">
         <v>120</v>
       </c>
       <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="U1" s="12"/>
       <c r="V1" s="17" t="s">
         <v>121</v>
       </c>
       <c r="W1" s="17"/>
-      <c r="X1" s="18"/>
+      <c r="X1" s="12"/>
       <c r="Y1" s="17" t="s">
         <v>122</v>
       </c>
       <c r="Z1" s="17"/>
-      <c r="AA1" s="18"/>
+      <c r="AA1" s="12"/>
       <c r="AB1" s="17" t="s">
         <v>123</v>
       </c>
       <c r="AC1" s="17"/>
-      <c r="AD1" s="18"/>
+      <c r="AD1" s="12"/>
       <c r="AE1" s="17" t="s">
         <v>124</v>
       </c>
       <c r="AF1" s="17"/>
-      <c r="AG1" s="18"/>
+      <c r="AG1" s="12"/>
       <c r="AH1" s="17" t="s">
         <v>125</v>
       </c>
@@ -5169,68 +5240,68 @@
       <c r="E4" s="2">
         <v>8.4848484848484702</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="11">
         <v>75.225219283782906</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="11">
         <v>2.1004253775638002</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="11">
         <v>72.1361208204181</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="11">
         <v>3.3031886829783002</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="11">
         <v>70.062809115469094</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="11">
         <v>5.4995009712081497</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="11">
         <v>69.576186605289493</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="11">
         <v>5.0251273495553104</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="11">
         <v>235.51904549401999</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="11">
         <v>4.70623961899752</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="11">
         <v>239.13176324057599</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="11">
         <v>8.4489552848808103</v>
       </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11">
         <v>239.19371784340299</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="11">
         <v>8.0790807325817209</v>
       </c>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11">
         <v>53.584065936524802</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="11">
         <v>14.519371743970099</v>
       </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11">
         <v>295.671453874039</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="11">
         <v>14.170987648973499</v>
       </c>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16">
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11">
         <v>295.08237220353601</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="11">
         <v>6.9739925955269202</v>
       </c>
     </row>
@@ -5247,68 +5318,68 @@
       <c r="E5" s="2">
         <v>8.4848484848484702</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <v>171.69293675393999</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>3.3337730000659498</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="11">
         <v>294.45624216843601</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="11">
         <v>8.5857844753676709</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="11">
         <v>236.46312649407699</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="11">
         <v>6.16594049799183</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="11">
         <v>235.03033983953301</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="11">
         <v>4.2683626856081398</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="11">
         <v>423.36283374286398</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="11">
         <v>16.6830694992491</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="11">
         <v>663.28903498994805</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="11">
         <v>13.9582724108731</v>
       </c>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16">
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11">
         <v>431.06273321007598</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="11">
         <v>10.1725779534076</v>
       </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11">
         <v>127.322372041843</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AC5" s="11">
         <v>13.6499549473532</v>
       </c>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11">
         <v>372.08101684316802</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AF5" s="11">
         <v>15.4311636804374</v>
       </c>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16">
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11">
         <v>372.37650272922798</v>
       </c>
-      <c r="AI5" s="16">
+      <c r="AI5" s="11">
         <v>6.5813141404014699</v>
       </c>
     </row>
@@ -5325,68 +5396,68 @@
       <c r="E6" s="2">
         <v>8.31649831649829</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>186.042339906351</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>4.03622304293346</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="11">
         <v>350.79865461979801</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="11">
         <v>9.8017377827606698</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="11">
         <v>423.19701545600498</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="11">
         <v>10.5882058850215</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="11">
         <v>423.58364703943499</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="11">
         <v>12.8144205433211</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="11">
         <v>616.57530150041896</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="11">
         <v>42.600634386879698</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="11">
         <v>721.12323766405405</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="11">
         <v>16.232281471884399</v>
       </c>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16">
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11">
         <v>588.67360322992704</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="Z6" s="11">
         <v>13.506672389499499</v>
       </c>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16">
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11">
         <v>245.98854608477501</v>
       </c>
-      <c r="AC6" s="16">
+      <c r="AC6" s="11">
         <v>13.416096048496801</v>
       </c>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16">
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11">
         <v>473.22255946535302</v>
       </c>
-      <c r="AF6" s="16">
+      <c r="AF6" s="11">
         <v>18.448602624248601</v>
       </c>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16">
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11">
         <v>468.46013342542301</v>
       </c>
-      <c r="AI6" s="16">
+      <c r="AI6" s="11">
         <v>8.1522543793260702</v>
       </c>
     </row>
@@ -5403,62 +5474,62 @@
       <c r="E7" s="2">
         <v>18.080808080808001</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <v>184.87634373145201</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="11">
         <v>4.6375222581283397</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="11">
         <v>376.02585240387799</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="11">
         <v>12.4878816856823</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="11">
         <v>613.40308934929999</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="11">
         <v>26.177791274495501</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="11">
         <v>616.10826054672805</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="11">
         <v>32.783191895550203</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="11">
         <v>776.47300978115095</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="11">
         <v>20.223492691868</v>
       </c>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16">
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11">
         <v>666.47800337949695</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="Z7" s="11">
         <v>14.592451894153101</v>
       </c>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16">
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11">
         <v>323.61150775463602</v>
       </c>
-      <c r="AC7" s="16">
+      <c r="AC7" s="11">
         <v>15.5850795991691</v>
       </c>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16">
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11">
         <v>471.330882764085</v>
       </c>
-      <c r="AF7" s="16">
+      <c r="AF7" s="11">
         <v>15.0566479205338</v>
       </c>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16">
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11">
         <v>527.049818353359</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7" s="11">
         <v>10.4447212218247</v>
       </c>
     </row>
@@ -5475,46 +5546,46 @@
       <c r="E8" s="2">
         <v>20.606060606060499</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <v>211.73514476027199</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="11">
         <v>4.9975268746290302</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="11">
         <v>422.880696432104</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="11">
         <v>14.1762843764427</v>
       </c>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11">
         <v>752.33845047084606</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="Z8" s="11">
         <v>13.4856576143476</v>
       </c>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16">
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11">
         <v>427.29938263756497</v>
       </c>
-      <c r="AC8" s="16">
+      <c r="AC8" s="11">
         <v>19.525047656268001</v>
       </c>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16">
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11">
         <v>294.77712079245703</v>
       </c>
-      <c r="AF8" s="16">
+      <c r="AF8" s="11">
         <v>15.290095158741</v>
       </c>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16">
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11">
         <v>575.14471405518896</v>
       </c>
-      <c r="AI8" s="16">
+      <c r="AI8" s="11">
         <v>14.1313644249799</v>
       </c>
     </row>
@@ -5531,46 +5602,46 @@
       <c r="E9" s="2">
         <v>41.144781144781099</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <v>251.85649277847401</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="11">
         <v>5.0933192639978904</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="11">
         <v>419.40908791136297</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="11">
         <v>15.4575281936292</v>
       </c>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16">
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11">
         <v>830.43140754826095</v>
       </c>
-      <c r="Z9" s="16">
+      <c r="Z9" s="11">
         <v>19.406262183833</v>
       </c>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16">
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11">
         <v>507.63246663187698</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="11">
         <v>18.629428893164199</v>
       </c>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16">
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11">
         <v>572.51432263877098</v>
       </c>
-      <c r="AF9" s="16">
+      <c r="AF9" s="11">
         <v>20.364033571354899</v>
       </c>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16">
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11">
         <v>670.82165788688201</v>
       </c>
-      <c r="AI9" s="16">
+      <c r="AI9" s="11">
         <v>18.474325725936801</v>
       </c>
     </row>
@@ -5587,44 +5658,44 @@
       <c r="E10" s="2">
         <v>46.195286195286101</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="11">
         <v>296.85418452812797</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="11">
         <v>6.07655147398272</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="11">
         <v>469.544285431643</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="11">
         <v>27.1539273230891</v>
       </c>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16">
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11">
         <v>808.82201731150099</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="Z10" s="11">
         <v>17.265548221368402</v>
       </c>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16">
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11">
         <v>588.51520195166199</v>
       </c>
-      <c r="AC10" s="16">
+      <c r="AC10" s="11">
         <v>21.009878153060399</v>
       </c>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16">
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11">
         <v>568.34160830321605</v>
       </c>
-      <c r="AF10" s="16">
+      <c r="AF10" s="11">
         <v>17.299115668706101</v>
       </c>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5639,40 +5710,40 @@
       <c r="E11" s="2">
         <v>51.414141414141397</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="11">
         <v>375.07353426102998</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="11">
         <v>16.3556848908527</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="11">
         <v>581.70282925542494</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="11">
         <v>25.012777814416701</v>
       </c>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16">
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11">
         <v>747.58291569552603</v>
       </c>
-      <c r="AC11" s="16">
+      <c r="AC11" s="11">
         <v>22.204020382058602</v>
       </c>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16">
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11">
         <v>671.32284983221405</v>
       </c>
-      <c r="AF11" s="16">
+      <c r="AF11" s="11">
         <v>20.867597987986802</v>
       </c>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -5687,30 +5758,30 @@
       <c r="E12" s="2">
         <v>54.949494949494898</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="11">
         <v>420.729407109411</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="11">
         <v>11.7987040823056</v>
       </c>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16">
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11">
         <v>675.86192886445099</v>
       </c>
-      <c r="AF12" s="16">
+      <c r="AF12" s="11">
         <v>18.956636343661401</v>
       </c>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -5719,10 +5790,10 @@
       <c r="B13" s="2">
         <v>42.067510548523202</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="11">
         <v>421.15148717272302</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="11">
         <v>10.9362428279364</v>
       </c>
     </row>
@@ -5733,24 +5804,29 @@
       <c r="B14" s="2">
         <v>45.949367088607502</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="11">
         <v>497.39893160984002</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="11">
         <v>7.7837499175624902</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
@@ -5759,11 +5835,6 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5772,1551 +5843,2178 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
-  <dimension ref="A1:BD54"/>
+  <dimension ref="A1:BG54"/>
   <sheetViews>
-    <sheetView topLeftCell="X14" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView tabSelected="1" topLeftCell="AI23" workbookViewId="0">
+      <selection activeCell="BD40" sqref="BD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="23" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1"/>
-    <col min="25" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="30" width="9.140625" style="1"/>
-    <col min="31" max="41" width="13.7109375" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="13" max="14" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="2"/>
+    <col min="16" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="2"/>
+    <col min="19" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="22" max="23" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="2"/>
+    <col min="25" max="26" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="30" width="9.140625" style="2"/>
+    <col min="31" max="41" width="13.7109375" style="2" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="P1" s="12" t="s">
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="12" t="s">
+      <c r="Q1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="12"/>
-      <c r="V1" s="12" t="s">
+      <c r="T1" s="14"/>
+      <c r="V1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="12"/>
-      <c r="Y1" s="12" t="s">
+      <c r="W1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="12"/>
-      <c r="AB1" s="12" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AB1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="12"/>
-      <c r="AE1" s="12" t="s">
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AF1" s="12"/>
-      <c r="AH1" s="12" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AH1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="AI1" s="12"/>
-      <c r="AK1" s="12" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AK1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="12"/>
-      <c r="AN1" s="12" t="s">
+      <c r="AL1" s="14"/>
+      <c r="AN1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="AO1" s="12"/>
-    </row>
-    <row r="3" spans="1:56" ht="33" x14ac:dyDescent="0.25">
+      <c r="AO1" s="14"/>
+      <c r="AQ1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR1" s="14"/>
+      <c r="AT1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU1" s="14"/>
+      <c r="AW1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX1" s="14"/>
+      <c r="AZ1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA1" s="14"/>
+      <c r="BC1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="BD1" s="14"/>
+      <c r="BF1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG1" s="14"/>
+    </row>
+    <row r="3" spans="1:59" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AC3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AH3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AI3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AK3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AL3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AN3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AO3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="AQ3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>147.320952997912</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>4.8080808080808097</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>144.113582379615</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>4.7878787878787801</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>140.905491974375</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>4.7474747474747403</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="19">
         <v>134.95213416828599</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="19">
         <v>7.6565656565656504</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="19">
         <v>137.09637947167599</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="19">
         <v>7.8383838383838302</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="19">
         <v>152.731331430165</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="19">
         <v>2.54899225138981</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="19">
         <v>149.647985575994</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="19">
         <v>2.62443924531541</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="19">
         <v>146.285603897915</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="19">
         <v>2.6614651527184501</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="19">
         <v>9.1502285947326492</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="19">
         <v>18.394363476357</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="19">
         <v>31.712421387022601</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="19">
         <v>12.9240807916031</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="2">
         <v>0.12396719566698999</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="2">
         <v>52.843117772036798</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AH4" s="2">
         <v>1.13639805737676</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="2">
         <v>40.473453054015401</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="2">
         <v>1.0976358797172301</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="2">
         <v>40.4926974869161</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="2">
         <v>2.3200956390369201</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="2">
         <v>22.2008676815414</v>
       </c>
-      <c r="AQ4"/>
-      <c r="AR4"/>
-      <c r="AS4"/>
-      <c r="AT4"/>
-      <c r="AU4"/>
-      <c r="AV4"/>
-      <c r="AW4"/>
-      <c r="AX4"/>
-      <c r="AY4"/>
-      <c r="AZ4"/>
-      <c r="BA4"/>
-      <c r="BB4"/>
-      <c r="BC4"/>
-      <c r="BD4"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="AQ4" s="8">
+        <v>-2.2554436652390901</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>-10.9371917865206</v>
+      </c>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="8">
+        <v>-1.35300472555888</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>-7.8791312333077403</v>
+      </c>
+      <c r="AV4" s="19"/>
+      <c r="AW4" s="8">
+        <v>-1.6524477139829701</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>-7.1899149534652702</v>
+      </c>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="8">
+        <v>-1.3823822718819201</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>-9.4134016125433302</v>
+      </c>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="8">
+        <v>-0.35493693170636198</v>
+      </c>
+      <c r="BD4" s="8">
+        <v>-2.8531478579397</v>
+      </c>
+      <c r="BF4" s="8">
+        <v>-1.2494879892413</v>
+      </c>
+      <c r="BG4" s="8">
+        <v>-7.0849463857534998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>155.486935866983</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>152.279565248686</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>3.9797979797979801</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>148.71518030662901</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>3.9393939393939399</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="19">
         <v>163.72921615201801</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="19">
         <v>5.3333333333333304</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="19">
         <v>164.42453033901899</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="19">
         <v>4.8484848484848504</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="19">
         <v>165.35126317371001</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="19">
         <v>2.0174290068471001</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="19">
         <v>161.70984567172499</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="19">
         <v>2.0160338277275698</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="19">
         <v>158.06735495503199</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="19">
         <v>2.0529524136598698</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="19">
         <v>30.5662280795895</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="19">
         <v>13.843181866964301</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="19">
         <v>40.766060658095199</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="19">
         <v>9.7091588143123904</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AE5" s="2">
         <v>0.28777546450354002</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="2">
         <v>50.691083639312403</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AH5" s="2">
         <v>1.1700670259466199</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="2">
         <v>41.492416788122597</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="2">
         <v>1.0878814999523501</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="2">
         <v>38.765179839999199</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="2">
         <v>2.3869979049023198</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="2">
         <v>21.678808143617399</v>
       </c>
-      <c r="AQ5"/>
-      <c r="AR5"/>
-      <c r="AS5"/>
-      <c r="AT5"/>
-      <c r="AU5"/>
-      <c r="AV5"/>
-      <c r="AW5"/>
-      <c r="AX5"/>
-      <c r="AY5"/>
-      <c r="AZ5"/>
-      <c r="BA5"/>
-      <c r="BB5"/>
-      <c r="BC5"/>
-      <c r="BD5"/>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="AQ5" s="8">
+        <v>-2.1174796616120899</v>
+      </c>
+      <c r="AR5" s="8">
+        <v>-10.048204341394401</v>
+      </c>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="8">
+        <v>-1.3152584836228001</v>
+      </c>
+      <c r="AU5" s="8">
+        <v>-7.4305635630923303</v>
+      </c>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="8">
+        <v>-1.31874438489165</v>
+      </c>
+      <c r="AX5" s="8">
+        <v>-7.4655034173284696</v>
+      </c>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="8">
+        <v>-1.33773447562448</v>
+      </c>
+      <c r="BA5" s="8">
+        <v>-9.1816272719488392</v>
+      </c>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="8">
+        <v>-0.22019493136214799</v>
+      </c>
+      <c r="BD5" s="8">
+        <v>-2.43287877208114</v>
+      </c>
+      <c r="BF5" s="8">
+        <v>-1.16836011573823</v>
+      </c>
+      <c r="BG5" s="8">
+        <v>-6.5134696477107399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>165.78420787446899</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>3.0101010101010099</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>161.864967969481</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>3.0101010101010099</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>158.65687756424001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>2.9696969696969702</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="19">
         <v>192.87338947671401</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="19">
         <v>3.31313131313131</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="19">
         <v>193.21816742244201</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="19">
         <v>2.9898989898989901</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="19">
         <v>175.16688488699</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="19">
         <v>1.59973384275258</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="19">
         <v>171.52332095559001</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="19">
         <v>1.67496619373671</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="19">
         <v>167.60286762969699</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="19">
         <v>1.63514992809461</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="19">
         <v>40.403314087016199</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="19">
         <v>12.659211401833</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="19">
         <v>53.690785378522797</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="19">
         <v>8.2964862950481795</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AE6" s="2">
         <v>0.29425960959900199</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="2">
         <v>49.204888877928703</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AH6" s="2">
         <v>1.20612534892936</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="2">
         <v>40.368705151797997</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="2">
         <v>1.11384667095874</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="2">
         <v>38.813535413928797</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="2">
         <v>2.4441527434425399</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="2">
         <v>21.014813919694699</v>
       </c>
-      <c r="AQ6"/>
-      <c r="AR6"/>
-      <c r="AS6"/>
-      <c r="AT6"/>
-      <c r="AU6"/>
-      <c r="AV6"/>
-      <c r="AW6"/>
-      <c r="AX6"/>
-      <c r="AY6"/>
-      <c r="AZ6"/>
-      <c r="BA6"/>
-      <c r="BB6"/>
-      <c r="BC6"/>
-      <c r="BD6"/>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="AQ6" s="8">
+        <v>-2.0869012179764699</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>-10.1259196166554</v>
+      </c>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="8">
+        <v>-1.2636805347056701</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>-7.22107793459148</v>
+      </c>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="8">
+        <v>-1.1989059941223901</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>-6.7000227793437803</v>
+      </c>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="8">
+        <v>-1.3010124104343801</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>-9.1510217913009697</v>
+      </c>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="8">
+        <v>-0.20787161374482899</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>-2.3966555264849001</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>-1.10928646592375</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>-6.0738399078112604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>175.01907435399099</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>2.2020202020202002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>170.74353991218601</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>2.2020202020202002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>166.82214064636801</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>2.1414141414141401</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="19">
         <v>221.69797739869</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="19">
         <v>2.32323232323232</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="19">
         <v>220.24976606924301</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="19">
         <v>1.67676767676767</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="19">
         <v>53.056515486488202</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="19">
         <v>10.939921440683399</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="19">
         <v>63.534310674193399</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="19">
         <v>6.8826332396059096</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="2">
         <v>0.37530461031734302</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="2">
         <v>49.129184710144798</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="2">
         <v>1.23305354756798</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="2">
         <v>41.132862550341599</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="2">
         <v>1.14676784331551</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="2">
         <v>39.1084622198087</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="2">
         <v>2.5407964856747598</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="2">
         <v>19.0969076086262</v>
       </c>
-      <c r="AQ7"/>
-      <c r="AR7"/>
-      <c r="AS7"/>
-      <c r="AT7"/>
-      <c r="AU7"/>
-      <c r="AV7"/>
-      <c r="AW7"/>
-      <c r="AX7"/>
-      <c r="AY7"/>
-      <c r="AZ7"/>
-      <c r="BA7"/>
-      <c r="BB7"/>
-      <c r="BC7"/>
-      <c r="BD7"/>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y8">
+      <c r="AQ7" s="8">
+        <v>-2.07358907501759</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>-9.4486290890066194</v>
+      </c>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="8">
+        <v>-1.2505589306156299</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>-7.0908695434101201</v>
+      </c>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="8">
+        <v>-1.14298572353675</v>
+      </c>
+      <c r="AX7" s="8">
+        <v>-6.3575932539395597</v>
+      </c>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="8">
+        <v>-1.2703663255004101</v>
+      </c>
+      <c r="BA7" s="8">
+        <v>-8.9732934473508106</v>
+      </c>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="8">
+        <v>-0.19384940472586101</v>
+      </c>
+      <c r="BD7" s="8">
+        <v>-2.1641992028263499</v>
+      </c>
+      <c r="BF7" s="8">
+        <v>-0.95844682889029498</v>
+      </c>
+      <c r="BG7" s="8">
+        <v>-5.1131451131144896</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y8" s="19">
         <v>63.716757174440303</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="19">
         <v>10.369293180793701</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="19">
         <v>74.4821739037111</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="19">
         <v>6.0439159458241196</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AE8" s="2">
         <v>0.27270531239309798</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AF8" s="2">
         <v>44.998266821578802</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AH8" s="2">
         <v>1.21538104518423</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="2">
         <v>39.399080714289703</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AK8" s="2">
         <v>1.1448572496091201</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AL8" s="2">
         <v>37.7920429024566</v>
       </c>
-      <c r="AQ8"/>
-      <c r="AR8"/>
-      <c r="AS8"/>
-      <c r="AT8"/>
-      <c r="AU8"/>
-      <c r="AV8"/>
-      <c r="AW8"/>
-      <c r="AX8"/>
-      <c r="AY8"/>
-      <c r="AZ8"/>
-      <c r="BA8"/>
-      <c r="BB8"/>
-      <c r="BC8"/>
-      <c r="BD8"/>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y9">
+      <c r="AQ8" s="8">
+        <v>-2.0211922547019099</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>-9.6620393808161307</v>
+      </c>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="8">
+        <v>-1.2031139282424601</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>-7.0334018555069298</v>
+      </c>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="8">
+        <v>-1.0733834121391099</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>-5.9749466425215303</v>
+      </c>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="8">
+        <v>-1.2511108707143299</v>
+      </c>
+      <c r="BA8" s="8">
+        <v>-8.8883374379128597</v>
+      </c>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="8">
+        <v>-0.18478829753065901</v>
+      </c>
+      <c r="BD8" s="8">
+        <v>-2.0552593804344799</v>
+      </c>
+      <c r="BF8" s="8">
+        <v>-0.88369962433407001</v>
+      </c>
+      <c r="BG8" s="8">
+        <v>-4.5038750763441504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y9" s="19">
         <v>74.657107901006597</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="19">
         <v>9.7987722423748096</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="19">
         <v>99.722037390800395</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="19">
         <v>4.9807894567387097</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AE9" s="2">
         <v>0.31450690937911802</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AF9" s="2">
         <v>43.854092258214401</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AH9" s="2">
         <v>1.3237583244331099</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AI9" s="2">
         <v>37.507339878840099</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AK9" s="2">
         <v>1.1898518439150401</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AL9" s="2">
         <v>37.790287586684002</v>
       </c>
-      <c r="AQ9"/>
-      <c r="AR9"/>
-      <c r="AS9"/>
-      <c r="AT9"/>
-      <c r="AU9"/>
-      <c r="AV9"/>
-      <c r="AW9"/>
-      <c r="AX9"/>
-      <c r="AY9"/>
-      <c r="AZ9"/>
-      <c r="BA9"/>
-      <c r="BB9"/>
-      <c r="BC9"/>
-      <c r="BD9"/>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y10">
+      <c r="AQ9" s="8">
+        <v>-2.0254566530395799</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>-9.2942561769612499</v>
+      </c>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="8">
+        <v>-1.1540144810949899</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>-6.9107824911362403</v>
+      </c>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="8">
+        <v>-1.02545217161506</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>-5.6828766699986204</v>
+      </c>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="8">
+        <v>-1.25453516550876</v>
+      </c>
+      <c r="BA9" s="8">
+        <v>-8.6406174557978499</v>
+      </c>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="8">
+        <v>-9.36359952131567E-2</v>
+      </c>
+      <c r="BD9" s="8">
+        <v>-1.92530848685795</v>
+      </c>
+      <c r="BF9" s="8">
+        <v>-0.80560859369899596</v>
+      </c>
+      <c r="BG9" s="8">
+        <v>-4.6052482635112399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y10" s="19">
         <v>87.014102041254304</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="19">
         <v>8.6540814355319906</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="19">
         <v>149.66515701131101</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="19">
         <v>2.0114190044860401</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="2">
         <v>0.44540629767461598</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10" s="2">
         <v>45.735089720454802</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="2">
         <v>1.3263744059070699</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="2">
         <v>37.022606142530201</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" s="2">
         <v>1.21569774346508</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL10" s="2">
         <v>36.966470636071698</v>
       </c>
-      <c r="AQ10"/>
-      <c r="AR10"/>
-      <c r="AS10"/>
-      <c r="AT10"/>
-      <c r="AU10"/>
-      <c r="AV10"/>
-      <c r="AW10"/>
-      <c r="AX10"/>
-      <c r="AY10"/>
-      <c r="AZ10"/>
-      <c r="BA10"/>
-      <c r="BB10"/>
-      <c r="BC10"/>
-      <c r="BD10"/>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y11">
+      <c r="AQ10" s="8">
+        <v>-2.0624267797481002</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>-9.5687567437458405</v>
+      </c>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="8">
+        <v>-1.1539321809085099</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>-1.1539321809085099</v>
+      </c>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="8">
+        <v>-1.0526134039017201</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>-5.0672840532429904</v>
+      </c>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="8">
+        <v>-1.2108607442208801</v>
+      </c>
+      <c r="BA10" s="8">
+        <v>-8.7494031056407309</v>
+      </c>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="8">
+        <v>-4.2639596705317501E-2</v>
+      </c>
+      <c r="BD10" s="8">
+        <v>-1.5696454660068999</v>
+      </c>
+      <c r="BF10" s="8">
+        <v>-0.80826056209367703</v>
+      </c>
+      <c r="BG10" s="8">
+        <v>-3.9574976521681098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y11" s="19">
         <v>97.375990040567501</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="19">
         <v>8.7346798600528004</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="19">
         <v>199.813260640923</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="19">
         <v>1.7241194273326299</v>
       </c>
-      <c r="AE11" s="1">
+      <c r="AE11" s="2">
         <v>0.47323641458820997</v>
       </c>
-      <c r="AF11" s="1">
+      <c r="AF11" s="2">
         <v>47.021632760531297</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AH11" s="2">
         <v>1.38940627294064</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AI11" s="2">
         <v>36.994640231573598</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AK11" s="2">
         <v>1.2198553664009699</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AL11" s="2">
         <v>35.7320954530554</v>
       </c>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11"/>
-      <c r="BD11"/>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y12">
+      <c r="AQ11" s="8">
+        <v>-2.0299570388200698</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>-9.7336079621089908</v>
+      </c>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="8">
+        <v>-1.1081796080110899</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>-6.7664089717055402</v>
+      </c>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="8">
+        <v>-0.98073859195666602</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>-4.7048341801959301</v>
+      </c>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="8">
+        <v>-1.1800590095235299</v>
+      </c>
+      <c r="BA11" s="8">
+        <v>-8.0376015110816699</v>
+      </c>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="8">
+        <v>-2.6988400793745999E-2</v>
+      </c>
+      <c r="BD11" s="8">
+        <v>-1.38081591094805</v>
+      </c>
+      <c r="BF11" s="8">
+        <v>-0.70163200563028605</v>
+      </c>
+      <c r="BG11" s="8">
+        <v>-3.6126569968387101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y12" s="19">
         <v>104.39696065594801</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="19">
         <v>8.0860288909399198</v>
       </c>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AE12" s="1">
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AE12" s="2">
         <v>0.42329894463199502</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AF12" s="2">
         <v>51.430535609178598</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AH12" s="2">
         <v>1.5457520220960399</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AI12" s="2">
         <v>32.805404324063304</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AK12" s="2">
         <v>1.24237291719747</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AL12" s="2">
         <v>35.879322563487499</v>
       </c>
-      <c r="AQ12"/>
-      <c r="AR12"/>
-      <c r="AS12"/>
-      <c r="AT12"/>
-      <c r="AU12"/>
-      <c r="AV12"/>
-      <c r="AW12"/>
-      <c r="AX12"/>
-      <c r="AY12"/>
-      <c r="AZ12"/>
-      <c r="BA12"/>
-      <c r="BB12"/>
-      <c r="BC12"/>
-      <c r="BD12"/>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y13">
+      <c r="AQ12" s="8">
+        <v>-1.95195293681877</v>
+      </c>
+      <c r="AR12" s="8">
+        <v>-9.8659924365665308</v>
+      </c>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="8">
+        <v>-1.11295090856554</v>
+      </c>
+      <c r="AU12" s="8">
+        <v>-6.3029481331296502</v>
+      </c>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="8">
+        <v>-0.96945840489270796</v>
+      </c>
+      <c r="AX12" s="8">
+        <v>-5.0882635254700403</v>
+      </c>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="8">
+        <v>-1.1119092268920501</v>
+      </c>
+      <c r="BA12" s="8">
+        <v>-8.1466240192601305</v>
+      </c>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="8">
+        <v>0.27981719361032298</v>
+      </c>
+      <c r="BD12" s="8">
+        <v>0.77495971106963601</v>
+      </c>
+      <c r="BF12" s="8">
+        <v>-0.67599570023650901</v>
+      </c>
+      <c r="BG12" s="8">
+        <v>-3.3739386047667201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y13" s="19">
         <v>142.870634699177</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="19">
         <v>4.5758655476614596</v>
       </c>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AE13" s="1">
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AE13" s="2">
         <v>0.47082950566652898</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AF13" s="2">
         <v>50.340544397350897</v>
       </c>
-      <c r="AH13" s="1">
+      <c r="AH13" s="2">
         <v>1.52109458217682</v>
       </c>
-      <c r="AI13" s="1">
+      <c r="AI13" s="2">
         <v>29.0313405464704</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AK13" s="2">
         <v>1.29257719870046</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AL13" s="2">
         <v>36.0090133942292</v>
       </c>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="BA13"/>
-      <c r="BB13"/>
-      <c r="BC13"/>
-      <c r="BD13"/>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y14">
+      <c r="AQ13" s="8">
+        <v>-1.9694831203739001</v>
+      </c>
+      <c r="AR13" s="8">
+        <v>-9.4462534522160908</v>
+      </c>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="8">
+        <v>-1.0729224191506299</v>
+      </c>
+      <c r="AU13" s="8">
+        <v>-6.4409117341905402</v>
+      </c>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="8">
+        <v>-1.02451526844284</v>
+      </c>
+      <c r="BA13" s="8">
+        <v>-8.2093914781896995</v>
+      </c>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="8">
+        <v>0.306169075201979</v>
+      </c>
+      <c r="BD13" s="8">
+        <v>1.0654447209300599</v>
+      </c>
+      <c r="BF13" s="8">
+        <v>-0.53515913403799997</v>
+      </c>
+      <c r="BG13" s="8">
+        <v>-2.62067053290995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y14" s="19">
         <v>162.50617098456701</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="19">
         <v>3.5872201592650601</v>
       </c>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AE14" s="1">
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AE14" s="2">
         <v>0.50695422009538504</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="2">
         <v>49.523032387947502</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="2">
         <v>1.5558640490200499</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="2">
         <v>28.290283147341899</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="2">
         <v>1.3245025669169801</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="2">
         <v>35.349521004796202</v>
       </c>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
-      <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y15">
+      <c r="AQ14" s="8">
+        <v>-1.92571580372108</v>
+      </c>
+      <c r="AR14" s="8">
+        <v>-9.1011493172592903</v>
+      </c>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="8">
+        <v>-0.99019701504388902</v>
+      </c>
+      <c r="AU14" s="8">
+        <v>-5.9782976379178301</v>
+      </c>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="8">
+        <v>-1.0794359490835801</v>
+      </c>
+      <c r="BA14" s="8">
+        <v>-7.6980058724391602</v>
+      </c>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="8">
+        <v>0.32673053329437501</v>
+      </c>
+      <c r="BD14" s="8">
+        <v>1.20334725241051</v>
+      </c>
+      <c r="BF14" s="8">
+        <v>-0.51445197100600204</v>
+      </c>
+      <c r="BG14" s="8">
+        <v>-2.2372668299063401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y15" s="19">
         <v>182.702998561892</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="19">
         <v>2.56047564875829</v>
       </c>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AE15" s="1">
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AE15" s="2">
         <v>0.56691117695895799</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AF15" s="2">
         <v>48.650183793984603</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AH15" s="2">
         <v>1.7028546908245701</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AI15" s="2">
         <v>34.151142795082798</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AK15" s="2">
         <v>1.3996402088087101</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AL15" s="2">
         <v>34.309850848255302</v>
       </c>
-      <c r="AQ15"/>
-      <c r="AR15"/>
-      <c r="AS15"/>
-      <c r="AT15"/>
-      <c r="AU15"/>
-      <c r="AV15"/>
-      <c r="AW15"/>
-      <c r="AX15"/>
-      <c r="AY15"/>
-      <c r="AZ15"/>
-      <c r="BA15"/>
-      <c r="BB15"/>
-      <c r="BC15"/>
-      <c r="BD15"/>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="Y16">
+      <c r="AQ15" s="8">
+        <v>-1.93511206842088</v>
+      </c>
+      <c r="AR15" s="8">
+        <v>-9.4630397748058908</v>
+      </c>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="8">
+        <v>-0.97948216384299203</v>
+      </c>
+      <c r="AU15" s="8">
+        <v>-5.6887671645889997</v>
+      </c>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="8">
+        <v>-1.0497474485634699</v>
+      </c>
+      <c r="BA15" s="8">
+        <v>-7.8066561746617102</v>
+      </c>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="8">
+        <v>0.35971486997151902</v>
+      </c>
+      <c r="BD15" s="8">
+        <v>1.71909159897549</v>
+      </c>
+      <c r="BF15" s="8">
+        <v>-0.440337976595155</v>
+      </c>
+      <c r="BG15" s="8">
+        <v>-1.36386981306695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="Y16" s="19">
         <v>202.88372791860701</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="19">
         <v>2.1084376140290599</v>
       </c>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AE16" s="1">
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AE16" s="2">
         <v>0.55974749182729799</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AF16" s="2">
         <v>45.077746897485703</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="2">
         <v>1.4247333479408599</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AL16" s="2">
         <v>34.308871922151297</v>
       </c>
-      <c r="AQ16"/>
-      <c r="AR16"/>
-      <c r="AS16"/>
-      <c r="AT16"/>
-      <c r="AU16"/>
-      <c r="AV16"/>
-      <c r="AW16"/>
-      <c r="AX16"/>
-      <c r="AY16"/>
-      <c r="AZ16"/>
-      <c r="BA16"/>
-      <c r="BB16"/>
-      <c r="BC16"/>
-      <c r="BD16"/>
-    </row>
-    <row r="17" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="Y17">
+      <c r="AQ16" s="8">
+        <v>-1.90266390605429</v>
+      </c>
+      <c r="AR16" s="8">
+        <v>-9.7019324321229803</v>
+      </c>
+      <c r="AS16" s="19"/>
+      <c r="AT16" s="8">
+        <v>-0.945196750261312</v>
+      </c>
+      <c r="AU16" s="8">
+        <v>-5.89184287472004</v>
+      </c>
+      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
+      <c r="AY16" s="19"/>
+      <c r="AZ16" s="8">
+        <v>-1.0216898868683799</v>
+      </c>
+      <c r="BA16" s="8">
+        <v>-7.5127995724655898</v>
+      </c>
+      <c r="BB16" s="19"/>
+      <c r="BC16" s="19"/>
+      <c r="BD16" s="19"/>
+      <c r="BF16" s="8">
+        <v>-0.379944757157893</v>
+      </c>
+      <c r="BG16" s="8">
+        <v>-1.2701253877815799</v>
+      </c>
+    </row>
+    <row r="17" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="Y17" s="19">
         <v>222.78112859258599</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="19">
         <v>1.7712335529845999</v>
       </c>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AE17" s="1">
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AE17" s="2">
         <v>0.55375812032203398</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AF17" s="2">
         <v>43.119334018459803</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="2">
         <v>1.5483357083967899</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="2">
         <v>33.333135767022299</v>
       </c>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-    </row>
-    <row r="18" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="Y18">
+      <c r="AQ17" s="8">
+        <v>-1.85317587300094</v>
+      </c>
+      <c r="AR17" s="8">
+        <v>-8.8550458239930698</v>
+      </c>
+      <c r="AS17" s="19"/>
+      <c r="AT17" s="8">
+        <v>-0.94101737797113405</v>
+      </c>
+      <c r="AU17" s="8">
+        <v>-5.5805265924133201</v>
+      </c>
+      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
+      <c r="AY17" s="19"/>
+      <c r="AZ17" s="8">
+        <v>-0.90371526150170101</v>
+      </c>
+      <c r="BA17" s="8">
+        <v>-7.62230425654149</v>
+      </c>
+      <c r="BB17" s="19"/>
+      <c r="BC17" s="19"/>
+      <c r="BD17" s="19"/>
+      <c r="BF17" s="8">
+        <v>-0.370152450915475</v>
+      </c>
+      <c r="BG17" s="8">
+        <v>-1.7858846730539299</v>
+      </c>
+    </row>
+    <row r="18" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="Y18" s="19">
         <v>242.672089978321</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="19">
         <v>1.6639120822511699</v>
       </c>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AE18" s="1">
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AE18" s="2">
         <v>0.59188425206134399</v>
       </c>
-      <c r="AF18" s="1">
+      <c r="AF18" s="2">
         <v>42.990897340683901</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="2">
         <v>1.61636432140924</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="2">
         <v>30.927880573458499</v>
       </c>
-      <c r="AQ18"/>
-      <c r="AR18"/>
-      <c r="AS18"/>
-      <c r="AT18"/>
-      <c r="AU18"/>
-      <c r="AV18"/>
-      <c r="AW18"/>
-      <c r="AX18"/>
-      <c r="AY18"/>
-      <c r="AZ18"/>
-      <c r="BA18"/>
-      <c r="BB18"/>
-      <c r="BC18"/>
-      <c r="BD18"/>
-    </row>
-    <row r="19" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AB19"/>
-      <c r="AC19"/>
-      <c r="AE19" s="1">
+      <c r="AQ18" s="8">
+        <v>-1.82624462951014</v>
+      </c>
+      <c r="AR18" s="8">
+        <v>-8.8964406976960397</v>
+      </c>
+      <c r="AS18" s="19"/>
+      <c r="AT18" s="8">
+        <v>-0.90672563360587899</v>
+      </c>
+      <c r="AU18" s="8">
+        <v>-5.7618798014022099</v>
+      </c>
+      <c r="AV18" s="19"/>
+      <c r="AW18" s="19"/>
+      <c r="AX18" s="19"/>
+      <c r="AY18" s="19"/>
+      <c r="AZ18" s="8">
+        <v>-0.78106550374934203</v>
+      </c>
+      <c r="BA18" s="8">
+        <v>-6.6869253116443703</v>
+      </c>
+      <c r="BB18" s="19"/>
+      <c r="BC18" s="19"/>
+      <c r="BD18" s="19"/>
+      <c r="BF18" s="8">
+        <v>-0.29369713679197801</v>
+      </c>
+      <c r="BG18" s="8">
+        <v>-0.189322266377554</v>
+      </c>
+    </row>
+    <row r="19" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AE19" s="2">
         <v>0.59648602383278104</v>
       </c>
-      <c r="AF19" s="1">
+      <c r="AF19" s="2">
         <v>41.775631541626502</v>
       </c>
-      <c r="AK19" s="1">
+      <c r="AK19" s="2">
         <v>1.70184482393067</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AL19" s="2">
         <v>29.591595807409998</v>
       </c>
-      <c r="AQ19"/>
-      <c r="AR19"/>
-      <c r="AS19"/>
-      <c r="AT19"/>
-      <c r="AU19"/>
-      <c r="AV19"/>
-      <c r="AW19"/>
-      <c r="AX19"/>
-      <c r="AY19"/>
-      <c r="AZ19"/>
-      <c r="BA19"/>
-      <c r="BB19"/>
-      <c r="BC19"/>
-      <c r="BD19"/>
-    </row>
-    <row r="20" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE20" s="1">
+      <c r="AQ19" s="8">
+        <v>-1.7732201099979501</v>
+      </c>
+      <c r="AR19" s="8">
+        <v>-8.6666020451180596</v>
+      </c>
+      <c r="AS19" s="19"/>
+      <c r="AT19" s="8">
+        <v>-0.90823658061914203</v>
+      </c>
+      <c r="AU19" s="8">
+        <v>-5.3346547853144397</v>
+      </c>
+      <c r="AV19" s="19"/>
+      <c r="AW19" s="19"/>
+      <c r="AX19" s="19"/>
+      <c r="AY19" s="19"/>
+      <c r="AZ19" s="19"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="19"/>
+      <c r="BC19" s="19"/>
+      <c r="BD19" s="19"/>
+      <c r="BF19" s="8">
+        <v>-0.25022556503134902</v>
+      </c>
+      <c r="BG19" s="8">
+        <v>0.32592156201089401</v>
+      </c>
+    </row>
+    <row r="20" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE20" s="2">
         <v>0.67760046653958905</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AF20" s="2">
         <v>42.207721914506301</v>
       </c>
-      <c r="AQ20"/>
-      <c r="AR20"/>
-      <c r="AS20"/>
-      <c r="AT20"/>
-      <c r="AU20"/>
-      <c r="AV20"/>
-      <c r="AW20"/>
-      <c r="AX20"/>
-      <c r="AY20"/>
-      <c r="AZ20"/>
-      <c r="BA20"/>
-      <c r="BB20"/>
-      <c r="BC20"/>
-      <c r="BD20"/>
-    </row>
-    <row r="21" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE21" s="1">
+      <c r="AQ20" s="8">
+        <v>-1.76025139457024</v>
+      </c>
+      <c r="AR20" s="8">
+        <v>-8.7983571448668307</v>
+      </c>
+      <c r="AS20" s="19"/>
+      <c r="AT20" s="8">
+        <v>-0.86985620519495299</v>
+      </c>
+      <c r="AU20" s="8">
+        <v>-5.5160475617006801</v>
+      </c>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="19"/>
+      <c r="AY20" s="19"/>
+      <c r="AZ20" s="19"/>
+      <c r="BA20" s="19"/>
+      <c r="BB20" s="19"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="19"/>
+      <c r="BF20" s="8">
+        <v>-0.15124593054114399</v>
+      </c>
+      <c r="BG20" s="8">
+        <v>1.23052090222239</v>
+      </c>
+    </row>
+    <row r="21" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE21" s="2">
         <v>0.87243856571592804</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AF21" s="2">
         <v>37.466725156371503</v>
       </c>
-      <c r="AQ21"/>
-      <c r="AR21"/>
-      <c r="AS21"/>
-      <c r="AT21"/>
-      <c r="AU21"/>
-      <c r="AV21"/>
-      <c r="AW21"/>
-      <c r="AX21"/>
-      <c r="AY21"/>
-      <c r="AZ21"/>
-      <c r="BA21"/>
-      <c r="BB21"/>
-      <c r="BC21"/>
-      <c r="BD21"/>
-    </row>
-    <row r="22" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE22" s="1">
+      <c r="AQ21" s="8">
+        <v>-1.72666796010991</v>
+      </c>
+      <c r="AR21" s="8">
+        <v>-8.3297517099135092</v>
+      </c>
+      <c r="AS21" s="19"/>
+      <c r="AT21" s="8">
+        <v>-0.868943517229539</v>
+      </c>
+      <c r="AU21" s="8">
+        <v>-5.1902179580479899</v>
+      </c>
+      <c r="AV21" s="19"/>
+      <c r="AW21" s="19"/>
+      <c r="AX21" s="19"/>
+      <c r="AY21" s="19"/>
+      <c r="AZ21" s="19"/>
+      <c r="BA21" s="19"/>
+      <c r="BB21" s="19"/>
+      <c r="BC21" s="19"/>
+      <c r="BD21" s="19"/>
+    </row>
+    <row r="22" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE22" s="2">
         <v>0.82473811981675205</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AF22" s="2">
         <v>44.287577671041099</v>
       </c>
-      <c r="AQ22"/>
-      <c r="AR22"/>
-      <c r="AS22"/>
-      <c r="AT22"/>
-      <c r="AU22"/>
-      <c r="AV22"/>
-      <c r="AW22"/>
-      <c r="AX22"/>
-      <c r="AY22"/>
-      <c r="AZ22"/>
-      <c r="BA22"/>
-      <c r="BB22"/>
-      <c r="BC22"/>
-      <c r="BD22"/>
-    </row>
-    <row r="23" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE23" s="1">
+      <c r="AQ22" s="8">
+        <v>-1.64311337258169</v>
+      </c>
+      <c r="AR22" s="8">
+        <v>-8.5444583962790404</v>
+      </c>
+      <c r="AS22" s="19"/>
+      <c r="AT22" s="8">
+        <v>-0.83627878424309099</v>
+      </c>
+      <c r="AU22" s="8">
+        <v>-5.3425920052217499</v>
+      </c>
+      <c r="AV22" s="19"/>
+      <c r="AW22" s="19"/>
+      <c r="AX22" s="19"/>
+      <c r="AY22" s="19"/>
+      <c r="AZ22" s="19"/>
+      <c r="BA22" s="19"/>
+      <c r="BB22" s="19"/>
+      <c r="BC22" s="19"/>
+      <c r="BD22" s="19"/>
+    </row>
+    <row r="23" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE23" s="2">
         <v>0.91037745209347998</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AF23" s="2">
         <v>42.942201146271501</v>
       </c>
-      <c r="AQ23"/>
-      <c r="AR23"/>
-      <c r="AS23"/>
-      <c r="AT23"/>
-      <c r="AU23"/>
-      <c r="AV23"/>
-      <c r="AW23"/>
-      <c r="AX23"/>
-      <c r="AY23"/>
-      <c r="AZ23"/>
-      <c r="BA23"/>
-      <c r="BB23"/>
-      <c r="BC23"/>
-      <c r="BD23"/>
-    </row>
-    <row r="24" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE24" s="1">
+      <c r="AQ23" s="8">
+        <v>-1.6272495334936099</v>
+      </c>
+      <c r="AR23" s="8">
+        <v>-8.3060332744598995</v>
+      </c>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="8">
+        <v>-0.82962724096682805</v>
+      </c>
+      <c r="AU23" s="8">
+        <v>-4.966131959927</v>
+      </c>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
+      <c r="BD23" s="19"/>
+    </row>
+    <row r="24" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE24" s="2">
         <v>0.99234715598221002</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AF24" s="2">
         <v>38.024205768125398</v>
       </c>
-      <c r="AQ24"/>
-      <c r="AR24"/>
-      <c r="AS24"/>
-      <c r="AT24"/>
-      <c r="AU24"/>
-      <c r="AV24"/>
-      <c r="AW24"/>
-      <c r="AX24"/>
-      <c r="AY24"/>
-      <c r="AZ24"/>
-      <c r="BA24"/>
-      <c r="BB24"/>
-      <c r="BC24"/>
-      <c r="BD24"/>
-    </row>
-    <row r="25" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE25" s="1">
+      <c r="AQ24" s="8">
+        <v>-1.5603511977820399</v>
+      </c>
+      <c r="AR24" s="8">
+        <v>-8.2902269782023303</v>
+      </c>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="8">
+        <v>-0.80186253446752498</v>
+      </c>
+      <c r="AU24" s="8">
+        <v>-5.0967360250818103</v>
+      </c>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+    </row>
+    <row r="25" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE25" s="2">
         <v>0.98709097296093395</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AF25" s="2">
         <v>40.943798486254899</v>
       </c>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="BA25"/>
-      <c r="BB25"/>
-      <c r="BC25"/>
-      <c r="BD25"/>
-    </row>
-    <row r="26" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE26" s="1">
+      <c r="AQ25" s="8">
+        <v>-1.5035576228709999</v>
+      </c>
+      <c r="AR25" s="8">
+        <v>-7.8794341057837904</v>
+      </c>
+      <c r="AS25" s="19"/>
+      <c r="AT25" s="8">
+        <v>-0.79928485042185404</v>
+      </c>
+      <c r="AU25" s="8">
+        <v>-4.66955057639138</v>
+      </c>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+      <c r="BB25" s="19"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="19"/>
+    </row>
+    <row r="26" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE26" s="2">
         <v>1.0390150851856901</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="2">
         <v>36.6241521329273</v>
       </c>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
-      <c r="BB26"/>
-      <c r="BC26"/>
-      <c r="BD26"/>
-    </row>
-    <row r="27" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE27" s="1">
+      <c r="AQ26" s="8">
+        <v>-1.5545417695177901</v>
+      </c>
+      <c r="AR26" s="8">
+        <v>-7.48405192266301</v>
+      </c>
+      <c r="AS26" s="19"/>
+      <c r="AT26" s="8">
+        <v>-0.93270294887580496</v>
+      </c>
+      <c r="AU26" s="8">
+        <v>-5.1099515357948802</v>
+      </c>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="19"/>
+      <c r="AY26" s="19"/>
+      <c r="AZ26" s="19"/>
+      <c r="BA26" s="19"/>
+      <c r="BB26" s="19"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="19"/>
+    </row>
+    <row r="27" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE27" s="2">
         <v>1.03874087695692</v>
       </c>
-      <c r="AF27" s="1">
+      <c r="AF27" s="2">
         <v>40.526923183051501</v>
       </c>
-      <c r="AQ27"/>
-      <c r="AR27"/>
-      <c r="AS27"/>
-      <c r="AT27"/>
-      <c r="AU27"/>
-      <c r="AV27"/>
-      <c r="AW27"/>
-      <c r="AX27"/>
-      <c r="AY27"/>
-      <c r="AZ27"/>
-      <c r="BA27"/>
-      <c r="BB27"/>
-      <c r="BC27"/>
-      <c r="BD27"/>
-    </row>
-    <row r="28" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE28" s="1">
+      <c r="AQ27" s="8">
+        <v>-1.4264226573723</v>
+      </c>
+      <c r="AR27" s="8">
+        <v>-7.8061389254131104</v>
+      </c>
+      <c r="AS27" s="19"/>
+      <c r="AT27" s="8">
+        <v>-0.97766522895693098</v>
+      </c>
+      <c r="AU27" s="8">
+        <v>-5.0660712921398003</v>
+      </c>
+      <c r="AV27" s="19"/>
+      <c r="AW27" s="19"/>
+      <c r="AX27" s="19"/>
+      <c r="AY27" s="19"/>
+      <c r="AZ27" s="19"/>
+      <c r="BA27" s="19"/>
+      <c r="BB27" s="19"/>
+      <c r="BC27" s="19"/>
+      <c r="BD27" s="19"/>
+    </row>
+    <row r="28" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE28" s="2">
         <v>1.05393369380095</v>
       </c>
-      <c r="AF28" s="1">
+      <c r="AF28" s="2">
         <v>39.3739406174343</v>
       </c>
-      <c r="AQ28"/>
-      <c r="AR28"/>
-      <c r="AS28"/>
-      <c r="AT28"/>
-      <c r="AU28"/>
-      <c r="AV28"/>
-      <c r="AW28"/>
-      <c r="AX28"/>
-      <c r="AY28"/>
-      <c r="AZ28"/>
-      <c r="BA28"/>
-      <c r="BB28"/>
-      <c r="BC28"/>
-      <c r="BD28"/>
-    </row>
-    <row r="29" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE29" s="1">
+      <c r="AQ28" s="8">
+        <v>-1.44863658756969</v>
+      </c>
+      <c r="AR28" s="8">
+        <v>-7.5179842105333403</v>
+      </c>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="8">
+        <v>-0.82526849647535505</v>
+      </c>
+      <c r="AU28" s="8">
+        <v>-4.0393448119261901</v>
+      </c>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="19"/>
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="19"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+    </row>
+    <row r="29" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE29" s="2">
         <v>1.13135917130162</v>
       </c>
-      <c r="AF29" s="1">
+      <c r="AF29" s="2">
         <v>38.387547430343602</v>
       </c>
-      <c r="AQ29"/>
-      <c r="AR29"/>
-      <c r="AS29"/>
-      <c r="AT29"/>
-      <c r="AU29"/>
-      <c r="AV29"/>
-      <c r="AW29"/>
-      <c r="AX29"/>
-      <c r="AY29"/>
-      <c r="AZ29"/>
-      <c r="BA29"/>
-      <c r="BB29"/>
-      <c r="BC29"/>
-      <c r="BD29"/>
-    </row>
-    <row r="30" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE30" s="1">
+      <c r="AQ29" s="8">
+        <v>-1.39657471165969</v>
+      </c>
+      <c r="AR29" s="8">
+        <v>-7.4033121385942202</v>
+      </c>
+      <c r="AS29" s="19"/>
+      <c r="AT29" s="8">
+        <v>-0.792443383638337</v>
+      </c>
+      <c r="AU29" s="8">
+        <v>-3.6414154968323098</v>
+      </c>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="19"/>
+      <c r="AY29" s="19"/>
+      <c r="AZ29" s="19"/>
+      <c r="BA29" s="19"/>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="19"/>
+    </row>
+    <row r="30" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE30" s="2">
         <v>1.1828430795116101</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AF30" s="2">
         <v>36.756827942010098</v>
       </c>
-      <c r="AQ30"/>
-      <c r="AR30"/>
-      <c r="AS30"/>
-      <c r="AT30"/>
-      <c r="AU30"/>
-      <c r="AV30"/>
-      <c r="AW30"/>
-      <c r="AX30"/>
-      <c r="AY30"/>
-      <c r="AZ30"/>
-      <c r="BA30"/>
-      <c r="BB30"/>
-      <c r="BC30"/>
-      <c r="BD30"/>
-    </row>
-    <row r="31" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE31" s="1">
+      <c r="AQ30" s="8">
+        <v>-1.3408420826862999</v>
+      </c>
+      <c r="AR30" s="8">
+        <v>-7.4449857353825104</v>
+      </c>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="8">
+        <v>-0.77208252853014203</v>
+      </c>
+      <c r="AU30" s="8">
+        <v>-3.9240058486669001</v>
+      </c>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="19"/>
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
+      <c r="BA30" s="19"/>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="19"/>
+    </row>
+    <row r="31" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE31" s="2">
         <v>1.28352582735847</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AF31" s="2">
         <v>34.5095811935578</v>
       </c>
-      <c r="AQ31"/>
-      <c r="AR31"/>
-      <c r="AS31"/>
-      <c r="AT31"/>
-      <c r="AU31"/>
-      <c r="AV31"/>
-      <c r="AW31"/>
-      <c r="AX31"/>
-      <c r="AY31"/>
-      <c r="AZ31"/>
-      <c r="BA31"/>
-      <c r="BB31"/>
-      <c r="BC31"/>
-      <c r="BD31"/>
-    </row>
-    <row r="32" spans="25:56" x14ac:dyDescent="0.25">
-      <c r="AE32" s="1">
+      <c r="AQ31" s="8">
+        <v>-1.24586044806463</v>
+      </c>
+      <c r="AR31" s="8">
+        <v>-6.7054884347044297</v>
+      </c>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="8">
+        <v>-0.74738192128119996</v>
+      </c>
+      <c r="AU31" s="8">
+        <v>-3.3449765559271301</v>
+      </c>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+    </row>
+    <row r="32" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AE32" s="2">
         <v>1.3013272994976799</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AF32" s="2">
         <v>34.708634304916202</v>
       </c>
-      <c r="AQ32"/>
-      <c r="AR32"/>
-      <c r="AS32"/>
-      <c r="AT32"/>
-      <c r="AU32"/>
-      <c r="AV32"/>
-      <c r="AW32"/>
-      <c r="AX32"/>
-      <c r="AY32"/>
-      <c r="AZ32"/>
-      <c r="BA32"/>
-      <c r="BB32"/>
-      <c r="BC32"/>
-      <c r="BD32"/>
+      <c r="AQ32" s="8">
+        <v>-1.27829182710565</v>
+      </c>
+      <c r="AR32" s="8">
+        <v>-6.4090079915342697</v>
+      </c>
+      <c r="AS32" s="19"/>
+      <c r="AT32" s="8">
+        <v>-0.71723367476586397</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>-3.7145518740839298</v>
+      </c>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="19"/>
+      <c r="AY32" s="19"/>
+      <c r="AZ32" s="19"/>
+      <c r="BA32" s="19"/>
+      <c r="BB32" s="19"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="19"/>
     </row>
     <row r="33" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE33" s="1">
+      <c r="AE33" s="2">
         <v>1.3152614900655699</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AF33" s="2">
         <v>36.167784541143</v>
       </c>
-      <c r="AQ33"/>
-      <c r="AR33"/>
-      <c r="AS33"/>
-      <c r="AT33"/>
-      <c r="AU33"/>
-      <c r="AV33"/>
-      <c r="AW33"/>
-      <c r="AX33"/>
-      <c r="AY33"/>
-      <c r="AZ33"/>
-      <c r="BA33"/>
-      <c r="BB33"/>
-      <c r="BC33"/>
-      <c r="BD33"/>
+      <c r="AQ33" s="8">
+        <v>-1.2326999232018701</v>
+      </c>
+      <c r="AR33" s="8">
+        <v>-6.1790974104181497</v>
+      </c>
+      <c r="AS33" s="19"/>
+      <c r="AT33" s="8">
+        <v>-0.66398228872370901</v>
+      </c>
+      <c r="AU33" s="8">
+        <v>-3.3747470656891498</v>
+      </c>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="19"/>
+      <c r="AY33" s="19"/>
+      <c r="AZ33" s="19"/>
+      <c r="BA33" s="19"/>
+      <c r="BB33" s="19"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="19"/>
     </row>
     <row r="34" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE34" s="1">
+      <c r="AE34" s="2">
         <v>1.4457656960493299</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AF34" s="2">
         <v>33.396957666669799</v>
       </c>
-      <c r="AQ34"/>
-      <c r="AR34"/>
-      <c r="AS34"/>
-      <c r="AT34"/>
-      <c r="AU34"/>
-      <c r="AV34"/>
-      <c r="AW34"/>
-      <c r="AX34"/>
-      <c r="AY34"/>
-      <c r="AZ34"/>
-      <c r="BA34"/>
-      <c r="BB34"/>
-      <c r="BC34"/>
-      <c r="BD34"/>
+      <c r="AQ34" s="8">
+        <v>-1.18723988828468</v>
+      </c>
+      <c r="AR34" s="8">
+        <v>-6.4016622895761204</v>
+      </c>
+      <c r="AS34" s="19"/>
+      <c r="AT34" s="8">
+        <v>-0.62541832057584101</v>
+      </c>
+      <c r="AU34" s="8">
+        <v>-2.9261873089532</v>
+      </c>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+      <c r="BB34" s="19"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="19"/>
     </row>
     <row r="35" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE35" s="1">
+      <c r="AE35" s="2">
         <v>1.38172179023404</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AF35" s="2">
         <v>31.801475511643002</v>
       </c>
-      <c r="AQ35"/>
-      <c r="AR35"/>
-      <c r="AS35"/>
+      <c r="AQ35" s="8">
+        <v>-1.18635636607446</v>
+      </c>
+      <c r="AR35" s="8">
+        <v>-6.5579809851017199</v>
+      </c>
+      <c r="AS35" s="19"/>
     </row>
     <row r="36" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE36" s="1">
+      <c r="AE36" s="2">
         <v>1.5354675074703701</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AF36" s="2">
         <v>33.562475426831</v>
       </c>
+      <c r="AQ36" s="8">
+        <v>-1.0533089502570001</v>
+      </c>
+      <c r="AR36" s="8">
+        <v>-5.9093474102364603</v>
+      </c>
     </row>
     <row r="37" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE37" s="1">
+      <c r="AE37" s="2">
         <v>1.4614764617699201</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AF37" s="2">
         <v>30.1235575379546</v>
       </c>
+      <c r="AQ37" s="8">
+        <v>-1.02273092988221</v>
+      </c>
+      <c r="AR37" s="8">
+        <v>-6.1893562181712101</v>
+      </c>
     </row>
     <row r="38" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE38" s="1">
+      <c r="AE38" s="2">
         <v>1.59880330467955</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="2">
         <v>29.9799133997208</v>
       </c>
+      <c r="AQ38" s="8">
+        <v>-0.98707595352328303</v>
+      </c>
+      <c r="AR38" s="8">
+        <v>-4.9885812023634299</v>
+      </c>
     </row>
     <row r="39" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE39" s="1">
+      <c r="AE39" s="2">
         <v>1.6489991696386701</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AF39" s="2">
         <v>30.746215085486899</v>
       </c>
+      <c r="AQ39" s="8">
+        <v>-0.90262106045926604</v>
+      </c>
+      <c r="AR39" s="8">
+        <v>-5.3020187984014902</v>
+      </c>
     </row>
     <row r="40" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE40" s="1">
+      <c r="AE40" s="2">
         <v>1.65675894733109</v>
       </c>
-      <c r="AF40" s="1">
+      <c r="AF40" s="2">
         <v>28.410402230959502</v>
       </c>
+      <c r="AQ40" s="8">
+        <v>-0.87187385682739604</v>
+      </c>
+      <c r="AR40" s="8">
+        <v>-4.4364154365608899</v>
+      </c>
     </row>
     <row r="41" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE41" s="1">
+      <c r="AE41" s="2">
         <v>1.7544516698174499</v>
       </c>
-      <c r="AF41" s="1">
+      <c r="AF41" s="2">
         <v>27.930269926014901</v>
       </c>
+      <c r="AQ41" s="8">
+        <v>-0.77000988716855001</v>
+      </c>
+      <c r="AR41" s="8">
+        <v>-4.0551566171849096</v>
+      </c>
     </row>
     <row r="42" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE42" s="1">
+      <c r="AE42" s="2">
         <v>1.8196302303724901</v>
       </c>
-      <c r="AF42" s="1">
+      <c r="AF42" s="2">
         <v>26.007077419416898</v>
       </c>
+      <c r="AQ42" s="8">
+        <v>-0.69278137820288799</v>
+      </c>
+      <c r="AR42" s="8">
+        <v>-3.5644466473455201</v>
+      </c>
     </row>
     <row r="43" spans="31:56" x14ac:dyDescent="0.25">
-      <c r="AE43" s="1">
+      <c r="AE43" s="2">
         <v>1.84298835891777</v>
       </c>
-      <c r="AF43" s="1">
+      <c r="AF43" s="2">
         <v>25.4837494388937</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="P52" s="12" t="s">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="P52" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AE52" s="12" t="s">
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AC52" s="14"/>
+      <c r="AE52" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="12"/>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
-      <c r="AK52" s="12"/>
-      <c r="AL52" s="12"/>
-      <c r="AM52" s="12"/>
-      <c r="AN52" s="12"/>
-      <c r="AO52" s="12"/>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AE53" s="12" t="s">
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="14"/>
+      <c r="AM52" s="14"/>
+      <c r="AN52" s="14"/>
+      <c r="AO52" s="14"/>
+      <c r="AQ52" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="14"/>
+      <c r="AV52" s="14"/>
+      <c r="AW52" s="14"/>
+      <c r="AX52" s="14"/>
+      <c r="AY52" s="14"/>
+      <c r="AZ52" s="14"/>
+      <c r="BA52" s="14"/>
+      <c r="BB52" s="14"/>
+      <c r="BC52" s="14"/>
+      <c r="BD52" s="14"/>
+      <c r="BE52" s="14"/>
+      <c r="BF52" s="14"/>
+      <c r="BG52" s="14"/>
+    </row>
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE53" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="12"/>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
-      <c r="AK53" s="12"/>
-      <c r="AL53" s="12"/>
-      <c r="AM53" s="12"/>
-      <c r="AN53" s="12"/>
-      <c r="AO53" s="12"/>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AE54" s="12" t="s">
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="14"/>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AE54" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="12"/>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
-      <c r="AK54" s="12"/>
-      <c r="AL54" s="12"/>
-      <c r="AM54" s="12"/>
-      <c r="AN54" s="12"/>
-      <c r="AO54" s="12"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="14"/>
+      <c r="AN54" s="14"/>
+      <c r="AO54" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="26">
+    <mergeCell ref="AQ52:BG52"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P52:AC52"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AE53:AO53"/>
     <mergeCell ref="AE52:AO52"/>
     <mergeCell ref="AE54:AO54"/>
@@ -7324,18 +8022,6 @@
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P52:AC52"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7376,66 +8062,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="V1" s="13" t="s">
+      <c r="T1" s="14"/>
+      <c r="V1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="W1" s="14"/>
+      <c r="Y1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AB1" s="13" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AB1" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="13"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="13"/>
-      <c r="AH1" s="13" t="s">
+      <c r="AF1" s="14"/>
+      <c r="AH1" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="13"/>
-      <c r="AK1" s="13" t="s">
+      <c r="AI1" s="14"/>
+      <c r="AK1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="AL1" s="13"/>
-      <c r="AN1" s="13" t="s">
+      <c r="AL1" s="14"/>
+      <c r="AN1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AO1" s="13"/>
-      <c r="AQ1" s="13" t="s">
+      <c r="AO1" s="14"/>
+      <c r="AQ1" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AR1" s="13"/>
+      <c r="AR1" s="14"/>
     </row>
     <row r="3" spans="1:44" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8506,89 +9192,90 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="M40" s="13" t="s">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="M40" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
     </row>
     <row r="49" spans="25:44" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y49" s="13" t="s">
+      <c r="Y49" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AH49" s="13" t="s">
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AH49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
-      <c r="AQ49" s="13"/>
-      <c r="AR49" s="13"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="14"/>
+      <c r="AN49" s="14"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
     </row>
     <row r="50" spans="25:44" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y50" s="13" t="s">
+      <c r="Y50" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
     </row>
     <row r="51" spans="25:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y51" s="13" t="s">
+      <c r="Y51" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AH49:AR49"/>
+    <mergeCell ref="Y50:AF50"/>
+    <mergeCell ref="Y51:AF51"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="Y49:AF49"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
@@ -8599,12 +9286,11 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Y50:AF50"/>
-    <mergeCell ref="Y51:AF51"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="Y49:AF49"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AH49:AR49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8644,22 +9330,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -8943,19 +9629,19 @@
       <c r="A38" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8987,10 +9673,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -9177,10 +9863,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="H38" s="10"/>
     </row>
   </sheetData>
@@ -9219,30 +9905,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -9739,25 +10425,25 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
     </row>
     <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9798,18 +10484,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10389,13 +11075,13 @@
     </row>
     <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10423,10 +11109,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -10465,10 +11151,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10506,34 +11192,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="14"/>
+      <c r="P1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="S1" s="13" t="s">
+      <c r="Q1" s="14"/>
+      <c r="S1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="13"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -10978,28 +11664,28 @@
       <c r="A34" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11064,10 +11750,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -11122,10 +11808,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Jupyter/Tungsten/Tungsten.xlsx
+++ b/Jupyter/Tungsten/Tungsten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuqih\Documents\GitHub\DatabaseCodes\Jupyter\Tungsten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63ED68A-2479-4F2A-B586-E63E77906AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8139DED-D649-43B3-9C91-97C5DF23E991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="5" activeTab="16" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="852" firstSheet="16" activeTab="17" xr2:uid="{D289EE42-B074-4616-9B9B-4CE9F1662138}"/>
   </bookViews>
   <sheets>
     <sheet name="W_density" sheetId="15" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="133">
   <si>
     <t>W-Fujitsuka</t>
   </si>
@@ -342,31 +342,7 @@
     <t>Stress (Mpa)</t>
   </si>
   <si>
-    <t>W RLU</t>
-  </si>
-  <si>
-    <t>W RLP</t>
-  </si>
-  <si>
-    <t>W FU</t>
-  </si>
-  <si>
-    <t>W FP</t>
-  </si>
-  <si>
     <t>Fig 8. Habainy, Jemila, et al. "Fatigue behavior of rolled and forged tungsten at 25, 280 and 480 C." Journal of Nuclear Materials 465 (2015): 438-447.</t>
-  </si>
-  <si>
-    <t>W 280C RLP</t>
-  </si>
-  <si>
-    <t>W 280 FU</t>
-  </si>
-  <si>
-    <t>W 280 FP</t>
-  </si>
-  <si>
-    <t>W 480 FP</t>
   </si>
   <si>
     <t>Fig 9. Habainy, Jemila, et al. "Fatigue behavior of rolled and forged tungsten at 25, 280 and 480 C." Journal of Nuclear Materials 465 (2015): 438-447.</t>
@@ -570,22 +546,43 @@
     <t>sigma</t>
   </si>
   <si>
-    <t>W epsdot Conway</t>
-  </si>
-  <si>
-    <t>W epsdot Klopp1</t>
-  </si>
-  <si>
-    <t>W epsdot Klopp2</t>
-  </si>
-  <si>
-    <t>W  epsdot Green</t>
-  </si>
-  <si>
-    <t>W epsdot Harris</t>
-  </si>
-  <si>
     <t>W epsdot King</t>
+  </si>
+  <si>
+    <t>W epsdot Flagella</t>
+  </si>
+  <si>
+    <t>W epsdot Klopp</t>
+  </si>
+  <si>
+    <t>W epsdot Green</t>
+  </si>
+  <si>
+    <t>W epsdot Gilbert</t>
+  </si>
+  <si>
+    <t>W RLU_</t>
+  </si>
+  <si>
+    <t>W RLP_</t>
+  </si>
+  <si>
+    <t>W FU_</t>
+  </si>
+  <si>
+    <t>W FP_</t>
+  </si>
+  <si>
+    <t>W 280C RLP_</t>
+  </si>
+  <si>
+    <t>W 280 FU_</t>
+  </si>
+  <si>
+    <t>W 280 FP_</t>
+  </si>
+  <si>
+    <t>W 480 FP_</t>
   </si>
 </sst>
 </file>
@@ -722,6 +719,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,12 +739,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,16 +1320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>21728</xdr:rowOff>
+      <xdr:rowOff>88403</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>524622</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>572247</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>48494</xdr:rowOff>
+      <xdr:rowOff>115169</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1355,7 +1352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36109275" y="3869828"/>
+          <a:off x="33718500" y="3936503"/>
           <a:ext cx="4115547" cy="4789266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2416,35 +2413,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="14"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="14"/>
+      <c r="M1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="16"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="14"/>
+      <c r="P1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3464,46 +3461,46 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
     </row>
     <row r="52" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3581,14 +3578,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
@@ -3762,13 +3759,13 @@
       <c r="F34" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3804,58 +3801,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="J1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="16"/>
-      <c r="M1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="G1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="M1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4251,22 +4248,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="A32" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="A33" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4306,59 +4303,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="G1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="18"/>
       <c r="I1"/>
-      <c r="J1" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="16"/>
+      <c r="J1" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="18"/>
       <c r="L1"/>
-      <c r="M1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="16"/>
+      <c r="M1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -4668,22 +4665,22 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="A35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="A36" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4715,15 +4712,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="16"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="14"/>
+      <c r="D1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -4737,14 +4734,14 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4864,13 +4861,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="A34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4903,14 +4900,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5027,13 +5024,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5095,63 +5092,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="19"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="19"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="19"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="17" t="s">
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI1" s="17"/>
+      <c r="AI1" s="19"/>
     </row>
     <row r="3" spans="1:35" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -5812,21 +5809,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
@@ -5835,6 +5827,11 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5843,10 +5840,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9D7C7B-E4E9-42EA-9DB0-66C5C7498970}">
-  <dimension ref="A1:BG54"/>
+  <dimension ref="A1:BD54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI23" workbookViewId="0">
-      <selection activeCell="BD40" sqref="BD40"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BD20" sqref="BD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5874,89 +5871,85 @@
     <col min="42" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="14"/>
-      <c r="V1" s="14" t="s">
+      <c r="T1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="W1" s="16"/>
+      <c r="Y1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="Z1" s="16"/>
+      <c r="AB1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AE1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF1" s="14"/>
-      <c r="AH1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI1" s="14"/>
-      <c r="AK1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL1" s="14"/>
-      <c r="AN1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO1" s="14"/>
-      <c r="AQ1" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR1" s="14"/>
-      <c r="AT1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU1" s="14"/>
-      <c r="AW1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX1" s="14"/>
-      <c r="AZ1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA1" s="14"/>
-      <c r="BC1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="BD1" s="14"/>
-      <c r="BF1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG1" s="14"/>
-    </row>
-    <row r="3" spans="1:59" ht="33" x14ac:dyDescent="0.25">
+      <c r="AC1" s="16"/>
+      <c r="AE1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AH1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AK1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL1" s="16"/>
+      <c r="AN1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO1" s="16"/>
+      <c r="AQ1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="16"/>
+      <c r="AT1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU1" s="16"/>
+      <c r="AW1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX1" s="16"/>
+      <c r="AZ1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA1" s="16"/>
+      <c r="BC1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD1" s="16"/>
+    </row>
+    <row r="3" spans="1:56" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -6018,70 +6011,64 @@
         <v>32</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="AS3" s="13"/>
       <c r="AT3" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV3" s="18"/>
+        <v>118</v>
+      </c>
+      <c r="AV3" s="13"/>
       <c r="AW3" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY3" s="18"/>
+        <v>118</v>
+      </c>
+      <c r="AY3" s="13"/>
       <c r="AZ3" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB3" s="18"/>
+        <v>118</v>
+      </c>
       <c r="BC3" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="BD3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>147.320952997912</v>
       </c>
@@ -6100,46 +6087,46 @@
       <c r="H4" s="2">
         <v>4.7474747474747403</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="14">
         <v>134.95213416828599</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <v>7.6565656565656504</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="14">
         <v>137.09637947167599</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="14">
         <v>7.8383838383838302</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="14">
         <v>152.731331430165</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="14">
         <v>2.54899225138981</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="14">
         <v>149.647985575994</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="14">
         <v>2.62443924531541</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="14">
         <v>146.285603897915</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="14">
         <v>2.6614651527184501</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="14">
         <v>9.1502285947326492</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="14">
         <v>18.394363476357</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="14">
         <v>31.712421387022601</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="14">
         <v>12.9240807916031</v>
       </c>
       <c r="AE4" s="2">
@@ -6166,48 +6153,41 @@
       <c r="AO4" s="2">
         <v>22.2008676815414</v>
       </c>
-      <c r="AQ4" s="8">
-        <v>-2.2554436652390901</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>-10.9371917865206</v>
-      </c>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="8">
-        <v>-1.35300472555888</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>-7.8791312333077403</v>
-      </c>
-      <c r="AV4" s="19"/>
-      <c r="AW4" s="8">
-        <v>-1.6524477139829701</v>
-      </c>
-      <c r="AX4" s="8">
-        <v>-7.1899149534652702</v>
-      </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="8">
-        <v>-1.3823822718819201</v>
-      </c>
-      <c r="BA4" s="8">
-        <v>-9.4134016125433302</v>
-      </c>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="8">
-        <v>-0.35493693170636198</v>
-      </c>
-      <c r="BD4" s="8">
-        <v>-2.8531478579397</v>
-      </c>
-      <c r="BF4" s="8">
-        <v>-1.2494879892413</v>
-      </c>
-      <c r="BG4" s="8">
-        <v>-7.0849463857534998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AQ4">
+        <v>-3.7765826409570802</v>
+      </c>
+      <c r="AR4">
+        <v>9.2668898730954794</v>
+      </c>
+      <c r="AS4" s="14"/>
+      <c r="AT4">
+        <v>-3.3964105720707298</v>
+      </c>
+      <c r="AU4">
+        <v>12.8600035479431</v>
+      </c>
+      <c r="AV4" s="14"/>
+      <c r="AW4">
+        <v>-3.9238832848383098</v>
+      </c>
+      <c r="AX4">
+        <v>6.7073583737445999</v>
+      </c>
+      <c r="AY4" s="14"/>
+      <c r="AZ4">
+        <v>-3.5932640438480399</v>
+      </c>
+      <c r="BA4">
+        <v>10.150253995158399</v>
+      </c>
+      <c r="BC4">
+        <v>-3.3803729572324301</v>
+      </c>
+      <c r="BD4">
+        <v>12.243874398479401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>155.486935866983</v>
       </c>
@@ -6226,46 +6206,46 @@
       <c r="H5" s="2">
         <v>3.9393939393939399</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="14">
         <v>163.72921615201801</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="14">
         <v>5.3333333333333304</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="14">
         <v>164.42453033901899</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="14">
         <v>4.8484848484848504</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="14">
         <v>165.35126317371001</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="14">
         <v>2.0174290068471001</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="14">
         <v>161.70984567172499</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="14">
         <v>2.0160338277275698</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="14">
         <v>158.06735495503199</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="14">
         <v>2.0529524136598698</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="14">
         <v>30.5662280795895</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="14">
         <v>13.843181866964301</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="14">
         <v>40.766060658095199</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="14">
         <v>9.7091588143123904</v>
       </c>
       <c r="AE5" s="2">
@@ -6292,48 +6272,41 @@
       <c r="AO5" s="2">
         <v>21.678808143617399</v>
       </c>
-      <c r="AQ5" s="8">
-        <v>-2.1174796616120899</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>-10.048204341394401</v>
-      </c>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="8">
-        <v>-1.3152584836228001</v>
-      </c>
-      <c r="AU5" s="8">
-        <v>-7.4305635630923303</v>
-      </c>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="8">
-        <v>-1.31874438489165</v>
-      </c>
-      <c r="AX5" s="8">
-        <v>-7.4655034173284696</v>
-      </c>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="8">
-        <v>-1.33773447562448</v>
-      </c>
-      <c r="BA5" s="8">
-        <v>-9.1816272719488392</v>
-      </c>
-      <c r="BB5" s="19"/>
-      <c r="BC5" s="8">
-        <v>-0.22019493136214799</v>
-      </c>
-      <c r="BD5" s="8">
-        <v>-2.43287877208114</v>
-      </c>
-      <c r="BF5" s="8">
-        <v>-1.16836011573823</v>
-      </c>
-      <c r="BG5" s="8">
-        <v>-6.5134696477107399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AQ5">
+        <v>-3.8529395171648702</v>
+      </c>
+      <c r="AR5">
+        <v>8.8809843515512892</v>
+      </c>
+      <c r="AS5" s="14"/>
+      <c r="AT5">
+        <v>-3.63497771531974</v>
+      </c>
+      <c r="AU5">
+        <v>10.4475619674788</v>
+      </c>
+      <c r="AV5" s="14"/>
+      <c r="AW5">
+        <v>-3.9260190110653701</v>
+      </c>
+      <c r="AX5">
+        <v>6.5660110953586699</v>
+      </c>
+      <c r="AY5" s="14"/>
+      <c r="AZ5">
+        <v>-3.5467642546910101</v>
+      </c>
+      <c r="BA5">
+        <v>10.2647919453574</v>
+      </c>
+      <c r="BC5">
+        <v>-3.4746247666150198</v>
+      </c>
+      <c r="BD5">
+        <v>11.661777128348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>165.78420787446899</v>
       </c>
@@ -6352,46 +6325,46 @@
       <c r="H6" s="2">
         <v>2.9696969696969702</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="14">
         <v>192.87338947671401</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="14">
         <v>3.31313131313131</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="14">
         <v>193.21816742244201</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="14">
         <v>2.9898989898989901</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="14">
         <v>175.16688488699</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="14">
         <v>1.59973384275258</v>
       </c>
-      <c r="S6" s="19">
+      <c r="S6" s="14">
         <v>171.52332095559001</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="14">
         <v>1.67496619373671</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="14">
         <v>167.60286762969699</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="14">
         <v>1.63514992809461</v>
       </c>
-      <c r="Y6" s="19">
+      <c r="Y6" s="14">
         <v>40.403314087016199</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="14">
         <v>12.659211401833</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="14">
         <v>53.690785378522797</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="14">
         <v>8.2964862950481795</v>
       </c>
       <c r="AE6" s="2">
@@ -6418,48 +6391,41 @@
       <c r="AO6" s="2">
         <v>21.014813919694699</v>
       </c>
-      <c r="AQ6" s="8">
-        <v>-2.0869012179764699</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>-10.1259196166554</v>
-      </c>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="8">
-        <v>-1.2636805347056701</v>
-      </c>
-      <c r="AU6" s="8">
-        <v>-7.22107793459148</v>
-      </c>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="8">
-        <v>-1.1989059941223901</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>-6.7000227793437803</v>
-      </c>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="8">
-        <v>-1.3010124104343801</v>
-      </c>
-      <c r="BA6" s="8">
-        <v>-9.1510217913009697</v>
-      </c>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="8">
-        <v>-0.20787161374482899</v>
-      </c>
-      <c r="BD6" s="8">
-        <v>-2.3966555264849001</v>
-      </c>
-      <c r="BF6" s="8">
-        <v>-1.10928646592375</v>
-      </c>
-      <c r="BG6" s="8">
-        <v>-6.0738399078112604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="AQ6">
+        <v>-3.91263623793302</v>
+      </c>
+      <c r="AR6">
+        <v>8.5648540620690401</v>
+      </c>
+      <c r="AS6" s="14"/>
+      <c r="AT6">
+        <v>-3.6911524553688699</v>
+      </c>
+      <c r="AU6">
+        <v>10.251896407107701</v>
+      </c>
+      <c r="AV6" s="14"/>
+      <c r="AW6">
+        <v>-4.0197538866754297</v>
+      </c>
+      <c r="AX6">
+        <v>6.5187845955472099</v>
+      </c>
+      <c r="AY6" s="14"/>
+      <c r="AZ6">
+        <v>-3.5060727342096398</v>
+      </c>
+      <c r="BA6">
+        <v>10.1367868838782</v>
+      </c>
+      <c r="BC6">
+        <v>-3.4973957770445701</v>
+      </c>
+      <c r="BD6">
+        <v>11.349406061654999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>175.01907435399099</v>
       </c>
@@ -6478,28 +6444,28 @@
       <c r="H7" s="2">
         <v>2.1414141414141401</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="14">
         <v>221.69797739869</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="14">
         <v>2.32323232323232</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="14">
         <v>220.24976606924301</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="14">
         <v>1.67676767676767</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="14">
         <v>53.056515486488202</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="14">
         <v>10.939921440683399</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="14">
         <v>63.534310674193399</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AC7" s="14">
         <v>6.8826332396059096</v>
       </c>
       <c r="AE7" s="2">
@@ -6526,58 +6492,51 @@
       <c r="AO7" s="2">
         <v>19.0969076086262</v>
       </c>
-      <c r="AQ7" s="8">
-        <v>-2.07358907501759</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>-9.4486290890066194</v>
-      </c>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="8">
-        <v>-1.2505589306156299</v>
-      </c>
-      <c r="AU7" s="8">
-        <v>-7.0908695434101201</v>
-      </c>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="8">
-        <v>-1.14298572353675</v>
-      </c>
-      <c r="AX7" s="8">
-        <v>-6.3575932539395597</v>
-      </c>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="8">
-        <v>-1.2703663255004101</v>
-      </c>
-      <c r="BA7" s="8">
-        <v>-8.9732934473508106</v>
-      </c>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="8">
-        <v>-0.19384940472586101</v>
-      </c>
-      <c r="BD7" s="8">
-        <v>-2.1641992028263499</v>
-      </c>
-      <c r="BF7" s="8">
-        <v>-0.95844682889029498</v>
-      </c>
-      <c r="BG7" s="8">
-        <v>-5.1131451131144896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y8" s="19">
+      <c r="AQ7">
+        <v>-4.0293078884499298</v>
+      </c>
+      <c r="AR7">
+        <v>8.1160877752113301</v>
+      </c>
+      <c r="AS7" s="14"/>
+      <c r="AT7">
+        <v>-3.8944802498122</v>
+      </c>
+      <c r="AU7">
+        <v>9.0623375084649602</v>
+      </c>
+      <c r="AV7" s="14"/>
+      <c r="AW7">
+        <v>-3.9992690944801201</v>
+      </c>
+      <c r="AX7">
+        <v>6.3458890952904703</v>
+      </c>
+      <c r="AY7" s="14"/>
+      <c r="AZ7">
+        <v>-3.5541558110701201</v>
+      </c>
+      <c r="BA7">
+        <v>10.0645403884012</v>
+      </c>
+      <c r="BC7">
+        <v>-3.6664067397745699</v>
+      </c>
+      <c r="BD7">
+        <v>10.3430333084846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y8" s="14">
         <v>63.716757174440303</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="14">
         <v>10.369293180793701</v>
       </c>
-      <c r="AB8" s="19">
+      <c r="AB8" s="14">
         <v>74.4821739037111</v>
       </c>
-      <c r="AC8" s="19">
+      <c r="AC8" s="14">
         <v>6.0439159458241196</v>
       </c>
       <c r="AE8" s="2">
@@ -6598,58 +6557,51 @@
       <c r="AL8" s="2">
         <v>37.7920429024566</v>
       </c>
-      <c r="AQ8" s="8">
-        <v>-2.0211922547019099</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>-9.6620393808161307</v>
-      </c>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="8">
-        <v>-1.2031139282424601</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>-7.0334018555069298</v>
-      </c>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="8">
-        <v>-1.0733834121391099</v>
-      </c>
-      <c r="AX8" s="8">
-        <v>-5.9749466425215303</v>
-      </c>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="8">
-        <v>-1.2511108707143299</v>
-      </c>
-      <c r="BA8" s="8">
-        <v>-8.8883374379128597</v>
-      </c>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="8">
-        <v>-0.18478829753065901</v>
-      </c>
-      <c r="BD8" s="8">
-        <v>-2.0552593804344799</v>
-      </c>
-      <c r="BF8" s="8">
-        <v>-0.88369962433407001</v>
-      </c>
-      <c r="BG8" s="8">
-        <v>-4.5038750763441504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y9" s="19">
+      <c r="AQ8">
+        <v>-4.0528171403061801</v>
+      </c>
+      <c r="AR8">
+        <v>8.0089787714291205</v>
+      </c>
+      <c r="AS8" s="14"/>
+      <c r="AT8">
+        <v>-3.8644325456423698</v>
+      </c>
+      <c r="AU8">
+        <v>8.5846514987376104</v>
+      </c>
+      <c r="AV8" s="14"/>
+      <c r="AW8">
+        <v>-4.0835733816637996</v>
+      </c>
+      <c r="AX8">
+        <v>6.1677675023868401</v>
+      </c>
+      <c r="AY8" s="14"/>
+      <c r="AZ8">
+        <v>-3.6160856463410598</v>
+      </c>
+      <c r="BA8">
+        <v>9.4571365422891294</v>
+      </c>
+      <c r="BC8">
+        <v>-3.6381213760076401</v>
+      </c>
+      <c r="BD8">
+        <v>9.9647518955865308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y9" s="14">
         <v>74.657107901006597</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="14">
         <v>9.7987722423748096</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="14">
         <v>99.722037390800395</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC9" s="14">
         <v>4.9807894567387097</v>
       </c>
       <c r="AE9" s="2">
@@ -6670,58 +6622,51 @@
       <c r="AL9" s="2">
         <v>37.790287586684002</v>
       </c>
-      <c r="AQ9" s="8">
-        <v>-2.0254566530395799</v>
-      </c>
-      <c r="AR9" s="8">
-        <v>-9.2942561769612499</v>
-      </c>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="8">
-        <v>-1.1540144810949899</v>
-      </c>
-      <c r="AU9" s="8">
-        <v>-6.9107824911362403</v>
-      </c>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="8">
-        <v>-1.02545217161506</v>
-      </c>
-      <c r="AX9" s="8">
-        <v>-5.6828766699986204</v>
-      </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="8">
-        <v>-1.25453516550876</v>
-      </c>
-      <c r="BA9" s="8">
-        <v>-8.6406174557978499</v>
-      </c>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="8">
-        <v>-9.36359952131567E-2</v>
-      </c>
-      <c r="BD9" s="8">
-        <v>-1.92530848685795</v>
-      </c>
-      <c r="BF9" s="8">
-        <v>-0.80560859369899596</v>
-      </c>
-      <c r="BG9" s="8">
-        <v>-4.6052482635112399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y10" s="19">
+      <c r="AQ9">
+        <v>-4.0211733634489901</v>
+      </c>
+      <c r="AR9">
+        <v>7.9179600361809799</v>
+      </c>
+      <c r="AS9" s="14"/>
+      <c r="AT9">
+        <v>-4.0245359599571202</v>
+      </c>
+      <c r="AU9">
+        <v>8.1274578560828807</v>
+      </c>
+      <c r="AV9" s="14"/>
+      <c r="AW9">
+        <v>-4.0769949089828703</v>
+      </c>
+      <c r="AX9">
+        <v>6.0033053056678698</v>
+      </c>
+      <c r="AY9" s="14"/>
+      <c r="AZ9">
+        <v>-3.6764254205438101</v>
+      </c>
+      <c r="BA9">
+        <v>9.4019348869036907</v>
+      </c>
+      <c r="BC9">
+        <v>-3.7451790811900398</v>
+      </c>
+      <c r="BD9">
+        <v>9.4319212030878994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y10" s="14">
         <v>87.014102041254304</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="14">
         <v>8.6540814355319906</v>
       </c>
-      <c r="AB10" s="19">
+      <c r="AB10" s="14">
         <v>149.66515701131101</v>
       </c>
-      <c r="AC10" s="19">
+      <c r="AC10" s="14">
         <v>2.0114190044860401</v>
       </c>
       <c r="AE10" s="2">
@@ -6742,58 +6687,51 @@
       <c r="AL10" s="2">
         <v>36.966470636071698</v>
       </c>
-      <c r="AQ10" s="8">
-        <v>-2.0624267797481002</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>-9.5687567437458405</v>
-      </c>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="8">
-        <v>-1.1539321809085099</v>
-      </c>
-      <c r="AU10" s="8">
-        <v>-1.1539321809085099</v>
-      </c>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="8">
-        <v>-1.0526134039017201</v>
-      </c>
-      <c r="AX10" s="8">
-        <v>-5.0672840532429904</v>
-      </c>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="8">
-        <v>-1.2108607442208801</v>
-      </c>
-      <c r="BA10" s="8">
-        <v>-8.7494031056407309</v>
-      </c>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="8">
-        <v>-4.2639596705317501E-2</v>
-      </c>
-      <c r="BD10" s="8">
-        <v>-1.5696454660068999</v>
-      </c>
-      <c r="BF10" s="8">
-        <v>-0.80826056209367703</v>
-      </c>
-      <c r="BG10" s="8">
-        <v>-3.9574976521681098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y11" s="19">
+      <c r="AQ10">
+        <v>-3.98573409720301</v>
+      </c>
+      <c r="AR10">
+        <v>7.9410517458879903</v>
+      </c>
+      <c r="AS10" s="14"/>
+      <c r="AT10">
+        <v>-3.9827575435751799</v>
+      </c>
+      <c r="AU10">
+        <v>8.0697435541028995</v>
+      </c>
+      <c r="AV10" s="14"/>
+      <c r="AW10">
+        <v>-4.1203560536534702</v>
+      </c>
+      <c r="AX10">
+        <v>5.9542771455551504</v>
+      </c>
+      <c r="AY10" s="14"/>
+      <c r="AZ10">
+        <v>-3.6701192496529602</v>
+      </c>
+      <c r="BA10">
+        <v>9.2539316714557192</v>
+      </c>
+      <c r="BC10">
+        <v>-3.8139119928634302</v>
+      </c>
+      <c r="BD10">
+        <v>8.8241552023164704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y11" s="14">
         <v>97.375990040567501</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="14">
         <v>8.7346798600528004</v>
       </c>
-      <c r="AB11" s="19">
+      <c r="AB11" s="14">
         <v>199.813260640923</v>
       </c>
-      <c r="AC11" s="19">
+      <c r="AC11" s="14">
         <v>1.7241194273326299</v>
       </c>
       <c r="AE11" s="2">
@@ -6814,56 +6752,49 @@
       <c r="AL11" s="2">
         <v>35.7320954530554</v>
       </c>
-      <c r="AQ11" s="8">
-        <v>-2.0299570388200698</v>
-      </c>
-      <c r="AR11" s="8">
-        <v>-9.7336079621089908</v>
-      </c>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="8">
-        <v>-1.1081796080110899</v>
-      </c>
-      <c r="AU11" s="8">
-        <v>-6.7664089717055402</v>
-      </c>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="8">
-        <v>-0.98073859195666602</v>
-      </c>
-      <c r="AX11" s="8">
-        <v>-4.7048341801959301</v>
-      </c>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="8">
-        <v>-1.1800590095235299</v>
-      </c>
-      <c r="BA11" s="8">
-        <v>-8.0376015110816699</v>
-      </c>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="8">
-        <v>-2.6988400793745999E-2</v>
-      </c>
-      <c r="BD11" s="8">
-        <v>-1.38081591094805</v>
-      </c>
-      <c r="BF11" s="8">
-        <v>-0.70163200563028605</v>
-      </c>
-      <c r="BG11" s="8">
-        <v>-3.6126569968387101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y12" s="19">
+      <c r="AQ11">
+        <v>-4.0757670451767902</v>
+      </c>
+      <c r="AR11">
+        <v>7.4631272832138098</v>
+      </c>
+      <c r="AS11" s="14"/>
+      <c r="AT11">
+        <v>-4.2998502451406804</v>
+      </c>
+      <c r="AU11">
+        <v>6.63695622990197</v>
+      </c>
+      <c r="AV11" s="14"/>
+      <c r="AW11">
+        <v>-4.1985846936482796</v>
+      </c>
+      <c r="AX11">
+        <v>5.5519574558734099</v>
+      </c>
+      <c r="AY11" s="14"/>
+      <c r="AZ11">
+        <v>-3.61364203861825</v>
+      </c>
+      <c r="BA11">
+        <v>9.3398309150851606</v>
+      </c>
+      <c r="BC11">
+        <v>-3.9051158246998998</v>
+      </c>
+      <c r="BD11">
+        <v>8.5773109848569309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y12" s="14">
         <v>104.39696065594801</v>
       </c>
-      <c r="Z12" s="19">
+      <c r="Z12" s="14">
         <v>8.0860288909399198</v>
       </c>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
       <c r="AE12" s="2">
         <v>0.42329894463199502</v>
       </c>
@@ -6882,56 +6813,49 @@
       <c r="AL12" s="2">
         <v>35.879322563487499</v>
       </c>
-      <c r="AQ12" s="8">
-        <v>-1.95195293681877</v>
-      </c>
-      <c r="AR12" s="8">
-        <v>-9.8659924365665308</v>
-      </c>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="8">
-        <v>-1.11295090856554</v>
-      </c>
-      <c r="AU12" s="8">
-        <v>-6.3029481331296502</v>
-      </c>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="8">
-        <v>-0.96945840489270796</v>
-      </c>
-      <c r="AX12" s="8">
-        <v>-5.0882635254700403</v>
-      </c>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="8">
-        <v>-1.1119092268920501</v>
-      </c>
-      <c r="BA12" s="8">
-        <v>-8.1466240192601305</v>
-      </c>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="8">
-        <v>0.27981719361032298</v>
-      </c>
-      <c r="BD12" s="8">
-        <v>0.77495971106963601</v>
-      </c>
-      <c r="BF12" s="8">
-        <v>-0.67599570023650901</v>
-      </c>
-      <c r="BG12" s="8">
-        <v>-3.3739386047667201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y13" s="19">
+      <c r="AQ12">
+        <v>-4.1619318202551598</v>
+      </c>
+      <c r="AR12">
+        <v>7.0423015302294596</v>
+      </c>
+      <c r="AS12" s="14"/>
+      <c r="AT12">
+        <v>-4.35774241891027</v>
+      </c>
+      <c r="AU12">
+        <v>5.8641476497310201</v>
+      </c>
+      <c r="AV12" s="14"/>
+      <c r="AW12">
+        <v>-4.2215149013997699</v>
+      </c>
+      <c r="AX12">
+        <v>5.3722769795885599</v>
+      </c>
+      <c r="AY12" s="14"/>
+      <c r="AZ12">
+        <v>-3.6119508312228299</v>
+      </c>
+      <c r="BA12">
+        <v>9.2128890466017399</v>
+      </c>
+      <c r="BC12">
+        <v>-3.90410974086618</v>
+      </c>
+      <c r="BD12">
+        <v>8.6968342077076102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y13" s="14">
         <v>142.870634699177</v>
       </c>
-      <c r="Z13" s="19">
+      <c r="Z13" s="14">
         <v>4.5758655476614596</v>
       </c>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
       <c r="AE13" s="2">
         <v>0.47082950566652898</v>
       </c>
@@ -6950,52 +6874,45 @@
       <c r="AL13" s="2">
         <v>36.0090133942292</v>
       </c>
-      <c r="AQ13" s="8">
-        <v>-1.9694831203739001</v>
-      </c>
-      <c r="AR13" s="8">
-        <v>-9.4462534522160908</v>
-      </c>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="8">
-        <v>-1.0729224191506299</v>
-      </c>
-      <c r="AU13" s="8">
-        <v>-6.4409117341905402</v>
-      </c>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="19"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="8">
-        <v>-1.02451526844284</v>
-      </c>
-      <c r="BA13" s="8">
-        <v>-8.2093914781896995</v>
-      </c>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="8">
-        <v>0.306169075201979</v>
-      </c>
-      <c r="BD13" s="8">
-        <v>1.0654447209300599</v>
-      </c>
-      <c r="BF13" s="8">
-        <v>-0.53515913403799997</v>
-      </c>
-      <c r="BG13" s="8">
-        <v>-2.62067053290995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y14" s="19">
+      <c r="AQ13">
+        <v>-4.2020348643493701</v>
+      </c>
+      <c r="AR13">
+        <v>6.8133631013169698</v>
+      </c>
+      <c r="AS13" s="14"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="14"/>
+      <c r="AW13">
+        <v>-4.2548497782274399</v>
+      </c>
+      <c r="AX13">
+        <v>5.1792565504348902</v>
+      </c>
+      <c r="AY13" s="14"/>
+      <c r="AZ13">
+        <v>-3.7264517501916199</v>
+      </c>
+      <c r="BA13">
+        <v>9.0545239184644899</v>
+      </c>
+      <c r="BC13">
+        <v>-3.7603984462639599</v>
+      </c>
+      <c r="BD13">
+        <v>9.5569156494016898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y14" s="14">
         <v>162.50617098456701</v>
       </c>
-      <c r="Z14" s="19">
+      <c r="Z14" s="14">
         <v>3.5872201592650601</v>
       </c>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
       <c r="AE14" s="2">
         <v>0.50695422009538504</v>
       </c>
@@ -7014,52 +6931,45 @@
       <c r="AL14" s="2">
         <v>35.349521004796202</v>
       </c>
-      <c r="AQ14" s="8">
-        <v>-1.92571580372108</v>
-      </c>
-      <c r="AR14" s="8">
-        <v>-9.1011493172592903</v>
-      </c>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="8">
-        <v>-0.99019701504388902</v>
-      </c>
-      <c r="AU14" s="8">
-        <v>-5.9782976379178301</v>
-      </c>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="8">
-        <v>-1.0794359490835801</v>
-      </c>
-      <c r="BA14" s="8">
-        <v>-7.6980058724391602</v>
-      </c>
-      <c r="BB14" s="19"/>
-      <c r="BC14" s="8">
-        <v>0.32673053329437501</v>
-      </c>
-      <c r="BD14" s="8">
-        <v>1.20334725241051</v>
-      </c>
-      <c r="BF14" s="8">
-        <v>-0.51445197100600204</v>
-      </c>
-      <c r="BG14" s="8">
-        <v>-2.2372668299063401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y15" s="19">
+      <c r="AQ14">
+        <v>-4.26390426307605</v>
+      </c>
+      <c r="AR14">
+        <v>6.6558306749259604</v>
+      </c>
+      <c r="AS14" s="14"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="14"/>
+      <c r="AW14">
+        <v>-4.28014227578175</v>
+      </c>
+      <c r="AX14">
+        <v>5.0359415012234798</v>
+      </c>
+      <c r="AY14" s="14"/>
+      <c r="AZ14">
+        <v>-3.6958014223150002</v>
+      </c>
+      <c r="BA14">
+        <v>9.0051782625956296</v>
+      </c>
+      <c r="BC14">
+        <v>-3.6879078477215801</v>
+      </c>
+      <c r="BD14">
+        <v>9.9432504987057904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y15" s="14">
         <v>182.702998561892</v>
       </c>
-      <c r="Z15" s="19">
+      <c r="Z15" s="14">
         <v>2.56047564875829</v>
       </c>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
       <c r="AE15" s="2">
         <v>0.56691117695895799</v>
       </c>
@@ -7078,52 +6988,45 @@
       <c r="AL15" s="2">
         <v>34.309850848255302</v>
       </c>
-      <c r="AQ15" s="8">
-        <v>-1.93511206842088</v>
-      </c>
-      <c r="AR15" s="8">
-        <v>-9.4630397748058908</v>
-      </c>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="8">
-        <v>-0.97948216384299203</v>
-      </c>
-      <c r="AU15" s="8">
-        <v>-5.6887671645889997</v>
-      </c>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="19"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="8">
-        <v>-1.0497474485634699</v>
-      </c>
-      <c r="BA15" s="8">
-        <v>-7.8066561746617102</v>
-      </c>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="8">
-        <v>0.35971486997151902</v>
-      </c>
-      <c r="BD15" s="8">
-        <v>1.71909159897549</v>
-      </c>
-      <c r="BF15" s="8">
-        <v>-0.440337976595155</v>
-      </c>
-      <c r="BG15" s="8">
-        <v>-1.36386981306695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="Y16" s="19">
+      <c r="AQ15">
+        <v>-4.31767705863132</v>
+      </c>
+      <c r="AR15">
+        <v>6.3299157626865004</v>
+      </c>
+      <c r="AS15" s="14"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="14"/>
+      <c r="AW15">
+        <v>-4.2479890296160603</v>
+      </c>
+      <c r="AX15">
+        <v>4.7933818026517798</v>
+      </c>
+      <c r="AY15" s="14"/>
+      <c r="AZ15">
+        <v>-3.6704694038557499</v>
+      </c>
+      <c r="BA15">
+        <v>8.9287802516112595</v>
+      </c>
+      <c r="BC15">
+        <v>-3.9279277084412398</v>
+      </c>
+      <c r="BD15">
+        <v>8.2970002649992001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="Y16" s="14">
         <v>202.88372791860701</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="14">
         <v>2.1084376140290599</v>
       </c>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
       <c r="AE16" s="2">
         <v>0.55974749182729799</v>
       </c>
@@ -7136,48 +7039,45 @@
       <c r="AL16" s="2">
         <v>34.308871922151297</v>
       </c>
-      <c r="AQ16" s="8">
-        <v>-1.90266390605429</v>
-      </c>
-      <c r="AR16" s="8">
-        <v>-9.7019324321229803</v>
-      </c>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="8">
-        <v>-0.945196750261312</v>
-      </c>
-      <c r="AU16" s="8">
-        <v>-5.89184287472004</v>
-      </c>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="8">
-        <v>-1.0216898868683799</v>
-      </c>
-      <c r="BA16" s="8">
-        <v>-7.5127995724655898</v>
-      </c>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BF16" s="8">
-        <v>-0.379944757157893</v>
-      </c>
-      <c r="BG16" s="8">
-        <v>-1.2701253877815799</v>
-      </c>
-    </row>
-    <row r="17" spans="25:59" x14ac:dyDescent="0.25">
-      <c r="Y17" s="19">
+      <c r="AQ16">
+        <v>-4.3550899132307697</v>
+      </c>
+      <c r="AR16">
+        <v>6.3092593368657397</v>
+      </c>
+      <c r="AS16" s="14"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="14"/>
+      <c r="AW16">
+        <v>-4.3036491493862101</v>
+      </c>
+      <c r="AX16">
+        <v>4.4003004136636701</v>
+      </c>
+      <c r="AY16" s="14"/>
+      <c r="AZ16">
+        <v>-3.7116631471967598</v>
+      </c>
+      <c r="BA16">
+        <v>8.8509140217279203</v>
+      </c>
+      <c r="BC16">
+        <v>-4.2123543406781998</v>
+      </c>
+      <c r="BD16">
+        <v>6.95289451207322</v>
+      </c>
+    </row>
+    <row r="17" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="Y17" s="14">
         <v>222.78112859258599</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z17" s="14">
         <v>1.7712335529845999</v>
       </c>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
       <c r="AE17" s="2">
         <v>0.55375812032203398</v>
       </c>
@@ -7190,48 +7090,41 @@
       <c r="AL17" s="2">
         <v>33.333135767022299</v>
       </c>
-      <c r="AQ17" s="8">
-        <v>-1.85317587300094</v>
-      </c>
-      <c r="AR17" s="8">
-        <v>-8.8550458239930698</v>
-      </c>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="8">
-        <v>-0.94101737797113405</v>
-      </c>
-      <c r="AU17" s="8">
-        <v>-5.5805265924133201</v>
-      </c>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="8">
-        <v>-0.90371526150170101</v>
-      </c>
-      <c r="BA17" s="8">
-        <v>-7.62230425654149</v>
-      </c>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BF17" s="8">
-        <v>-0.370152450915475</v>
-      </c>
-      <c r="BG17" s="8">
-        <v>-1.7858846730539299</v>
-      </c>
-    </row>
-    <row r="18" spans="25:59" x14ac:dyDescent="0.25">
-      <c r="Y18" s="19">
+      <c r="AQ17">
+        <v>-4.3705246829828601</v>
+      </c>
+      <c r="AR17">
+        <v>6.0511192449245197</v>
+      </c>
+      <c r="AS17" s="14"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="14"/>
+      <c r="AW17">
+        <v>-4.3592595708158299</v>
+      </c>
+      <c r="AX17">
+        <v>4.4223803356534503</v>
+      </c>
+      <c r="AY17" s="14"/>
+      <c r="AZ17">
+        <v>-3.73853430439459</v>
+      </c>
+      <c r="BA17">
+        <v>8.9349737727138194</v>
+      </c>
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+    </row>
+    <row r="18" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="Y18" s="14">
         <v>242.672089978321</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z18" s="14">
         <v>1.6639120822511699</v>
       </c>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
       <c r="AE18" s="2">
         <v>0.59188425206134399</v>
       </c>
@@ -7244,42 +7137,35 @@
       <c r="AL18" s="2">
         <v>30.927880573458499</v>
       </c>
-      <c r="AQ18" s="8">
-        <v>-1.82624462951014</v>
-      </c>
-      <c r="AR18" s="8">
-        <v>-8.8964406976960397</v>
-      </c>
-      <c r="AS18" s="19"/>
-      <c r="AT18" s="8">
-        <v>-0.90672563360587899</v>
-      </c>
-      <c r="AU18" s="8">
-        <v>-5.7618798014022099</v>
-      </c>
-      <c r="AV18" s="19"/>
-      <c r="AW18" s="19"/>
-      <c r="AX18" s="19"/>
-      <c r="AY18" s="19"/>
-      <c r="AZ18" s="8">
-        <v>-0.78106550374934203</v>
-      </c>
-      <c r="BA18" s="8">
-        <v>-6.6869253116443703</v>
-      </c>
-      <c r="BB18" s="19"/>
-      <c r="BC18" s="19"/>
-      <c r="BD18" s="19"/>
-      <c r="BF18" s="8">
-        <v>-0.29369713679197801</v>
-      </c>
-      <c r="BG18" s="8">
-        <v>-0.189322266377554</v>
-      </c>
-    </row>
-    <row r="19" spans="25:59" x14ac:dyDescent="0.25">
-      <c r="AB19" s="19"/>
-      <c r="AC19" s="19"/>
+      <c r="AQ18">
+        <v>-4.4185726429303296</v>
+      </c>
+      <c r="AR18">
+        <v>5.87158228913286</v>
+      </c>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="14"/>
+      <c r="AW18">
+        <v>-4.3573648220137597</v>
+      </c>
+      <c r="AX18">
+        <v>4.2986024396378504</v>
+      </c>
+      <c r="AY18" s="14"/>
+      <c r="AZ18">
+        <v>-3.7999373896031501</v>
+      </c>
+      <c r="BA18">
+        <v>8.5142024875639706</v>
+      </c>
+      <c r="BC18" s="8"/>
+      <c r="BD18" s="8"/>
+    </row>
+    <row r="19" spans="25:56" x14ac:dyDescent="0.25">
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
       <c r="AE19" s="2">
         <v>0.59648602383278104</v>
       </c>
@@ -7292,605 +7178,484 @@
       <c r="AL19" s="2">
         <v>29.591595807409998</v>
       </c>
-      <c r="AQ19" s="8">
-        <v>-1.7732201099979501</v>
-      </c>
-      <c r="AR19" s="8">
-        <v>-8.6666020451180596</v>
-      </c>
-      <c r="AS19" s="19"/>
-      <c r="AT19" s="8">
-        <v>-0.90823658061914203</v>
-      </c>
-      <c r="AU19" s="8">
-        <v>-5.3346547853144397</v>
-      </c>
-      <c r="AV19" s="19"/>
-      <c r="AW19" s="19"/>
-      <c r="AX19" s="19"/>
-      <c r="AY19" s="19"/>
-      <c r="AZ19" s="19"/>
-      <c r="BA19" s="19"/>
-      <c r="BB19" s="19"/>
-      <c r="BC19" s="19"/>
-      <c r="BD19" s="19"/>
-      <c r="BF19" s="8">
-        <v>-0.25022556503134902</v>
-      </c>
-      <c r="BG19" s="8">
-        <v>0.32592156201089401</v>
-      </c>
-    </row>
-    <row r="20" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ19">
+        <v>-4.4854629167333604</v>
+      </c>
+      <c r="AR19">
+        <v>5.7883042776659801</v>
+      </c>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="14"/>
+      <c r="AW19">
+        <v>-4.4377626156484498</v>
+      </c>
+      <c r="AX19">
+        <v>3.7811553789330299</v>
+      </c>
+      <c r="AY19" s="14"/>
+      <c r="AZ19">
+        <v>-3.7654490257612099</v>
+      </c>
+      <c r="BA19">
+        <v>8.4533979738514304</v>
+      </c>
+      <c r="BC19" s="8"/>
+      <c r="BD19" s="8"/>
+    </row>
+    <row r="20" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE20" s="2">
         <v>0.67760046653958905</v>
       </c>
       <c r="AF20" s="2">
         <v>42.207721914506301</v>
       </c>
-      <c r="AQ20" s="8">
-        <v>-1.76025139457024</v>
-      </c>
-      <c r="AR20" s="8">
-        <v>-8.7983571448668307</v>
-      </c>
-      <c r="AS20" s="19"/>
-      <c r="AT20" s="8">
-        <v>-0.86985620519495299</v>
-      </c>
-      <c r="AU20" s="8">
-        <v>-5.5160475617006801</v>
-      </c>
-      <c r="AV20" s="19"/>
-      <c r="AW20" s="19"/>
-      <c r="AX20" s="19"/>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="19"/>
-      <c r="BB20" s="19"/>
-      <c r="BC20" s="19"/>
-      <c r="BD20" s="19"/>
-      <c r="BF20" s="8">
-        <v>-0.15124593054114399</v>
-      </c>
-      <c r="BG20" s="8">
-        <v>1.23052090222239</v>
-      </c>
-    </row>
-    <row r="21" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ20">
+        <v>-4.5219600805864602</v>
+      </c>
+      <c r="AR20">
+        <v>5.8222025596181597</v>
+      </c>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="14"/>
+      <c r="AW20" s="14"/>
+      <c r="AX20" s="14"/>
+      <c r="AY20" s="14"/>
+      <c r="AZ20">
+        <v>-3.7309680200800801</v>
+      </c>
+      <c r="BA20">
+        <v>8.3983650792589799</v>
+      </c>
+      <c r="BC20" s="8"/>
+      <c r="BD20" s="8"/>
+    </row>
+    <row r="21" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE21" s="2">
         <v>0.87243856571592804</v>
       </c>
       <c r="AF21" s="2">
         <v>37.466725156371503</v>
       </c>
-      <c r="AQ21" s="8">
-        <v>-1.72666796010991</v>
-      </c>
-      <c r="AR21" s="8">
-        <v>-8.3297517099135092</v>
-      </c>
-      <c r="AS21" s="19"/>
-      <c r="AT21" s="8">
-        <v>-0.868943517229539</v>
-      </c>
-      <c r="AU21" s="8">
-        <v>-5.1902179580479899</v>
-      </c>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="19"/>
-      <c r="AY21" s="19"/>
-      <c r="AZ21" s="19"/>
-      <c r="BA21" s="19"/>
-      <c r="BB21" s="19"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="19"/>
-    </row>
-    <row r="22" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ21">
+        <v>-4.4508255757451298</v>
+      </c>
+      <c r="AR21">
+        <v>5.6676055200543196</v>
+      </c>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="14"/>
+      <c r="AZ21">
+        <v>-3.7813230142443301</v>
+      </c>
+      <c r="BA21">
+        <v>8.3087530981838693</v>
+      </c>
+    </row>
+    <row r="22" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE22" s="2">
         <v>0.82473811981675205</v>
       </c>
       <c r="AF22" s="2">
         <v>44.287577671041099</v>
       </c>
-      <c r="AQ22" s="8">
-        <v>-1.64311337258169</v>
-      </c>
-      <c r="AR22" s="8">
-        <v>-8.5444583962790404</v>
-      </c>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="8">
-        <v>-0.83627878424309099</v>
-      </c>
-      <c r="AU22" s="8">
-        <v>-5.3425920052217499</v>
-      </c>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="19"/>
-      <c r="AY22" s="19"/>
-      <c r="AZ22" s="19"/>
-      <c r="BA22" s="19"/>
-      <c r="BB22" s="19"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="19"/>
-    </row>
-    <row r="23" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ22">
+        <v>-4.5477676630322703</v>
+      </c>
+      <c r="AR22">
+        <v>5.1994439365312104</v>
+      </c>
+      <c r="AS22" s="14"/>
+      <c r="AT22" s="14"/>
+      <c r="AU22" s="14"/>
+      <c r="AV22" s="14"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="14"/>
+      <c r="AY22" s="14"/>
+      <c r="AZ22">
+        <v>-3.80663050550086</v>
+      </c>
+      <c r="BA22">
+        <v>8.3659123787679395</v>
+      </c>
+    </row>
+    <row r="23" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE23" s="2">
         <v>0.91037745209347998</v>
       </c>
       <c r="AF23" s="2">
         <v>42.942201146271501</v>
       </c>
-      <c r="AQ23" s="8">
-        <v>-1.6272495334936099</v>
-      </c>
-      <c r="AR23" s="8">
-        <v>-8.3060332744598995</v>
-      </c>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="8">
-        <v>-0.82962724096682805</v>
-      </c>
-      <c r="AU23" s="8">
-        <v>-4.966131959927</v>
-      </c>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="19"/>
-    </row>
-    <row r="24" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ23">
+        <v>-4.6097634678574</v>
+      </c>
+      <c r="AR23">
+        <v>5.1410623540798897</v>
+      </c>
+      <c r="AS23" s="14"/>
+      <c r="AT23" s="14"/>
+      <c r="AU23" s="14"/>
+      <c r="AV23" s="14"/>
+      <c r="AW23" s="14"/>
+      <c r="AX23" s="14"/>
+      <c r="AY23" s="14"/>
+      <c r="AZ23">
+        <v>-3.8647836228132699</v>
+      </c>
+      <c r="BA23">
+        <v>7.7951465008129102</v>
+      </c>
+    </row>
+    <row r="24" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE24" s="2">
         <v>0.99234715598221002</v>
       </c>
       <c r="AF24" s="2">
         <v>38.024205768125398</v>
       </c>
-      <c r="AQ24" s="8">
-        <v>-1.5603511977820399</v>
-      </c>
-      <c r="AR24" s="8">
-        <v>-8.2902269782023303</v>
-      </c>
-      <c r="AS24" s="19"/>
-      <c r="AT24" s="8">
-        <v>-0.80186253446752498</v>
-      </c>
-      <c r="AU24" s="8">
-        <v>-5.0967360250818103</v>
-      </c>
-      <c r="AV24" s="19"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="19"/>
-      <c r="AY24" s="19"/>
-      <c r="AZ24" s="19"/>
-      <c r="BA24" s="19"/>
-      <c r="BB24" s="19"/>
-      <c r="BC24" s="19"/>
-      <c r="BD24" s="19"/>
-    </row>
-    <row r="25" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ24">
+        <v>-4.67361909554739</v>
+      </c>
+      <c r="AR24">
+        <v>4.99588029596908</v>
+      </c>
+      <c r="AS24" s="14"/>
+      <c r="AT24" s="14"/>
+      <c r="AU24" s="14"/>
+      <c r="AV24" s="14"/>
+      <c r="AW24" s="14"/>
+      <c r="AX24" s="14"/>
+      <c r="AY24" s="14"/>
+      <c r="AZ24">
+        <v>-3.8776455572666002</v>
+      </c>
+      <c r="BA24">
+        <v>7.6871227172231196</v>
+      </c>
+    </row>
+    <row r="25" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE25" s="2">
         <v>0.98709097296093395</v>
       </c>
       <c r="AF25" s="2">
         <v>40.943798486254899</v>
       </c>
-      <c r="AQ25" s="8">
-        <v>-1.5035576228709999</v>
-      </c>
-      <c r="AR25" s="8">
-        <v>-7.8794341057837904</v>
-      </c>
-      <c r="AS25" s="19"/>
-      <c r="AT25" s="8">
-        <v>-0.79928485042185404</v>
-      </c>
-      <c r="AU25" s="8">
-        <v>-4.66955057639138</v>
-      </c>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
-      <c r="BB25" s="19"/>
-      <c r="BC25" s="19"/>
-      <c r="BD25" s="19"/>
-    </row>
-    <row r="26" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ25">
+        <v>-4.6389785944066899</v>
+      </c>
+      <c r="AR25">
+        <v>4.8727027672589296</v>
+      </c>
+      <c r="AS25" s="14"/>
+      <c r="AT25" s="14"/>
+      <c r="AU25" s="14"/>
+      <c r="AV25" s="14"/>
+      <c r="AW25" s="14"/>
+      <c r="AX25" s="14"/>
+      <c r="AY25" s="14"/>
+      <c r="AZ25" s="14"/>
+      <c r="BA25" s="14"/>
+    </row>
+    <row r="26" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE26" s="2">
         <v>1.0390150851856901</v>
       </c>
       <c r="AF26" s="2">
         <v>36.6241521329273</v>
       </c>
-      <c r="AQ26" s="8">
-        <v>-1.5545417695177901</v>
-      </c>
-      <c r="AR26" s="8">
-        <v>-7.48405192266301</v>
-      </c>
-      <c r="AS26" s="19"/>
-      <c r="AT26" s="8">
-        <v>-0.93270294887580496</v>
-      </c>
-      <c r="AU26" s="8">
-        <v>-5.1099515357948802</v>
-      </c>
-      <c r="AV26" s="19"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="19"/>
-      <c r="AY26" s="19"/>
-      <c r="AZ26" s="19"/>
-      <c r="BA26" s="19"/>
-      <c r="BB26" s="19"/>
-      <c r="BC26" s="19"/>
-      <c r="BD26" s="19"/>
-    </row>
-    <row r="27" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ26">
+        <v>-4.7008416728284397</v>
+      </c>
+      <c r="AR26">
+        <v>4.7102127986709297</v>
+      </c>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="14"/>
+      <c r="AV26" s="14"/>
+      <c r="AW26" s="14"/>
+      <c r="AX26" s="14"/>
+      <c r="AY26" s="14"/>
+      <c r="AZ26" s="14"/>
+      <c r="BA26" s="14"/>
+    </row>
+    <row r="27" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE27" s="2">
         <v>1.03874087695692</v>
       </c>
       <c r="AF27" s="2">
         <v>40.526923183051501</v>
       </c>
-      <c r="AQ27" s="8">
-        <v>-1.4264226573723</v>
-      </c>
-      <c r="AR27" s="8">
-        <v>-7.8061389254131104</v>
-      </c>
-      <c r="AS27" s="19"/>
-      <c r="AT27" s="8">
-        <v>-0.97766522895693098</v>
-      </c>
-      <c r="AU27" s="8">
-        <v>-5.0660712921398003</v>
-      </c>
-      <c r="AV27" s="19"/>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="19"/>
-      <c r="AY27" s="19"/>
-      <c r="AZ27" s="19"/>
-      <c r="BA27" s="19"/>
-      <c r="BB27" s="19"/>
-      <c r="BC27" s="19"/>
-      <c r="BD27" s="19"/>
-    </row>
-    <row r="28" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ27">
+        <v>-4.7626320677435796</v>
+      </c>
+      <c r="AR27">
+        <v>4.4907110948176197</v>
+      </c>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+      <c r="BA27" s="14"/>
+    </row>
+    <row r="28" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE28" s="2">
         <v>1.05393369380095</v>
       </c>
       <c r="AF28" s="2">
         <v>39.3739406174343</v>
       </c>
-      <c r="AQ28" s="8">
-        <v>-1.44863658756969</v>
-      </c>
-      <c r="AR28" s="8">
-        <v>-7.5179842105333403</v>
-      </c>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="8">
-        <v>-0.82526849647535505</v>
-      </c>
-      <c r="AU28" s="8">
-        <v>-4.0393448119261901</v>
-      </c>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="19"/>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="19"/>
-    </row>
-    <row r="29" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ28">
+        <v>-4.8098433407562302</v>
+      </c>
+      <c r="AR28">
+        <v>4.4276981242612097</v>
+      </c>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+      <c r="BA28" s="14"/>
+    </row>
+    <row r="29" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE29" s="2">
         <v>1.13135917130162</v>
       </c>
       <c r="AF29" s="2">
         <v>38.387547430343602</v>
       </c>
-      <c r="AQ29" s="8">
-        <v>-1.39657471165969</v>
-      </c>
-      <c r="AR29" s="8">
-        <v>-7.4033121385942202</v>
-      </c>
-      <c r="AS29" s="19"/>
-      <c r="AT29" s="8">
-        <v>-0.792443383638337</v>
-      </c>
-      <c r="AU29" s="8">
-        <v>-3.6414154968323098</v>
-      </c>
-      <c r="AV29" s="19"/>
-      <c r="AW29" s="19"/>
-      <c r="AX29" s="19"/>
-      <c r="AY29" s="19"/>
-      <c r="AZ29" s="19"/>
-      <c r="BA29" s="19"/>
-      <c r="BB29" s="19"/>
-      <c r="BC29" s="19"/>
-      <c r="BD29" s="19"/>
-    </row>
-    <row r="30" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ29">
+        <v>-4.8352945794413396</v>
+      </c>
+      <c r="AR29">
+        <v>4.2982366933803204</v>
+      </c>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
+      <c r="BA29" s="14"/>
+    </row>
+    <row r="30" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE30" s="2">
         <v>1.1828430795116101</v>
       </c>
       <c r="AF30" s="2">
         <v>36.756827942010098</v>
       </c>
-      <c r="AQ30" s="8">
-        <v>-1.3408420826862999</v>
-      </c>
-      <c r="AR30" s="8">
-        <v>-7.4449857353825104</v>
-      </c>
-      <c r="AS30" s="19"/>
-      <c r="AT30" s="8">
-        <v>-0.77208252853014203</v>
-      </c>
-      <c r="AU30" s="8">
-        <v>-3.9240058486669001</v>
-      </c>
-      <c r="AV30" s="19"/>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="19"/>
-      <c r="AY30" s="19"/>
-      <c r="AZ30" s="19"/>
-      <c r="BA30" s="19"/>
-      <c r="BB30" s="19"/>
-      <c r="BC30" s="19"/>
-      <c r="BD30" s="19"/>
-    </row>
-    <row r="31" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ30">
+        <v>-4.8764112790082104</v>
+      </c>
+      <c r="AR30">
+        <v>4.0915854607481297</v>
+      </c>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
+      <c r="BA30" s="14"/>
+    </row>
+    <row r="31" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE31" s="2">
         <v>1.28352582735847</v>
       </c>
       <c r="AF31" s="2">
         <v>34.5095811935578</v>
       </c>
-      <c r="AQ31" s="8">
-        <v>-1.24586044806463</v>
-      </c>
-      <c r="AR31" s="8">
-        <v>-6.7054884347044297</v>
-      </c>
-      <c r="AS31" s="19"/>
-      <c r="AT31" s="8">
-        <v>-0.74738192128119996</v>
-      </c>
-      <c r="AU31" s="8">
-        <v>-3.3449765559271301</v>
-      </c>
-      <c r="AV31" s="19"/>
-      <c r="AW31" s="19"/>
-      <c r="AX31" s="19"/>
-      <c r="AY31" s="19"/>
-      <c r="AZ31" s="19"/>
-      <c r="BA31" s="19"/>
-      <c r="BB31" s="19"/>
-      <c r="BC31" s="19"/>
-      <c r="BD31" s="19"/>
-    </row>
-    <row r="32" spans="25:59" x14ac:dyDescent="0.25">
+      <c r="AQ31">
+        <v>-4.9342070949294996</v>
+      </c>
+      <c r="AR31">
+        <v>3.83003162264496</v>
+      </c>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+      <c r="BA31" s="14"/>
+    </row>
+    <row r="32" spans="25:56" x14ac:dyDescent="0.25">
       <c r="AE32" s="2">
         <v>1.3013272994976799</v>
       </c>
       <c r="AF32" s="2">
         <v>34.708634304916202</v>
       </c>
-      <c r="AQ32" s="8">
-        <v>-1.27829182710565</v>
-      </c>
-      <c r="AR32" s="8">
-        <v>-6.4090079915342697</v>
-      </c>
-      <c r="AS32" s="19"/>
-      <c r="AT32" s="8">
-        <v>-0.71723367476586397</v>
-      </c>
-      <c r="AU32" s="8">
-        <v>-3.7145518740839298</v>
-      </c>
-      <c r="AV32" s="19"/>
-      <c r="AW32" s="19"/>
-      <c r="AX32" s="19"/>
-      <c r="AY32" s="19"/>
-      <c r="AZ32" s="19"/>
-      <c r="BA32" s="19"/>
-      <c r="BB32" s="19"/>
-      <c r="BC32" s="19"/>
-      <c r="BD32" s="19"/>
-    </row>
-    <row r="33" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ32">
+        <v>-4.9478168034937902</v>
+      </c>
+      <c r="AR32">
+        <v>3.6859584884466399</v>
+      </c>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+      <c r="BA32" s="14"/>
+    </row>
+    <row r="33" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE33" s="2">
         <v>1.3152614900655699</v>
       </c>
       <c r="AF33" s="2">
         <v>36.167784541143</v>
       </c>
-      <c r="AQ33" s="8">
-        <v>-1.2326999232018701</v>
-      </c>
-      <c r="AR33" s="8">
-        <v>-6.1790974104181497</v>
-      </c>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="8">
-        <v>-0.66398228872370901</v>
-      </c>
-      <c r="AU33" s="8">
-        <v>-3.3747470656891498</v>
-      </c>
-      <c r="AV33" s="19"/>
-      <c r="AW33" s="19"/>
-      <c r="AX33" s="19"/>
-      <c r="AY33" s="19"/>
-      <c r="AZ33" s="19"/>
-      <c r="BA33" s="19"/>
-      <c r="BB33" s="19"/>
-      <c r="BC33" s="19"/>
-      <c r="BD33" s="19"/>
-    </row>
-    <row r="34" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ33">
+        <v>-5.0068348449501796</v>
+      </c>
+      <c r="AR33">
+        <v>3.6102907391242498</v>
+      </c>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+      <c r="BA33" s="14"/>
+    </row>
+    <row r="34" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE34" s="2">
         <v>1.4457656960493299</v>
       </c>
       <c r="AF34" s="2">
         <v>33.396957666669799</v>
       </c>
-      <c r="AQ34" s="8">
-        <v>-1.18723988828468</v>
-      </c>
-      <c r="AR34" s="8">
-        <v>-6.4016622895761204</v>
-      </c>
-      <c r="AS34" s="19"/>
-      <c r="AT34" s="8">
-        <v>-0.62541832057584101</v>
-      </c>
-      <c r="AU34" s="8">
-        <v>-2.9261873089532</v>
-      </c>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
-      <c r="BB34" s="19"/>
-      <c r="BC34" s="19"/>
-      <c r="BD34" s="19"/>
-    </row>
-    <row r="35" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ34">
+        <v>-5.0663103550460296</v>
+      </c>
+      <c r="AR34">
+        <v>3.1206464727475498</v>
+      </c>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+      <c r="BA34" s="14"/>
+    </row>
+    <row r="35" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE35" s="2">
         <v>1.38172179023404</v>
       </c>
       <c r="AF35" s="2">
         <v>31.801475511643002</v>
       </c>
-      <c r="AQ35" s="8">
-        <v>-1.18635636607446</v>
-      </c>
-      <c r="AR35" s="8">
-        <v>-6.5579809851017199</v>
-      </c>
-      <c r="AS35" s="19"/>
-    </row>
-    <row r="36" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ35">
+        <v>-5.1335790936769996</v>
+      </c>
+      <c r="AR35">
+        <v>2.5614226667640598</v>
+      </c>
+    </row>
+    <row r="36" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE36" s="2">
         <v>1.5354675074703701</v>
       </c>
       <c r="AF36" s="2">
         <v>33.562475426831</v>
       </c>
-      <c r="AQ36" s="8">
-        <v>-1.0533089502570001</v>
-      </c>
-      <c r="AR36" s="8">
-        <v>-5.9093474102364603</v>
-      </c>
-    </row>
-    <row r="37" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="8"/>
+      <c r="AR36" s="8"/>
+    </row>
+    <row r="37" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE37" s="2">
         <v>1.4614764617699201</v>
       </c>
       <c r="AF37" s="2">
         <v>30.1235575379546</v>
       </c>
-      <c r="AQ37" s="8">
-        <v>-1.02273092988221</v>
-      </c>
-      <c r="AR37" s="8">
-        <v>-6.1893562181712101</v>
-      </c>
-    </row>
-    <row r="38" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="8"/>
+      <c r="AR37" s="8"/>
+    </row>
+    <row r="38" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE38" s="2">
         <v>1.59880330467955</v>
       </c>
       <c r="AF38" s="2">
         <v>29.9799133997208</v>
       </c>
-      <c r="AQ38" s="8">
-        <v>-0.98707595352328303</v>
-      </c>
-      <c r="AR38" s="8">
-        <v>-4.9885812023634299</v>
-      </c>
-    </row>
-    <row r="39" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ38" s="8"/>
+      <c r="AR38" s="8"/>
+    </row>
+    <row r="39" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE39" s="2">
         <v>1.6489991696386701</v>
       </c>
       <c r="AF39" s="2">
         <v>30.746215085486899</v>
       </c>
-      <c r="AQ39" s="8">
-        <v>-0.90262106045926604</v>
-      </c>
-      <c r="AR39" s="8">
-        <v>-5.3020187984014902</v>
-      </c>
-    </row>
-    <row r="40" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ39" s="8"/>
+      <c r="AR39" s="8"/>
+    </row>
+    <row r="40" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE40" s="2">
         <v>1.65675894733109</v>
       </c>
       <c r="AF40" s="2">
         <v>28.410402230959502</v>
       </c>
-      <c r="AQ40" s="8">
-        <v>-0.87187385682739604</v>
-      </c>
-      <c r="AR40" s="8">
-        <v>-4.4364154365608899</v>
-      </c>
-    </row>
-    <row r="41" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ40" s="8"/>
+      <c r="AR40" s="8"/>
+    </row>
+    <row r="41" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE41" s="2">
         <v>1.7544516698174499</v>
       </c>
       <c r="AF41" s="2">
         <v>27.930269926014901</v>
       </c>
-      <c r="AQ41" s="8">
-        <v>-0.77000988716855001</v>
-      </c>
-      <c r="AR41" s="8">
-        <v>-4.0551566171849096</v>
-      </c>
-    </row>
-    <row r="42" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+    </row>
+    <row r="42" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE42" s="2">
         <v>1.8196302303724901</v>
       </c>
       <c r="AF42" s="2">
         <v>26.007077419416898</v>
       </c>
-      <c r="AQ42" s="8">
-        <v>-0.69278137820288799</v>
-      </c>
-      <c r="AR42" s="8">
-        <v>-3.5644466473455201</v>
-      </c>
-    </row>
-    <row r="43" spans="31:56" x14ac:dyDescent="0.25">
+      <c r="AQ42" s="8"/>
+      <c r="AR42" s="8"/>
+    </row>
+    <row r="43" spans="31:53" x14ac:dyDescent="0.25">
       <c r="AE43" s="2">
         <v>1.84298835891777</v>
       </c>
@@ -7898,123 +7663,101 @@
         <v>25.4837494388937</v>
       </c>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="P52" s="14" t="s">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="P52" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="14"/>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="14"/>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="14"/>
-      <c r="AE52" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="14"/>
-      <c r="AH52" s="14"/>
-      <c r="AI52" s="14"/>
-      <c r="AJ52" s="14"/>
-      <c r="AK52" s="14"/>
-      <c r="AL52" s="14"/>
-      <c r="AM52" s="14"/>
-      <c r="AN52" s="14"/>
-      <c r="AO52" s="14"/>
-      <c r="AQ52" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR52" s="14"/>
-      <c r="AS52" s="14"/>
-      <c r="AT52" s="14"/>
-      <c r="AU52" s="14"/>
-      <c r="AV52" s="14"/>
-      <c r="AW52" s="14"/>
-      <c r="AX52" s="14"/>
-      <c r="AY52" s="14"/>
-      <c r="AZ52" s="14"/>
-      <c r="BA52" s="14"/>
-      <c r="BB52" s="14"/>
-      <c r="BC52" s="14"/>
-      <c r="BD52" s="14"/>
-      <c r="BE52" s="14"/>
-      <c r="BF52" s="14"/>
-      <c r="BG52" s="14"/>
-    </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AE53" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
-      <c r="AK53" s="14"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="14"/>
-      <c r="AN53" s="14"/>
-      <c r="AO53" s="14"/>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="AE54" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="14"/>
-      <c r="AN54" s="14"/>
-      <c r="AO54" s="14"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AE52" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="16"/>
+      <c r="AM52" s="16"/>
+      <c r="AN52" s="16"/>
+      <c r="AO52" s="16"/>
+      <c r="AQ52" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR52" s="16"/>
+      <c r="AS52" s="16"/>
+      <c r="AT52" s="16"/>
+      <c r="AU52" s="16"/>
+      <c r="AV52" s="16"/>
+      <c r="AW52" s="16"/>
+      <c r="AX52" s="16"/>
+      <c r="AY52" s="16"/>
+      <c r="AZ52" s="16"/>
+      <c r="BA52" s="16"/>
+      <c r="BB52" s="16"/>
+      <c r="BC52" s="16"/>
+      <c r="BD52" s="16"/>
+    </row>
+    <row r="53" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AE53" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+      <c r="AK53" s="16"/>
+      <c r="AL53" s="16"/>
+      <c r="AM53" s="16"/>
+      <c r="AN53" s="16"/>
+      <c r="AO53" s="16"/>
+    </row>
+    <row r="54" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AE54" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+      <c r="AK54" s="16"/>
+      <c r="AL54" s="16"/>
+      <c r="AM54" s="16"/>
+      <c r="AN54" s="16"/>
+      <c r="AO54" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AQ52:BG52"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BF1:BG1"/>
-    <mergeCell ref="BC1:BD1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P52:AC52"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="25">
     <mergeCell ref="AE53:AO53"/>
     <mergeCell ref="AE52:AO52"/>
     <mergeCell ref="AE54:AO54"/>
@@ -8022,6 +7765,24 @@
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AK1:AL1"/>
     <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P52:AC52"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AQ52:BD52"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="BC1:BD1"/>
+    <mergeCell ref="AZ1:BA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8033,8 +7794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A88C06-9205-4EF5-AC1B-94A0B27B9154}">
   <dimension ref="A1:AR51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8062,66 +7823,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="14"/>
-      <c r="V1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="14"/>
-      <c r="Y1" s="14" t="s">
+      <c r="A1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="16"/>
+      <c r="S1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="T1" s="16"/>
+      <c r="V1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z1" s="16"/>
+      <c r="AB1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="16"/>
+      <c r="AE1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF1" s="16"/>
+      <c r="AH1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI1" s="16"/>
+      <c r="AK1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL1" s="16"/>
+      <c r="AN1" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="14"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AO1" s="16"/>
+      <c r="AQ1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="14"/>
-      <c r="AE1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF1" s="14"/>
-      <c r="AH1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI1" s="14"/>
-      <c r="AK1" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL1" s="14"/>
-      <c r="AN1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO1" s="14"/>
-      <c r="AQ1" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR1" s="14"/>
+      <c r="AR1" s="16"/>
     </row>
     <row r="3" spans="1:44" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -8173,46 +7934,46 @@
         <v>58</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -9192,90 +8953,89 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="M40" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
+      <c r="A40" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="M40" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
     </row>
     <row r="49" spans="25:44" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y49" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AH49" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="14"/>
-      <c r="AN49" s="14"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
+      <c r="Y49" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AH49" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="16"/>
+      <c r="AN49" s="16"/>
+      <c r="AO49" s="16"/>
+      <c r="AP49" s="16"/>
+      <c r="AQ49" s="16"/>
+      <c r="AR49" s="16"/>
     </row>
     <row r="50" spans="25:44" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y50" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z50" s="14"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14"/>
-      <c r="AD50" s="14"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
+      <c r="Y50" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
     </row>
     <row r="51" spans="25:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Y51" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
+      <c r="Y51" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="Y50:AF50"/>
-    <mergeCell ref="Y51:AF51"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AE1:AF1"/>
-    <mergeCell ref="Y49:AF49"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AH49:AR49"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="V1:W1"/>
@@ -9286,11 +9046,12 @@
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A40:K40"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AH49:AR49"/>
+    <mergeCell ref="Y50:AF50"/>
+    <mergeCell ref="Y51:AF51"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="Y49:AF49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9330,22 +9091,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="61.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9629,19 +9390,19 @@
       <c r="A38" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="A41" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9673,17 +9434,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9863,10 +9624,10 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="15"/>
+      <c r="A38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="17"/>
       <c r="H38" s="10"/>
     </row>
   </sheetData>
@@ -9905,67 +9666,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q1" s="14"/>
+      <c r="A1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -10425,25 +10186,25 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
+      <c r="A38" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
     </row>
     <row r="52" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10484,18 +10245,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11075,13 +10836,13 @@
     </row>
     <row r="59" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11109,10 +10870,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -11151,10 +10912,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11192,34 +10953,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="H1" s="16"/>
+      <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="P1" s="14" t="s">
+      <c r="N1" s="16"/>
+      <c r="P1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="S1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="S1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -11664,28 +11425,28 @@
       <c r="A34" s="7"/>
     </row>
     <row r="38" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11750,10 +11511,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -11808,10 +11569,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
